--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
   <si>
     <t>第３週</t>
   </si>
@@ -559,6 +559,127 @@
   </si>
   <si>
     <t>おなじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構え</t>
+    <rPh sb="0" eb="1">
+      <t>ガマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がまえ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>違い</t>
+    <rPh sb="0" eb="1">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちがい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しごと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>立ち居</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たちい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意外</t>
+    <rPh sb="0" eb="2">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いがい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポータル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门，入口</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援</t>
+    <rPh sb="0" eb="2">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しえん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービス</t>
+  </si>
+  <si>
+    <r>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务，招待</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問合せ</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>といあわせ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -566,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +708,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -982,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1891,8 +2020,12 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1902,8 +2035,12 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1913,8 +2050,12 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1924,8 +2065,12 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1935,8 +2080,12 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1946,9 +2095,13 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1957,8 +2110,12 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1968,9 +2125,13 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1979,8 +2140,12 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="268">
   <si>
     <t>第３週</t>
   </si>
@@ -240,32 +240,11 @@
     <t>备注</t>
   </si>
   <si>
-    <t>外出</t>
-    <rPh sb="0" eb="2">
-      <t>ガイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>がいしゅつ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一般</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>いっぱん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>気配り</t>
-    <rPh sb="0" eb="2">
-      <t>キクバ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -295,28 +274,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更</t>
-    <rPh sb="0" eb="1">
-      <t>サラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さら</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控え</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>振る</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -339,21 +297,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>忘れ</t>
-    <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>わすれ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>切れ</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -372,13 +316,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>触る</t>
-    <rPh sb="0" eb="1">
-      <t>サワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さわる</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -394,16 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>撒き散らす</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>まきちらす</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -448,25 +375,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>くちやかましい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>噂話</t>
-    <rPh sb="0" eb="2">
-      <t>ウワサバナシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>うわさばなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>思い</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -496,13 +405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>直し</t>
-    <rPh sb="0" eb="1">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>なおし</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -529,13 +431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>譲り</t>
-    <rPh sb="0" eb="1">
-      <t>ユズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゆずり</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -551,32 +446,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同じ</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おなじ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>構え</t>
-    <rPh sb="0" eb="1">
-      <t>ガマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>がまえ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>違い</t>
-    <rPh sb="0" eb="1">
-      <t>チガ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -631,7 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -662,7 +536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,16 +556,438 @@
     <t>といあわせ</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>支援</t>
+  </si>
+  <si>
+    <t>打听，询问</t>
+  </si>
+  <si>
+    <t>意外</t>
+  </si>
+  <si>
+    <t>起居</t>
+  </si>
+  <si>
+    <t>違い</t>
+  </si>
+  <si>
+    <t>差异，差别</t>
+  </si>
+  <si>
+    <t>構え</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 框。;准备</t>
+  </si>
+  <si>
+    <t>同じ</t>
+  </si>
+  <si>
+    <t>相同，同等</t>
+  </si>
+  <si>
+    <t>颜面</t>
+  </si>
+  <si>
+    <t>譲り</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 让与，遗留</t>
+  </si>
+  <si>
+    <t>占领</t>
+  </si>
+  <si>
+    <t>牙刷</t>
+  </si>
+  <si>
+    <t>直し</t>
+  </si>
+  <si>
+    <t>修缮;修正</t>
+  </si>
+  <si>
+    <t>化妆</t>
+  </si>
+  <si>
+    <t>严禁</t>
+  </si>
+  <si>
+    <t>思い</t>
+  </si>
+  <si>
+    <t>心思，思想</t>
+  </si>
+  <si>
+    <t>上司</t>
+  </si>
+  <si>
+    <t>更</t>
+  </si>
+  <si>
+    <t>控え</t>
+  </si>
+  <si>
+    <t>振る</t>
+  </si>
+  <si>
+    <t>敏感</t>
+  </si>
+  <si>
+    <t>忘れ</t>
+  </si>
+  <si>
+    <t>切れ</t>
+  </si>
+  <si>
+    <t>洗脸盆</t>
+  </si>
+  <si>
+    <t>擦</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>干燥</t>
+  </si>
+  <si>
+    <t>くちやかましい</t>
+  </si>
+  <si>
+    <t>唠叨，挑剔</t>
+  </si>
+  <si>
+    <t>噂話</t>
+  </si>
+  <si>
+    <t>撒き散らす</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>挥洒，散布</t>
+    </r>
+  </si>
+  <si>
+    <t>触る</t>
+  </si>
+  <si>
+    <t>触摸；接触</t>
+  </si>
+  <si>
+    <t>补充</t>
+  </si>
+  <si>
+    <t>布匹，切</t>
+  </si>
+  <si>
+    <t>忘，忘记</t>
+  </si>
+  <si>
+    <t>挥，摇，摆</t>
+  </si>
+  <si>
+    <t>候补，预备，副本，存根</t>
+  </si>
+  <si>
+    <t>新的</t>
+  </si>
+  <si>
+    <t>新来</t>
+  </si>
+  <si>
+    <t>気配り</t>
+  </si>
+  <si>
+    <t>照料，照顾</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>もくてき</t>
+  </si>
+  <si>
+    <t>強く</t>
+  </si>
+  <si>
+    <t>つよく</t>
+  </si>
+  <si>
+    <t>給料</t>
+  </si>
+  <si>
+    <t>きゅうりょう</t>
+  </si>
+  <si>
+    <t>重要性</t>
+  </si>
+  <si>
+    <t>じゅうようせい</t>
+  </si>
+  <si>
+    <t>認識</t>
+  </si>
+  <si>
+    <t>にんしき</t>
+  </si>
+  <si>
+    <t>責任感</t>
+  </si>
+  <si>
+    <t>せきにんかん</t>
+  </si>
+  <si>
+    <t>対象</t>
+  </si>
+  <si>
+    <t>たいしょう</t>
+  </si>
+  <si>
+    <t>役割</t>
+  </si>
+  <si>
+    <t>やくわり</t>
+  </si>
+  <si>
+    <t>発展</t>
+  </si>
+  <si>
+    <t>はってん</t>
+  </si>
+  <si>
+    <t>相手</t>
+  </si>
+  <si>
+    <t>あいて</t>
+  </si>
+  <si>
+    <t>そとで</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>ひょうか</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>しゅつりょく</t>
+  </si>
+  <si>
+    <t>宛名</t>
+  </si>
+  <si>
+    <t>あてな</t>
+  </si>
+  <si>
+    <t>接待</t>
+  </si>
+  <si>
+    <t>せったい</t>
+  </si>
+  <si>
+    <t>恐らく</t>
+  </si>
+  <si>
+    <t>おそらく</t>
+  </si>
+  <si>
+    <t>対応</t>
+  </si>
+  <si>
+    <t>たいおう</t>
+  </si>
+  <si>
+    <t>伝え</t>
+  </si>
+  <si>
+    <t>つたえ</t>
+  </si>
+  <si>
+    <t>同士</t>
+  </si>
+  <si>
+    <t>どうし</t>
+  </si>
+  <si>
+    <t>親子</t>
+  </si>
+  <si>
+    <t>おやこ</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>ぶしょ</t>
+  </si>
+  <si>
+    <t>早く</t>
+  </si>
+  <si>
+    <t>はやく</t>
+  </si>
+  <si>
+    <t>異動</t>
+  </si>
+  <si>
+    <t>いどう</t>
+  </si>
+  <si>
+    <t>参加</t>
+  </si>
+  <si>
+    <t>さんか</t>
+  </si>
+  <si>
+    <t>馳走</t>
+  </si>
+  <si>
+    <t>ちそう</t>
+  </si>
+  <si>
+    <t>混雑</t>
+  </si>
+  <si>
+    <t>こんざつ</t>
+  </si>
+  <si>
+    <t>考え</t>
+  </si>
+  <si>
+    <t>かんがえ</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>のうぎょう</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>しゅべつ</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>しょり</t>
+  </si>
+  <si>
+    <t>处理</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>思想，念头</t>
+  </si>
+  <si>
+    <t>混杂</t>
+  </si>
+  <si>
+    <t>奔走，款待，宴请</t>
+  </si>
+  <si>
+    <t>调动</t>
+  </si>
+  <si>
+    <t>早的</t>
+  </si>
+  <si>
+    <t>职守，部署，安排</t>
+  </si>
+  <si>
+    <t>亲子</t>
+  </si>
+  <si>
+    <t>伙伴</t>
+  </si>
+  <si>
+    <t>传言，通知</t>
+  </si>
+  <si>
+    <t>对等，相对</t>
+  </si>
+  <si>
+    <t>恐怕，大概</t>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>伙伴，共事者</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>远的</t>
+  </si>
+  <si>
+    <t>强烈的</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>认识</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>分配的任务</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -699,13 +995,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -713,10 +1009,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -810,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,9 +1143,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1111,25 +1427,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1586,12 +1902,14 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1601,12 +1919,14 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1616,12 +1936,14 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1631,12 +1953,14 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1646,12 +1970,14 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1661,12 +1987,14 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1676,12 +2004,14 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1691,12 +2021,14 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1706,12 +2038,14 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1721,12 +2055,14 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1736,12 +2072,14 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1751,12 +2089,14 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1766,12 +2106,14 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1781,12 +2123,14 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1796,12 +2140,14 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1811,12 +2157,14 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1826,12 +2174,14 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1841,12 +2191,14 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1856,12 +2208,14 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1871,12 +2225,14 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1886,12 +2242,14 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1901,12 +2259,14 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1916,12 +2276,14 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1931,12 +2293,14 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1946,12 +2310,14 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1961,12 +2327,14 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1976,12 +2344,14 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1991,12 +2361,14 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2006,12 +2378,14 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2021,12 +2395,14 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2036,12 +2412,14 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2051,12 +2429,14 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2066,12 +2446,14 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2081,12 +2463,14 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2096,11 +2480,11 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2111,12 +2495,14 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2126,11 +2512,11 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2141,12 +2527,14 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2155,9 +2543,15 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2166,9 +2560,15 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2177,9 +2577,15 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2188,9 +2594,15 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2199,9 +2611,15 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2210,9 +2628,15 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2221,9 +2645,15 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2232,9 +2662,15 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2243,9 +2679,15 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2254,9 +2696,15 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2265,9 +2713,15 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2276,9 +2730,15 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2287,9 +2747,15 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2298,9 +2764,15 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2309,9 +2781,15 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2320,9 +2798,15 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2331,9 +2815,15 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2342,9 +2832,15 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2353,9 +2849,15 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2364,9 +2866,15 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2375,9 +2883,15 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2386,9 +2900,15 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2397,9 +2917,15 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2408,9 +2934,15 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2419,9 +2951,15 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2430,9 +2968,15 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2441,9 +2985,15 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2452,9 +3002,15 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2463,9 +3019,15 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2474,9 +3036,15 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2485,9 +3053,15 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3664,6 +4238,13 @@
     <row r="204" spans="1:9">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="336">
   <si>
     <t>第３週</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>第5週</t>
-  </si>
-  <si>
-    <t>ほうれんそ</t>
   </si>
   <si>
     <t>新闻稿</t>
@@ -505,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -536,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -784,9 +781,6 @@
     <t>あいて</t>
   </si>
   <si>
-    <t>そとで</t>
-  </si>
-  <si>
     <t>評価</t>
   </si>
   <si>
@@ -977,17 +971,395 @@
   </si>
   <si>
     <t>分配的任务</t>
+  </si>
+  <si>
+    <t>ほうれんそう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連絡</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>れんらく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相談</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうだん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <rPh sb="0" eb="2">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほうほう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ないよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手段</t>
+    <rPh sb="0" eb="2">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅだん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイミング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>时机；适时的</t>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口頭</t>
+    <rPh sb="0" eb="2">
+      <t>コウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡単</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんたん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>けっか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対話</t>
+    <rPh sb="0" eb="2">
+      <t>タイワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たいわ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひつよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緊急性</t>
+    <rPh sb="0" eb="3">
+      <t>キンキュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きんきゅうせい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りせき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時</t>
+    <rPh sb="0" eb="2">
+      <t>イットキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いっとき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確実</t>
+    <rPh sb="0" eb="2">
+      <t>カクジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かくじつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もどる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低い</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひくい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残す</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のこす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>離席</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がいしゅつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数名</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふくすうめい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文書</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶんしょ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>従事</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じゅうじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じっさい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都合</t>
+    <rPh sb="0" eb="2">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つごう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>迅速</t>
+    <rPh sb="0" eb="2">
+      <t>ジンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じんそく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひっす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こきゃく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>影響</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>えいきょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遅れ</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おくれ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助</t>
+    <rPh sb="0" eb="1">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>態度</t>
+    <rPh sb="0" eb="2">
+      <t>タイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たいど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>知る</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいひん</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -995,13 +1367,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1009,7 +1381,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1031,6 +1403,13 @@
       <color rgb="FF333333"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1124,13 +1503,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,11 +1524,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1427,63 +1807,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1494,13 +1874,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1511,13 +1891,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1528,13 +1908,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1545,13 +1925,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1562,13 +1942,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1579,13 +1959,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1596,13 +1976,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1613,13 +1993,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1630,13 +2010,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1647,13 +2027,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1664,13 +2044,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1681,13 +2061,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1698,13 +2078,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1715,13 +2095,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1732,13 +2112,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1749,13 +2129,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1766,13 +2146,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1783,13 +2163,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1800,13 +2180,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1817,13 +2197,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1834,13 +2214,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1851,13 +2231,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1868,13 +2248,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1885,13 +2265,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1902,13 +2282,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1919,13 +2299,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1936,13 +2316,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1953,13 +2333,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1970,13 +2350,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1987,13 +2367,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2004,13 +2384,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2019,15 +2399,15 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>175</v>
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2038,13 +2418,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2055,13 +2435,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2072,13 +2452,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2089,13 +2469,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2106,13 +2486,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2123,13 +2503,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2138,15 +2518,15 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2157,13 +2537,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2174,13 +2554,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2191,13 +2571,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2208,13 +2588,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2225,13 +2605,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2242,13 +2622,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2259,13 +2639,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2276,13 +2656,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2291,15 +2671,15 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2310,13 +2690,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2327,13 +2707,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2344,13 +2724,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2361,13 +2741,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2378,13 +2758,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2395,13 +2775,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2412,13 +2792,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2429,13 +2809,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2446,13 +2826,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2463,13 +2843,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2480,11 +2860,11 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2495,13 +2875,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2512,11 +2892,11 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2527,13 +2907,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2544,13 +2924,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2561,13 +2941,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2578,13 +2958,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2595,13 +2975,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2612,13 +2992,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2629,13 +3009,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2646,13 +3026,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2663,13 +3043,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2680,13 +3060,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2697,13 +3077,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2714,13 +3094,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2731,13 +3111,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2748,13 +3128,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2765,13 +3145,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2782,13 +3162,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2799,13 +3179,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2816,13 +3196,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2833,13 +3213,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2850,13 +3230,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2867,13 +3247,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2884,13 +3264,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2901,13 +3281,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2918,13 +3298,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2935,13 +3315,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2952,13 +3332,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2969,13 +3349,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2986,13 +3366,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3003,13 +3383,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3020,13 +3400,13 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3037,13 +3417,13 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3054,13 +3434,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3070,8 +3450,12 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3081,8 +3465,12 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3092,8 +3480,12 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3103,8 +3495,12 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3114,8 +3510,12 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3124,10 +3524,14 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:9" ht="16.5">
+      <c r="A103" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="C103" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3136,9 +3540,13 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3147,8 +3555,12 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3158,8 +3570,12 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3169,8 +3585,12 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3180,8 +3600,12 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3191,8 +3615,12 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3202,8 +3630,12 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3213,8 +3645,12 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3224,8 +3660,12 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3235,8 +3675,12 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3246,8 +3690,12 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3257,8 +3705,12 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3268,8 +3720,12 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3279,8 +3735,12 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3290,8 +3750,12 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3301,8 +3765,12 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3312,8 +3780,12 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3323,8 +3795,12 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3334,8 +3810,12 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3345,8 +3825,12 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3356,8 +3840,12 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3367,8 +3855,12 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3378,8 +3870,12 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3389,8 +3885,12 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3400,8 +3900,12 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3411,8 +3915,12 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3422,8 +3930,12 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3433,8 +3945,12 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="398">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -988,13 +988,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>相談</t>
-    <rPh sb="0" eb="2">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>そうだん</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1021,13 +1014,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>手段</t>
-    <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>しゅだん</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,13 +1030,6 @@
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>口頭</t>
-    <rPh sb="0" eb="2">
-      <t>コウトウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1114,13 +1093,6 @@
   </si>
   <si>
     <t>りせき</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一時</t>
-    <rPh sb="0" eb="2">
-      <t>イットキ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1186,21 +1158,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>複数名</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ふくすうめい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文書</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1252,13 +1210,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>かき</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1296,13 +1247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遅れ</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おくれ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1350,16 +1294,226 @@
     <t>せいひん</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>联络</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>态度</t>
+  </si>
+  <si>
+    <t>相談</t>
+  </si>
+  <si>
+    <t>商量；协商</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>手段</t>
+  </si>
+  <si>
+    <t>手段，办法</t>
+  </si>
+  <si>
+    <t>口頭</t>
+  </si>
+  <si>
+    <t>口头</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>必要</t>
+  </si>
+  <si>
+    <t>紧急性</t>
+  </si>
+  <si>
+    <t>离开座位</t>
+  </si>
+  <si>
+    <t>一時</t>
+  </si>
+  <si>
+    <t>一时，短时间，暂时</t>
+  </si>
+  <si>
+    <t>确实</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>低的</t>
+  </si>
+  <si>
+    <t>残留</t>
+  </si>
+  <si>
+    <t>複数名</t>
+  </si>
+  <si>
+    <t>复数</t>
+  </si>
+  <si>
+    <t>文書</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>从事</t>
+  </si>
+  <si>
+    <t>实际</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>快速</t>
+  </si>
+  <si>
+    <t>影响</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>知道</t>
+  </si>
+  <si>
+    <t>遅れ</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>顾客</t>
+  </si>
+  <si>
+    <t>必须</t>
+  </si>
+  <si>
+    <t>下記</t>
+  </si>
+  <si>
+    <t>下列，下述</t>
+  </si>
+  <si>
+    <t>味</t>
+  </si>
+  <si>
+    <t>あじ</t>
+  </si>
+  <si>
+    <t>味道</t>
+  </si>
+  <si>
+    <t>運転</t>
+  </si>
+  <si>
+    <t>うんてん</t>
+  </si>
+  <si>
+    <t>驾驶，开车</t>
+  </si>
+  <si>
+    <t>オーバー</t>
+  </si>
+  <si>
+    <t>外套，大衣</t>
+  </si>
+  <si>
+    <t>怒る</t>
+  </si>
+  <si>
+    <t>おこる</t>
+  </si>
+  <si>
+    <t>生气</t>
+  </si>
+  <si>
+    <t>会議室</t>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+  </si>
+  <si>
+    <t>会议室</t>
+  </si>
+  <si>
+    <t>鏡</t>
+  </si>
+  <si>
+    <t>かがみ</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>大切</t>
+  </si>
+  <si>
+    <t>たいせつ</t>
+  </si>
+  <si>
+    <t>要紧，重要</t>
+  </si>
+  <si>
+    <t>遅く</t>
+  </si>
+  <si>
+    <t>おそく</t>
+  </si>
+  <si>
+    <t>很晚</t>
+  </si>
+  <si>
+    <t>効率</t>
+  </si>
+  <si>
+    <t>こうりつ</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>停滞</t>
+  </si>
+  <si>
+    <t>ていたい</t>
+  </si>
+  <si>
+    <t>例外</t>
+  </si>
+  <si>
+    <t>れいがい</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1367,13 +1521,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1381,7 +1535,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1512,6 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,10 +1679,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1807,53 +1961,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -2399,7 +2553,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
@@ -2518,7 +2672,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
@@ -2671,7 +2825,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -3114,7 +3268,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>130</v>
@@ -3456,7 +3610,9 @@
       <c r="B98" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3466,12 +3622,14 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3481,12 +3639,14 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3496,12 +3656,14 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3511,12 +3673,14 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3526,11 +3690,11 @@
     </row>
     <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="10" t="s">
-        <v>278</v>
+      <c r="C103" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3541,11 +3705,11 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3556,12 +3720,14 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C105" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3571,12 +3737,14 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C106" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3586,12 +3754,14 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3601,12 +3771,14 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3616,12 +3788,14 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3631,12 +3805,14 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3646,12 +3822,14 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3661,12 +3839,14 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -3676,12 +3856,14 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3691,12 +3873,14 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3706,12 +3890,14 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C115" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3721,12 +3907,14 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -3736,12 +3924,14 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3751,12 +3941,14 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3766,12 +3958,14 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -3781,12 +3975,14 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C120" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -3796,12 +3992,14 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -3811,12 +4009,14 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -3826,12 +4026,14 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -3841,12 +4043,14 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -3856,12 +4060,14 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C125" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -3871,12 +4077,14 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C126" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -3886,12 +4094,14 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -3901,12 +4111,14 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -3916,12 +4128,14 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -3931,12 +4145,14 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C130" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -3946,12 +4162,14 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C131" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -3960,9 +4178,15 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -3971,9 +4195,15 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -3982,9 +4212,13 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -3993,9 +4227,15 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -4004,9 +4244,15 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -4015,9 +4261,15 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4026,9 +4278,15 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -4037,9 +4295,15 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4048,9 +4312,15 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4059,9 +4329,15 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -4070,9 +4346,15 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="457">
   <si>
     <t>第３週</t>
   </si>
@@ -1503,6 +1504,183 @@
   </si>
   <si>
     <t>れいがい</t>
+  </si>
+  <si>
+    <t>状況</t>
+  </si>
+  <si>
+    <t>じょうきょう</t>
+  </si>
+  <si>
+    <t>慎重</t>
+  </si>
+  <si>
+    <t>しんちょう</t>
+  </si>
+  <si>
+    <t>御行</t>
+  </si>
+  <si>
+    <t>おんこう</t>
+  </si>
+  <si>
+    <t>贵行</t>
+  </si>
+  <si>
+    <t>状况</t>
+  </si>
+  <si>
+    <t>範囲</t>
+  </si>
+  <si>
+    <t>はんい</t>
+  </si>
+  <si>
+    <t>決め</t>
+  </si>
+  <si>
+    <t>きめ</t>
+  </si>
+  <si>
+    <t>规矩，规约</t>
+  </si>
+  <si>
+    <t>解禁</t>
+  </si>
+  <si>
+    <t>かいきん</t>
+  </si>
+  <si>
+    <t>解禁。解除禁令</t>
+  </si>
+  <si>
+    <t>見極め</t>
+  </si>
+  <si>
+    <t>みきわめ</t>
+  </si>
+  <si>
+    <t>看清，看透</t>
+  </si>
+  <si>
+    <t>逆</t>
+  </si>
+  <si>
+    <t>ぎゃく</t>
+  </si>
+  <si>
+    <t>逆，倒，反，颠倒</t>
+  </si>
+  <si>
+    <t>複雑</t>
+  </si>
+  <si>
+    <t>ふくざつ</t>
+  </si>
+  <si>
+    <t>复杂</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>持ち</t>
+  </si>
+  <si>
+    <t>もち</t>
+  </si>
+  <si>
+    <t>持久性、负担</t>
+  </si>
+  <si>
+    <t>勝手</t>
+  </si>
+  <si>
+    <t>かって</t>
+  </si>
+  <si>
+    <t>厨房。;情况。;生活。生计、任意；随便</t>
+  </si>
+  <si>
+    <t>結論</t>
+  </si>
+  <si>
+    <t>けつろん</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>現状</t>
+  </si>
+  <si>
+    <t>げんじょう</t>
+  </si>
+  <si>
+    <t>现状</t>
+  </si>
+  <si>
+    <t>簡潔</t>
+  </si>
+  <si>
+    <t>かんけつ</t>
+  </si>
+  <si>
+    <t>简洁</t>
+  </si>
+  <si>
+    <t>熟考</t>
+  </si>
+  <si>
+    <t>じゅっこう</t>
+  </si>
+  <si>
+    <t>熟虑。仔细考虑</t>
+  </si>
+  <si>
+    <t>大丈夫</t>
+  </si>
+  <si>
+    <t>だいじょうぶ</t>
+  </si>
+  <si>
+    <t>安全，安心、 一定，没错儿</t>
+  </si>
+  <si>
+    <t>示す</t>
+  </si>
+  <si>
+    <t>しめす</t>
+  </si>
+  <si>
+    <t>出示，表示</t>
+  </si>
+  <si>
+    <t>迷惑</t>
+  </si>
+  <si>
+    <t>めいわく</t>
+  </si>
+  <si>
+    <t>麻烦，烦扰</t>
+  </si>
+  <si>
+    <t>締切</t>
+  </si>
+  <si>
+    <t>しめきり</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 截止。期限</t>
+  </si>
+  <si>
+    <t>守れ</t>
+  </si>
+  <si>
+    <t>まもれ</t>
+  </si>
+  <si>
+    <t>守卫，保卫，防守</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1667,6 +1845,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,34 +2159,34 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -4363,9 +4542,15 @@
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4374,9 +4559,15 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4385,9 +4576,15 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4396,9 +4593,15 @@
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4407,9 +4610,15 @@
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4418,9 +4627,15 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4429,9 +4644,15 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>416</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4440,9 +4661,15 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -4451,9 +4678,15 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -4462,9 +4695,15 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -4473,9 +4712,15 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -4484,9 +4729,15 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -4495,9 +4746,15 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -4506,9 +4763,15 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -4517,9 +4780,15 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -4528,9 +4797,15 @@
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -4539,9 +4814,15 @@
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -4550,9 +4831,15 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -4561,9 +4848,15 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -4572,9 +4865,15 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="492">
   <si>
     <t>第３週</t>
   </si>
@@ -1681,6 +1680,111 @@
   </si>
   <si>
     <t>守卫，保卫，防守</t>
+  </si>
+  <si>
+    <t>講義</t>
+  </si>
+  <si>
+    <t>こうぎ</t>
+  </si>
+  <si>
+    <t>讲义</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>ごうけい</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>聞きかじり</t>
+  </si>
+  <si>
+    <t>ききかじり</t>
+  </si>
+  <si>
+    <t>道听途说，一知半解</t>
+  </si>
+  <si>
+    <t>一部</t>
+  </si>
+  <si>
+    <t>いちぶ</t>
+  </si>
+  <si>
+    <t>一本，一册，一部</t>
+  </si>
+  <si>
+    <t>覚え</t>
+  </si>
+  <si>
+    <t>おぼえ</t>
+  </si>
+  <si>
+    <t>记事。;信任，宠信、体验，经验。;记忆</t>
+  </si>
+  <si>
+    <t>以前</t>
+  </si>
+  <si>
+    <t>いぜん</t>
+  </si>
+  <si>
+    <t>从前。;过去</t>
+  </si>
+  <si>
+    <t>足りない</t>
+  </si>
+  <si>
+    <t>たりない</t>
+  </si>
+  <si>
+    <t>不足，不够</t>
+  </si>
+  <si>
+    <t>記憶</t>
+  </si>
+  <si>
+    <t>きおく</t>
+  </si>
+  <si>
+    <t>记忆，记忆力，记性</t>
+  </si>
+  <si>
+    <t>亏，缺。缺口</t>
+  </si>
+  <si>
+    <t>かけ</t>
+  </si>
+  <si>
+    <t>欠け</t>
+  </si>
+  <si>
+    <t>同日</t>
+  </si>
+  <si>
+    <t>どうじつ</t>
+  </si>
+  <si>
+    <t>同日，同一天，该日，当天</t>
+  </si>
+  <si>
+    <t>身近</t>
+  </si>
+  <si>
+    <t>みぢか</t>
+  </si>
+  <si>
+    <t>切身；身边</t>
+  </si>
+  <si>
+    <t>合理</t>
+  </si>
+  <si>
+    <t>ごうり</t>
   </si>
 </sst>
 </file>
@@ -2140,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4882,9 +4986,15 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -4893,9 +5003,15 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -4904,9 +5020,15 @@
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -4915,9 +5037,15 @@
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -4926,9 +5054,15 @@
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -4937,9 +5071,15 @@
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -4948,9 +5088,15 @@
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -4959,9 +5105,15 @@
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -4970,9 +5122,15 @@
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -4981,9 +5139,15 @@
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -4992,9 +5156,15 @@
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5003,9 +5173,15 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="553">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1786,16 +1786,541 @@
   <si>
     <t>ごうり</t>
   </si>
+  <si>
+    <t>連番</t>
+  </si>
+  <si>
+    <t>れんばん</t>
+  </si>
+  <si>
+    <t>连号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>ばんごう</t>
+  </si>
+  <si>
+    <r>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗記</t>
+    <rPh sb="0" eb="2">
+      <t>アンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あんき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>熟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>住；背，背</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诵</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学籍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がくせき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>籍</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めいしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅつりょく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>就職</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅうしょく</t>
+  </si>
+  <si>
+    <r>
+      <t>就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>連携</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>れんけい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合,合作</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りえき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掛</t>
+    <rPh sb="0" eb="1">
+      <t>カケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赊账、 正，正在</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通り</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とおり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来往；通行。;同样；原样</t>
+  </si>
+  <si>
+    <t>採点</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さいてん</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分数，判分</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>限</t>
+    <rPh sb="0" eb="1">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期限</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メリット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>优点，好处</t>
+  </si>
+  <si>
+    <t>テメリット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>缺点，过失</t>
+  </si>
+  <si>
+    <t>一括</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いっかつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一包在内，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>括起来，一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>揽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふくしゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>习</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料</t>
+    <rPh sb="0" eb="2">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しりょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成績</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいせき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绩</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オフセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>偏移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いっかつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1803,13 +2328,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1817,7 +2342,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1843,6 +2368,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF363636"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1939,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1962,9 +2507,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2244,25 +2792,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2302,14 +2850,20 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2319,14 +2873,18 @@
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2336,9 +2894,13 @@
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="6" t="s">
+        <v>537</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2353,9 +2915,15 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2370,9 +2938,15 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2387,9 +2961,15 @@
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>546</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2404,9 +2984,13 @@
       <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2836,7 +3420,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
@@ -2955,7 +3539,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
@@ -3108,7 +3692,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -4747,7 +5331,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="14.25">
       <c r="A149" s="1" t="s">
         <v>414</v>
       </c>
@@ -5189,10 +5773,16 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+    <row r="175" spans="1:9" ht="14.25">
+      <c r="A175" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>494</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -5200,10 +5790,16 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+    <row r="176" spans="1:9" ht="14.25">
+      <c r="A176" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -5212,9 +5808,15 @@
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -5223,9 +5825,15 @@
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -5234,9 +5842,15 @@
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -5245,9 +5859,15 @@
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -5256,9 +5876,15 @@
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>512</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -5266,10 +5892,16 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+    <row r="182" spans="1:9" ht="14.25">
+      <c r="A182" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -5277,10 +5909,16 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+    <row r="183" spans="1:9" ht="14.25">
+      <c r="A183" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>518</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -5289,9 +5927,15 @@
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -5299,10 +5943,16 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+    <row r="185" spans="1:9" ht="16.5">
+      <c r="A185" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>524</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -5310,10 +5960,16 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+    <row r="186" spans="1:9" ht="16.5">
+      <c r="A186" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -5321,10 +5977,16 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+    <row r="187" spans="1:9" ht="14.25">
+      <c r="A187" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>530</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5333,9 +5995,15 @@
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -5344,9 +6012,15 @@
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="605">
   <si>
     <t>第３週</t>
   </si>
@@ -2309,6 +2309,411 @@
   </si>
   <si>
     <t>いっかつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今後</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今后，以后，将来</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発生</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はっせい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>生む</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うむ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分娩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じょうきょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情况，状况</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>迷う</t>
+    <rPh sb="0" eb="1">
+      <t>マヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>迷，迷失；迷惑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意見</t>
+    <rPh sb="0" eb="2">
+      <t>イケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いけん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意见，见解</t>
+  </si>
+  <si>
+    <t>結論</t>
+    <rPh sb="0" eb="2">
+      <t>ケツロン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>けつろん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结论</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>起こり</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おこり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>起源，来源</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>名簿，名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；表，目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>採用</t>
+    <rPh sb="0" eb="2">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さいよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用，采用</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がいとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>符合，相当</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>另外</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>添付</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんぷ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>添上，付上</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゼミ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会、研究会</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>志、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">示 </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大学校园</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配当</t>
+    <rPh sb="0" eb="2">
+      <t>ハイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はいとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>分配，分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红，利润</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集中</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅうちゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受講</t>
+    <rPh sb="0" eb="2">
+      <t>ジュコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じゅこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话，受训</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2407,7 +2812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2422,19 +2827,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2474,8 +2866,164 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2484,32 +3032,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2792,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2810,18 +3376,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
@@ -2834,3362 +3400,3466 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>531</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>534</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>536</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>538</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>541</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>544</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>550</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="11" t="s">
+        <v>577</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="11" t="s">
+        <v>585</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="11" t="s">
+        <v>590</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="11" t="s">
+        <v>592</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:9" ht="16.5">
+      <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="11" t="s">
+        <v>594</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="D28" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="14.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="6"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="6"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>182</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>184</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>192</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="6"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>196</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="11" t="s">
         <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="11" t="s">
         <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="11" t="s">
         <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="11" t="s">
         <v>216</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="11" t="s">
         <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="11" t="s">
         <v>220</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="6"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="11" t="s">
         <v>222</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="6"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="11" t="s">
         <v>228</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="11" t="s">
         <v>230</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="11" t="s">
         <v>232</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="11" t="s">
         <v>234</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="11" t="s">
         <v>236</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="11" t="s">
         <v>238</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="11" t="s">
         <v>267</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="11" t="s">
         <v>331</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="6"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="11" t="s">
         <v>270</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="11" t="s">
         <v>272</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="6"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="11" t="s">
         <v>335</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="6"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="16.5">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="11" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="11" t="s">
         <v>277</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="11" t="s">
         <v>337</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="11" t="s">
         <v>282</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="11" t="s">
         <v>284</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="6"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="11" t="s">
         <v>345</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="6"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="11" t="s">
         <v>294</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="11"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="6"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="11" t="s">
         <v>351</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="6"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="11" t="s">
         <v>353</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="11" t="s">
         <v>304</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="6"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="11" t="s">
         <v>306</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="11" t="s">
         <v>308</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="11"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="6"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="11" t="s">
         <v>310</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="11"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="11" t="s">
         <v>366</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="6"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="11" t="s">
         <v>313</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="11" t="s">
         <v>315</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="6"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="11" t="s">
         <v>317</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="6"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="11" t="s">
         <v>362</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="6"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="11" t="s">
         <v>320</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="6"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="11" t="s">
         <v>322</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="6"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="6"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="6"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="11" t="s">
         <v>368</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="11" t="s">
         <v>371</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="11"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="11" t="s">
         <v>374</v>
       </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="11" t="s">
         <v>376</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="11" t="s">
         <v>379</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="11" t="s">
         <v>382</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="11"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="6"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="11" t="s">
         <v>385</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="11"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="11" t="s">
         <v>388</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="6"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="11" t="s">
         <v>391</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="6"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="11" t="s">
         <v>394</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="6"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="11" t="s">
         <v>396</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="6"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="6"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="11" t="s">
         <v>400</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="11" t="s">
         <v>402</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="6"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="11" t="s">
         <v>406</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="6"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="11" t="s">
         <v>408</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="11"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="11" t="s">
         <v>411</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="11"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="14.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="11" t="s">
         <v>414</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="11"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="6"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="11" t="s">
         <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="11"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="11" t="s">
         <v>420</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="11"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="11" t="s">
         <v>424</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="11"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="11" t="s">
         <v>427</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="11"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="6"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="11" t="s">
         <v>430</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="11"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="6"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="11"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="6"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="11" t="s">
         <v>439</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="11"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="6"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="11" t="s">
         <v>442</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="11"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="6"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="11"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="6"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="11"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="6"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="11" t="s">
         <v>451</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="11"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="6"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="11" t="s">
         <v>454</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="11"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="6"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="11" t="s">
         <v>457</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="11"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="6"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="11" t="s">
         <v>460</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="11"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="11" t="s">
         <v>463</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="11"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="6"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="11" t="s">
         <v>466</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="11"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="11" t="s">
         <v>469</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="11"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="11" t="s">
         <v>472</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="11"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="6"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="11" t="s">
         <v>475</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="11"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="6"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="11" t="s">
         <v>478</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="11"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="6"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="11" t="s">
         <v>483</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="11"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="6"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="11" t="s">
         <v>484</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="11"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="11" t="s">
         <v>487</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="11"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="6"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="11" t="s">
         <v>490</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="11"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" ht="14.25">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="D175" s="1"/>
+      <c r="D175" s="11"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="6"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" ht="14.25">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="11"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="6"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="11" t="s">
         <v>498</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="11"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="11" t="s">
         <v>501</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="11"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="11" t="s">
         <v>504</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="11"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="6"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="11" t="s">
         <v>507</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="11"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="6"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="11"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="6"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" ht="14.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="11"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="6"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" ht="14.25">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="18" t="s">
         <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="11"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="6"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="11" t="s">
         <v>519</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="11"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" ht="16.5">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="11" t="s">
         <v>522</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="11"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" ht="16.5">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="11" t="s">
         <v>525</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="11"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" ht="14.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="D187" s="1"/>
+      <c r="D187" s="11"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="6"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="11" t="s">
         <v>547</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="11"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="11" t="s">
         <v>538</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="11"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="1"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="11"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="1"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="11"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="6"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="1"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="11"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="1"/>
+      <c r="A193" s="11"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="11"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="6"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="1"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="11"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="1"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="11"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="6"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="1"/>
+      <c r="A196" s="11"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="11"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="1"/>
+      <c r="A197" s="11"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="11"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="1"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="11"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="1"/>
+      <c r="A199" s="11"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="11"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="1"/>
+      <c r="A200" s="11"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="11"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="6"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="1"/>
+      <c r="A201" s="11"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="11"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="6"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="1"/>
+      <c r="A202" s="11"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="11"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="1"/>
+      <c r="A203" s="11"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="11"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="6"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
+    <row r="204" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A204" s="22"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="6"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="698">
   <si>
     <t>第３週</t>
   </si>
@@ -2356,21 +2356,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>状況</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>じょうきょう</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>情况，状况</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>迷う</t>
     <rPh sb="0" eb="1">
       <t>マヨ</t>
@@ -2398,34 +2383,6 @@
   </si>
   <si>
     <t>意见，见解</t>
-  </si>
-  <si>
-    <t>結論</t>
-    <rPh sb="0" eb="2">
-      <t>ケツロン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>けつろん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>结论</t>
-    </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>起こり</t>
@@ -2716,12 +2673,736 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>本来</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほんらい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原来，本来</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区切る</t>
+    <rPh sb="0" eb="2">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くぎる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隔开，划分</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記号</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きごう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号，符号</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欄</t>
+    <rPh sb="0" eb="1">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>らん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>栏</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接（的）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並</t>
+    <rPh sb="0" eb="1">
+      <t>ナミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 并列。;普通。;每</t>
+  </si>
+  <si>
+    <t>併用</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へいよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>并用</t>
+  </si>
+  <si>
+    <t>返信</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんしん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回信，回电</t>
+  </si>
+  <si>
+    <t>案内</t>
+    <rPh sb="0" eb="2">
+      <t>アンナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あんない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引导，向导、传达。;通知</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出す</t>
+    <rPh sb="0" eb="1">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拿出，掏出、寄出，发出、供给，供应</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記載</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きさい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>记载，写上</t>
+  </si>
+  <si>
+    <t>冒頭</t>
+    <rPh sb="0" eb="2">
+      <t>ボウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぼうとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>文章开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。;引子，开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文末</t>
+    <rPh sb="0" eb="2">
+      <t>ブンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶんまつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>句子结尾，文章结尾部分</t>
+    </r>
+  </si>
+  <si>
+    <t>要件</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようけん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要紧的事情。;必要条件</t>
+  </si>
+  <si>
+    <t>挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうにゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>插入，装入，填入</t>
+  </si>
+  <si>
+    <t>華美</t>
+    <rPh sb="0" eb="2">
+      <t>カビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かび</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>华丽，华美</t>
+  </si>
+  <si>
+    <t>装飾</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうしょく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>装饰，点缀</t>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうしん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>播送，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">射。 </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不要，不需要。无用</t>
+  </si>
+  <si>
+    <t>もしくは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>许，也许</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>支票、核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ずみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>……；……完了</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セメスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんしゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入れ</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いれ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>盛东西的盒子，匣子</t>
+  </si>
+  <si>
+    <t>入る</t>
+    <rPh sb="0" eb="1">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はいる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>进，入，进入；在内，归入，有，含有</t>
+  </si>
+  <si>
+    <t>互い</t>
+    <rPh sb="0" eb="1">
+      <t>タガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たがい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彼此，互相，双方</t>
+  </si>
+  <si>
+    <t>必ず</t>
+    <rPh sb="0" eb="1">
+      <t>カナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かならず</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一定，必定，必然、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さんこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考；借鉴</t>
+  </si>
+  <si>
+    <t>送る</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おくる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>传送、送行派，打发</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主な</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おもな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要的，重要的</t>
+    </r>
+  </si>
+  <si>
+    <t>本人</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほんにん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 本人，当事人。;首领</t>
+  </si>
+  <si>
+    <t>注記</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちゅうき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注，注释，附注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2793,6 +3474,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3032,32 +3720,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3076,6 +3743,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3358,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3377,3489 +4067,3675 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>531</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>534</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>536</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>538</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>541</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>550</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>556</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>559</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>562</v>
+      <c r="D14" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>600</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>565</v>
+      <c r="D15" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>563</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>568</v>
+      <c r="D16" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>566</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>571</v>
+      <c r="D17" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>603</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>574</v>
+      <c r="D18" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>569</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>577</v>
+      <c r="D19" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>579</v>
+      <c r="D20" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>582</v>
+      <c r="D21" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>577</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>585</v>
+      <c r="D22" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="F22" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>587</v>
+      <c r="D23" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>582</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>590</v>
+      <c r="D24" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>592</v>
+      <c r="D25" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="F25" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>594</v>
+      <c r="D26" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>589</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>596</v>
+      <c r="D27" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>591</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>599</v>
+      <c r="D28" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>594</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>602</v>
+      <c r="D29" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>597</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:9" ht="16.5">
+      <c r="A34" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:9" ht="16.5">
+      <c r="A35" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:9" ht="16.5">
+      <c r="A36" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:9" ht="16.5">
+      <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:9" ht="16.5">
+      <c r="A38" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:9" ht="16.5">
+      <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:9" ht="17.25">
+      <c r="A41" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:9" ht="16.5">
+      <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:9" ht="16.5">
+      <c r="A43" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:9" ht="16.5">
+      <c r="A44" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:9" ht="16.5">
+      <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:9" ht="16.5">
+      <c r="A47" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="4" t="s">
+        <v>661</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="6"/>
+      <c r="D50" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="4" t="s">
+        <v>666</v>
+      </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="14.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="6"/>
+      <c r="D52" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="G52" s="3"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:9" ht="16.5">
+      <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="6"/>
+      <c r="D53" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:9" ht="16.5">
+      <c r="A54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="6"/>
+      <c r="D54" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G54" s="3"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:9" ht="16.5">
+      <c r="A55" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="6"/>
+      <c r="D55" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G55" s="3"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="6"/>
+      <c r="D56" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:9" ht="16.5">
+      <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:9" ht="16.5">
+      <c r="A58" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="6"/>
+      <c r="D58" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:9" ht="17.25">
+      <c r="A59" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:9" ht="16.5">
+      <c r="A60" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:9" ht="16.5">
+      <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="11"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="11"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="11"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="11"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="6"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="3"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="11"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="11"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="11"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="11"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="11"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D76" s="11"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D77" s="11"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="11"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="11"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="11"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="11"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="11"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="6"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="11"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="11"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="11"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D90" s="11"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="11"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="11"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="6"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="4" t="s">
         <v>331</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D99" s="11"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="11"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="16.5">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="11"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="11"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="6"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D105" s="11"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="6"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="11"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="6"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="11"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="11"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="6"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="11"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="6"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D110" s="11"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="6"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="11"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D112" s="11"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="6"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="11"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D114" s="11"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="6"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="6"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D116" s="11"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="6"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="4" t="s">
         <v>351</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="11"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="6"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D118" s="11"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="6"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="4" t="s">
         <v>304</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="11"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="11"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="6"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D121" s="11"/>
+      <c r="D121" s="4"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="6"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D122" s="11"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="6"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="3"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="4" t="s">
         <v>366</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D123" s="11"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="6"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="11"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="6"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D125" s="11"/>
+      <c r="D125" s="4"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="6"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D126" s="11"/>
+      <c r="D126" s="4"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="6"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D127" s="11"/>
+      <c r="D127" s="4"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="6"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D128" s="11"/>
+      <c r="D128" s="4"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="6"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="3"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="11"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="6"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D130" s="11"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="6"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="3"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="11"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="6"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D132" s="11"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="6"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="3"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="4" t="s">
         <v>371</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="11"/>
+      <c r="D133" s="4"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="6"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="11"/>
+      <c r="D134" s="4"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="6"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="3"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D135" s="11"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="6"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D136" s="11"/>
+      <c r="D136" s="4"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="6"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="3"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D137" s="11"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="6"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D138" s="11"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="6"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="3"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="11"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="6"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D140" s="11"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="6"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="3"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="11"/>
+      <c r="D141" s="4"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="6"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="11"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="6"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D143" s="11"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="6"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D144" s="11"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="6"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="4" t="s">
         <v>402</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="11"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="6"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="4" t="s">
         <v>406</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D146" s="11"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="6"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="4" t="s">
         <v>408</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="11"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="6"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="11"/>
+      <c r="D148" s="4"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="3"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="14.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="11"/>
+      <c r="D149" s="4"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="6"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="11"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="6"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="4" t="s">
         <v>420</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="11"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="6"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="11"/>
+      <c r="D152" s="4"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="6"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="3"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D153" s="11"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="6"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="3"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="4" t="s">
         <v>430</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D154" s="11"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="6"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="4" t="s">
         <v>433</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D155" s="11"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="6"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="11"/>
+      <c r="D156" s="4"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="6"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="3"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="4" t="s">
         <v>439</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="11"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="6"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="4" t="s">
         <v>442</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D158" s="11"/>
+      <c r="D158" s="4"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="6"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="3"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="4" t="s">
         <v>445</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D159" s="11"/>
+      <c r="D159" s="4"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="6"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D160" s="11"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="6"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D161" s="11"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="6"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D162" s="11"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="6"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="3"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="4" t="s">
         <v>457</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D163" s="11"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="6"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="4" t="s">
         <v>460</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D164" s="11"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="6"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="4" t="s">
         <v>463</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D165" s="11"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="6"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="3"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="4" t="s">
         <v>466</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D166" s="11"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="6"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="3"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="4" t="s">
         <v>469</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D167" s="11"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="6"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="3"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="4" t="s">
         <v>472</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D168" s="11"/>
+      <c r="D168" s="4"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="6"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="3"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D169" s="11"/>
+      <c r="D169" s="4"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="6"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="3"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="4" t="s">
         <v>478</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D170" s="11"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="6"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="3"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="4" t="s">
         <v>483</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D171" s="11"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="6"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="3"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="4" t="s">
         <v>484</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D172" s="11"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="6"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="3"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="4" t="s">
         <v>487</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D173" s="11"/>
+      <c r="D173" s="4"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="6"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="3"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="4" t="s">
         <v>490</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D174" s="11"/>
+      <c r="D174" s="4"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="6"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="3"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" ht="14.25">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B175" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D175" s="11"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="6"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" ht="14.25">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B176" s="19" t="s">
+      <c r="B176" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D176" s="11"/>
+      <c r="D176" s="4"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="6"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="3"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="4" t="s">
         <v>498</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D177" s="11"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="6"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="4" t="s">
         <v>501</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D178" s="11"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="6"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="3"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="4" t="s">
         <v>504</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D179" s="11"/>
+      <c r="D179" s="4"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="6"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="3"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="11"/>
+      <c r="D180" s="4"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="6"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="3"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="4" t="s">
         <v>510</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D181" s="11"/>
+      <c r="D181" s="4"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="6"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="3"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" ht="14.25">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D182" s="11"/>
+      <c r="D182" s="4"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="6"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="3"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" ht="14.25">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D183" s="11"/>
+      <c r="D183" s="4"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="6"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="3"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D184" s="11"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="6"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="3"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" ht="16.5">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="4" t="s">
         <v>522</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="D185" s="11"/>
+      <c r="D185" s="4"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="6"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="3"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" ht="16.5">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C186" s="16" t="s">
+      <c r="C186" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D186" s="11"/>
+      <c r="D186" s="4"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="6"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="3"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" ht="14.25">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C187" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D187" s="11"/>
+      <c r="D187" s="4"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="6"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="4" t="s">
         <v>547</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D188" s="11"/>
+      <c r="D188" s="4"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="6"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="3"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="4" t="s">
         <v>538</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D189" s="11"/>
+      <c r="D189" s="4"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="6"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="3"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="11"/>
+      <c r="A190" s="4"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="11"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="4"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="6"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="3"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="11"/>
+      <c r="A191" s="4"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="11"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="4"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="6"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="3"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="11"/>
+      <c r="A192" s="4"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="11"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="4"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="6"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="3"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="11"/>
+      <c r="A193" s="4"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="11"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="4"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="6"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="3"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="11"/>
+      <c r="A194" s="4"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="11"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="4"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="6"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="3"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="11"/>
+      <c r="A195" s="4"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="11"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="4"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="6"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="3"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="11"/>
+      <c r="A196" s="4"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="11"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="4"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="6"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="3"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="11"/>
+      <c r="A197" s="4"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="11"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="4"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="6"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="3"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="11"/>
+      <c r="A198" s="4"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="11"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="6"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="3"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="11"/>
+      <c r="A199" s="4"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="11"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="4"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="6"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="3"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="11"/>
+      <c r="A200" s="4"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="11"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="4"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="6"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="3"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="11"/>
+      <c r="A201" s="4"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="11"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="4"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="6"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="3"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="11"/>
+      <c r="A202" s="4"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="11"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="4"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="6"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="3"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="11"/>
+      <c r="A203" s="4"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="11"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="4"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="6"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="3"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A204" s="22"/>
-      <c r="B204" s="23"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="6"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="3"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="834">
   <si>
     <t>第３週</t>
   </si>
@@ -3397,12 +3397,772 @@
   <si>
     <t>注，注释，附注</t>
   </si>
+  <si>
+    <t>呼びかける</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よびかける</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>呼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，招呼。;呼吁</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんりょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完结，完了</t>
+    </r>
+  </si>
+  <si>
+    <t>旨</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意思，要点，大意</t>
+  </si>
+  <si>
+    <t>別途</t>
+    <rPh sb="0" eb="2">
+      <t>ベット</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>べっと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他途径，另一种方法</t>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しょぞく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>所属；附属</t>
+  </si>
+  <si>
+    <t>客様</t>
+    <rPh sb="0" eb="2">
+      <t>キャクサマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きゃくさま</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（尊称）客人</t>
+    </r>
+  </si>
+  <si>
+    <t>向け</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向……</t>
+    </r>
+  </si>
+  <si>
+    <t>程</t>
+    <rPh sb="0" eb="1">
+      <t>ホド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>程度</t>
+  </si>
+  <si>
+    <t>長い</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ながい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>长的</t>
+  </si>
+  <si>
+    <t>文言</t>
+    <rPh sb="0" eb="2">
+      <t>ブンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶんげん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文言，文语</t>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しょうさい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 详细，详情</t>
+  </si>
+  <si>
+    <t>最初</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さいしょ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適度</t>
+    <rPh sb="0" eb="2">
+      <t>テキド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てきど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 适度，适当，程度恰好</t>
+  </si>
+  <si>
+    <t>位置</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いち</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 位置，地位，场所</t>
+  </si>
+  <si>
+    <t>改行</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいぎょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>另起一行，换行</t>
+  </si>
+  <si>
+    <t>個別</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こべつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>个别</t>
+  </si>
+  <si>
+    <t>具体</t>
+  </si>
+  <si>
+    <t>具体</t>
+    <rPh sb="0" eb="2">
+      <t>グタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぐたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>議事録</t>
+    <rPh sb="0" eb="3">
+      <t>ギジロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぎじろく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>议事记录，会议记录</t>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しつもん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>问题，疑问、询问，提问</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好ましい</t>
+    <rPh sb="0" eb="1">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このましい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>令人喜欢的，感觉良好的</t>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>变更，更改</t>
+  </si>
+  <si>
+    <t>探し</t>
+    <rPh sb="0" eb="1">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さがし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寻找，搜查</t>
+  </si>
+  <si>
+    <t>短い</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みじかい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>;短，近，小。;低，矮</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じょうけん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言葉</t>
+    <rPh sb="0" eb="2">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ことば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 话语，言词</t>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てじゅん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次序，步骤，程序</t>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かず</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数，数目；多数</t>
+  </si>
+  <si>
+    <t>制限</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいげん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 限制，限度，界限</t>
+  </si>
+  <si>
+    <t>圧縮</t>
+    <rPh sb="0" eb="2">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あっしゅく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>容量</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようりょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容量。;负载量</t>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すうち</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数值；答数，得数</t>
+  </si>
+  <si>
+    <t>文字</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取り</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拿，取</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>圆圈，整个，全部</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いんさつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原稿</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>げんこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原稿，草稿</t>
+  </si>
+  <si>
+    <t>変換</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんかん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变换</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表記</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひょうき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>标明</t>
+  </si>
+  <si>
+    <t>収め</t>
+    <rPh sb="0" eb="1">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おさめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>结尾，最后</t>
+  </si>
+  <si>
+    <t>早朝</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうちょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早晨，早起</t>
+  </si>
+  <si>
+    <t>深夜</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しんや</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>届く</t>
+    <rPh sb="0" eb="1">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とどく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送达</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きじゅん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>承知</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しょうち</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同意，赞成，答应</t>
+  </si>
+  <si>
+    <t>丁寧</t>
+    <rPh sb="0" eb="2">
+      <t>テイネイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ていねい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>很有礼貌，恭恭敬敬</t>
+  </si>
+  <si>
+    <t>除く</t>
+    <rPh sb="0" eb="1">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のぞく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 除掉，去除</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3481,6 +4241,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3720,7 +4487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3743,6 +4510,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3764,8 +4536,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4048,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4067,34 +4837,34 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -4290,7 +5060,7 @@
       <c r="E12" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="21" t="s">
         <v>558</v>
       </c>
       <c r="G12" s="3"/>
@@ -4382,7 +5152,7 @@
       <c r="E16" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="21" t="s">
         <v>567</v>
       </c>
       <c r="G16" s="3"/>
@@ -4602,7 +5372,7 @@
         <v>588</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="21" t="s">
         <v>589</v>
       </c>
       <c r="G26" s="3"/>
@@ -4786,7 +5556,7 @@
       <c r="E34" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="21" t="s">
         <v>619</v>
       </c>
       <c r="G34" s="3"/>
@@ -4809,7 +5579,7 @@
       <c r="E35" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="22" t="s">
         <v>622</v>
       </c>
       <c r="G35" s="3"/>
@@ -4832,7 +5602,7 @@
       <c r="E36" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="21" t="s">
         <v>625</v>
       </c>
       <c r="G36" s="3"/>
@@ -4855,7 +5625,7 @@
       <c r="E37" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="21" t="s">
         <v>628</v>
       </c>
       <c r="G37" s="3"/>
@@ -4878,7 +5648,7 @@
       <c r="E38" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="21" t="s">
         <v>631</v>
       </c>
       <c r="G38" s="3"/>
@@ -4901,7 +5671,7 @@
       <c r="E39" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="21" t="s">
         <v>634</v>
       </c>
       <c r="G39" s="3"/>
@@ -4947,7 +5717,7 @@
       <c r="E41" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="23" t="s">
         <v>640</v>
       </c>
       <c r="G41" s="3"/>
@@ -4970,7 +5740,7 @@
       <c r="E42" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="21" t="s">
         <v>643</v>
       </c>
       <c r="G42" s="3"/>
@@ -4993,7 +5763,7 @@
       <c r="E43" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="21" t="s">
         <v>646</v>
       </c>
       <c r="G43" s="3"/>
@@ -5016,7 +5786,7 @@
       <c r="E44" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="22" t="s">
         <v>649</v>
       </c>
       <c r="G44" s="3"/>
@@ -5039,7 +5809,7 @@
       <c r="E45" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="22" t="s">
         <v>652</v>
       </c>
       <c r="G45" s="3"/>
@@ -5085,7 +5855,7 @@
       <c r="E47" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="21" t="s">
         <v>658</v>
       </c>
       <c r="G47" s="3"/>
@@ -5217,7 +5987,7 @@
       <c r="E53" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="22" t="s">
         <v>673</v>
       </c>
       <c r="G53" s="3"/>
@@ -5240,7 +6010,7 @@
       <c r="E54" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="21" t="s">
         <v>676</v>
       </c>
       <c r="G54" s="3"/>
@@ -5263,7 +6033,7 @@
       <c r="E55" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G55" s="3"/>
@@ -5309,7 +6079,7 @@
       <c r="E57" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="21" t="s">
         <v>685</v>
       </c>
       <c r="G57" s="3"/>
@@ -5332,7 +6102,7 @@
       <c r="E58" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="21" t="s">
         <v>688</v>
       </c>
       <c r="G58" s="3"/>
@@ -5355,7 +6125,7 @@
       <c r="E59" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="23" t="s">
         <v>691</v>
       </c>
       <c r="G59" s="3"/>
@@ -5378,7 +6148,7 @@
       <c r="E60" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="21" t="s">
         <v>694</v>
       </c>
       <c r="G60" s="3"/>
@@ -5401,7 +6171,7 @@
       <c r="E61" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="22" t="s">
         <v>697</v>
       </c>
       <c r="G61" s="3"/>
@@ -5418,14 +6188,20 @@
       <c r="C62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
+      <c r="D62" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="4" t="s">
         <v>122</v>
       </c>
@@ -5433,14 +6209,20 @@
       <c r="C63" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>703</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
@@ -5450,14 +6232,20 @@
       <c r="C64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
+      <c r="D64" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>706</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
@@ -5465,14 +6253,20 @@
       <c r="C65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>709</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
@@ -5482,14 +6276,20 @@
       <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
+      <c r="D66" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>712</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="4" t="s">
         <v>180</v>
       </c>
@@ -5499,14 +6299,20 @@
       <c r="C67" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
+      <c r="D67" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>715</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="4" t="s">
         <v>182</v>
       </c>
@@ -5516,14 +6322,20 @@
       <c r="C68" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>718</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="4" t="s">
         <v>184</v>
       </c>
@@ -5533,14 +6345,20 @@
       <c r="C69" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
+      <c r="D69" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>721</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="4" t="s">
         <v>186</v>
       </c>
@@ -5550,14 +6368,20 @@
       <c r="C70" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
+      <c r="D70" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>724</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="4" t="s">
         <v>188</v>
       </c>
@@ -5567,9 +6391,15 @@
       <c r="C71" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
+      <c r="D71" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>727</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5584,9 +6414,15 @@
       <c r="C72" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
+      <c r="D72" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>730</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5601,14 +6437,20 @@
       <c r="C73" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
@@ -5618,14 +6460,20 @@
       <c r="C74" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
+      <c r="D74" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>735</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="4" t="s">
         <v>196</v>
       </c>
@@ -5635,14 +6483,20 @@
       <c r="C75" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
+      <c r="D75" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="4" t="s">
         <v>198</v>
       </c>
@@ -5652,14 +6506,20 @@
       <c r="C76" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
+      <c r="D76" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>741</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="4" t="s">
         <v>200</v>
       </c>
@@ -5669,14 +6529,20 @@
       <c r="C77" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
+      <c r="D77" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>744</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="4" t="s">
         <v>130</v>
       </c>
@@ -5686,14 +6552,20 @@
       <c r="C78" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
+      <c r="D78" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>745</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="4" t="s">
         <v>202</v>
       </c>
@@ -5703,14 +6575,20 @@
       <c r="C79" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
+      <c r="D79" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>750</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="4" t="s">
         <v>204</v>
       </c>
@@ -5720,14 +6598,20 @@
       <c r="C80" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
+      <c r="D80" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="4" t="s">
         <v>206</v>
       </c>
@@ -5737,14 +6621,20 @@
       <c r="C81" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
+      <c r="D81" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="4" t="s">
         <v>208</v>
       </c>
@@ -5754,14 +6644,20 @@
       <c r="C82" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
+      <c r="D82" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>759</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="4" t="s">
         <v>210</v>
       </c>
@@ -5771,14 +6667,20 @@
       <c r="C83" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
+      <c r="D83" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="4" t="s">
         <v>212</v>
       </c>
@@ -5788,14 +6690,20 @@
       <c r="C84" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
+      <c r="D84" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="4" t="s">
         <v>214</v>
       </c>
@@ -5805,14 +6713,20 @@
       <c r="C85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
+      <c r="D85" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="4" t="s">
         <v>216</v>
       </c>
@@ -5822,14 +6736,20 @@
       <c r="C86" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
+      <c r="D86" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="4" t="s">
         <v>218</v>
       </c>
@@ -5839,9 +6759,15 @@
       <c r="C87" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
+      <c r="D87" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5856,14 +6782,18 @@
       <c r="C88" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>775</v>
+      </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="13" t="s">
+        <v>776</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="4" t="s">
         <v>222</v>
       </c>
@@ -5873,14 +6803,20 @@
       <c r="C89" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
+      <c r="D89" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="4" t="s">
         <v>224</v>
       </c>
@@ -5890,14 +6826,20 @@
       <c r="C90" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
+      <c r="D90" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="4" t="s">
         <v>226</v>
       </c>
@@ -5907,14 +6849,20 @@
       <c r="C91" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
+      <c r="D91" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="4" t="s">
         <v>228</v>
       </c>
@@ -5924,14 +6872,20 @@
       <c r="C92" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
+      <c r="D92" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="4" t="s">
         <v>230</v>
       </c>
@@ -5941,9 +6895,15 @@
       <c r="C93" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
+      <c r="D93" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>791</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5958,9 +6918,15 @@
       <c r="C94" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
+      <c r="D94" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>792</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5975,9 +6941,15 @@
       <c r="C95" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
+      <c r="D95" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>796</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5992,9 +6964,15 @@
       <c r="C96" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
+      <c r="D96" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>799</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6009,14 +6987,20 @@
       <c r="C97" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
+      <c r="D97" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="4" t="s">
         <v>267</v>
       </c>
@@ -6026,9 +7010,15 @@
       <c r="C98" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
+      <c r="D98" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>804</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6043,14 +7033,20 @@
       <c r="C99" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
+      <c r="D99" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>807</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="4" t="s">
         <v>270</v>
       </c>
@@ -6060,14 +7056,20 @@
       <c r="C100" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
+      <c r="D100" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>810</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="4" t="s">
         <v>272</v>
       </c>
@@ -6077,14 +7079,20 @@
       <c r="C101" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
+      <c r="D101" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>813</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="4" t="s">
         <v>335</v>
       </c>
@@ -6094,14 +7102,20 @@
       <c r="C102" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="5"/>
+      <c r="D102" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>816</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="4" t="s">
         <v>275</v>
       </c>
@@ -6109,9 +7123,15 @@
       <c r="C103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="5"/>
+      <c r="D103" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>817</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6124,14 +7144,20 @@
       <c r="C104" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="5"/>
+      <c r="D104" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="G104" s="3"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="4" t="s">
         <v>337</v>
       </c>
@@ -6141,14 +7167,20 @@
       <c r="C105" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="5"/>
+      <c r="D105" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>824</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="4" t="s">
         <v>280</v>
       </c>
@@ -6158,14 +7190,20 @@
       <c r="C106" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="5"/>
+      <c r="D106" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>827</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="4" t="s">
         <v>282</v>
       </c>
@@ -6175,14 +7213,20 @@
       <c r="C107" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="5"/>
+      <c r="D107" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>830</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="4" t="s">
         <v>284</v>
       </c>
@@ -6192,9 +7236,15 @@
       <c r="C108" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="5"/>
+      <c r="D108" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="857">
   <si>
     <t>第３週</t>
   </si>
@@ -4156,6 +4156,110 @@
   </si>
   <si>
     <t> 除掉，去除</t>
+  </si>
+  <si>
+    <t>いくつか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>几个，一些</t>
+  </si>
+  <si>
+    <t>概念</t>
+    <rPh sb="0" eb="2">
+      <t>ガイネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がいねん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個々</t>
+    <rPh sb="0" eb="2">
+      <t>ココ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 每个。各个</t>
+  </si>
+  <si>
+    <t>たくさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> 很多，许多，大量</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうさ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうさ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>練習</t>
+    <rPh sb="0" eb="2">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>れんしゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>练习，反复学习</t>
+  </si>
+  <si>
+    <t>関係</t>
+    <rPh sb="0" eb="2">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんけい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>关系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>師範</t>
+    <rPh sb="0" eb="2">
+      <t>シハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しはん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>榜样，典范，师表</t>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水准，标准；级别</t>
   </si>
 </sst>
 </file>
@@ -4818,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7249,7 +7353,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="4" t="s">
         <v>286</v>
       </c>
@@ -7259,9 +7363,13 @@
       <c r="C109" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>834</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="24" t="s">
+        <v>835</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -7276,14 +7384,20 @@
       <c r="C110" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="5"/>
+      <c r="D110" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>836</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="4" t="s">
         <v>300</v>
       </c>
@@ -7293,14 +7407,20 @@
       <c r="C111" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="5"/>
+      <c r="D111" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="4" t="s">
         <v>345</v>
       </c>
@@ -7310,9 +7430,13 @@
       <c r="C112" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -7327,14 +7451,20 @@
       <c r="C113" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="5"/>
+      <c r="D113" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>845</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="4" t="s">
         <v>294</v>
       </c>
@@ -7344,9 +7474,15 @@
       <c r="C114" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="5"/>
+      <c r="D114" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>848</v>
+      </c>
       <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -7361,14 +7497,20 @@
       <c r="C115" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="5"/>
+      <c r="D115" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="4" t="s">
         <v>298</v>
       </c>
@@ -7378,14 +7520,20 @@
       <c r="C116" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="5"/>
+      <c r="D116" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="4" t="s">
         <v>351</v>
       </c>
@@ -7395,9 +7543,13 @@
       <c r="C117" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="2" t="s">
+        <v>856</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1075">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4261,16 +4261,670 @@
   <si>
     <t>水准，标准；级别</t>
   </si>
+  <si>
+    <t>表わす</t>
+  </si>
+  <si>
+    <t>あらわす</t>
+  </si>
+  <si>
+    <t>以内</t>
+  </si>
+  <si>
+    <t>いない</t>
+  </si>
+  <si>
+    <t>運動</t>
+  </si>
+  <si>
+    <t>うんどう</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>買い物</t>
+  </si>
+  <si>
+    <t>かいもの</t>
+  </si>
+  <si>
+    <t>髪</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>危険</t>
+  </si>
+  <si>
+    <t>きけん</t>
+  </si>
+  <si>
+    <t>綺麗</t>
+  </si>
+  <si>
+    <t>きれい</t>
+  </si>
+  <si>
+    <t>高齢者</t>
+  </si>
+  <si>
+    <t>こうれいしゃ</t>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>さいきん</t>
+  </si>
+  <si>
+    <t>しかも</t>
+  </si>
+  <si>
+    <t>調べる</t>
+  </si>
+  <si>
+    <t>アイディア</t>
+  </si>
+  <si>
+    <t>ゲストハウス</t>
+  </si>
+  <si>
+    <t>シャワー</t>
+  </si>
+  <si>
+    <t>淋浴</t>
+  </si>
+  <si>
+    <t>招待所</t>
+  </si>
+  <si>
+    <t>主意，想法</t>
+  </si>
+  <si>
+    <t>调查，审查</t>
+  </si>
+  <si>
+    <t>而且</t>
+  </si>
+  <si>
+    <t>老年人</t>
+  </si>
+  <si>
+    <t>漂亮</t>
+  </si>
+  <si>
+    <t>危险</t>
+  </si>
+  <si>
+    <t>发型</t>
+  </si>
+  <si>
+    <t>购物买东西</t>
+  </si>
+  <si>
+    <t>男子</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>表示，表达</t>
+  </si>
+  <si>
+    <t>全て</t>
+  </si>
+  <si>
+    <t>しらべる</t>
+  </si>
+  <si>
+    <t>すべて</t>
+  </si>
+  <si>
+    <t>そういう</t>
+  </si>
+  <si>
+    <t>だから</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>定年</t>
+  </si>
+  <si>
+    <t>投げる</t>
+  </si>
+  <si>
+    <t>なげる</t>
+  </si>
+  <si>
+    <t>ていねん</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>熱心</t>
+  </si>
+  <si>
+    <t>ねっしん</t>
+  </si>
+  <si>
+    <t>働く</t>
+  </si>
+  <si>
+    <t>はたらく</t>
+  </si>
+  <si>
+    <t>引越し</t>
+  </si>
+  <si>
+    <t>ひっこし</t>
+  </si>
+  <si>
+    <t>船便</t>
+  </si>
+  <si>
+    <t>ふなびん</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>求める</t>
+  </si>
+  <si>
+    <t>もとめる</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>ポスター</t>
+  </si>
+  <si>
+    <t>海报</t>
+  </si>
+  <si>
+    <t>经常</t>
+  </si>
+  <si>
+    <t>寻找</t>
+  </si>
+  <si>
+    <t>短少的，近的</t>
+  </si>
+  <si>
+    <t>船运</t>
+  </si>
+  <si>
+    <t>搬家</t>
+  </si>
+  <si>
+    <t>热心</t>
+  </si>
+  <si>
+    <t>投，射，放弃</t>
+  </si>
+  <si>
+    <t>退休年龄</t>
+  </si>
+  <si>
+    <t>家父</t>
+  </si>
+  <si>
+    <t>因此</t>
+  </si>
+  <si>
+    <t>那样</t>
+  </si>
+  <si>
+    <t>一切</t>
+  </si>
+  <si>
+    <t>ある</t>
+  </si>
+  <si>
+    <t>田舎</t>
+  </si>
+  <si>
+    <t>いなか</t>
+  </si>
+  <si>
+    <t>運動会</t>
+  </si>
+  <si>
+    <t>うんどうかい</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>かいよう</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>聞こえる</t>
+  </si>
+  <si>
+    <t>きこえる</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>こえ</t>
+  </si>
+  <si>
+    <t>最後</t>
+  </si>
+  <si>
+    <t>さいご</t>
+  </si>
+  <si>
+    <t>叱る</t>
+  </si>
+  <si>
+    <t>しかる</t>
+  </si>
+  <si>
+    <t>沢山</t>
+  </si>
+  <si>
+    <t>たくさん</t>
+  </si>
+  <si>
+    <t>キログラム</t>
+  </si>
+  <si>
+    <t>千克</t>
+  </si>
+  <si>
+    <t>许多，充分</t>
+  </si>
+  <si>
+    <t>批评</t>
+  </si>
+  <si>
+    <t>最后</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>听得见，出名</t>
+  </si>
+  <si>
+    <t>纸</t>
+  </si>
+  <si>
+    <t>运动会</t>
+  </si>
+  <si>
+    <t>老家，乡下</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>滑る</t>
+  </si>
+  <si>
+    <t>すべる</t>
+  </si>
+  <si>
+    <t>騒音</t>
+  </si>
+  <si>
+    <t>そうおん</t>
+  </si>
+  <si>
+    <t>宝くじ</t>
+  </si>
+  <si>
+    <t>たからくじ</t>
+  </si>
+  <si>
+    <t>ちっとも</t>
+  </si>
+  <si>
+    <t>なさる</t>
+  </si>
+  <si>
+    <t>熱する</t>
+  </si>
+  <si>
+    <t>ねっする</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>ふね</t>
+  </si>
+  <si>
+    <t>浴室</t>
+  </si>
+  <si>
+    <t>よくしつ</t>
+  </si>
+  <si>
+    <t>テープ</t>
+  </si>
+  <si>
+    <t>ポスト</t>
+  </si>
+  <si>
+    <t>も</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>邮筒</t>
+  </si>
+  <si>
+    <t>录音带</t>
+  </si>
+  <si>
+    <t>加热</t>
+  </si>
+  <si>
+    <t>做，进行</t>
+  </si>
+  <si>
+    <t>一点（也不）</t>
+  </si>
+  <si>
+    <t>彩票</t>
+  </si>
+  <si>
+    <t>噪音</t>
+  </si>
+  <si>
+    <t>滑行</t>
+  </si>
+  <si>
+    <t>或る</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>お年寄り</t>
+  </si>
+  <si>
+    <t>おとしより</t>
+  </si>
+  <si>
+    <t>噛む</t>
+  </si>
+  <si>
+    <t>かむ</t>
+  </si>
+  <si>
+    <t>帰国</t>
+  </si>
+  <si>
+    <t>きこく</t>
+  </si>
+  <si>
+    <t>結構</t>
+  </si>
+  <si>
+    <t>けっこ</t>
+  </si>
+  <si>
+    <t>超える</t>
+  </si>
+  <si>
+    <t>こえる</t>
+  </si>
+  <si>
+    <t>在庫</t>
+  </si>
+  <si>
+    <t>ざいこ</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>越过，跨过</t>
+  </si>
+  <si>
+    <t>很好，温柔</t>
+  </si>
+  <si>
+    <t>回国</t>
+  </si>
+  <si>
+    <t>咀嚼，咬</t>
+  </si>
+  <si>
+    <t>老人</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>某</t>
+  </si>
+  <si>
+    <t>同僚</t>
+  </si>
+  <si>
+    <t>どうりょう</t>
+  </si>
+  <si>
+    <t>寝坊</t>
+  </si>
+  <si>
+    <t>ねぼう</t>
+  </si>
+  <si>
+    <t>発音</t>
+  </si>
+  <si>
+    <t>はつおん</t>
+  </si>
+  <si>
+    <t>引っ張る</t>
+  </si>
+  <si>
+    <t>ひっぱる</t>
+  </si>
+  <si>
+    <t>部品</t>
+  </si>
+  <si>
+    <t>ぶひん</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>ほそい</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>みずうみ</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>よこ</t>
+  </si>
+  <si>
+    <t>笑う</t>
+  </si>
+  <si>
+    <t>わらう</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>チャーハン</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>ナシ</t>
+  </si>
+  <si>
+    <t>同事</t>
+  </si>
+  <si>
+    <t>睡懒觉</t>
+  </si>
+  <si>
+    <t>发音</t>
+  </si>
+  <si>
+    <t>拉，诱惑，拉拢</t>
+  </si>
+  <si>
+    <t>零件，部件</t>
+  </si>
+  <si>
+    <t>细的，瘦得</t>
+  </si>
+  <si>
+    <t>旁边</t>
+  </si>
+  <si>
+    <t>笑</t>
+  </si>
+  <si>
+    <t>体育运动</t>
+  </si>
+  <si>
+    <t>炒饭</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>梨子</t>
+  </si>
+  <si>
+    <t>稲</t>
+  </si>
+  <si>
+    <t>いね</t>
+  </si>
+  <si>
+    <t>落とす</t>
+  </si>
+  <si>
+    <t>気さく</t>
+  </si>
+  <si>
+    <t>きさく</t>
+  </si>
+  <si>
+    <t>おとす</t>
+  </si>
+  <si>
+    <t>気をつけて</t>
+  </si>
+  <si>
+    <t>きをつけて</t>
+  </si>
+  <si>
+    <t>掃除</t>
+  </si>
+  <si>
+    <t>そうじ</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>どうろ</t>
+  </si>
+  <si>
+    <t>なぜ</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>ねむい</t>
+  </si>
+  <si>
+    <t>ズボン</t>
+  </si>
+  <si>
+    <t>汚れる</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>みせ</t>
+  </si>
+  <si>
+    <t>よごれる</t>
+  </si>
+  <si>
+    <t>店铺</t>
+  </si>
+  <si>
+    <t>弄脏</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>想睡觉</t>
+  </si>
+  <si>
+    <t>为什么</t>
+  </si>
+  <si>
+    <t>打扫</t>
+  </si>
+  <si>
+    <t>小心，注意</t>
+  </si>
+  <si>
+    <t>爽快</t>
+  </si>
+  <si>
+    <t>漏掉</t>
+  </si>
+  <si>
+    <t>稻子</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4278,13 +4932,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4292,7 +4946,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4642,7 +5296,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4922,25 +5576,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -6052,7 +6706,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -7564,9 +8218,15 @@
       <c r="C118" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="5"/>
+      <c r="D118" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>894</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -7581,9 +8241,15 @@
       <c r="C119" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="5"/>
+      <c r="D119" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>859</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -7598,9 +8264,15 @@
       <c r="C120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="5"/>
+      <c r="D120" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>893</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -7615,9 +8287,15 @@
       <c r="C121" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="5"/>
+      <c r="D121" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>892</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7632,9 +8310,15 @@
       <c r="C122" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="5"/>
+      <c r="D122" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>891</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7649,9 +8333,15 @@
       <c r="C123" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="5"/>
+      <c r="D123" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>890</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7666,9 +8356,15 @@
       <c r="C124" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="5"/>
+      <c r="D124" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>889</v>
+      </c>
       <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -7683,9 +8379,15 @@
       <c r="C125" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="5"/>
+      <c r="D125" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>888</v>
+      </c>
       <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -7700,9 +8402,15 @@
       <c r="C126" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="5"/>
+      <c r="D126" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>887</v>
+      </c>
       <c r="G126" s="3"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -7717,9 +8425,15 @@
       <c r="C127" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="5"/>
+      <c r="D127" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>875</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7734,9 +8448,13 @@
       <c r="C128" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D128" s="4"/>
+      <c r="D128" s="4" t="s">
+        <v>877</v>
+      </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>886</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7751,9 +8469,15 @@
       <c r="C129" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="5"/>
+      <c r="D129" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>885</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7768,9 +8492,13 @@
       <c r="C130" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>879</v>
+      </c>
       <c r="E130" s="1"/>
-      <c r="F130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>884</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7785,9 +8513,13 @@
       <c r="C131" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>880</v>
+      </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>883</v>
+      </c>
       <c r="G131" s="3"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7802,9 +8534,13 @@
       <c r="C132" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D132" s="4"/>
+      <c r="D132" s="4" t="s">
+        <v>881</v>
+      </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="5"/>
+      <c r="F132" s="5" t="s">
+        <v>882</v>
+      </c>
       <c r="G132" s="3"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7819,9 +8555,15 @@
       <c r="C133" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="5"/>
+      <c r="D133" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>932</v>
+      </c>
       <c r="G133" s="3"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7834,9 +8576,13 @@
       <c r="C134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4" t="s">
+        <v>898</v>
+      </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>931</v>
+      </c>
       <c r="G134" s="3"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7851,9 +8597,13 @@
       <c r="C135" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>899</v>
+      </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>930</v>
+      </c>
       <c r="G135" s="3"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7868,9 +8618,15 @@
       <c r="C136" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="5"/>
+      <c r="D136" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>929</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7885,9 +8641,15 @@
       <c r="C137" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="5"/>
+      <c r="D137" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7902,9 +8664,15 @@
       <c r="C138" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="5"/>
+      <c r="D138" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7919,9 +8687,15 @@
       <c r="C139" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="4"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="5"/>
+      <c r="D139" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7936,9 +8710,15 @@
       <c r="C140" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="5"/>
+      <c r="D140" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7953,9 +8733,15 @@
       <c r="C141" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="5"/>
+      <c r="D141" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>925</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7970,9 +8756,15 @@
       <c r="C142" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="5"/>
+      <c r="D142" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>924</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7987,9 +8779,15 @@
       <c r="C143" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="5"/>
+      <c r="D143" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>923</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -8004,9 +8802,15 @@
       <c r="C144" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="5"/>
+      <c r="D144" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>922</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -8021,9 +8825,13 @@
       <c r="C145" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="5"/>
+      <c r="F145" s="5" t="s">
+        <v>921</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -8038,9 +8846,13 @@
       <c r="C146" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>919</v>
+      </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="5"/>
+      <c r="F146" s="5" t="s">
+        <v>920</v>
+      </c>
       <c r="G146" s="3"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -8055,9 +8867,13 @@
       <c r="C147" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>933</v>
+      </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>961</v>
+      </c>
       <c r="G147" s="3"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8072,14 +8888,20 @@
       <c r="C148" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="5"/>
+      <c r="D148" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>960</v>
+      </c>
       <c r="G148" s="3"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="14.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -8089,9 +8911,15 @@
       <c r="C149" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="5"/>
+      <c r="D149" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>959</v>
+      </c>
       <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8106,9 +8934,15 @@
       <c r="C150" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="5"/>
+      <c r="D150" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>938</v>
+      </c>
       <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8123,9 +8957,15 @@
       <c r="C151" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="5"/>
+      <c r="D151" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>958</v>
+      </c>
       <c r="G151" s="3"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8140,9 +8980,15 @@
       <c r="C152" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="5"/>
+      <c r="D152" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>957</v>
+      </c>
       <c r="G152" s="3"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -8157,9 +9003,15 @@
       <c r="C153" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="5"/>
+      <c r="D153" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>956</v>
+      </c>
       <c r="G153" s="3"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8174,9 +9026,15 @@
       <c r="C154" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="5"/>
+      <c r="D154" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>955</v>
+      </c>
       <c r="G154" s="3"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8191,9 +9049,15 @@
       <c r="C155" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="5"/>
+      <c r="D155" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>954</v>
+      </c>
       <c r="G155" s="3"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8208,9 +9072,15 @@
       <c r="C156" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="5"/>
+      <c r="D156" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>953</v>
+      </c>
       <c r="G156" s="3"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8225,9 +9095,13 @@
       <c r="C157" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>951</v>
+      </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="5"/>
+      <c r="F157" s="5" t="s">
+        <v>952</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8242,9 +9116,15 @@
       <c r="C158" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D158" s="4"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="5"/>
+      <c r="D158" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>987</v>
+      </c>
       <c r="G158" s="3"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8259,9 +9139,15 @@
       <c r="C159" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="5"/>
+      <c r="D159" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>986</v>
+      </c>
       <c r="G159" s="3"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8276,9 +9162,15 @@
       <c r="C160" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="5"/>
+      <c r="D160" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>985</v>
+      </c>
       <c r="G160" s="3"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8293,9 +9185,13 @@
       <c r="C161" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>968</v>
+      </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>984</v>
+      </c>
       <c r="G161" s="3"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8310,9 +9206,13 @@
       <c r="C162" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D162" s="4"/>
+      <c r="D162" s="4" t="s">
+        <v>969</v>
+      </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="5"/>
+      <c r="F162" s="5" t="s">
+        <v>983</v>
+      </c>
       <c r="G162" s="3"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8327,9 +9227,15 @@
       <c r="C163" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="5"/>
+      <c r="D163" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>982</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8344,9 +9250,15 @@
       <c r="C164" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="5"/>
+      <c r="D164" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>924</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8361,9 +9273,15 @@
       <c r="C165" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="5"/>
+      <c r="D165" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>974</v>
+      </c>
       <c r="G165" s="3"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8378,9 +9296,13 @@
       <c r="C166" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D166" s="4"/>
+      <c r="D166" s="4" t="s">
+        <v>976</v>
+      </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>981</v>
+      </c>
       <c r="G166" s="3"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8395,9 +9317,13 @@
       <c r="C167" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>978</v>
+      </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>979</v>
+      </c>
       <c r="G167" s="3"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8412,9 +9338,13 @@
       <c r="C168" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>977</v>
+      </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>980</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8429,9 +9359,15 @@
       <c r="C169" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D169" s="4"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="5"/>
+      <c r="D169" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>1010</v>
+      </c>
       <c r="G169" s="3"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -8446,9 +9382,15 @@
       <c r="C170" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="5"/>
+      <c r="D170" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>1009</v>
+      </c>
       <c r="G170" s="3"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -8463,9 +9405,15 @@
       <c r="C171" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="5"/>
+      <c r="D171" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>1008</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8480,9 +9428,15 @@
       <c r="C172" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D172" s="4"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="5"/>
+      <c r="D172" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>1007</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -8497,9 +9451,15 @@
       <c r="C173" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D173" s="4"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="5"/>
+      <c r="D173" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>1006</v>
+      </c>
       <c r="G173" s="3"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -8514,14 +9474,20 @@
       <c r="C174" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="5"/>
+      <c r="D174" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>1005</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="14.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -8531,14 +9497,20 @@
       <c r="C175" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D175" s="4"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="5"/>
+      <c r="D175" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>1004</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="14.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -8548,9 +9520,15 @@
       <c r="C176" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D176" s="4"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="5"/>
+      <c r="D176" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1003</v>
+      </c>
       <c r="G176" s="3"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -8565,9 +9543,15 @@
       <c r="C177" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="5"/>
+      <c r="D177" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>1033</v>
+      </c>
       <c r="G177" s="3"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -8582,9 +9566,15 @@
       <c r="C178" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="5"/>
+      <c r="D178" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>1034</v>
+      </c>
       <c r="G178" s="3"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -8599,9 +9589,15 @@
       <c r="C179" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D179" s="4"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="5"/>
+      <c r="D179" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>1035</v>
+      </c>
       <c r="G179" s="3"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -8616,9 +9612,15 @@
       <c r="C180" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="5"/>
+      <c r="D180" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>1036</v>
+      </c>
       <c r="G180" s="3"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -8633,14 +9635,20 @@
       <c r="C181" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D181" s="4"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="5"/>
+      <c r="D181" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>1037</v>
+      </c>
       <c r="G181" s="3"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="14.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -8650,14 +9658,20 @@
       <c r="C182" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D182" s="4"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="5"/>
+      <c r="D182" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>1038</v>
+      </c>
       <c r="G182" s="3"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="14.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -8667,9 +9681,15 @@
       <c r="C183" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D183" s="4"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="5"/>
+      <c r="D183" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>1023</v>
+      </c>
       <c r="G183" s="3"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -8684,9 +9704,15 @@
       <c r="C184" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="5"/>
+      <c r="D184" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>1039</v>
+      </c>
       <c r="G184" s="3"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -8701,9 +9727,15 @@
       <c r="C185" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="D185" s="4"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="5"/>
+      <c r="D185" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>1040</v>
+      </c>
       <c r="G185" s="3"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -8718,14 +9750,18 @@
       <c r="C186" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="4" t="s">
+        <v>1029</v>
+      </c>
       <c r="E186" s="1"/>
-      <c r="F186" s="5"/>
+      <c r="F186" s="5" t="s">
+        <v>1041</v>
+      </c>
       <c r="G186" s="3"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="14.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -8735,9 +9771,13 @@
       <c r="C187" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="4" t="s">
+        <v>1030</v>
+      </c>
       <c r="E187" s="1"/>
-      <c r="F187" s="5"/>
+      <c r="F187" s="5" t="s">
+        <v>1042</v>
+      </c>
       <c r="G187" s="3"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -8752,9 +9792,13 @@
       <c r="C188" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D188" s="4"/>
+      <c r="D188" s="4" t="s">
+        <v>1031</v>
+      </c>
       <c r="E188" s="1"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="5" t="s">
+        <v>1043</v>
+      </c>
       <c r="G188" s="3"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -8769,9 +9813,13 @@
       <c r="C189" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D189" s="4"/>
+      <c r="D189" s="4" t="s">
+        <v>1032</v>
+      </c>
       <c r="E189" s="1"/>
-      <c r="F189" s="5"/>
+      <c r="F189" s="5" t="s">
+        <v>1044</v>
+      </c>
       <c r="G189" s="3"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -8780,9 +9828,15 @@
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="5"/>
+      <c r="D190" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>1074</v>
+      </c>
       <c r="G190" s="3"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -8791,9 +9845,15 @@
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="5"/>
+      <c r="D191" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>1073</v>
+      </c>
       <c r="G191" s="3"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -8802,9 +9862,15 @@
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="5"/>
+      <c r="D192" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>1072</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -8813,9 +9879,15 @@
       <c r="A193" s="4"/>
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="5"/>
+      <c r="D193" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>1071</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -8824,9 +9896,15 @@
       <c r="A194" s="4"/>
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="5"/>
+      <c r="D194" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>1070</v>
+      </c>
       <c r="G194" s="3"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -8835,9 +9913,15 @@
       <c r="A195" s="4"/>
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="5"/>
+      <c r="D195" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="G195" s="3"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -8846,9 +9930,13 @@
       <c r="A196" s="4"/>
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="4" t="s">
+        <v>1057</v>
+      </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="5"/>
+      <c r="F196" s="5" t="s">
+        <v>1069</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -8857,9 +9945,15 @@
       <c r="A197" s="4"/>
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="5"/>
+      <c r="D197" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>1068</v>
+      </c>
       <c r="G197" s="3"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -8868,9 +9962,13 @@
       <c r="A198" s="4"/>
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="4" t="s">
+        <v>1060</v>
+      </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="5"/>
+      <c r="F198" s="5" t="s">
+        <v>1067</v>
+      </c>
       <c r="G198" s="3"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -8879,9 +9977,15 @@
       <c r="A199" s="4"/>
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="5"/>
+      <c r="D199" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>1066</v>
+      </c>
       <c r="G199" s="3"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -8890,9 +9994,15 @@
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="5"/>
+      <c r="D200" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>1065</v>
+      </c>
       <c r="G200" s="3"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -8930,7 +10040,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="14.25" thickBot="1">
+    <row r="204" spans="1:9" ht="15.75" thickBot="1">
       <c r="A204" s="15"/>
       <c r="B204" s="16"/>
       <c r="C204" s="17"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1120">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4915,16 +4915,366 @@
   <si>
     <t>稻子</t>
   </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第１週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第２週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第３週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第４週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第５週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組</t>
+    <rPh sb="0" eb="1">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>合作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织，班，排版</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>込み</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一包在内</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見込み</t>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みこみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>前景，估</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计，盼望</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深刻的</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふかく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深く</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>けんさく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检索，检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查，查看</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <rPh sb="0" eb="2">
+      <t>ガイネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がいねん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>…的方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間</t>
+    <rPh sb="0" eb="1">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あいだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>…之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原則</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>げんそく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開講</t>
+    <rPh sb="0" eb="2">
+      <t>カイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讲课</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>転科</t>
+    <rPh sb="0" eb="2">
+      <t>テンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てんか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>转科</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扱い</t>
+    <rPh sb="0" eb="1">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あつかい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>使用，操</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纵，对待，看待</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紐付け</t>
+    <rPh sb="0" eb="1">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひもづけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>把词和词、其他的文字、URL、图片等连接起来</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4932,13 +5282,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4946,7 +5296,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5010,8 +5360,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5024,8 +5382,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -5040,17 +5410,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -5241,48 +5600,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5291,12 +5729,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5574,55 +6022,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -5640,12 +6095,18 @@
       <c r="E4" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="4" t="s">
@@ -5661,12 +6122,18 @@
         <v>534</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="4" t="s">
@@ -5682,12 +6149,18 @@
         <v>536</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
@@ -5705,12 +6178,18 @@
       <c r="E7" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
@@ -5728,12 +6207,18 @@
       <c r="E8" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
@@ -5751,12 +6236,18 @@
       <c r="E9" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
@@ -5772,12 +6263,18 @@
         <v>550</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
@@ -5795,12 +6292,16 @@
       <c r="E11" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>1029</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="4" t="s">
@@ -5818,12 +6319,16 @@
       <c r="E12" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>1030</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="5" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
@@ -5841,12 +6346,16 @@
       <c r="E13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>1031</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="5" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
@@ -5864,12 +6373,16 @@
       <c r="E14" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>1032</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
@@ -5887,12 +6400,18 @@
       <c r="E15" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="4" t="s">
@@ -5910,12 +6429,18 @@
       <c r="E16" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
@@ -5933,12 +6458,18 @@
       <c r="E17" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
@@ -5956,12 +6487,18 @@
       <c r="E18" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
@@ -5977,12 +6514,18 @@
         <v>571</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
@@ -6000,12 +6543,18 @@
       <c r="E20" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
@@ -6023,12 +6572,16 @@
       <c r="E21" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>1057</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
@@ -6044,12 +6597,18 @@
         <v>579</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
@@ -6067,12 +6626,16 @@
       <c r="E23" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>1060</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="5" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
@@ -6088,12 +6651,18 @@
         <v>584</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
@@ -6109,12 +6678,18 @@
         <v>586</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="4" t="s">
@@ -6130,12 +6705,12 @@
         <v>588</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
@@ -6153,12 +6728,12 @@
       <c r="E27" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
@@ -6176,12 +6751,12 @@
       <c r="E28" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
@@ -6199,12 +6774,12 @@
       <c r="E29" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
@@ -6222,12 +6797,12 @@
       <c r="E30" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
@@ -6245,12 +6820,12 @@
       <c r="E31" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
@@ -6268,12 +6843,12 @@
       <c r="E32" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
@@ -6291,12 +6866,12 @@
       <c r="E33" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="4" t="s">
@@ -6314,12 +6889,12 @@
       <c r="E34" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="4" t="s">
@@ -6337,12 +6912,12 @@
       <c r="E35" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="4" t="s">
@@ -6360,12 +6935,12 @@
       <c r="E36" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="4" t="s">
@@ -6383,12 +6958,12 @@
       <c r="E37" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="4" t="s">
@@ -6406,12 +6981,12 @@
       <c r="E38" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="4" t="s">
@@ -6429,12 +7004,12 @@
       <c r="E39" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
@@ -6452,12 +7027,12 @@
       <c r="E40" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="4" t="s">
@@ -6475,12 +7050,12 @@
       <c r="E41" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="4" t="s">
@@ -6498,12 +7073,12 @@
       <c r="E42" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="4" t="s">
@@ -6521,12 +7096,12 @@
       <c r="E43" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="4" t="s">
@@ -6544,12 +7119,12 @@
       <c r="E44" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="4" t="s">
@@ -6567,12 +7142,12 @@
       <c r="E45" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
@@ -6590,12 +7165,12 @@
       <c r="E46" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="4" t="s">
@@ -6613,12 +7188,12 @@
       <c r="E47" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
@@ -6634,12 +7209,12 @@
         <v>659</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
@@ -6655,12 +7230,12 @@
         <v>661</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
@@ -6678,12 +7253,12 @@
       <c r="E50" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
@@ -6699,14 +7274,14 @@
         <v>666</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -6722,12 +7297,12 @@
       <c r="E52" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="16.5">
       <c r="A53" s="4" t="s">
@@ -6745,12 +7320,12 @@
       <c r="E53" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="4" t="s">
@@ -6768,12 +7343,12 @@
       <c r="E54" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="4" t="s">
@@ -6791,12 +7366,12 @@
       <c r="E55" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
@@ -6814,12 +7389,12 @@
       <c r="E56" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="4" t="s">
@@ -6837,12 +7412,12 @@
       <c r="E57" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="4" t="s">
@@ -6860,12 +7435,12 @@
       <c r="E58" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="17.25">
       <c r="A59" s="4" t="s">
@@ -6883,12 +7458,12 @@
       <c r="E59" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="4" t="s">
@@ -6906,12 +7481,12 @@
       <c r="E60" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="4" t="s">
@@ -6929,12 +7504,12 @@
       <c r="E61" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
@@ -6952,12 +7527,12 @@
       <c r="E62" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="17.25">
       <c r="A63" s="4" t="s">
@@ -6973,12 +7548,12 @@
       <c r="E63" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="4" t="s">
@@ -6996,12 +7571,12 @@
       <c r="E64" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="G64" s="3"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="4" t="s">
@@ -7017,12 +7592,12 @@
       <c r="E65" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="4" t="s">
@@ -7040,12 +7615,12 @@
       <c r="E66" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="4" t="s">
@@ -7063,12 +7638,12 @@
       <c r="E67" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="4" t="s">
@@ -7086,12 +7661,12 @@
       <c r="E68" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="G68" s="3"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="4" t="s">
@@ -7109,12 +7684,12 @@
       <c r="E69" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="4" t="s">
@@ -7132,12 +7707,12 @@
       <c r="E70" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="4" t="s">
@@ -7155,12 +7730,12 @@
       <c r="E71" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
@@ -7178,12 +7753,12 @@
       <c r="E72" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
@@ -7201,12 +7776,12 @@
       <c r="E73" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="4" t="s">
@@ -7224,12 +7799,12 @@
       <c r="E74" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="4" t="s">
@@ -7250,9 +7825,9 @@
       <c r="F75" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="4" t="s">
@@ -7270,12 +7845,12 @@
       <c r="E76" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="4" t="s">
@@ -7293,12 +7868,12 @@
       <c r="E77" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="G77" s="3"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="4" t="s">
@@ -7316,12 +7891,12 @@
       <c r="E78" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="4" t="s">
@@ -7339,12 +7914,12 @@
       <c r="E79" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="4" t="s">
@@ -7365,9 +7940,9 @@
       <c r="F80" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="G80" s="3"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="4" t="s">
@@ -7388,9 +7963,9 @@
       <c r="F81" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G81" s="3"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="4" t="s">
@@ -7408,12 +7983,12 @@
       <c r="E82" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="G82" s="3"/>
+      <c r="G82" s="4"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="4" t="s">
@@ -7431,12 +8006,12 @@
       <c r="E83" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="4" t="s">
@@ -7457,9 +8032,9 @@
       <c r="F84" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="4" t="s">
@@ -7480,9 +8055,9 @@
       <c r="F85" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="4" t="s">
@@ -7503,9 +8078,9 @@
       <c r="F86" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="G86" s="3"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="4" t="s">
@@ -7526,9 +8101,9 @@
       <c r="F87" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G87" s="3"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4" t="s">
@@ -7544,12 +8119,12 @@
         <v>775</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="G88" s="3"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="4" t="s">
@@ -7570,9 +8145,9 @@
       <c r="F89" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G89" s="3"/>
+      <c r="G89" s="4"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="4" t="s">
@@ -7593,9 +8168,9 @@
       <c r="F90" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="4"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="4" t="s">
@@ -7616,9 +8191,9 @@
       <c r="F91" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="4" t="s">
@@ -7639,9 +8214,9 @@
       <c r="F92" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="4"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="4" t="s">
@@ -7659,12 +8234,12 @@
       <c r="E93" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="4"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4" t="s">
@@ -7682,12 +8257,12 @@
       <c r="E94" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="G94" s="3"/>
+      <c r="G94" s="4"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4" t="s">
@@ -7705,12 +8280,12 @@
       <c r="E95" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G95" s="3"/>
+      <c r="G95" s="4"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
@@ -7728,12 +8303,12 @@
       <c r="E96" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="G96" s="3"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4" t="s">
@@ -7751,12 +8326,12 @@
       <c r="E97" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="4"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="4" t="s">
@@ -7774,12 +8349,12 @@
       <c r="E98" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="G98" s="3"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4" t="s">
@@ -7797,12 +8372,12 @@
       <c r="E99" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G99" s="3"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="4" t="s">
@@ -7820,12 +8395,12 @@
       <c r="E100" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="G100" s="3"/>
+      <c r="G100" s="4"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="4" t="s">
@@ -7843,12 +8418,12 @@
       <c r="E101" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="4"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="4" t="s">
@@ -7866,12 +8441,12 @@
       <c r="E102" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="G102" s="3"/>
+      <c r="G102" s="4"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="17.25">
       <c r="A103" s="4" t="s">
@@ -7887,12 +8462,12 @@
       <c r="E103" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="G103" s="3"/>
+      <c r="G103" s="4"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
@@ -7908,12 +8483,12 @@
       <c r="E104" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="G104" s="3"/>
+      <c r="G104" s="4"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="4" t="s">
@@ -7934,9 +8509,9 @@
       <c r="F105" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="G105" s="3"/>
+      <c r="G105" s="4"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="4" t="s">
@@ -7957,9 +8532,9 @@
       <c r="F106" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="G106" s="3"/>
+      <c r="G106" s="4"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="4" t="s">
@@ -7980,9 +8555,9 @@
       <c r="F107" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="4" t="s">
@@ -8003,9 +8578,9 @@
       <c r="F108" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="4"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="4" t="s">
@@ -8021,12 +8596,12 @@
         <v>834</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="24" t="s">
+      <c r="F109" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="4"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
@@ -8044,12 +8619,12 @@
       <c r="E110" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="4"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="4" t="s">
@@ -8070,9 +8645,9 @@
       <c r="F111" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="G111" s="3"/>
+      <c r="G111" s="4"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="4" t="s">
@@ -8091,9 +8666,9 @@
       <c r="F112" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
@@ -8111,12 +8686,12 @@
       <c r="E113" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="21" t="s">
         <v>845</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="4" t="s">
@@ -8137,9 +8712,9 @@
       <c r="F114" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="G114" s="3"/>
+      <c r="G114" s="4"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="4" t="s">
@@ -8157,12 +8732,12 @@
       <c r="E115" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="G115" s="3"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="4" t="s">
@@ -8180,12 +8755,12 @@
       <c r="E116" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="G116" s="3"/>
+      <c r="G116" s="4"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="4" t="s">
@@ -8204,9 +8779,9 @@
       <c r="F117" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="G117" s="3"/>
+      <c r="G117" s="4"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
@@ -8224,12 +8799,12 @@
       <c r="E118" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="G118" s="3"/>
+      <c r="G118" s="4"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
@@ -8247,12 +8822,12 @@
       <c r="E119" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="G119" s="3"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
@@ -8270,12 +8845,12 @@
       <c r="E120" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="G120" s="3"/>
+      <c r="G120" s="4"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
@@ -8293,12 +8868,12 @@
       <c r="E121" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="G121" s="3"/>
+      <c r="G121" s="4"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
@@ -8316,12 +8891,12 @@
       <c r="E122" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="G122" s="3"/>
+      <c r="G122" s="4"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+      <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
@@ -8339,12 +8914,12 @@
       <c r="E123" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="4"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
@@ -8362,12 +8937,12 @@
       <c r="E124" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="G124" s="3"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
@@ -8385,12 +8960,12 @@
       <c r="E125" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="G125" s="3"/>
+      <c r="G125" s="4"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
@@ -8408,12 +8983,12 @@
       <c r="E126" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="4"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="4" t="s">
@@ -8431,12 +9006,12 @@
       <c r="E127" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="4"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="4" t="s">
@@ -8452,12 +9027,12 @@
         <v>877</v>
       </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="G128" s="3"/>
+      <c r="G128" s="4"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="4" t="s">
@@ -8475,12 +9050,12 @@
       <c r="E129" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="G129" s="3"/>
+      <c r="G129" s="4"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="4" t="s">
@@ -8496,12 +9071,12 @@
         <v>879</v>
       </c>
       <c r="E130" s="1"/>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="4" t="s">
@@ -8517,12 +9092,12 @@
         <v>880</v>
       </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="4"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="4" t="s">
@@ -8538,12 +9113,12 @@
         <v>881</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="4"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="4" t="s">
@@ -8561,12 +9136,12 @@
       <c r="E133" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="G133" s="3"/>
+      <c r="G133" s="4"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="4" t="s">
@@ -8580,12 +9155,12 @@
         <v>898</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="G134" s="3"/>
+      <c r="G134" s="4"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="4" t="s">
@@ -8601,12 +9176,12 @@
         <v>899</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="G135" s="3"/>
+      <c r="G135" s="4"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="4" t="s">
@@ -8624,12 +9199,12 @@
       <c r="E136" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="21" t="s">
         <v>929</v>
       </c>
-      <c r="G136" s="3"/>
+      <c r="G136" s="4"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
+      <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="4" t="s">
@@ -8647,12 +9222,12 @@
       <c r="E137" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="G137" s="3"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+      <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="4" t="s">
@@ -8670,12 +9245,12 @@
       <c r="E138" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="G138" s="3"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+      <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="4" t="s">
@@ -8693,12 +9268,12 @@
       <c r="E139" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="4"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
@@ -8716,12 +9291,12 @@
       <c r="E140" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G140" s="3"/>
+      <c r="G140" s="4"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+      <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="4" t="s">
@@ -8739,12 +9314,12 @@
       <c r="E141" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="G141" s="3"/>
+      <c r="G141" s="4"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="4" t="s">
@@ -8762,12 +9337,12 @@
       <c r="E142" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="G142" s="3"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+      <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="4" t="s">
@@ -8785,12 +9360,12 @@
       <c r="E143" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="G143" s="3"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
@@ -8808,12 +9383,12 @@
       <c r="E144" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="G144" s="3"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="5"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="4" t="s">
@@ -8829,12 +9404,12 @@
         <v>918</v>
       </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="G145" s="3"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="4" t="s">
@@ -8850,12 +9425,12 @@
         <v>919</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="4" t="s">
@@ -8871,12 +9446,12 @@
         <v>933</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="G147" s="3"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="4" t="s">
@@ -8894,14 +9469,14 @@
       <c r="E148" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="G148" s="3"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -8917,12 +9492,12 @@
       <c r="E149" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="21" t="s">
         <v>959</v>
       </c>
-      <c r="G149" s="3"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+      <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="4" t="s">
@@ -8940,12 +9515,12 @@
       <c r="E150" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="G150" s="3"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+      <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="4" t="s">
@@ -8963,12 +9538,12 @@
       <c r="E151" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="G151" s="3"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
+      <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="4" t="s">
@@ -8986,12 +9561,12 @@
       <c r="E152" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="G152" s="3"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
+      <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="4" t="s">
@@ -9009,12 +9584,12 @@
       <c r="E153" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="G153" s="3"/>
+      <c r="G153" s="4"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
+      <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="4" t="s">
@@ -9032,12 +9607,12 @@
       <c r="E154" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="G154" s="3"/>
+      <c r="G154" s="4"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+      <c r="I154" s="5"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="4" t="s">
@@ -9055,12 +9630,12 @@
       <c r="E155" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="21" t="s">
         <v>954</v>
       </c>
-      <c r="G155" s="3"/>
+      <c r="G155" s="4"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
+      <c r="I155" s="5"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="4" t="s">
@@ -9078,12 +9653,12 @@
       <c r="E156" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="G156" s="3"/>
+      <c r="G156" s="4"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+      <c r="I156" s="5"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="4" t="s">
@@ -9099,12 +9674,12 @@
         <v>951</v>
       </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="G157" s="3"/>
+      <c r="G157" s="4"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
+      <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="4" t="s">
@@ -9122,12 +9697,12 @@
       <c r="E158" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="21" t="s">
         <v>987</v>
       </c>
-      <c r="G158" s="3"/>
+      <c r="G158" s="4"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+      <c r="I158" s="5"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="4" t="s">
@@ -9145,12 +9720,12 @@
       <c r="E159" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="G159" s="3"/>
+      <c r="G159" s="4"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+      <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="4" t="s">
@@ -9168,12 +9743,12 @@
       <c r="E160" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="G160" s="3"/>
+      <c r="G160" s="4"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="5"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="4" t="s">
@@ -9189,12 +9764,12 @@
         <v>968</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="G161" s="3"/>
+      <c r="G161" s="4"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="5"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="4" t="s">
@@ -9210,12 +9785,12 @@
         <v>969</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="G162" s="3"/>
+      <c r="G162" s="4"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+      <c r="I162" s="5"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="4" t="s">
@@ -9233,12 +9808,12 @@
       <c r="E163" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="G163" s="3"/>
+      <c r="G163" s="4"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="4" t="s">
@@ -9256,12 +9831,12 @@
       <c r="E164" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="G164" s="3"/>
+      <c r="G164" s="4"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+      <c r="I164" s="5"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="4" t="s">
@@ -9279,12 +9854,12 @@
       <c r="E165" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="G165" s="3"/>
+      <c r="G165" s="4"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+      <c r="I165" s="5"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="4" t="s">
@@ -9300,12 +9875,12 @@
         <v>976</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="G166" s="3"/>
+      <c r="G166" s="4"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+      <c r="I166" s="5"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="4" t="s">
@@ -9321,12 +9896,12 @@
         <v>978</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="G167" s="3"/>
+      <c r="G167" s="4"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
+      <c r="I167" s="5"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="4" t="s">
@@ -9342,12 +9917,12 @@
         <v>977</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="21" t="s">
         <v>980</v>
       </c>
-      <c r="G168" s="3"/>
+      <c r="G168" s="4"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
+      <c r="I168" s="5"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="4" t="s">
@@ -9365,12 +9940,12 @@
       <c r="E169" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="21" t="s">
         <v>1010</v>
       </c>
-      <c r="G169" s="3"/>
+      <c r="G169" s="4"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+      <c r="I169" s="5"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="4" t="s">
@@ -9388,12 +9963,12 @@
       <c r="E170" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="21" t="s">
         <v>1009</v>
       </c>
-      <c r="G170" s="3"/>
+      <c r="G170" s="4"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+      <c r="I170" s="5"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="4" t="s">
@@ -9411,12 +9986,12 @@
       <c r="E171" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="21" t="s">
         <v>1008</v>
       </c>
-      <c r="G171" s="3"/>
+      <c r="G171" s="4"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+      <c r="I171" s="5"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="4" t="s">
@@ -9434,12 +10009,12 @@
       <c r="E172" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="21" t="s">
         <v>1007</v>
       </c>
-      <c r="G172" s="3"/>
+      <c r="G172" s="4"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+      <c r="I172" s="5"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="4" t="s">
@@ -9457,12 +10032,12 @@
       <c r="E173" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="21" t="s">
         <v>1006</v>
       </c>
-      <c r="G173" s="3"/>
+      <c r="G173" s="4"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
+      <c r="I173" s="5"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="4" t="s">
@@ -9480,14 +10055,14 @@
       <c r="E174" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="G174" s="3"/>
+      <c r="G174" s="4"/>
       <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -9503,14 +10078,14 @@
       <c r="E175" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="G175" s="3"/>
+      <c r="G175" s="4"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -9526,12 +10101,12 @@
       <c r="E176" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="G176" s="3"/>
+      <c r="G176" s="4"/>
       <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
+      <c r="I176" s="5"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="4" t="s">
@@ -9549,12 +10124,12 @@
       <c r="E177" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="G177" s="3"/>
+      <c r="G177" s="4"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
+      <c r="I177" s="5"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="4" t="s">
@@ -9566,18 +10141,18 @@
       <c r="C178" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="30" t="s">
         <v>1013</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" s="31" t="s">
         <v>1014</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="32" t="s">
         <v>1034</v>
       </c>
-      <c r="G178" s="3"/>
+      <c r="G178" s="4"/>
       <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
+      <c r="I178" s="5"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="4" t="s">
@@ -9586,21 +10161,15 @@
       <c r="B179" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>1035</v>
-      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="5"/>
       <c r="G179" s="3"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
+      <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="4" t="s">
@@ -9609,21 +10178,15 @@
       <c r="B180" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>1036</v>
-      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="5"/>
       <c r="G180" s="3"/>
       <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
+      <c r="I180" s="5"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="4" t="s">
@@ -9632,67 +10195,49 @@
       <c r="B181" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>1037</v>
-      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="5"/>
       <c r="G181" s="3"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>1038</v>
-      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="5"/>
       <c r="G182" s="3"/>
       <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>1023</v>
-      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="5"/>
       <c r="G183" s="3"/>
       <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
+      <c r="I183" s="5"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="4" t="s">
@@ -9701,21 +10246,15 @@
       <c r="B184" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>1039</v>
-      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="5"/>
       <c r="G184" s="3"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
+      <c r="I184" s="5"/>
     </row>
     <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="4" t="s">
@@ -9724,21 +10263,15 @@
       <c r="B185" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>1040</v>
-      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="5"/>
       <c r="G185" s="3"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
+      <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="4" t="s">
@@ -9747,40 +10280,32 @@
       <c r="B186" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>1029</v>
-      </c>
+      <c r="D186" s="4"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="5" t="s">
-        <v>1041</v>
-      </c>
+      <c r="F186" s="5"/>
       <c r="G186" s="3"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>1030</v>
-      </c>
+      <c r="D187" s="4"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="5" t="s">
-        <v>1042</v>
-      </c>
+      <c r="F187" s="5"/>
       <c r="G187" s="3"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
+      <c r="I187" s="5"/>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="4" t="s">
@@ -9789,19 +10314,15 @@
       <c r="B188" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>1031</v>
-      </c>
+      <c r="D188" s="4"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="5" t="s">
-        <v>1043</v>
-      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="3"/>
       <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
+      <c r="I188" s="5"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="4" t="s">
@@ -9810,253 +10331,3737 @@
       <c r="B189" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>1032</v>
-      </c>
+      <c r="D189" s="4"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="5" t="s">
-        <v>1044</v>
-      </c>
+      <c r="F189" s="5"/>
       <c r="G189" s="3"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
+      <c r="I189" s="5"/>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>1074</v>
-      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="5"/>
       <c r="G190" s="3"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
+      <c r="I190" s="5"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>1073</v>
-      </c>
+      <c r="C191" s="21"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="5"/>
       <c r="G191" s="3"/>
       <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
+      <c r="I191" s="5"/>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>1072</v>
-      </c>
+      <c r="C192" s="21"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="5"/>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" s="4"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>1071</v>
-      </c>
+      <c r="C193" s="21"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="3"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" s="4"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>1070</v>
-      </c>
+      <c r="C194" s="21"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="3"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" s="4"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>1055</v>
-      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="5"/>
       <c r="G195" s="3"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" s="4"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="4" t="s">
-        <v>1057</v>
-      </c>
+      <c r="C196" s="21"/>
+      <c r="D196" s="4"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="5" t="s">
-        <v>1069</v>
-      </c>
+      <c r="F196" s="5"/>
       <c r="G196" s="3"/>
       <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" s="4"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>1068</v>
-      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="5"/>
       <c r="G197" s="3"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" s="4"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="4" t="s">
-        <v>1060</v>
-      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="5" t="s">
-        <v>1067</v>
-      </c>
+      <c r="F198" s="5"/>
       <c r="G198" s="3"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" s="4"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>1066</v>
-      </c>
+      <c r="C199" s="21"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="3"/>
       <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>1065</v>
-      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="5"/>
       <c r="G200" s="3"/>
       <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" s="4"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="5"/>
+      <c r="C201" s="21"/>
       <c r="D201" s="4"/>
       <c r="E201" s="1"/>
       <c r="F201" s="5"/>
       <c r="G201" s="3"/>
       <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" s="4"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="5"/>
+      <c r="C202" s="21"/>
       <c r="D202" s="4"/>
       <c r="E202" s="1"/>
       <c r="F202" s="5"/>
       <c r="G202" s="3"/>
       <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" s="4"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="5"/>
+      <c r="C203" s="21"/>
       <c r="D203" s="4"/>
       <c r="E203" s="1"/>
       <c r="F203" s="5"/>
       <c r="G203" s="3"/>
       <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A204" s="15"/>
-      <c r="B204" s="16"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A204" s="14"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="29"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="16"/>
+    </row>
+    <row r="207" spans="1:15" ht="17.25">
+      <c r="A207" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B207" s="34"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
+      <c r="L207" s="34"/>
+      <c r="M207" s="34"/>
+      <c r="N207" s="34"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K208" s="33"/>
+      <c r="L208" s="33"/>
+      <c r="M208" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N208" s="33"/>
+      <c r="O208" s="33"/>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" s="40">
+        <v>43010</v>
+      </c>
+      <c r="B209" s="41"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="1:15" ht="16.5">
+      <c r="A222" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row r="255" spans="1:15">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+    </row>
+    <row r="261" spans="1:15">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+    </row>
+    <row r="264" spans="1:15">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+    </row>
+    <row r="265" spans="1:15">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+    </row>
+    <row r="266" spans="1:15">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+    </row>
+    <row r="267" spans="1:15">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+    </row>
+    <row r="268" spans="1:15">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+    </row>
+    <row r="269" spans="1:15">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+    </row>
+    <row r="270" spans="1:15">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+    </row>
+    <row r="271" spans="1:15">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+    </row>
+    <row r="272" spans="1:15">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+    </row>
+    <row r="273" spans="1:15">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+    </row>
+    <row r="274" spans="1:15">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+    </row>
+    <row r="275" spans="1:15">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+    </row>
+    <row r="276" spans="1:15">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+    </row>
+    <row r="285" spans="1:15">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+    </row>
+    <row r="287" spans="1:15">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+    </row>
+    <row r="288" spans="1:15">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+    </row>
+    <row r="289" spans="1:15">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+    </row>
+    <row r="290" spans="1:15">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+    </row>
+    <row r="291" spans="1:15">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+    </row>
+    <row r="292" spans="1:15">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+    </row>
+    <row r="293" spans="1:15">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+    </row>
+    <row r="294" spans="1:15">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+    </row>
+    <row r="305" spans="1:15">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+    </row>
+    <row r="312" spans="1:15">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+    </row>
+    <row r="315" spans="1:15">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+    </row>
+    <row r="316" spans="1:15">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+      <c r="K316" s="1"/>
+      <c r="L316" s="1"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+      <c r="K317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1"/>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+      <c r="K323" s="1"/>
+      <c r="L323" s="1"/>
+      <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+    </row>
+    <row r="324" spans="1:15">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1"/>
+      <c r="L324" s="1"/>
+      <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+      <c r="K326" s="1"/>
+      <c r="L326" s="1"/>
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+      <c r="K327" s="1"/>
+      <c r="L327" s="1"/>
+      <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+    </row>
+    <row r="329" spans="1:15">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+    </row>
+    <row r="330" spans="1:15">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+    </row>
+    <row r="332" spans="1:15">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+      <c r="K332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row r="342" spans="1:15">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+    </row>
+    <row r="343" spans="1:15">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+    </row>
+    <row r="344" spans="1:15">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+    </row>
+    <row r="346" spans="1:15">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+    </row>
+    <row r="348" spans="1:15">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+    </row>
+    <row r="349" spans="1:15">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+    </row>
+    <row r="350" spans="1:15">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+    </row>
+    <row r="351" spans="1:15">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+    </row>
+    <row r="352" spans="1:15">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+    </row>
+    <row r="353" spans="1:15">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+    </row>
+    <row r="354" spans="1:15">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+    </row>
+    <row r="355" spans="1:15">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+    </row>
+    <row r="356" spans="1:15">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+    </row>
+    <row r="362" spans="1:15">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1"/>
+      <c r="N365" s="1"/>
+      <c r="O365" s="1"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+      <c r="H366" s="1"/>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="M366" s="1"/>
+      <c r="N366" s="1"/>
+      <c r="O366" s="1"/>
+    </row>
+    <row r="367" spans="1:15">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+    </row>
+    <row r="369" spans="1:15">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+      <c r="H369" s="1"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+    </row>
+    <row r="370" spans="1:15">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+    </row>
+    <row r="371" spans="1:15">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+      <c r="H371" s="1"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+    </row>
+    <row r="372" spans="1:15">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+    </row>
+    <row r="373" spans="1:15">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+    </row>
+    <row r="376" spans="1:15">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+    </row>
+    <row r="380" spans="1:15">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="M381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+    </row>
+    <row r="382" spans="1:15">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
+      <c r="K382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="M384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+    </row>
+    <row r="385" spans="1:15">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+    </row>
+    <row r="386" spans="1:15">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
+      <c r="O386" s="1"/>
+    </row>
+    <row r="387" spans="1:15">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+    </row>
+    <row r="388" spans="1:15">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+    </row>
+    <row r="391" spans="1:15">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+    </row>
+    <row r="394" spans="1:15">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+    </row>
+    <row r="395" spans="1:15">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+    </row>
+    <row r="396" spans="1:15">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+    </row>
+    <row r="397" spans="1:15">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+    </row>
+    <row r="398" spans="1:15">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+    </row>
+    <row r="399" spans="1:15">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+    </row>
+    <row r="400" spans="1:15">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+    </row>
+    <row r="401" spans="1:15">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+    </row>
+    <row r="402" spans="1:15">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+    </row>
+    <row r="403" spans="1:15">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+    </row>
+    <row r="404" spans="1:15">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="1"/>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1"/>
+      <c r="K404" s="1"/>
+      <c r="L404" s="1"/>
+      <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
+      <c r="O404" s="1"/>
+    </row>
+    <row r="405" spans="1:15">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+    </row>
+    <row r="407" spans="1:15">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+    </row>
+    <row r="408" spans="1:15">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+    </row>
+    <row r="409" spans="1:15">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="J208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="A207:N207"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="G208:I208"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1170">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1871,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1980,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2200,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2555,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2566,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2587,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2755,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2909,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2920,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5032,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5197,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5265,16 +5266,166 @@
   <si>
     <t>把词和词、其他的文字、URL、图片等连接起来</t>
   </si>
+  <si>
+    <t>歩く</t>
+  </si>
+  <si>
+    <t>あるく</t>
+  </si>
+  <si>
+    <t>祈る</t>
+  </si>
+  <si>
+    <t>いのる</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>えいが</t>
+  </si>
+  <si>
+    <t>通う</t>
+  </si>
+  <si>
+    <t>かよう</t>
+  </si>
+  <si>
+    <t>記事</t>
+  </si>
+  <si>
+    <t>きじ</t>
+  </si>
+  <si>
+    <t>禁煙</t>
+  </si>
+  <si>
+    <t>きんえん</t>
+  </si>
+  <si>
+    <t>最終</t>
+  </si>
+  <si>
+    <t>さいしゅう</t>
+  </si>
+  <si>
+    <t>印</t>
+  </si>
+  <si>
+    <t>しるし</t>
+  </si>
+  <si>
+    <t>時給</t>
+  </si>
+  <si>
+    <t>じきゅう</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>じゆう</t>
+  </si>
+  <si>
+    <t>コート</t>
+  </si>
+  <si>
+    <t>外套，上衣</t>
+  </si>
+  <si>
+    <t>计时工资</t>
+  </si>
+  <si>
+    <t>符号，象征</t>
+  </si>
+  <si>
+    <t>最终</t>
+  </si>
+  <si>
+    <t>禁烟</t>
+  </si>
+  <si>
+    <t>报道</t>
+  </si>
+  <si>
+    <t>来往，通勤</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>祈祷</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
+    <t>隅</t>
+  </si>
+  <si>
+    <t>すみ</t>
+  </si>
+  <si>
+    <t>造船</t>
+  </si>
+  <si>
+    <t>ぞうせん</t>
+  </si>
+  <si>
+    <t>宅配便</t>
+  </si>
+  <si>
+    <t>たくはいびん</t>
+  </si>
+  <si>
+    <t>茶碗</t>
+  </si>
+  <si>
+    <t>ちゃわん</t>
+  </si>
+  <si>
+    <t>出掛ける</t>
+  </si>
+  <si>
+    <t>でかける</t>
+  </si>
+  <si>
+    <t>踏む</t>
+  </si>
+  <si>
+    <t>ふむ</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>みせる</t>
+  </si>
+  <si>
+    <t>给…看</t>
+  </si>
+  <si>
+    <t>踩，评价</t>
+  </si>
+  <si>
+    <t>饭碗</t>
+  </si>
+  <si>
+    <t>送货上门服务</t>
+  </si>
+  <si>
+    <t>角落</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5282,13 +5433,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5296,7 +5447,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5363,7 +5514,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -5714,10 +5865,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5729,11 +5878,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5742,9 +5890,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6024,43 +6175,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="35" t="s">
@@ -7281,7 +7432,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -9476,7 +9627,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" ht="14.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10062,7 +10213,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" ht="14.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10085,7 +10236,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="14.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10205,7 +10356,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" ht="14.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10222,7 +10373,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" ht="14.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -10290,7 +10441,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" ht="14.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -10495,7 +10646,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" thickBot="1">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -10506,58 +10657,58 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="17.25">
-      <c r="A207" s="34" t="s">
+    <row r="207" spans="1:15" ht="18.75">
+      <c r="A207" s="42" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="34"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="34"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="34"/>
-      <c r="L207" s="34"/>
-      <c r="M207" s="34"/>
-      <c r="N207" s="34"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="42"/>
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="33" t="s">
+      <c r="A208" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="33"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33" t="s">
+      <c r="B208" s="38"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="38" t="s">
         <v>1077</v>
       </c>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33" t="s">
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="38" t="s">
         <v>1078</v>
       </c>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="33" t="s">
+      <c r="H208" s="38"/>
+      <c r="I208" s="38"/>
+      <c r="J208" s="38" t="s">
         <v>1079</v>
       </c>
-      <c r="K208" s="33"/>
-      <c r="L208" s="33"/>
-      <c r="M208" s="33" t="s">
+      <c r="K208" s="38"/>
+      <c r="L208" s="38"/>
+      <c r="M208" s="38" t="s">
         <v>1080</v>
       </c>
-      <c r="N208" s="33"/>
-      <c r="O208" s="33"/>
+      <c r="N208" s="38"/>
+      <c r="O208" s="38"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="40">
+      <c r="A209" s="39">
         <v>43010</v>
       </c>
-      <c r="B209" s="41"/>
-      <c r="C209" s="42"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="41"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -10670,7 +10821,7 @@
       <c r="B214" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C214" s="39" t="s">
+      <c r="C214" s="33" t="s">
         <v>1095</v>
       </c>
       <c r="D214" s="1"/>
@@ -10808,7 +10959,7 @@
       <c r="B220" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C220" s="39" t="s">
+      <c r="C220" s="33" t="s">
         <v>1113</v>
       </c>
       <c r="D220" s="1"/>
@@ -10871,9 +11022,15 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1150</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -10888,9 +11045,15 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1149</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -10905,9 +11068,15 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1148</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -10922,9 +11091,15 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1147</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -10939,9 +11114,15 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1146</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -10956,9 +11137,15 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1145</v>
+      </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -10973,9 +11160,15 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1144</v>
+      </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -10990,9 +11183,15 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1143</v>
+      </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -11007,9 +11206,15 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1142</v>
+      </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -11024,9 +11229,15 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" spans="1:15">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1138</v>
+      </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -11041,9 +11252,13 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>1140</v>
+      </c>
       <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>1141</v>
+      </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -11058,9 +11273,15 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" spans="1:15">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1169</v>
+      </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -11075,9 +11296,15 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1153</v>
+      </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -11092,9 +11319,15 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
+      <c r="A236" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1168</v>
+      </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -11109,9 +11342,15 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="A237" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1167</v>
+      </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -11126,9 +11365,15 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" spans="1:15">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -11143,9 +11388,15 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1166</v>
+      </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -11160,9 +11411,15 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1165</v>
+      </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1199">
   <si>
     <t>第３週</t>
   </si>
@@ -503,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -534,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1811,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1839,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1850,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1860,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1871,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1906,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1969,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1980,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1990,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2024,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2035,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2099,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2110,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2137,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2148,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2189,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2200,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2210,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2221,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2248,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2291,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2412,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2423,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2433,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2458,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2469,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2527,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2538,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2555,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2566,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2576,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2587,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2622,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2665,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2720,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2731,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2755,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2766,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2909,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2920,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2930,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3037,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3048,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3058,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3068,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3079,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3113,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3134,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3145,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3155,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3166,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3193,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3204,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3296,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3307,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3417,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3428,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3983,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3994,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4004,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4015,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4025,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4989,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5032,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5072,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5083,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5141,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5169,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5197,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5240,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5416,16 +5415,211 @@
   <si>
     <t>角落</t>
   </si>
+  <si>
+    <t>抽出</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちゅうしゅつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>抽出，提取，提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炼</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>变迁，变化</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せんい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しんき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>新的，新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规章</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应，反射</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>反映</t>
+    <rPh sb="0" eb="2">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はんえい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蓄積</t>
+    <rPh sb="0" eb="2">
+      <t>チクセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちくせき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>积蓄，储蓄，积存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追究</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ついきゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追究，追求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>専攻</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>专修，专攻，专门研修</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>照会</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しょうかい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>照会，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>询问，咨询处</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>できる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发生，出现，建立</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じゅうしょ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5433,13 +5627,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5447,7 +5641,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5514,7 +5708,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -5866,7 +6060,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5878,24 +6084,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6175,60 +6369,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -7432,7 +7626,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -9627,7 +9821,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10213,7 +10407,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10236,7 +10430,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10356,7 +10550,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10373,7 +10567,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -10441,7 +10635,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -10646,7 +10840,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="15.75" thickBot="1">
+    <row r="204" spans="1:15" ht="14.25" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -10657,58 +10851,58 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="18.75">
-      <c r="A207" s="42" t="s">
+    <row r="207" spans="1:15" ht="17.25">
+      <c r="A207" s="38" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="42"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="42"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="42"/>
-      <c r="J207" s="42"/>
-      <c r="K207" s="42"/>
-      <c r="L207" s="42"/>
-      <c r="M207" s="42"/>
-      <c r="N207" s="42"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="38"/>
+      <c r="E207" s="38"/>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+      <c r="H207" s="38"/>
+      <c r="I207" s="38"/>
+      <c r="J207" s="38"/>
+      <c r="K207" s="38"/>
+      <c r="L207" s="38"/>
+      <c r="M207" s="38"/>
+      <c r="N207" s="38"/>
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="38" t="s">
+      <c r="A208" s="37" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="38"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="38" t="s">
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37" t="s">
         <v>1077</v>
       </c>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38" t="s">
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="38" t="s">
+      <c r="H208" s="37"/>
+      <c r="I208" s="37"/>
+      <c r="J208" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="K208" s="38"/>
-      <c r="L208" s="38"/>
-      <c r="M208" s="38" t="s">
+      <c r="K208" s="37"/>
+      <c r="L208" s="37"/>
+      <c r="M208" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="N208" s="38"/>
-      <c r="O208" s="38"/>
+      <c r="N208" s="37"/>
+      <c r="O208" s="37"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="39">
+      <c r="A209" s="34">
         <v>43010</v>
       </c>
-      <c r="B209" s="40"/>
-      <c r="C209" s="41"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="36"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -11434,9 +11628,11 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="A241" s="34">
+        <v>43011</v>
+      </c>
+      <c r="B241" s="35"/>
+      <c r="C241" s="36"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -11451,9 +11647,15 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1172</v>
+      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -11468,9 +11670,15 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C243" s="33" t="s">
+        <v>1173</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -11485,9 +11693,15 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
+      <c r="A244" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1178</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -11502,9 +11716,15 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1179</v>
+      </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -11519,9 +11739,15 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C246" s="33" t="s">
+        <v>1184</v>
+      </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -11536,9 +11762,15 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1187</v>
+      </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -11553,9 +11785,15 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" spans="1:15">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
+      <c r="A248" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C248" s="33" t="s">
+        <v>1190</v>
+      </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -11570,9 +11808,15 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="A249" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1193</v>
+      </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -11587,9 +11831,13 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" spans="1:15">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>1194</v>
+      </c>
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="C250" s="33" t="s">
+        <v>1195</v>
+      </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -11604,9 +11852,15 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
+      <c r="A251" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1198</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -14307,18 +14561,19 @@
       <c r="O409" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="J208:L208"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="A207:N207"/>
-    <mergeCell ref="G3:I3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A241:C241"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A208:C208"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="J208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="A207:N207"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1234">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5610,16 +5610,121 @@
     <t>住所</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>木綿</t>
+  </si>
+  <si>
+    <t>もめん</t>
+  </si>
+  <si>
+    <t>よさ</t>
+  </si>
+  <si>
+    <t>ビデオ</t>
+  </si>
+  <si>
+    <t>ポット</t>
+  </si>
+  <si>
+    <t>热水壶</t>
+  </si>
+  <si>
+    <t>录像</t>
+  </si>
+  <si>
+    <t>长处</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>合図</t>
+  </si>
+  <si>
+    <t>あいず</t>
+  </si>
+  <si>
+    <t>返す</t>
+  </si>
+  <si>
+    <t>かえす</t>
+  </si>
+  <si>
+    <t>生地</t>
+  </si>
+  <si>
+    <t>金魚</t>
+  </si>
+  <si>
+    <t>きんぎょ</t>
+  </si>
+  <si>
+    <t>決して</t>
+  </si>
+  <si>
+    <t>けっして</t>
+  </si>
+  <si>
+    <t>習慣</t>
+  </si>
+  <si>
+    <t>しゅうかん</t>
+  </si>
+  <si>
+    <t>白い</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>早退</t>
+  </si>
+  <si>
+    <t>そうたい</t>
+  </si>
+  <si>
+    <t>アルコール</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>酒精</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>习惯</t>
+  </si>
+  <si>
+    <t>绝不</t>
+  </si>
+  <si>
+    <t>金鱼</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>退还</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5627,13 +5732,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5641,7 +5746,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5708,7 +5813,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6069,10 +6174,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6084,12 +6186,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6369,60 +6474,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -7626,7 +7731,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -9821,7 +9926,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" ht="14.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10407,7 +10512,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" ht="14.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10430,7 +10535,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="14.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10550,7 +10655,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" ht="14.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10567,7 +10672,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" ht="14.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -10635,7 +10740,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" ht="14.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -10840,7 +10945,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" thickBot="1">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -10851,51 +10956,51 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="17.25">
-      <c r="A207" s="38" t="s">
+    <row r="207" spans="1:15" ht="18.75">
+      <c r="A207" s="42" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="38"/>
-      <c r="C207" s="38"/>
-      <c r="D207" s="38"/>
-      <c r="E207" s="38"/>
-      <c r="F207" s="38"/>
-      <c r="G207" s="38"/>
-      <c r="H207" s="38"/>
-      <c r="I207" s="38"/>
-      <c r="J207" s="38"/>
-      <c r="K207" s="38"/>
-      <c r="L207" s="38"/>
-      <c r="M207" s="38"/>
-      <c r="N207" s="38"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="42"/>
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="37" t="s">
+      <c r="A208" s="41" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37" t="s">
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="37" t="s">
+      <c r="E208" s="41"/>
+      <c r="F208" s="41"/>
+      <c r="G208" s="41" t="s">
         <v>1078</v>
       </c>
-      <c r="H208" s="37"/>
-      <c r="I208" s="37"/>
-      <c r="J208" s="37" t="s">
+      <c r="H208" s="41"/>
+      <c r="I208" s="41"/>
+      <c r="J208" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="K208" s="37"/>
-      <c r="L208" s="37"/>
-      <c r="M208" s="37" t="s">
+      <c r="K208" s="41"/>
+      <c r="L208" s="41"/>
+      <c r="M208" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="N208" s="37"/>
-      <c r="O208" s="37"/>
+      <c r="N208" s="41"/>
+      <c r="O208" s="41"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="34">
@@ -11875,9 +11980,15 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="A252" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1207</v>
+      </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -11892,9 +12003,13 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1" t="s">
+        <v>1201</v>
+      </c>
       <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>1206</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -11909,9 +12024,13 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
+      <c r="C254" s="1" t="s">
+        <v>1205</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -11926,9 +12045,13 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>1203</v>
+      </c>
       <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="C255" s="1" t="s">
+        <v>1204</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -11943,9 +12066,15 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1233</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -11960,9 +12089,15 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1232</v>
+      </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -11977,9 +12112,15 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1231</v>
+      </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -11994,9 +12135,15 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -12011,9 +12158,15 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1229</v>
+      </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -12028,9 +12181,15 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
+      <c r="A261" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -12045,9 +12204,15 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1227</v>
+      </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -12062,9 +12227,15 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
+      <c r="A263" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1221</v>
+      </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -12079,9 +12250,13 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1" t="s">
+        <v>1223</v>
+      </c>
       <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>1226</v>
+      </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -12096,9 +12271,13 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1" t="s">
+        <v>1224</v>
+      </c>
       <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="C265" s="1" t="s">
+        <v>1225</v>
+      </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -14562,6 +14741,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="A207:N207"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
@@ -14570,10 +14753,6 @@
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
     <mergeCell ref="A209:C209"/>
-    <mergeCell ref="J208:L208"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="A207:N207"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1253">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5715,16 +5715,120 @@
   <si>
     <t>信号</t>
   </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じっこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>实行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいじょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうしん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新、刷新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <rPh sb="0" eb="2">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かもく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>项目，条款。;学科</t>
+  </si>
+  <si>
+    <t>修得</t>
+    <rPh sb="0" eb="2">
+      <t>シュウトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅうとく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学得，掌握</t>
+  </si>
+  <si>
+    <t>可否</t>
+    <rPh sb="0" eb="2">
+      <t>カヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かひ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好坏，可否</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遭遇</t>
+    <rPh sb="0" eb="2">
+      <t>ソウグウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうぐう</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5732,13 +5836,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5746,7 +5850,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5813,7 +5917,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6194,7 +6298,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6474,32 +6578,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -7731,7 +7835,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -9926,7 +10030,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10512,7 +10616,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10535,7 +10639,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10655,7 +10759,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10672,7 +10776,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -10740,7 +10844,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -10945,7 +11049,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="15.75" thickBot="1">
+    <row r="204" spans="1:15" ht="14.25" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -10956,7 +11060,7 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="18.75">
+    <row r="207" spans="1:15" ht="17.25">
       <c r="A207" s="42" t="s">
         <v>1075</v>
       </c>
@@ -12292,9 +12396,11 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="A266" s="34">
+        <v>43012</v>
+      </c>
+      <c r="B266" s="35"/>
+      <c r="C266" s="36"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -12309,9 +12415,15 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="A267" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C267" s="33" t="s">
+        <v>1236</v>
+      </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -12326,9 +12438,15 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="A268" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1237</v>
+      </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -12343,9 +12461,15 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="A269" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1241</v>
+      </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -12359,10 +12483,16 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+    <row r="270" spans="1:15" ht="16.5">
+      <c r="A270" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1244</v>
+      </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -12376,10 +12506,16 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+    <row r="271" spans="1:15" ht="16.5">
+      <c r="A271" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>1247</v>
+      </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -12394,9 +12530,15 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
+      <c r="A272" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1250</v>
+      </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -12411,9 +12553,15 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" spans="1:15">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1251</v>
+      </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -14740,19 +14888,20 @@
       <c r="O409" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="J208:L208"/>
     <mergeCell ref="M208:O208"/>
     <mergeCell ref="A207:N207"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A266:C266"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A208:C208"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
-    <mergeCell ref="A209:C209"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1323">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5819,16 +5819,226 @@
     <t>そうぐう</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>一昨年</t>
+  </si>
+  <si>
+    <t>おととし</t>
+  </si>
+  <si>
+    <t>確か</t>
+  </si>
+  <si>
+    <t>たしか</t>
+  </si>
+  <si>
+    <t>納豆</t>
+  </si>
+  <si>
+    <t>なっとう</t>
+  </si>
+  <si>
+    <t>眠る</t>
+  </si>
+  <si>
+    <t>ねむる</t>
+  </si>
+  <si>
+    <t>みそ汁</t>
+  </si>
+  <si>
+    <t>みそしる</t>
+  </si>
+  <si>
+    <t>もも肉</t>
+  </si>
+  <si>
+    <t>ももにく</t>
+  </si>
+  <si>
+    <t>予習</t>
+  </si>
+  <si>
+    <t>よしゅう</t>
+  </si>
+  <si>
+    <t>渡す</t>
+  </si>
+  <si>
+    <t>わたす</t>
+  </si>
+  <si>
+    <t>バック</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>宾馆</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>送，给，渡</t>
+  </si>
+  <si>
+    <t>预习</t>
+  </si>
+  <si>
+    <t>腿肉</t>
+  </si>
+  <si>
+    <t>味增汤</t>
+  </si>
+  <si>
+    <t>睡觉，长眠</t>
+  </si>
+  <si>
+    <t>纳豆</t>
+  </si>
+  <si>
+    <t>前年</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>あいだ</t>
+  </si>
+  <si>
+    <t>居間</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>大人</t>
+  </si>
+  <si>
+    <t>おとな</t>
+  </si>
+  <si>
+    <t>帰り</t>
+  </si>
+  <si>
+    <t>あえり</t>
+  </si>
+  <si>
+    <t>唐揚げ</t>
+  </si>
+  <si>
+    <t>からあげ</t>
+  </si>
+  <si>
+    <t>記者</t>
+  </si>
+  <si>
+    <t>きしゃ</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>ぎんこう</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>しげん</t>
+  </si>
+  <si>
+    <t>済む</t>
+  </si>
+  <si>
+    <t>すむ</t>
+  </si>
+  <si>
+    <t>手軽</t>
+  </si>
+  <si>
+    <t>てがる</t>
+  </si>
+  <si>
+    <t>ひどい</t>
+  </si>
+  <si>
+    <t>ほど</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>みち</t>
+  </si>
+  <si>
+    <t>模様</t>
+  </si>
+  <si>
+    <t>もよう</t>
+  </si>
+  <si>
+    <t>四日</t>
+  </si>
+  <si>
+    <t>よっか</t>
+  </si>
+  <si>
+    <t>バッグ</t>
+  </si>
+  <si>
+    <t>袋子，包</t>
+  </si>
+  <si>
+    <t>四天，四号</t>
+  </si>
+  <si>
+    <t>花样，图案</t>
+  </si>
+  <si>
+    <t>程度，分寸</t>
+  </si>
+  <si>
+    <t>残酷的</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>记者</t>
+  </si>
+  <si>
+    <t>炸鸡块</t>
+  </si>
+  <si>
+    <t>回来</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>期间，时间</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5836,13 +6046,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5850,7 +6060,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5917,7 +6127,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6269,6 +6479,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6281,24 +6506,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6578,60 +6788,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -7835,7 +8045,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -10030,7 +10240,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" ht="14.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10616,7 +10826,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" ht="14.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10639,7 +10849,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="14.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10759,7 +10969,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" ht="14.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10776,7 +10986,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" ht="14.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -10844,7 +11054,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" ht="14.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -11049,7 +11259,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" thickBot="1">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -11060,58 +11270,58 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="17.25">
-      <c r="A207" s="42" t="s">
+    <row r="207" spans="1:15" ht="18.75">
+      <c r="A207" s="35" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="42"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="42"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="42"/>
-      <c r="J207" s="42"/>
-      <c r="K207" s="42"/>
-      <c r="L207" s="42"/>
-      <c r="M207" s="42"/>
-      <c r="N207" s="42"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="35"/>
+      <c r="J207" s="35"/>
+      <c r="K207" s="35"/>
+      <c r="L207" s="35"/>
+      <c r="M207" s="35"/>
+      <c r="N207" s="35"/>
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="41" t="s">
+      <c r="A208" s="34" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41" t="s">
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34" t="s">
         <v>1077</v>
       </c>
-      <c r="E208" s="41"/>
-      <c r="F208" s="41"/>
-      <c r="G208" s="41" t="s">
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34" t="s">
         <v>1078</v>
       </c>
-      <c r="H208" s="41"/>
-      <c r="I208" s="41"/>
-      <c r="J208" s="41" t="s">
+      <c r="H208" s="34"/>
+      <c r="I208" s="34"/>
+      <c r="J208" s="34" t="s">
         <v>1079</v>
       </c>
-      <c r="K208" s="41"/>
-      <c r="L208" s="41"/>
-      <c r="M208" s="41" t="s">
+      <c r="K208" s="34"/>
+      <c r="L208" s="34"/>
+      <c r="M208" s="34" t="s">
         <v>1080</v>
       </c>
-      <c r="N208" s="41"/>
-      <c r="O208" s="41"/>
+      <c r="N208" s="34"/>
+      <c r="O208" s="34"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="34">
+      <c r="A209" s="39">
         <v>43010</v>
       </c>
-      <c r="B209" s="35"/>
-      <c r="C209" s="36"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="41"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -11837,11 +12047,11 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="34">
+      <c r="A241" s="39">
         <v>43011</v>
       </c>
-      <c r="B241" s="35"/>
-      <c r="C241" s="36"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="41"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -12396,11 +12606,11 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="34">
+      <c r="A266" s="39">
         <v>43012</v>
       </c>
-      <c r="B266" s="35"/>
-      <c r="C266" s="36"/>
+      <c r="B266" s="40"/>
+      <c r="C266" s="41"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -12576,9 +12786,15 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1279</v>
+      </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -12593,9 +12809,15 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" spans="1:15">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="A275" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -12610,9 +12832,15 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="A276" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1278</v>
+      </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -12627,9 +12855,15 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" spans="1:15">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1277</v>
+      </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -12644,9 +12878,15 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="A278" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1276</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -12661,9 +12901,15 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="A279" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -12678,9 +12924,15 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="A280" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1274</v>
+      </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -12695,9 +12947,15 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
+      <c r="A281" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1273</v>
+      </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -12712,9 +12970,13 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1" t="s">
+        <v>1269</v>
+      </c>
       <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="C282" s="1" t="s">
+        <v>1272</v>
+      </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -12729,9 +12991,13 @@
       <c r="O282" s="1"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1" t="s">
+        <v>1270</v>
+      </c>
       <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="C283" s="1" t="s">
+        <v>1271</v>
+      </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -12746,9 +13012,15 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="A284" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1322</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -12763,9 +13035,15 @@
       <c r="O284" s="1"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="A285" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1321</v>
+      </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -12780,9 +13058,15 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="A286" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1320</v>
+      </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -12797,9 +13081,15 @@
       <c r="O286" s="1"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="A287" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1319</v>
+      </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -12814,9 +13104,15 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="A288" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1318</v>
+      </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -12831,9 +13127,15 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="A289" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1317</v>
+      </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -12848,9 +13150,15 @@
       <c r="O289" s="1"/>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="A290" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1316</v>
+      </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -12865,9 +13173,15 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="A291" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1315</v>
+      </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -12882,9 +13196,15 @@
       <c r="O291" s="1"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="A292" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1314</v>
+      </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -12899,9 +13219,15 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="A293" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -12916,9 +13242,13 @@
       <c r="O293" s="1"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1" t="s">
+        <v>1300</v>
+      </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="C294" s="1" t="s">
+        <v>1313</v>
+      </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -12933,9 +13263,13 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1" t="s">
+        <v>1301</v>
+      </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="C295" s="1" t="s">
+        <v>1312</v>
+      </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -12950,9 +13284,15 @@
       <c r="O295" s="1"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="A296" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1055</v>
+      </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -12967,9 +13307,15 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" spans="1:15">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="A297" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1311</v>
+      </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -12984,9 +13330,15 @@
       <c r="O297" s="1"/>
     </row>
     <row r="298" spans="1:15">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="A298" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1310</v>
+      </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -13001,9 +13353,13 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1" t="s">
+        <v>1308</v>
+      </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="C299" s="1" t="s">
+        <v>1309</v>
+      </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -14889,12 +15245,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J208:L208"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="A207:N207"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A209:C209"/>
     <mergeCell ref="A266:C266"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
@@ -14902,6 +15252,12 @@
     <mergeCell ref="A208:C208"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
+    <mergeCell ref="J208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="A207:N207"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A209:C209"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1341">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6029,16 +6029,116 @@
   <si>
     <t>期间，时间</t>
   </si>
+  <si>
+    <t>構築</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうちく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>构筑，建筑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>所定</t>
+    <rPh sb="0" eb="2">
+      <t>ショテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しょてい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定，规定</t>
+  </si>
+  <si>
+    <t>適時</t>
+    <rPh sb="0" eb="2">
+      <t>テキジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てきじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，适时</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間違い</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まちがい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>错误，有误，不正确。;过失，失败，弄糟</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送付</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうふ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发送，寄送，寄出，送出</t>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たんとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担任，担当，担负</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6046,13 +6146,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6060,7 +6160,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6127,7 +6227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6479,21 +6579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6506,9 +6591,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6788,60 +6888,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -8045,7 +8145,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -10240,7 +10340,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -10826,7 +10926,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -10849,7 +10949,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -10969,7 +11069,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -10986,7 +11086,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -11054,7 +11154,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -11259,7 +11359,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="15.75" thickBot="1">
+    <row r="204" spans="1:15" ht="14.25" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -11270,58 +11370,58 @@
       <c r="H204" s="18"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="207" spans="1:15" ht="18.75">
-      <c r="A207" s="35" t="s">
+    <row r="207" spans="1:15" ht="17.25">
+      <c r="A207" s="42" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="35"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="35"/>
-      <c r="E207" s="35"/>
-      <c r="F207" s="35"/>
-      <c r="G207" s="35"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="35"/>
-      <c r="J207" s="35"/>
-      <c r="K207" s="35"/>
-      <c r="L207" s="35"/>
-      <c r="M207" s="35"/>
-      <c r="N207" s="35"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="42"/>
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="34" t="s">
+      <c r="A208" s="41" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34" t="s">
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34" t="s">
+      <c r="E208" s="41"/>
+      <c r="F208" s="41"/>
+      <c r="G208" s="41" t="s">
         <v>1078</v>
       </c>
-      <c r="H208" s="34"/>
-      <c r="I208" s="34"/>
-      <c r="J208" s="34" t="s">
+      <c r="H208" s="41"/>
+      <c r="I208" s="41"/>
+      <c r="J208" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="K208" s="34"/>
-      <c r="L208" s="34"/>
-      <c r="M208" s="34" t="s">
+      <c r="K208" s="41"/>
+      <c r="L208" s="41"/>
+      <c r="M208" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="N208" s="34"/>
-      <c r="O208" s="34"/>
+      <c r="N208" s="41"/>
+      <c r="O208" s="41"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="39">
+      <c r="A209" s="34">
         <v>43010</v>
       </c>
-      <c r="B209" s="40"/>
-      <c r="C209" s="41"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="36"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -12047,11 +12147,11 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="39">
+      <c r="A241" s="34">
         <v>43011</v>
       </c>
-      <c r="B241" s="40"/>
-      <c r="C241" s="41"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="36"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -12606,11 +12706,11 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="39">
+      <c r="A266" s="34">
         <v>43012</v>
       </c>
-      <c r="B266" s="40"/>
-      <c r="C266" s="41"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="36"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -13374,9 +13474,11 @@
       <c r="O299" s="1"/>
     </row>
     <row r="300" spans="1:15">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="A300" s="34">
+        <v>43012</v>
+      </c>
+      <c r="B300" s="35"/>
+      <c r="C300" s="36"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -13391,9 +13493,15 @@
       <c r="O300" s="1"/>
     </row>
     <row r="301" spans="1:15">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
+      <c r="A301" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1325</v>
+      </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -13407,10 +13515,16 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+    <row r="302" spans="1:15" ht="16.5">
+      <c r="A302" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>1328</v>
+      </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -13425,9 +13539,15 @@
       <c r="O302" s="1"/>
     </row>
     <row r="303" spans="1:15">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="A303" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1331</v>
+      </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -13442,9 +13562,15 @@
       <c r="O303" s="1"/>
     </row>
     <row r="304" spans="1:15">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="A304" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>1334</v>
+      </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -13458,10 +13584,16 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+    <row r="305" spans="1:15" ht="16.5">
+      <c r="A305" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1337</v>
+      </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -13475,10 +13607,16 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
+    <row r="306" spans="1:15" ht="16.5">
+      <c r="A306" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>1340</v>
+      </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -15244,7 +15382,14 @@
       <c r="O409" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="J208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="A207:N207"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A209:C209"/>
     <mergeCell ref="A266:C266"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
@@ -15252,12 +15397,6 @@
     <mergeCell ref="A208:C208"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="G208:I208"/>
-    <mergeCell ref="J208:L208"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="A207:N207"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A209:C209"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1784">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6600,7 +6600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6611,7 +6611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6632,7 +6632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6642,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6653,7 +6653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6663,7 +6663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6674,7 +6674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6705,7 +6705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6716,7 +6716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6726,7 +6726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6737,7 +6737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6747,7 +6747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6758,7 +6758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6768,7 +6768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6793,7 +6793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6804,7 +6804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6814,7 +6814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6825,7 +6825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6835,7 +6835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6846,7 +6846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6870,7 +6870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6881,7 +6881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6891,7 +6891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -7018,16 +7018,991 @@
     <t>それはA氏の担当です</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>会う</t>
+  </si>
+  <si>
+    <t>あう</t>
+  </si>
+  <si>
+    <t>【自动词・五段/一类】 会面，见面；偶遇，</t>
+  </si>
+  <si>
+    <t>学校で会う</t>
+  </si>
+  <si>
+    <t>営業課</t>
+  </si>
+  <si>
+    <t>えいぎょうか</t>
+  </si>
+  <si>
+    <t>【名词】 营业部门</t>
+  </si>
+  <si>
+    <t>踊り</t>
+  </si>
+  <si>
+    <t>おどり</t>
+  </si>
+  <si>
+    <t>【名词】舞，舞蹈，跳舞</t>
+  </si>
+  <si>
+    <t>踊りがうまい。</t>
+  </si>
+  <si>
+    <t>近代化</t>
+  </si>
+  <si>
+    <t>きんだいか</t>
+  </si>
+  <si>
+    <t>【自动词・サ变/三类】现代化，近代化。</t>
+  </si>
+  <si>
+    <t>近代化の波</t>
+  </si>
+  <si>
+    <t>技術</t>
+  </si>
+  <si>
+    <t>ぎじゅつ</t>
+  </si>
+  <si>
+    <t>【名词】 技术；工艺</t>
+  </si>
+  <si>
+    <t>技術を修得する</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>【名词】 事情，事件。</t>
+  </si>
+  <si>
+    <t>例の件</t>
+  </si>
+  <si>
+    <t>故郷</t>
+  </si>
+  <si>
+    <t>こきょう</t>
+  </si>
+  <si>
+    <t>【名词】 故乡，家乡，老家</t>
+  </si>
+  <si>
+    <t>故郷へ錦を飾る。</t>
+  </si>
+  <si>
+    <t>事故</t>
+  </si>
+  <si>
+    <t>じこ</t>
+  </si>
+  <si>
+    <t>【名词】 事故。;事由</t>
+  </si>
+  <si>
+    <t>列車の脱線事故</t>
+  </si>
+  <si>
+    <t>アルファベット</t>
+  </si>
+  <si>
+    <t>【名词】字母序列,字母表.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英語をアルファベットから始める </t>
+  </si>
+  <si>
+    <t>ガラス</t>
+  </si>
+  <si>
+    <t>【名词】 【荷】glas ;玻璃；光玻璃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耐熱ガラス </t>
+  </si>
+  <si>
+    <t>ジュース</t>
+  </si>
+  <si>
+    <t>【古语】 【英】juice</t>
+  </si>
+  <si>
+    <t>オレンジ・ジュース</t>
+  </si>
+  <si>
+    <t>すやすや</t>
+  </si>
+  <si>
+    <t>【副词】 安静地，香甜地（睡）</t>
+  </si>
+  <si>
+    <t>赤ちゃんがすやすや眠っている</t>
+  </si>
+  <si>
+    <t>創立</t>
+  </si>
+  <si>
+    <t>そうりつ</t>
+  </si>
+  <si>
+    <t>【名・他动・三类】 创立，创建，创办。</t>
+  </si>
+  <si>
+    <t>専門学校を創立する。</t>
+  </si>
+  <si>
+    <t>出し物</t>
+  </si>
+  <si>
+    <t>だしもの</t>
+  </si>
+  <si>
+    <t>【名词】演出节目</t>
+  </si>
+  <si>
+    <t>忘年会の出し物</t>
+  </si>
+  <si>
+    <t>中学</t>
+  </si>
+  <si>
+    <t>ちゅうがく</t>
+  </si>
+  <si>
+    <t>【名词】中学</t>
+  </si>
+  <si>
+    <t>中学を卒業する。</t>
+  </si>
+  <si>
+    <t>出来事</t>
+  </si>
+  <si>
+    <t>できごと</t>
+  </si>
+  <si>
+    <t>【名词】 （偶发）的事件，变故。</t>
+  </si>
+  <si>
+    <t>突然の出来事に彼も茫然自失だった</t>
+  </si>
+  <si>
+    <t>通す</t>
+  </si>
+  <si>
+    <t>とおす</t>
+  </si>
+  <si>
+    <t>【他动词・五段/一类】 穿出，透过。</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 什么，何；哪个</t>
+  </si>
+  <si>
+    <t>何を買うの</t>
+  </si>
+  <si>
+    <t>発送</t>
+  </si>
+  <si>
+    <t>はっそう</t>
+  </si>
+  <si>
+    <t>【名・他动词・サ变/三类】 发送，寄送。</t>
+  </si>
+  <si>
+    <t>小包を発送する。</t>
+  </si>
+  <si>
+    <t>人出</t>
+  </si>
+  <si>
+    <t>ひとで</t>
+  </si>
+  <si>
+    <t>【名词】 外出的人群</t>
+  </si>
+  <si>
+    <t>銀座はたいへんな人出であった</t>
+  </si>
+  <si>
+    <t>骨</t>
+  </si>
+  <si>
+    <t>ほね</t>
+  </si>
+  <si>
+    <t>【名词】 骨。;遗骨，骨灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨格 </t>
+  </si>
+  <si>
+    <t>見つかる</t>
+  </si>
+  <si>
+    <t>みつかる</t>
+  </si>
+  <si>
+    <t>【自动词・五段/一类】 被看到，被发现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気に入った品が見つからない。 </t>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>もり</t>
+  </si>
+  <si>
+    <t>【名词】森林</t>
+  </si>
+  <si>
+    <t>森をまもる</t>
+  </si>
+  <si>
+    <t>慌てる</t>
+  </si>
+  <si>
+    <t>あわてる</t>
+  </si>
+  <si>
+    <t>【自动词・一段/二类】 惊慌，着慌，慌张</t>
+  </si>
+  <si>
+    <t>地震の時は慌ててはいけない</t>
+  </si>
+  <si>
+    <t>医務室</t>
+  </si>
+  <si>
+    <t>いむしつ</t>
+  </si>
+  <si>
+    <t>医务室 </t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>からだ</t>
+  </si>
+  <si>
+    <t>【名词】 身体；身子</t>
+  </si>
+  <si>
+    <t>体を大切にする</t>
+  </si>
+  <si>
+    <t>傷</t>
+  </si>
+  <si>
+    <t>きず</t>
+  </si>
+  <si>
+    <t>【名词】 伤，创伤</t>
+  </si>
+  <si>
+    <t>傷を受ける</t>
+  </si>
+  <si>
+    <t>緊張</t>
+  </si>
+  <si>
+    <t>きんちょう</t>
+  </si>
+  <si>
+    <t>【自动词・サ变/三类】 精神、态度处于绷紧的状态</t>
+  </si>
+  <si>
+    <t>筋肉が緊張する</t>
+  </si>
+  <si>
+    <t>券</t>
+  </si>
+  <si>
+    <t>【名词】 票，券</t>
+  </si>
+  <si>
+    <t>乗車券</t>
+  </si>
+  <si>
+    <t>国際</t>
+  </si>
+  <si>
+    <t>こくさい</t>
+  </si>
+  <si>
+    <t>【名词】 国际</t>
+  </si>
+  <si>
+    <t>国際貿易</t>
+  </si>
+  <si>
+    <t>【名词】钱包;腰包</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>さいふ</t>
+  </si>
+  <si>
+    <t>財布を落とした</t>
+  </si>
+  <si>
+    <t>新居</t>
+  </si>
+  <si>
+    <t>しんきょ</t>
+  </si>
+  <si>
+    <t>【名词】 新居，新住宅</t>
+  </si>
+  <si>
+    <t>新居を構える</t>
+  </si>
+  <si>
+    <t>渋滞</t>
+  </si>
+  <si>
+    <t>じゅうたい</t>
+  </si>
+  <si>
+    <t>【名・自动词・サ变/三类】 堵车，拥堵</t>
+  </si>
+  <si>
+    <t>交通の渋滞</t>
+  </si>
+  <si>
+    <t>すり</t>
+  </si>
+  <si>
+    <t>【名词】 扒手，小偷</t>
+  </si>
+  <si>
+    <t>大スリ</t>
+  </si>
+  <si>
+    <t>速達</t>
+  </si>
+  <si>
+    <t>そくたつ</t>
+  </si>
+  <si>
+    <t>【名词】 快信，快件，速寄</t>
+  </si>
+  <si>
+    <t>速達で送る</t>
+  </si>
+  <si>
+    <t>適用</t>
+  </si>
+  <si>
+    <t>てきとう</t>
+  </si>
+  <si>
+    <t>【名・形容动词/ナ形容词・自动词・サ变/三类】 适当，适宜</t>
+  </si>
+  <si>
+    <t>散歩は老人に適当な運動だ</t>
+  </si>
+  <si>
+    <t>七日</t>
+  </si>
+  <si>
+    <t>なのか</t>
+  </si>
+  <si>
+    <t>【名词】 七号，七日</t>
+  </si>
+  <si>
+    <t>七日の夜</t>
+  </si>
+  <si>
+    <t>【名词】 睡一会儿，打盹儿</t>
+  </si>
+  <si>
+    <t>一眠り</t>
+  </si>
+  <si>
+    <t>ひとねむり</t>
+  </si>
+  <si>
+    <t>車中で一眠りする</t>
+  </si>
+  <si>
+    <t>褒める</t>
+  </si>
+  <si>
+    <t>ほめる</t>
+  </si>
+  <si>
+    <t>【他动词・一段/二类】 赞扬，称赞，赞美</t>
+  </si>
+  <si>
+    <t>それはあまり褒めた話ではない</t>
+  </si>
+  <si>
+    <t>漏れる</t>
+  </si>
+  <si>
+    <t>もれる</t>
+  </si>
+  <si>
+    <t>【自动词・一段/二类】 漏，漏。;泄露</t>
+  </si>
+  <si>
+    <t>水が漏れる</t>
+  </si>
+  <si>
+    <t>【名词】 夜间</t>
+  </si>
+  <si>
+    <t>夜中</t>
+  </si>
+  <si>
+    <t>よなか</t>
+  </si>
+  <si>
+    <t>夜中おそれいります</t>
+  </si>
+  <si>
+    <t>プラン</t>
+  </si>
+  <si>
+    <t>【名词】 【英】plan</t>
+  </si>
+  <si>
+    <t>プランを立てる</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>あお</t>
+  </si>
+  <si>
+    <t>【名词】 青，蓝；绿灯的省略</t>
+  </si>
+  <si>
+    <t>青になったら横断しよう</t>
+  </si>
+  <si>
+    <t>驚く</t>
+  </si>
+  <si>
+    <t>おどろく</t>
+  </si>
+  <si>
+    <t>【自动词・五段/一类】 吓，惊恐，惊惧，害怕，吃惊吓了一跳。;惊讶，惊奇</t>
+  </si>
+  <si>
+    <t>大いに驚く</t>
+  </si>
+  <si>
+    <t>借りる</t>
+  </si>
+  <si>
+    <t>かりる</t>
+  </si>
+  <si>
+    <t>【他动词・一段/二类】 借用</t>
+  </si>
+  <si>
+    <t>本を借りる</t>
+  </si>
+  <si>
+    <t>季節</t>
+  </si>
+  <si>
+    <t>きせつ</t>
+  </si>
+  <si>
+    <t>【名词】 季节</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入試の季節 </t>
+  </si>
+  <si>
+    <t>県</t>
+  </si>
+  <si>
+    <t>【名词】县主统治的地区</t>
+  </si>
+  <si>
+    <t>こちらはわれの県の地域だ</t>
+  </si>
+  <si>
+    <t>幸い</t>
+  </si>
+  <si>
+    <t>さいわい</t>
+  </si>
+  <si>
+    <t>【名词】 幸福，幸运</t>
+  </si>
+  <si>
+    <t>もっけの幸い</t>
+  </si>
+  <si>
+    <t>しゅうでん</t>
+  </si>
+  <si>
+    <t>終電</t>
+  </si>
+  <si>
+    <t>【名词】 末班电车</t>
+  </si>
+  <si>
+    <t>終電に間に合ってよかった</t>
+  </si>
+  <si>
+    <t>親近感</t>
+  </si>
+  <si>
+    <t>しんきんかん</t>
+  </si>
+  <si>
+    <t>亲近感</t>
+  </si>
+  <si>
+    <t>親近感を抱く</t>
+  </si>
+  <si>
+    <t>時差</t>
+  </si>
+  <si>
+    <t>じさ</t>
+  </si>
+  <si>
+    <t>【名】 时差</t>
+  </si>
+  <si>
+    <t>時差ぼけ</t>
+  </si>
+  <si>
+    <t>アンケート</t>
+  </si>
+  <si>
+    <t>【名词】 【仏】enquête；通讯调查</t>
+  </si>
+  <si>
+    <t>アンケートをとる</t>
+  </si>
+  <si>
+    <t>イメージ</t>
+  </si>
+  <si>
+    <t>【名词】 【英】image ;（心中的）形象；心象</t>
+  </si>
+  <si>
+    <t>イメージしていたものと実際は、まったく違った</t>
+  </si>
+  <si>
+    <t>【名词】 【英】slipper；拖鞋</t>
+  </si>
+  <si>
+    <t>スリッパ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック製スリッパ </t>
+  </si>
+  <si>
+    <t>出来る</t>
+  </si>
+  <si>
+    <t>できる</t>
+  </si>
+  <si>
+    <t>【自动词・一段/二类】做好，做完</t>
+  </si>
+  <si>
+    <t>食事ができた/饭做好了</t>
+  </si>
+  <si>
+    <t>鍋</t>
+  </si>
+  <si>
+    <t>なべ</t>
+  </si>
+  <si>
+    <t>【名词】 锅;火锅;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中華鍋 </t>
+  </si>
+  <si>
+    <t>発売</t>
+  </si>
+  <si>
+    <t>はつばい</t>
+  </si>
+  <si>
+    <t>【名・他动词・サ变/三类】 卖，发售，出售</t>
+  </si>
+  <si>
+    <t>発売と同時に売り切れた</t>
+  </si>
+  <si>
+    <t>人々</t>
+  </si>
+  <si>
+    <t>ひとびと</t>
+  </si>
+  <si>
+    <t>【名词】 人们；大家，你们</t>
+  </si>
+  <si>
+    <t>災害地の人々を激励する</t>
+  </si>
+  <si>
+    <t>フランコ</t>
+  </si>
+  <si>
+    <t>【葡】balanco ;秋千</t>
+  </si>
+  <si>
+    <t>ブランコを揺する</t>
+  </si>
+  <si>
+    <t>三つ</t>
+  </si>
+  <si>
+    <t>みっつ</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>もん</t>
+  </si>
+  <si>
+    <t>【名词】 街门，大门；关口</t>
+  </si>
+  <si>
+    <t>門をたたく</t>
+  </si>
+  <si>
+    <t>呼ぶ</t>
+  </si>
+  <si>
+    <t>よぶ</t>
+  </si>
+  <si>
+    <t>【他动词・五段/一类】 喊，叫；叫来</t>
+  </si>
+  <si>
+    <t>先生は学生の名前を一人一人呼んで出欠をとる</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>わかい</t>
+  </si>
+  <si>
+    <t>【形容词/イ形容词】 年轻</t>
+  </si>
+  <si>
+    <t>若い時は二度と来ない</t>
+  </si>
+  <si>
+    <t>割合</t>
+  </si>
+  <si>
+    <t>わりあい</t>
+  </si>
+  <si>
+    <t>【副词】 比较。 【名词】 比起，比。;分配。;比例</t>
+  </si>
+  <si>
+    <t>若い割合にしっかりしている</t>
+  </si>
+  <si>
+    <t>青い</t>
+  </si>
+  <si>
+    <t>あおい</t>
+  </si>
+  <si>
+    <t>【形容词/イ形容词】 青；蓝；绿</t>
+  </si>
+  <si>
+    <t>青い空</t>
+  </si>
+  <si>
+    <t>安心</t>
+  </si>
+  <si>
+    <t>あんしん</t>
+  </si>
+  <si>
+    <t>【名・自动词・サ变/三类】 放心，无忧无虑</t>
+  </si>
+  <si>
+    <t>それで母も安心するだろう</t>
+  </si>
+  <si>
+    <t>芋</t>
+  </si>
+  <si>
+    <t>いも</t>
+  </si>
+  <si>
+    <t>【名词】 薯</t>
+  </si>
+  <si>
+    <t>焼き芋</t>
+  </si>
+  <si>
+    <t>欠かす</t>
+  </si>
+  <si>
+    <t>かかす</t>
+  </si>
+  <si>
+    <t>【他动词・五段/一类】 缺，缺少</t>
+  </si>
+  <si>
+    <t>一度も欠かさず会に出席する</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>【形容词/イ形容词】 重量小，程度轻；轻松的</t>
+  </si>
+  <si>
+    <t>軽い物</t>
+  </si>
+  <si>
+    <t>規則</t>
+  </si>
+  <si>
+    <t>きそく</t>
+  </si>
+  <si>
+    <t>【名词】 规则，规章，章程</t>
+  </si>
+  <si>
+    <t>規則をつくる</t>
+  </si>
+  <si>
+    <t>具合</t>
+  </si>
+  <si>
+    <t>ぐあい</t>
+  </si>
+  <si>
+    <t>【名词】 情况，状态，情形；健康情况；状态</t>
+  </si>
+  <si>
+    <t>天気の具合</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>【名・自动词・サ变/三类】 原因</t>
+  </si>
+  <si>
+    <t>原因と結果</t>
+  </si>
+  <si>
+    <t>貿易</t>
+  </si>
+  <si>
+    <t>ぼうえき</t>
+  </si>
+  <si>
+    <t>【名・自动词・サ变/三类】 进出口贸易</t>
+  </si>
+  <si>
+    <t>貿易を増進する</t>
+  </si>
+  <si>
+    <t>坂</t>
+  </si>
+  <si>
+    <t>さか</t>
+  </si>
+  <si>
+    <t>【名词】 坡，坡道；斜坡，坡形</t>
+  </si>
+  <si>
+    <t>上り坂</t>
+  </si>
+  <si>
+    <t>試作</t>
+  </si>
+  <si>
+    <t>しさく</t>
+  </si>
+  <si>
+    <t>【名・他动词・サ变/三类】 试制，试种，试作</t>
+  </si>
+  <si>
+    <t>新案の機械を試作する</t>
+  </si>
+  <si>
+    <t>しんごう</t>
+  </si>
+  <si>
+    <t>【名词】 信号，暗号。;红绿灯</t>
+  </si>
+  <si>
+    <t>安全信号</t>
+  </si>
+  <si>
+    <t>祖国</t>
+  </si>
+  <si>
+    <t>そこく</t>
+  </si>
+  <si>
+    <t>【名词】 祖国</t>
+  </si>
+  <si>
+    <t>祖国を守る</t>
+  </si>
+  <si>
+    <t>助ける</t>
+  </si>
+  <si>
+    <t>たすける</t>
+  </si>
+  <si>
+    <t>他动词・一段/二类】 助，帮助，援助</t>
+  </si>
+  <si>
+    <t>父の仕事を助ける</t>
+  </si>
+  <si>
+    <t>中古</t>
+  </si>
+  <si>
+    <t>ちゅうこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中古車 </t>
+  </si>
+  <si>
+    <t>【名词】 半新不旧，二手</t>
+  </si>
+  <si>
+    <t>できるだけ</t>
+  </si>
+  <si>
+    <t>【副词】 尽量地；尽可能地</t>
+  </si>
+  <si>
+    <t>出来るだけのことをする</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>なま</t>
+  </si>
+  <si>
+    <t>【名词】 生；鲜；湿</t>
+  </si>
+  <si>
+    <t>生の牛乳</t>
+  </si>
+  <si>
+    <t>年々</t>
+  </si>
+  <si>
+    <t>ねんねん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每年，逐年 </t>
+  </si>
+  <si>
+    <t>一人暮らし</t>
+  </si>
+  <si>
+    <t>【名词】 单身生活，一个人过日子，独居</t>
+  </si>
+  <si>
+    <t>一人暮しの老人</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>みどり</t>
+  </si>
+  <si>
+    <t>【名词】 绿色，翠绿</t>
+  </si>
+  <si>
+    <t>緑あざやかな芝生</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>他动词・五段/一类　读，看，阅读</t>
+  </si>
+  <si>
+    <t>あの小説はまだ読んでいない</t>
+  </si>
+  <si>
+    <t>スリラー</t>
+  </si>
+  <si>
+    <t>【名词】 【英】thriller ;惊险小说</t>
+  </si>
+  <si>
+    <t>スリラー映画</t>
+  </si>
+  <si>
+    <t>フランス</t>
+  </si>
+  <si>
+    <t>【英】France ;法国</t>
+  </si>
+  <si>
+    <t>フランス革命</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7035,13 +8010,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7049,7 +8024,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7116,7 +8091,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -7481,7 +8456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7544,15 +8519,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7565,14 +8532,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7601,22 +8568,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7896,76 +8875,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="H306" sqref="H306"/>
+    <sheetView tabSelected="1" topLeftCell="E206" workbookViewId="0">
+      <selection activeCell="J226" sqref="J226:L226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="6" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
-    <col min="15" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.25" customWidth="1"/>
-    <col min="26" max="26" width="17.875" customWidth="1"/>
-    <col min="27" max="29" width="11.625" customWidth="1"/>
-    <col min="30" max="30" width="15.375" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:18" ht="18" thickBot="1">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:18" ht="19.5" thickBot="1">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -9604,7 +10584,7 @@
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -12672,7 +13652,7 @@
       <c r="Q148" s="48"/>
       <c r="R148" s="48"/>
     </row>
-    <row r="149" spans="1:18" ht="14.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -13492,7 +14472,7 @@
       <c r="Q174" s="48"/>
       <c r="R174" s="48"/>
     </row>
-    <row r="175" spans="1:18" ht="14.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -13524,7 +14504,7 @@
       <c r="Q175" s="48"/>
       <c r="R175" s="48"/>
     </row>
-    <row r="176" spans="1:18" ht="14.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -13698,7 +14678,7 @@
       <c r="Q181" s="48"/>
       <c r="R181" s="48"/>
     </row>
-    <row r="182" spans="1:18" ht="14.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -13724,7 +14704,7 @@
       <c r="Q182" s="48"/>
       <c r="R182" s="48"/>
     </row>
-    <row r="183" spans="1:18" ht="14.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -13828,7 +14808,7 @@
       <c r="Q186" s="48"/>
       <c r="R186" s="48"/>
     </row>
-    <row r="187" spans="1:18" ht="14.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -14186,7 +15166,7 @@
       <c r="Q203" s="48"/>
       <c r="R203" s="48"/>
     </row>
-    <row r="204" spans="1:30" ht="14.25" thickBot="1">
+    <row r="204" spans="1:30" ht="15.75" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -14206,97 +15186,99 @@
       <c r="Q204" s="48"/>
       <c r="R204" s="48"/>
     </row>
-    <row r="207" spans="1:30" ht="17.25">
-      <c r="A207" s="69" t="s">
+    <row r="207" spans="1:30" ht="18.75">
+      <c r="A207" s="67" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="70"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="70"/>
-      <c r="E207" s="70"/>
-      <c r="F207" s="70"/>
-      <c r="G207" s="70"/>
-      <c r="H207" s="70"/>
-      <c r="I207" s="70"/>
-      <c r="J207" s="70"/>
-      <c r="K207" s="70"/>
-      <c r="L207" s="70"/>
-      <c r="M207" s="70"/>
-      <c r="N207" s="70"/>
-      <c r="O207" s="70"/>
-      <c r="P207" s="70"/>
-      <c r="Q207" s="70"/>
-      <c r="R207" s="70"/>
-      <c r="S207" s="70"/>
-      <c r="T207" s="70"/>
-      <c r="U207" s="70"/>
-      <c r="V207" s="70"/>
-      <c r="W207" s="70"/>
-      <c r="X207" s="70"/>
-      <c r="Y207" s="70"/>
-      <c r="Z207" s="70"/>
-      <c r="AA207" s="70"/>
-      <c r="AB207" s="70"/>
-      <c r="AC207" s="70"/>
-      <c r="AD207" s="70"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="68"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="68"/>
+      <c r="F207" s="68"/>
+      <c r="G207" s="68"/>
+      <c r="H207" s="68"/>
+      <c r="I207" s="68"/>
+      <c r="J207" s="68"/>
+      <c r="K207" s="68"/>
+      <c r="L207" s="68"/>
+      <c r="M207" s="68"/>
+      <c r="N207" s="68"/>
+      <c r="O207" s="68"/>
+      <c r="P207" s="68"/>
+      <c r="Q207" s="68"/>
+      <c r="R207" s="68"/>
+      <c r="S207" s="68"/>
+      <c r="T207" s="68"/>
+      <c r="U207" s="68"/>
+      <c r="V207" s="68"/>
+      <c r="W207" s="68"/>
+      <c r="X207" s="68"/>
+      <c r="Y207" s="68"/>
+      <c r="Z207" s="68"/>
+      <c r="AA207" s="68"/>
+      <c r="AB207" s="68"/>
+      <c r="AC207" s="68"/>
+      <c r="AD207" s="68"/>
     </row>
     <row r="208" spans="1:30">
-      <c r="A208" s="66" t="s">
+      <c r="A208" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="67"/>
-      <c r="C208" s="67"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="66" t="s">
+      <c r="B208" s="65"/>
+      <c r="C208" s="65"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="64" t="s">
         <v>1077</v>
       </c>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
-      <c r="L208" s="68"/>
-      <c r="M208" s="66" t="s">
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
+      <c r="L208" s="66"/>
+      <c r="M208" s="64" t="s">
         <v>1078</v>
       </c>
-      <c r="N208" s="67"/>
-      <c r="O208" s="67"/>
-      <c r="P208" s="67"/>
-      <c r="Q208" s="67"/>
-      <c r="R208" s="68"/>
-      <c r="S208" s="66" t="s">
+      <c r="N208" s="65"/>
+      <c r="O208" s="65"/>
+      <c r="P208" s="65"/>
+      <c r="Q208" s="65"/>
+      <c r="R208" s="66"/>
+      <c r="S208" s="64" t="s">
         <v>1079</v>
       </c>
-      <c r="T208" s="67"/>
-      <c r="U208" s="67"/>
-      <c r="V208" s="67"/>
-      <c r="W208" s="67"/>
-      <c r="X208" s="68"/>
-      <c r="Y208" s="71" t="s">
+      <c r="T208" s="65"/>
+      <c r="U208" s="65"/>
+      <c r="V208" s="65"/>
+      <c r="W208" s="65"/>
+      <c r="X208" s="66"/>
+      <c r="Y208" s="75" t="s">
         <v>1080</v>
       </c>
-      <c r="Z208" s="71"/>
-      <c r="AA208" s="71"/>
-      <c r="AB208" s="71"/>
-      <c r="AC208" s="71"/>
-      <c r="AD208" s="71"/>
+      <c r="Z208" s="75"/>
+      <c r="AA208" s="75"/>
+      <c r="AB208" s="75"/>
+      <c r="AC208" s="75"/>
+      <c r="AD208" s="75"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="55">
+      <c r="A209" s="53">
         <v>43010</v>
       </c>
-      <c r="B209" s="56"/>
-      <c r="C209" s="56"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="55"/>
+      <c r="G209" s="53">
+        <v>43017</v>
+      </c>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="55"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -14326,15 +15308,23 @@
       <c r="C210" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D210" s="59"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="61"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="70"/>
+      <c r="F210" s="71"/>
+      <c r="G210" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J210" s="72" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K210" s="73"/>
+      <c r="L210" s="74"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -14364,15 +15354,23 @@
       <c r="C211" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D211" s="52"/>
-      <c r="E211" s="53"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="73"/>
+      <c r="F211" s="74"/>
+      <c r="G211" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J211" s="72" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K211" s="73"/>
+      <c r="L211" s="74"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -14402,15 +15400,23 @@
       <c r="C212" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D212" s="52"/>
-      <c r="E212" s="53"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="74"/>
+      <c r="G212" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J212" s="72" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K212" s="73"/>
+      <c r="L212" s="74"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -14443,12 +15449,20 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
+      <c r="G213" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J213" s="72" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K213" s="73"/>
+      <c r="L213" s="74"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -14481,12 +15495,20 @@
       <c r="D214" s="33"/>
       <c r="E214" s="33"/>
       <c r="F214" s="33"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
+      <c r="G214" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J214" s="72" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K214" s="73"/>
+      <c r="L214" s="74"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -14519,12 +15541,20 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
+      <c r="G215" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J215" s="72" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K215" s="73"/>
+      <c r="L215" s="74"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -14557,12 +15587,20 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
+      <c r="G216" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I216" s="76" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J216" s="72" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K216" s="73"/>
+      <c r="L216" s="74"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -14595,12 +15633,20 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
+      <c r="G217" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J217" s="72" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K217" s="73"/>
+      <c r="L217" s="74"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -14633,12 +15679,20 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
+      <c r="G218" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J218" s="72" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K218" s="73"/>
+      <c r="L218" s="74"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -14671,12 +15725,18 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+      <c r="G219" s="1" t="s">
+        <v>1757</v>
+      </c>
       <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
+      <c r="I219" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J219" s="72" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K219" s="73"/>
+      <c r="L219" s="74"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -14709,12 +15769,20 @@
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
       <c r="F220" s="33"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
+      <c r="G220" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J220" s="72" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K220" s="73"/>
+      <c r="L220" s="74"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -14747,12 +15815,18 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
+      <c r="G221" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J221" s="72"/>
+      <c r="K221" s="73"/>
+      <c r="L221" s="74"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -14785,12 +15859,20 @@
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
+      <c r="G222" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J222" s="72" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K222" s="73"/>
+      <c r="L222" s="74"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -14823,12 +15905,20 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
+      <c r="G223" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J223" s="72" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K223" s="73"/>
+      <c r="L223" s="74"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -14861,12 +15951,20 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
+      <c r="G224" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I224" s="77" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J224" s="72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K224" s="73"/>
+      <c r="L224" s="74"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -14899,12 +15997,18 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="G225" s="1" t="s">
+        <v>1778</v>
+      </c>
       <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
+      <c r="I225" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J225" s="72" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K225" s="73"/>
+      <c r="L225" s="74"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -14937,12 +16041,18 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="G226" s="1" t="s">
+        <v>1781</v>
+      </c>
       <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
+      <c r="I226" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J226" s="72" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K226" s="73"/>
+      <c r="L226" s="74"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -14978,9 +16088,9 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
+      <c r="J227" s="72"/>
+      <c r="K227" s="73"/>
+      <c r="L227" s="74"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -15016,9 +16126,9 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
+      <c r="J228" s="72"/>
+      <c r="K228" s="73"/>
+      <c r="L228" s="74"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -15054,9 +16164,9 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
+      <c r="J229" s="72"/>
+      <c r="K229" s="73"/>
+      <c r="L229" s="74"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -15092,9 +16202,9 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
+      <c r="J230" s="72"/>
+      <c r="K230" s="73"/>
+      <c r="L230" s="74"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -15130,9 +16240,9 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
+      <c r="J231" s="72"/>
+      <c r="K231" s="73"/>
+      <c r="L231" s="74"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -15168,9 +16278,9 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
+      <c r="J232" s="72"/>
+      <c r="K232" s="73"/>
+      <c r="L232" s="74"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -15204,9 +16314,9 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
+      <c r="J233" s="72"/>
+      <c r="K233" s="73"/>
+      <c r="L233" s="74"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -15242,9 +16352,9 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
+      <c r="J234" s="72"/>
+      <c r="K234" s="73"/>
+      <c r="L234" s="74"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -15280,9 +16390,9 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
+      <c r="J235" s="72"/>
+      <c r="K235" s="73"/>
+      <c r="L235" s="74"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -15318,9 +16428,9 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
+      <c r="J236" s="72"/>
+      <c r="K236" s="73"/>
+      <c r="L236" s="74"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -15356,9 +16466,9 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
+      <c r="J237" s="72"/>
+      <c r="K237" s="73"/>
+      <c r="L237" s="74"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -15394,9 +16504,9 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
+      <c r="J238" s="72"/>
+      <c r="K238" s="73"/>
+      <c r="L238" s="74"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -15432,9 +16542,9 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
+      <c r="J239" s="72"/>
+      <c r="K239" s="73"/>
+      <c r="L239" s="74"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -15470,9 +16580,9 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
+      <c r="J240" s="72"/>
+      <c r="K240" s="73"/>
+      <c r="L240" s="74"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -15493,20 +16603,20 @@
       <c r="AD240" s="1"/>
     </row>
     <row r="241" spans="1:30">
-      <c r="A241" s="55">
+      <c r="A241" s="53">
         <v>43011</v>
       </c>
-      <c r="B241" s="56"/>
-      <c r="C241" s="56"/>
-      <c r="D241" s="56"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="57"/>
+      <c r="B241" s="54"/>
+      <c r="C241" s="54"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="55"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
+      <c r="J241" s="72"/>
+      <c r="K241" s="73"/>
+      <c r="L241" s="74"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -15542,9 +16652,9 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
+      <c r="J242" s="72"/>
+      <c r="K242" s="73"/>
+      <c r="L242" s="74"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -15580,9 +16690,9 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
+      <c r="J243" s="72"/>
+      <c r="K243" s="73"/>
+      <c r="L243" s="74"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -15618,9 +16728,9 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
+      <c r="J244" s="72"/>
+      <c r="K244" s="73"/>
+      <c r="L244" s="74"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -15656,9 +16766,9 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
+      <c r="J245" s="72"/>
+      <c r="K245" s="73"/>
+      <c r="L245" s="74"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -15694,9 +16804,9 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
+      <c r="J246" s="72"/>
+      <c r="K246" s="73"/>
+      <c r="L246" s="74"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -15732,9 +16842,9 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
+      <c r="J247" s="72"/>
+      <c r="K247" s="73"/>
+      <c r="L247" s="74"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -15770,9 +16880,9 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
+      <c r="J248" s="72"/>
+      <c r="K248" s="73"/>
+      <c r="L248" s="74"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -15808,9 +16918,9 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
+      <c r="J249" s="72"/>
+      <c r="K249" s="73"/>
+      <c r="L249" s="74"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -15844,9 +16954,9 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
+      <c r="J250" s="72"/>
+      <c r="K250" s="73"/>
+      <c r="L250" s="74"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -15882,9 +16992,9 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
+      <c r="J251" s="72"/>
+      <c r="K251" s="73"/>
+      <c r="L251" s="74"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -15920,9 +17030,9 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
+      <c r="J252" s="72"/>
+      <c r="K252" s="73"/>
+      <c r="L252" s="74"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -15956,9 +17066,9 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
+      <c r="J253" s="72"/>
+      <c r="K253" s="73"/>
+      <c r="L253" s="74"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -15992,9 +17102,9 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
+      <c r="J254" s="72"/>
+      <c r="K254" s="73"/>
+      <c r="L254" s="74"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -16028,9 +17138,9 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
+      <c r="J255" s="72"/>
+      <c r="K255" s="73"/>
+      <c r="L255" s="74"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -16066,9 +17176,9 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
+      <c r="J256" s="72"/>
+      <c r="K256" s="73"/>
+      <c r="L256" s="74"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -16104,9 +17214,9 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
+      <c r="J257" s="72"/>
+      <c r="K257" s="73"/>
+      <c r="L257" s="74"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -16142,9 +17252,9 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
+      <c r="J258" s="72"/>
+      <c r="K258" s="73"/>
+      <c r="L258" s="74"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -16180,9 +17290,9 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
+      <c r="J259" s="72"/>
+      <c r="K259" s="73"/>
+      <c r="L259" s="74"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -16218,9 +17328,9 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="1"/>
+      <c r="J260" s="72"/>
+      <c r="K260" s="73"/>
+      <c r="L260" s="74"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -16256,9 +17366,9 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
-      <c r="L261" s="1"/>
+      <c r="J261" s="72"/>
+      <c r="K261" s="73"/>
+      <c r="L261" s="74"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -16294,9 +17404,9 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
+      <c r="J262" s="72"/>
+      <c r="K262" s="73"/>
+      <c r="L262" s="74"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -16332,9 +17442,9 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="1"/>
+      <c r="J263" s="72"/>
+      <c r="K263" s="73"/>
+      <c r="L263" s="74"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -16368,9 +17478,9 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
+      <c r="J264" s="72"/>
+      <c r="K264" s="73"/>
+      <c r="L264" s="74"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -16404,9 +17514,9 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="1"/>
+      <c r="J265" s="72"/>
+      <c r="K265" s="73"/>
+      <c r="L265" s="74"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -16427,20 +17537,20 @@
       <c r="AD265" s="1"/>
     </row>
     <row r="266" spans="1:30">
-      <c r="A266" s="55">
+      <c r="A266" s="53">
         <v>43012</v>
       </c>
-      <c r="B266" s="56"/>
-      <c r="C266" s="56"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="57"/>
+      <c r="B266" s="54"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="54"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="55"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
-      <c r="K266" s="1"/>
-      <c r="L266" s="1"/>
+      <c r="J266" s="72"/>
+      <c r="K266" s="73"/>
+      <c r="L266" s="74"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -16476,9 +17586,9 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
+      <c r="J267" s="72"/>
+      <c r="K267" s="73"/>
+      <c r="L267" s="74"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -16514,9 +17624,9 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
+      <c r="J268" s="72"/>
+      <c r="K268" s="73"/>
+      <c r="L268" s="74"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -16552,9 +17662,9 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="73"/>
+      <c r="L269" s="74"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -16590,9 +17700,9 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="1"/>
+      <c r="J270" s="72"/>
+      <c r="K270" s="73"/>
+      <c r="L270" s="74"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -16628,9 +17738,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="1"/>
+      <c r="J271" s="72"/>
+      <c r="K271" s="73"/>
+      <c r="L271" s="74"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -16666,9 +17776,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
+      <c r="J272" s="72"/>
+      <c r="K272" s="73"/>
+      <c r="L272" s="74"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -16704,9 +17814,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
-      <c r="L273" s="1"/>
+      <c r="J273" s="72"/>
+      <c r="K273" s="73"/>
+      <c r="L273" s="74"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -16742,9 +17852,9 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="1"/>
+      <c r="J274" s="72"/>
+      <c r="K274" s="73"/>
+      <c r="L274" s="74"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -16780,9 +17890,9 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
-      <c r="L275" s="1"/>
+      <c r="J275" s="72"/>
+      <c r="K275" s="73"/>
+      <c r="L275" s="74"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -16818,9 +17928,9 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
-      <c r="K276" s="1"/>
-      <c r="L276" s="1"/>
+      <c r="J276" s="72"/>
+      <c r="K276" s="73"/>
+      <c r="L276" s="74"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -16856,9 +17966,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
-      <c r="L277" s="1"/>
+      <c r="J277" s="72"/>
+      <c r="K277" s="73"/>
+      <c r="L277" s="74"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -16894,9 +18004,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
+      <c r="J278" s="72"/>
+      <c r="K278" s="73"/>
+      <c r="L278" s="74"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -16932,9 +18042,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="1"/>
+      <c r="J279" s="72"/>
+      <c r="K279" s="73"/>
+      <c r="L279" s="74"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -16970,9 +18080,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
-      <c r="L280" s="1"/>
+      <c r="J280" s="72"/>
+      <c r="K280" s="73"/>
+      <c r="L280" s="74"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -17008,9 +18118,9 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
+      <c r="J281" s="72"/>
+      <c r="K281" s="73"/>
+      <c r="L281" s="74"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -17044,9 +18154,9 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
-      <c r="L282" s="1"/>
+      <c r="J282" s="72"/>
+      <c r="K282" s="73"/>
+      <c r="L282" s="74"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -17080,9 +18190,9 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
-      <c r="L283" s="1"/>
+      <c r="J283" s="72"/>
+      <c r="K283" s="73"/>
+      <c r="L283" s="74"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -17118,9 +18228,9 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
+      <c r="J284" s="72"/>
+      <c r="K284" s="73"/>
+      <c r="L284" s="74"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -17156,9 +18266,9 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="1"/>
+      <c r="J285" s="72"/>
+      <c r="K285" s="73"/>
+      <c r="L285" s="74"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -17194,9 +18304,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
-      <c r="L286" s="1"/>
+      <c r="J286" s="72"/>
+      <c r="K286" s="73"/>
+      <c r="L286" s="74"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -17232,9 +18342,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
+      <c r="J287" s="72"/>
+      <c r="K287" s="73"/>
+      <c r="L287" s="74"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -17270,9 +18380,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
+      <c r="J288" s="72"/>
+      <c r="K288" s="73"/>
+      <c r="L288" s="74"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -17308,9 +18418,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
-      <c r="L289" s="1"/>
+      <c r="J289" s="72"/>
+      <c r="K289" s="73"/>
+      <c r="L289" s="74"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -17346,9 +18456,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
+      <c r="J290" s="72"/>
+      <c r="K290" s="73"/>
+      <c r="L290" s="74"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -17384,9 +18494,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
-      <c r="L291" s="1"/>
+      <c r="J291" s="72"/>
+      <c r="K291" s="73"/>
+      <c r="L291" s="74"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -17422,9 +18532,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
-      <c r="L292" s="1"/>
+      <c r="J292" s="72"/>
+      <c r="K292" s="73"/>
+      <c r="L292" s="74"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -17460,9 +18570,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
+      <c r="J293" s="72"/>
+      <c r="K293" s="73"/>
+      <c r="L293" s="74"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -17496,9 +18606,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
+      <c r="J294" s="72"/>
+      <c r="K294" s="73"/>
+      <c r="L294" s="74"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -17532,9 +18642,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="1"/>
+      <c r="J295" s="72"/>
+      <c r="K295" s="73"/>
+      <c r="L295" s="74"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -17570,9 +18680,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="1"/>
+      <c r="J296" s="72"/>
+      <c r="K296" s="73"/>
+      <c r="L296" s="74"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -17608,9 +18718,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
+      <c r="J297" s="72"/>
+      <c r="K297" s="73"/>
+      <c r="L297" s="74"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -17646,9 +18756,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
+      <c r="J298" s="72"/>
+      <c r="K298" s="73"/>
+      <c r="L298" s="74"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -17682,9 +18792,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
+      <c r="J299" s="72"/>
+      <c r="K299" s="73"/>
+      <c r="L299" s="74"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -17705,20 +18815,20 @@
       <c r="AD299" s="1"/>
     </row>
     <row r="300" spans="1:30">
-      <c r="A300" s="55">
+      <c r="A300" s="53">
         <v>43013</v>
       </c>
-      <c r="B300" s="56"/>
-      <c r="C300" s="56"/>
-      <c r="D300" s="56"/>
-      <c r="E300" s="56"/>
-      <c r="F300" s="57"/>
+      <c r="B300" s="54"/>
+      <c r="C300" s="54"/>
+      <c r="D300" s="54"/>
+      <c r="E300" s="54"/>
+      <c r="F300" s="55"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
+      <c r="J300" s="72"/>
+      <c r="K300" s="73"/>
+      <c r="L300" s="74"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -17748,17 +18858,17 @@
       <c r="C301" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D301" s="73" t="s">
+      <c r="D301" s="57" t="s">
         <v>1447</v>
       </c>
-      <c r="E301" s="74"/>
-      <c r="F301" s="75"/>
+      <c r="E301" s="58"/>
+      <c r="F301" s="59"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="1"/>
-      <c r="K301" s="1"/>
-      <c r="L301" s="1"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="73"/>
+      <c r="L301" s="74"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -17788,17 +18898,17 @@
       <c r="C302" s="50" t="s">
         <v>1449</v>
       </c>
-      <c r="D302" s="73" t="s">
+      <c r="D302" s="57" t="s">
         <v>1450</v>
       </c>
-      <c r="E302" s="74"/>
-      <c r="F302" s="75"/>
+      <c r="E302" s="58"/>
+      <c r="F302" s="59"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
+      <c r="J302" s="72"/>
+      <c r="K302" s="73"/>
+      <c r="L302" s="74"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -17828,17 +18938,17 @@
       <c r="C303" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D303" s="73" t="s">
+      <c r="D303" s="57" t="s">
         <v>1452</v>
       </c>
-      <c r="E303" s="74"/>
-      <c r="F303" s="75"/>
+      <c r="E303" s="58"/>
+      <c r="F303" s="59"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
+      <c r="J303" s="72"/>
+      <c r="K303" s="73"/>
+      <c r="L303" s="74"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -17868,17 +18978,17 @@
       <c r="C304" s="33" t="s">
         <v>1453</v>
       </c>
-      <c r="D304" s="73" t="s">
+      <c r="D304" s="57" t="s">
         <v>1454</v>
       </c>
-      <c r="E304" s="74"/>
-      <c r="F304" s="75"/>
+      <c r="E304" s="58"/>
+      <c r="F304" s="59"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="1"/>
-      <c r="K304" s="1"/>
-      <c r="L304" s="1"/>
+      <c r="J304" s="72"/>
+      <c r="K304" s="73"/>
+      <c r="L304" s="74"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -17908,17 +19018,17 @@
       <c r="C305" s="49" t="s">
         <v>1455</v>
       </c>
-      <c r="D305" s="73" t="s">
+      <c r="D305" s="57" t="s">
         <v>1456</v>
       </c>
-      <c r="E305" s="74"/>
-      <c r="F305" s="75"/>
+      <c r="E305" s="58"/>
+      <c r="F305" s="59"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
+      <c r="J305" s="72"/>
+      <c r="K305" s="73"/>
+      <c r="L305" s="74"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -17948,17 +19058,17 @@
       <c r="C306" s="49" t="s">
         <v>1457</v>
       </c>
-      <c r="D306" s="73" t="s">
+      <c r="D306" s="57" t="s">
         <v>1458</v>
       </c>
-      <c r="E306" s="74"/>
-      <c r="F306" s="75"/>
+      <c r="E306" s="58"/>
+      <c r="F306" s="59"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
+      <c r="J306" s="72"/>
+      <c r="K306" s="73"/>
+      <c r="L306" s="74"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -17988,17 +19098,17 @@
       <c r="C307" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D307" s="58" t="s">
+      <c r="D307" s="56" t="s">
         <v>1337</v>
       </c>
-      <c r="E307" s="58"/>
-      <c r="F307" s="58"/>
+      <c r="E307" s="56"/>
+      <c r="F307" s="56"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
+      <c r="J307" s="72"/>
+      <c r="K307" s="73"/>
+      <c r="L307" s="74"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -18028,17 +19138,17 @@
       <c r="C308" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D308" s="52" t="s">
+      <c r="D308" s="72" t="s">
         <v>1342</v>
       </c>
-      <c r="E308" s="53"/>
-      <c r="F308" s="54"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="74"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="1"/>
+      <c r="J308" s="72"/>
+      <c r="K308" s="73"/>
+      <c r="L308" s="74"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -18068,17 +19178,17 @@
       <c r="C309" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D309" s="52" t="s">
+      <c r="D309" s="72" t="s">
         <v>1346</v>
       </c>
-      <c r="E309" s="53"/>
-      <c r="F309" s="54"/>
+      <c r="E309" s="73"/>
+      <c r="F309" s="74"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="1"/>
+      <c r="J309" s="72"/>
+      <c r="K309" s="73"/>
+      <c r="L309" s="74"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -18098,7 +19208,7 @@
       <c r="AC309" s="1"/>
       <c r="AD309" s="1"/>
     </row>
-    <row r="310" spans="1:30" ht="14.25">
+    <row r="310" spans="1:30">
       <c r="A310" s="1" t="s">
         <v>1347</v>
       </c>
@@ -18108,17 +19218,17 @@
       <c r="C310" s="51" t="s">
         <v>1349</v>
       </c>
-      <c r="D310" s="52" t="s">
+      <c r="D310" s="72" t="s">
         <v>1350</v>
       </c>
-      <c r="E310" s="53"/>
-      <c r="F310" s="54"/>
+      <c r="E310" s="73"/>
+      <c r="F310" s="74"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
-      <c r="L310" s="1"/>
+      <c r="J310" s="72"/>
+      <c r="K310" s="73"/>
+      <c r="L310" s="74"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -18138,7 +19248,7 @@
       <c r="AC310" s="1"/>
       <c r="AD310" s="1"/>
     </row>
-    <row r="311" spans="1:30" ht="14.25">
+    <row r="311" spans="1:30">
       <c r="A311" s="1" t="s">
         <v>1351</v>
       </c>
@@ -18148,17 +19258,17 @@
       <c r="C311" s="51" t="s">
         <v>1353</v>
       </c>
-      <c r="D311" s="52" t="s">
+      <c r="D311" s="72" t="s">
         <v>1354</v>
       </c>
-      <c r="E311" s="53"/>
-      <c r="F311" s="54"/>
+      <c r="E311" s="73"/>
+      <c r="F311" s="74"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="1"/>
-      <c r="K311" s="1"/>
-      <c r="L311" s="1"/>
+      <c r="J311" s="72"/>
+      <c r="K311" s="73"/>
+      <c r="L311" s="74"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -18188,17 +19298,17 @@
       <c r="C312" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D312" s="52" t="s">
+      <c r="D312" s="72" t="s">
         <v>1357</v>
       </c>
-      <c r="E312" s="53"/>
-      <c r="F312" s="54"/>
+      <c r="E312" s="73"/>
+      <c r="F312" s="74"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
-      <c r="K312" s="1"/>
-      <c r="L312" s="1"/>
+      <c r="J312" s="72"/>
+      <c r="K312" s="73"/>
+      <c r="L312" s="74"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -18218,7 +19328,7 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="1:30" ht="14.25">
+    <row r="313" spans="1:30">
       <c r="A313" s="1" t="s">
         <v>1358</v>
       </c>
@@ -18228,17 +19338,17 @@
       <c r="C313" s="51" t="s">
         <v>1361</v>
       </c>
-      <c r="D313" s="52" t="s">
+      <c r="D313" s="72" t="s">
         <v>1360</v>
       </c>
-      <c r="E313" s="53"/>
-      <c r="F313" s="54"/>
+      <c r="E313" s="73"/>
+      <c r="F313" s="74"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="1"/>
-      <c r="K313" s="1"/>
-      <c r="L313" s="1"/>
+      <c r="J313" s="72"/>
+      <c r="K313" s="73"/>
+      <c r="L313" s="74"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -18268,17 +19378,17 @@
       <c r="C314" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D314" s="52" t="s">
+      <c r="D314" s="72" t="s">
         <v>1364</v>
       </c>
-      <c r="E314" s="53"/>
-      <c r="F314" s="54"/>
+      <c r="E314" s="73"/>
+      <c r="F314" s="74"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="1"/>
-      <c r="K314" s="1"/>
-      <c r="L314" s="1"/>
+      <c r="J314" s="72"/>
+      <c r="K314" s="73"/>
+      <c r="L314" s="74"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -18308,17 +19418,17 @@
       <c r="C315" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D315" s="52" t="s">
+      <c r="D315" s="72" t="s">
         <v>1368</v>
       </c>
-      <c r="E315" s="53"/>
-      <c r="F315" s="54"/>
+      <c r="E315" s="73"/>
+      <c r="F315" s="74"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="1"/>
-      <c r="K315" s="1"/>
-      <c r="L315" s="1"/>
+      <c r="J315" s="72"/>
+      <c r="K315" s="73"/>
+      <c r="L315" s="74"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -18346,17 +19456,17 @@
       <c r="C316" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D316" s="52" t="s">
+      <c r="D316" s="72" t="s">
         <v>1371</v>
       </c>
-      <c r="E316" s="53"/>
-      <c r="F316" s="54"/>
+      <c r="E316" s="73"/>
+      <c r="F316" s="74"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="1"/>
+      <c r="J316" s="72"/>
+      <c r="K316" s="73"/>
+      <c r="L316" s="74"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -18384,17 +19494,17 @@
       <c r="C317" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D317" s="52" t="s">
+      <c r="D317" s="72" t="s">
         <v>1374</v>
       </c>
-      <c r="E317" s="53"/>
-      <c r="F317" s="54"/>
+      <c r="E317" s="73"/>
+      <c r="F317" s="74"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="73"/>
+      <c r="L317" s="74"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -18414,7 +19524,7 @@
       <c r="AC317" s="1"/>
       <c r="AD317" s="1"/>
     </row>
-    <row r="318" spans="1:30" ht="14.25">
+    <row r="318" spans="1:30">
       <c r="A318" s="1" t="s">
         <v>1375</v>
       </c>
@@ -18424,17 +19534,17 @@
       <c r="C318" s="51" t="s">
         <v>1376</v>
       </c>
-      <c r="D318" s="52" t="s">
+      <c r="D318" s="72" t="s">
         <v>1377</v>
       </c>
-      <c r="E318" s="53"/>
-      <c r="F318" s="54"/>
+      <c r="E318" s="73"/>
+      <c r="F318" s="74"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
-      <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
+      <c r="J318" s="72"/>
+      <c r="K318" s="73"/>
+      <c r="L318" s="74"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -18464,17 +19574,17 @@
       <c r="C319" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D319" s="52" t="s">
+      <c r="D319" s="72" t="s">
         <v>1381</v>
       </c>
-      <c r="E319" s="53"/>
-      <c r="F319" s="54"/>
+      <c r="E319" s="73"/>
+      <c r="F319" s="74"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="1"/>
-      <c r="K319" s="1"/>
-      <c r="L319" s="1"/>
+      <c r="J319" s="72"/>
+      <c r="K319" s="73"/>
+      <c r="L319" s="74"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -18504,17 +19614,17 @@
       <c r="C320" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D320" s="52" t="s">
+      <c r="D320" s="72" t="s">
         <v>1385</v>
       </c>
-      <c r="E320" s="53"/>
-      <c r="F320" s="54"/>
+      <c r="E320" s="73"/>
+      <c r="F320" s="74"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="1"/>
-      <c r="K320" s="1"/>
-      <c r="L320" s="1"/>
+      <c r="J320" s="72"/>
+      <c r="K320" s="73"/>
+      <c r="L320" s="74"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -18544,17 +19654,17 @@
       <c r="C321" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D321" s="52" t="s">
+      <c r="D321" s="72" t="s">
         <v>1389</v>
       </c>
-      <c r="E321" s="53"/>
-      <c r="F321" s="54"/>
+      <c r="E321" s="73"/>
+      <c r="F321" s="74"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="1"/>
-      <c r="K321" s="1"/>
-      <c r="L321" s="1"/>
+      <c r="J321" s="72"/>
+      <c r="K321" s="73"/>
+      <c r="L321" s="74"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -18584,17 +19694,17 @@
       <c r="C322" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="D322" s="52" t="s">
+      <c r="D322" s="72" t="s">
         <v>1393</v>
       </c>
-      <c r="E322" s="53"/>
-      <c r="F322" s="54"/>
+      <c r="E322" s="73"/>
+      <c r="F322" s="74"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="1"/>
-      <c r="K322" s="1"/>
-      <c r="L322" s="1"/>
+      <c r="J322" s="72"/>
+      <c r="K322" s="73"/>
+      <c r="L322" s="74"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -18624,17 +19734,17 @@
       <c r="C323" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D323" s="52" t="s">
+      <c r="D323" s="72" t="s">
         <v>1397</v>
       </c>
-      <c r="E323" s="53"/>
-      <c r="F323" s="54"/>
+      <c r="E323" s="73"/>
+      <c r="F323" s="74"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="1"/>
-      <c r="K323" s="1"/>
-      <c r="L323" s="1"/>
+      <c r="J323" s="72"/>
+      <c r="K323" s="73"/>
+      <c r="L323" s="74"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -18654,7 +19764,7 @@
       <c r="AC323" s="1"/>
       <c r="AD323" s="1"/>
     </row>
-    <row r="324" spans="1:30" ht="14.25">
+    <row r="324" spans="1:30">
       <c r="A324" s="1" t="s">
         <v>1398</v>
       </c>
@@ -18662,17 +19772,17 @@
       <c r="C324" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="D324" s="52" t="s">
+      <c r="D324" s="72" t="s">
         <v>1399</v>
       </c>
-      <c r="E324" s="53"/>
-      <c r="F324" s="54"/>
+      <c r="E324" s="73"/>
+      <c r="F324" s="74"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
-      <c r="K324" s="1"/>
-      <c r="L324" s="1"/>
+      <c r="J324" s="72"/>
+      <c r="K324" s="73"/>
+      <c r="L324" s="74"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -18692,7 +19802,7 @@
       <c r="AC324" s="1"/>
       <c r="AD324" s="1"/>
     </row>
-    <row r="325" spans="1:30" ht="14.25">
+    <row r="325" spans="1:30">
       <c r="A325" s="1" t="s">
         <v>1401</v>
       </c>
@@ -18700,17 +19810,17 @@
       <c r="C325" s="51" t="s">
         <v>1402</v>
       </c>
-      <c r="D325" s="52" t="s">
+      <c r="D325" s="72" t="s">
         <v>1403</v>
       </c>
-      <c r="E325" s="53"/>
-      <c r="F325" s="54"/>
+      <c r="E325" s="73"/>
+      <c r="F325" s="74"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="1"/>
-      <c r="K325" s="1"/>
-      <c r="L325" s="1"/>
+      <c r="J325" s="72"/>
+      <c r="K325" s="73"/>
+      <c r="L325" s="74"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -18738,17 +19848,17 @@
       <c r="C326" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D326" s="52" t="s">
+      <c r="D326" s="72" t="s">
         <v>1406</v>
       </c>
-      <c r="E326" s="53"/>
-      <c r="F326" s="54"/>
+      <c r="E326" s="73"/>
+      <c r="F326" s="74"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
+      <c r="J326" s="72"/>
+      <c r="K326" s="73"/>
+      <c r="L326" s="74"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -18769,20 +19879,20 @@
       <c r="AD326" s="1"/>
     </row>
     <row r="327" spans="1:30">
-      <c r="A327" s="55">
+      <c r="A327" s="53">
         <v>43014</v>
       </c>
-      <c r="B327" s="56"/>
-      <c r="C327" s="56"/>
-      <c r="D327" s="56"/>
-      <c r="E327" s="56"/>
-      <c r="F327" s="57"/>
+      <c r="B327" s="54"/>
+      <c r="C327" s="54"/>
+      <c r="D327" s="54"/>
+      <c r="E327" s="54"/>
+      <c r="F327" s="55"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
+      <c r="J327" s="72"/>
+      <c r="K327" s="73"/>
+      <c r="L327" s="74"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -18812,17 +19922,17 @@
       <c r="C328" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D328" s="52" t="s">
+      <c r="D328" s="72" t="s">
         <v>1410</v>
       </c>
-      <c r="E328" s="53"/>
-      <c r="F328" s="54"/>
+      <c r="E328" s="73"/>
+      <c r="F328" s="74"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
+      <c r="J328" s="72"/>
+      <c r="K328" s="73"/>
+      <c r="L328" s="74"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -18852,17 +19962,17 @@
       <c r="C329" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="D329" s="52" t="s">
+      <c r="D329" s="72" t="s">
         <v>1414</v>
       </c>
-      <c r="E329" s="53"/>
-      <c r="F329" s="54"/>
+      <c r="E329" s="73"/>
+      <c r="F329" s="74"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
+      <c r="J329" s="72"/>
+      <c r="K329" s="73"/>
+      <c r="L329" s="74"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -18892,17 +20002,17 @@
       <c r="C330" s="19" t="s">
         <v>1417</v>
       </c>
-      <c r="D330" s="52" t="s">
+      <c r="D330" s="72" t="s">
         <v>1418</v>
       </c>
-      <c r="E330" s="53"/>
-      <c r="F330" s="54"/>
+      <c r="E330" s="73"/>
+      <c r="F330" s="74"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="1"/>
+      <c r="J330" s="72"/>
+      <c r="K330" s="73"/>
+      <c r="L330" s="74"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -18932,17 +20042,17 @@
       <c r="C331" s="19" t="s">
         <v>1421</v>
       </c>
-      <c r="D331" s="52" t="s">
+      <c r="D331" s="72" t="s">
         <v>1422</v>
       </c>
-      <c r="E331" s="53"/>
-      <c r="F331" s="54"/>
+      <c r="E331" s="73"/>
+      <c r="F331" s="74"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="1"/>
+      <c r="J331" s="72"/>
+      <c r="K331" s="73"/>
+      <c r="L331" s="74"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -18972,17 +20082,17 @@
       <c r="C332" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="D332" s="52" t="s">
+      <c r="D332" s="72" t="s">
         <v>1426</v>
       </c>
-      <c r="E332" s="53"/>
-      <c r="F332" s="54"/>
+      <c r="E332" s="73"/>
+      <c r="F332" s="74"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="1"/>
+      <c r="J332" s="72"/>
+      <c r="K332" s="73"/>
+      <c r="L332" s="74"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -19009,20 +20119,20 @@
       <c r="B333" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C333" s="72" t="s">
+      <c r="C333" s="52" t="s">
         <v>1429</v>
       </c>
-      <c r="D333" s="52" t="s">
+      <c r="D333" s="72" t="s">
         <v>1430</v>
       </c>
-      <c r="E333" s="53"/>
-      <c r="F333" s="54"/>
+      <c r="E333" s="73"/>
+      <c r="F333" s="74"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
+      <c r="J333" s="72"/>
+      <c r="K333" s="73"/>
+      <c r="L333" s="74"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -19049,20 +20159,20 @@
       <c r="B334" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C334" s="72" t="s">
+      <c r="C334" s="52" t="s">
         <v>1433</v>
       </c>
-      <c r="D334" s="52" t="s">
+      <c r="D334" s="72" t="s">
         <v>1434</v>
       </c>
-      <c r="E334" s="53"/>
-      <c r="F334" s="54"/>
+      <c r="E334" s="73"/>
+      <c r="F334" s="74"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
+      <c r="J334" s="72"/>
+      <c r="K334" s="73"/>
+      <c r="L334" s="74"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -19092,17 +20202,17 @@
       <c r="C335" s="20" t="s">
         <v>1437</v>
       </c>
-      <c r="D335" s="52" t="s">
+      <c r="D335" s="72" t="s">
         <v>1438</v>
       </c>
-      <c r="E335" s="53"/>
-      <c r="F335" s="54"/>
+      <c r="E335" s="73"/>
+      <c r="F335" s="74"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
+      <c r="J335" s="72"/>
+      <c r="K335" s="73"/>
+      <c r="L335" s="74"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -19132,17 +20242,17 @@
       <c r="C336" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D336" s="52" t="s">
+      <c r="D336" s="72" t="s">
         <v>1442</v>
       </c>
-      <c r="E336" s="53"/>
-      <c r="F336" s="54"/>
+      <c r="E336" s="73"/>
+      <c r="F336" s="74"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
+      <c r="J336" s="72"/>
+      <c r="K336" s="73"/>
+      <c r="L336" s="74"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -19172,17 +20282,17 @@
       <c r="C337" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D337" s="52" t="s">
+      <c r="D337" s="72" t="s">
         <v>1446</v>
       </c>
-      <c r="E337" s="53"/>
-      <c r="F337" s="54"/>
+      <c r="E337" s="73"/>
+      <c r="F337" s="74"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
+      <c r="J337" s="72"/>
+      <c r="K337" s="73"/>
+      <c r="L337" s="74"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -19203,18 +20313,26 @@
       <c r="AD337" s="1"/>
     </row>
     <row r="338" spans="1:30">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="52"/>
-      <c r="E338" s="53"/>
-      <c r="F338" s="54"/>
+      <c r="A338" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D338" s="72" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E338" s="73"/>
+      <c r="F338" s="74"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
+      <c r="J338" s="72"/>
+      <c r="K338" s="73"/>
+      <c r="L338" s="74"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -19235,18 +20353,24 @@
       <c r="AD338" s="1"/>
     </row>
     <row r="339" spans="1:30">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="52"/>
-      <c r="E339" s="53"/>
-      <c r="F339" s="54"/>
+      <c r="A339" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D339" s="72"/>
+      <c r="E339" s="73"/>
+      <c r="F339" s="74"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
+      <c r="J339" s="72"/>
+      <c r="K339" s="73"/>
+      <c r="L339" s="74"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -19267,18 +20391,26 @@
       <c r="AD339" s="1"/>
     </row>
     <row r="340" spans="1:30">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="52"/>
-      <c r="E340" s="53"/>
-      <c r="F340" s="54"/>
+      <c r="A340" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D340" s="72" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E340" s="73"/>
+      <c r="F340" s="74"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
+      <c r="J340" s="72"/>
+      <c r="K340" s="73"/>
+      <c r="L340" s="74"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -19299,18 +20431,26 @@
       <c r="AD340" s="1"/>
     </row>
     <row r="341" spans="1:30">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="52"/>
-      <c r="E341" s="53"/>
-      <c r="F341" s="54"/>
+      <c r="A341" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D341" s="72" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E341" s="73"/>
+      <c r="F341" s="74"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
+      <c r="J341" s="72"/>
+      <c r="K341" s="73"/>
+      <c r="L341" s="74"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -19331,18 +20471,26 @@
       <c r="AD341" s="1"/>
     </row>
     <row r="342" spans="1:30">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="52"/>
-      <c r="E342" s="53"/>
-      <c r="F342" s="54"/>
+      <c r="A342" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D342" s="72" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E342" s="73"/>
+      <c r="F342" s="74"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
+      <c r="J342" s="72"/>
+      <c r="K342" s="73"/>
+      <c r="L342" s="74"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -19363,18 +20511,26 @@
       <c r="AD342" s="1"/>
     </row>
     <row r="343" spans="1:30">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="52"/>
-      <c r="E343" s="53"/>
-      <c r="F343" s="54"/>
+      <c r="A343" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D343" s="72" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E343" s="73"/>
+      <c r="F343" s="74"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
+      <c r="J343" s="72"/>
+      <c r="K343" s="73"/>
+      <c r="L343" s="74"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -19395,18 +20551,26 @@
       <c r="AD343" s="1"/>
     </row>
     <row r="344" spans="1:30">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="52"/>
-      <c r="E344" s="53"/>
-      <c r="F344" s="54"/>
+      <c r="A344" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D344" s="72" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E344" s="73"/>
+      <c r="F344" s="74"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
+      <c r="J344" s="72"/>
+      <c r="K344" s="73"/>
+      <c r="L344" s="74"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -19427,18 +20591,26 @@
       <c r="AD344" s="1"/>
     </row>
     <row r="345" spans="1:30">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="52"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="54"/>
+      <c r="A345" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D345" s="72" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E345" s="73"/>
+      <c r="F345" s="74"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
+      <c r="J345" s="72"/>
+      <c r="K345" s="73"/>
+      <c r="L345" s="74"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -19459,18 +20631,24 @@
       <c r="AD345" s="1"/>
     </row>
     <row r="346" spans="1:30">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1" t="s">
+        <v>1490</v>
+      </c>
       <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="52"/>
-      <c r="E346" s="53"/>
-      <c r="F346" s="54"/>
+      <c r="C346" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D346" s="72" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E346" s="73"/>
+      <c r="F346" s="74"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
+      <c r="J346" s="72"/>
+      <c r="K346" s="73"/>
+      <c r="L346" s="74"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -19491,18 +20669,24 @@
       <c r="AD346" s="1"/>
     </row>
     <row r="347" spans="1:30">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1" t="s">
+        <v>1493</v>
+      </c>
       <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="52"/>
-      <c r="E347" s="53"/>
-      <c r="F347" s="54"/>
+      <c r="C347" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D347" s="72" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E347" s="73"/>
+      <c r="F347" s="74"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
+      <c r="J347" s="72"/>
+      <c r="K347" s="73"/>
+      <c r="L347" s="74"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -19523,18 +20707,24 @@
       <c r="AD347" s="1"/>
     </row>
     <row r="348" spans="1:30">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1" t="s">
+        <v>1496</v>
+      </c>
       <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="52"/>
-      <c r="E348" s="53"/>
-      <c r="F348" s="54"/>
+      <c r="C348" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D348" s="72" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E348" s="73"/>
+      <c r="F348" s="74"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
+      <c r="J348" s="72"/>
+      <c r="K348" s="73"/>
+      <c r="L348" s="74"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -19555,18 +20745,20 @@
       <c r="AD348" s="1"/>
     </row>
     <row r="349" spans="1:30">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="52"/>
-      <c r="E349" s="53"/>
-      <c r="F349" s="54"/>
+      <c r="A349" s="53">
+        <v>43015</v>
+      </c>
+      <c r="B349" s="54"/>
+      <c r="C349" s="54"/>
+      <c r="D349" s="54"/>
+      <c r="E349" s="54"/>
+      <c r="F349" s="55"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
+      <c r="J349" s="72"/>
+      <c r="K349" s="73"/>
+      <c r="L349" s="74"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -19587,18 +20779,24 @@
       <c r="AD349" s="1"/>
     </row>
     <row r="350" spans="1:30">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>1499</v>
+      </c>
       <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="52"/>
-      <c r="E350" s="53"/>
-      <c r="F350" s="54"/>
+      <c r="C350" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D350" s="72" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E350" s="73"/>
+      <c r="F350" s="74"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
+      <c r="J350" s="72"/>
+      <c r="K350" s="73"/>
+      <c r="L350" s="74"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -19619,18 +20817,26 @@
       <c r="AD350" s="1"/>
     </row>
     <row r="351" spans="1:30">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="52"/>
-      <c r="E351" s="53"/>
-      <c r="F351" s="54"/>
+      <c r="A351" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D351" s="72" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E351" s="73"/>
+      <c r="F351" s="74"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
+      <c r="J351" s="72"/>
+      <c r="K351" s="73"/>
+      <c r="L351" s="74"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -19651,18 +20857,26 @@
       <c r="AD351" s="1"/>
     </row>
     <row r="352" spans="1:30">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="52"/>
-      <c r="E352" s="53"/>
-      <c r="F352" s="54"/>
+      <c r="A352" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C352" s="76" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D352" s="72" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E352" s="73"/>
+      <c r="F352" s="74"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
+      <c r="J352" s="72"/>
+      <c r="K352" s="73"/>
+      <c r="L352" s="74"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -19683,18 +20897,26 @@
       <c r="AD352" s="1"/>
     </row>
     <row r="353" spans="1:30">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="52"/>
-      <c r="E353" s="53"/>
-      <c r="F353" s="54"/>
+      <c r="A353" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C353" s="76" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D353" s="72" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E353" s="73"/>
+      <c r="F353" s="74"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
+      <c r="J353" s="72"/>
+      <c r="K353" s="73"/>
+      <c r="L353" s="74"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -19715,18 +20937,26 @@
       <c r="AD353" s="1"/>
     </row>
     <row r="354" spans="1:30">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="52"/>
-      <c r="E354" s="53"/>
-      <c r="F354" s="54"/>
+      <c r="A354" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D354" s="72" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E354" s="73"/>
+      <c r="F354" s="74"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
+      <c r="J354" s="72"/>
+      <c r="K354" s="73"/>
+      <c r="L354" s="74"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -19747,18 +20977,24 @@
       <c r="AD354" s="1"/>
     </row>
     <row r="355" spans="1:30">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="52"/>
-      <c r="E355" s="53"/>
-      <c r="F355" s="54"/>
+      <c r="A355" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D355" s="72"/>
+      <c r="E355" s="73"/>
+      <c r="F355" s="74"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
+      <c r="J355" s="72"/>
+      <c r="K355" s="73"/>
+      <c r="L355" s="74"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -19779,18 +21015,26 @@
       <c r="AD355" s="1"/>
     </row>
     <row r="356" spans="1:30">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="52"/>
-      <c r="E356" s="53"/>
-      <c r="F356" s="54"/>
+      <c r="A356" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D356" s="72" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E356" s="73"/>
+      <c r="F356" s="74"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
+      <c r="J356" s="72"/>
+      <c r="K356" s="73"/>
+      <c r="L356" s="74"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -19811,18 +21055,26 @@
       <c r="AD356" s="1"/>
     </row>
     <row r="357" spans="1:30">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="52"/>
-      <c r="E357" s="53"/>
-      <c r="F357" s="54"/>
+      <c r="A357" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D357" s="72" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E357" s="73"/>
+      <c r="F357" s="74"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
+      <c r="J357" s="72"/>
+      <c r="K357" s="73"/>
+      <c r="L357" s="74"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -19843,18 +21095,26 @@
       <c r="AD357" s="1"/>
     </row>
     <row r="358" spans="1:30">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="52"/>
-      <c r="E358" s="53"/>
-      <c r="F358" s="54"/>
+      <c r="A358" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D358" s="72" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E358" s="73"/>
+      <c r="F358" s="74"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
+      <c r="J358" s="72"/>
+      <c r="K358" s="73"/>
+      <c r="L358" s="74"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -19875,18 +21135,26 @@
       <c r="AD358" s="1"/>
     </row>
     <row r="359" spans="1:30">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="52"/>
-      <c r="E359" s="53"/>
-      <c r="F359" s="54"/>
+      <c r="A359" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D359" s="72" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E359" s="73"/>
+      <c r="F359" s="74"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
+      <c r="J359" s="72"/>
+      <c r="K359" s="73"/>
+      <c r="L359" s="74"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -19907,18 +21175,26 @@
       <c r="AD359" s="1"/>
     </row>
     <row r="360" spans="1:30">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="52"/>
-      <c r="E360" s="53"/>
-      <c r="F360" s="54"/>
+      <c r="A360" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D360" s="72" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E360" s="73"/>
+      <c r="F360" s="74"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
+      <c r="J360" s="72"/>
+      <c r="K360" s="73"/>
+      <c r="L360" s="74"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -19939,18 +21215,26 @@
       <c r="AD360" s="1"/>
     </row>
     <row r="361" spans="1:30">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="52"/>
-      <c r="E361" s="53"/>
-      <c r="F361" s="54"/>
+      <c r="A361" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C361" s="76" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D361" s="72" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E361" s="73"/>
+      <c r="F361" s="74"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
+      <c r="J361" s="72"/>
+      <c r="K361" s="73"/>
+      <c r="L361" s="74"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -19971,18 +21255,26 @@
       <c r="AD361" s="1"/>
     </row>
     <row r="362" spans="1:30">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="52"/>
-      <c r="E362" s="53"/>
-      <c r="F362" s="54"/>
+      <c r="A362" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D362" s="72" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E362" s="73"/>
+      <c r="F362" s="74"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
+      <c r="J362" s="72"/>
+      <c r="K362" s="73"/>
+      <c r="L362" s="74"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -20003,18 +21295,24 @@
       <c r="AD362" s="1"/>
     </row>
     <row r="363" spans="1:30">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="52"/>
-      <c r="E363" s="53"/>
-      <c r="F363" s="54"/>
+      <c r="A363" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C363" s="51" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D363" s="72"/>
+      <c r="E363" s="73"/>
+      <c r="F363" s="74"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1"/>
+      <c r="J363" s="72"/>
+      <c r="K363" s="73"/>
+      <c r="L363" s="74"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -20035,18 +21333,26 @@
       <c r="AD363" s="1"/>
     </row>
     <row r="364" spans="1:30">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="52"/>
-      <c r="E364" s="53"/>
-      <c r="F364" s="54"/>
+      <c r="A364" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C364" s="76" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D364" s="72" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E364" s="73"/>
+      <c r="F364" s="74"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
+      <c r="J364" s="72"/>
+      <c r="K364" s="73"/>
+      <c r="L364" s="74"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -20067,18 +21373,26 @@
       <c r="AD364" s="1"/>
     </row>
     <row r="365" spans="1:30">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="52"/>
-      <c r="E365" s="53"/>
-      <c r="F365" s="54"/>
+      <c r="A365" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D365" s="72" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E365" s="73"/>
+      <c r="F365" s="74"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
+      <c r="J365" s="72"/>
+      <c r="K365" s="73"/>
+      <c r="L365" s="74"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -20099,18 +21413,26 @@
       <c r="AD365" s="1"/>
     </row>
     <row r="366" spans="1:30">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="52"/>
-      <c r="E366" s="53"/>
-      <c r="F366" s="54"/>
+      <c r="A366" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D366" s="72" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E366" s="73"/>
+      <c r="F366" s="74"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
+      <c r="J366" s="72"/>
+      <c r="K366" s="73"/>
+      <c r="L366" s="74"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -20131,18 +21453,26 @@
       <c r="AD366" s="1"/>
     </row>
     <row r="367" spans="1:30">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="52"/>
-      <c r="E367" s="53"/>
-      <c r="F367" s="54"/>
+      <c r="A367" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D367" s="72" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E367" s="73"/>
+      <c r="F367" s="74"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
+      <c r="J367" s="72"/>
+      <c r="K367" s="73"/>
+      <c r="L367" s="74"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -20163,18 +21493,26 @@
       <c r="AD367" s="1"/>
     </row>
     <row r="368" spans="1:30">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="52"/>
-      <c r="E368" s="53"/>
-      <c r="F368" s="54"/>
+      <c r="A368" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D368" s="72" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E368" s="73"/>
+      <c r="F368" s="74"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
+      <c r="J368" s="72"/>
+      <c r="K368" s="73"/>
+      <c r="L368" s="74"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -20195,18 +21533,26 @@
       <c r="AD368" s="1"/>
     </row>
     <row r="369" spans="1:30">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
-      <c r="D369" s="52"/>
-      <c r="E369" s="53"/>
-      <c r="F369" s="54"/>
+      <c r="A369" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D369" s="72" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E369" s="73"/>
+      <c r="F369" s="74"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="1"/>
-      <c r="K369" s="1"/>
-      <c r="L369" s="1"/>
+      <c r="J369" s="72"/>
+      <c r="K369" s="73"/>
+      <c r="L369" s="74"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -20227,18 +21573,26 @@
       <c r="AD369" s="1"/>
     </row>
     <row r="370" spans="1:30">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
-      <c r="D370" s="52"/>
-      <c r="E370" s="53"/>
-      <c r="F370" s="54"/>
+      <c r="A370" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D370" s="72" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E370" s="73"/>
+      <c r="F370" s="74"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-      <c r="K370" s="1"/>
-      <c r="L370" s="1"/>
+      <c r="J370" s="72"/>
+      <c r="K370" s="73"/>
+      <c r="L370" s="74"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -20259,18 +21613,26 @@
       <c r="AD370" s="1"/>
     </row>
     <row r="371" spans="1:30">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-      <c r="D371" s="52"/>
-      <c r="E371" s="53"/>
-      <c r="F371" s="54"/>
+      <c r="A371" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D371" s="72" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E371" s="73"/>
+      <c r="F371" s="74"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
-      <c r="K371" s="1"/>
-      <c r="L371" s="1"/>
+      <c r="J371" s="72"/>
+      <c r="K371" s="73"/>
+      <c r="L371" s="74"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -20291,18 +21653,24 @@
       <c r="AD371" s="1"/>
     </row>
     <row r="372" spans="1:30">
-      <c r="A372" s="1"/>
+      <c r="A372" s="1" t="s">
+        <v>1583</v>
+      </c>
       <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
-      <c r="D372" s="52"/>
-      <c r="E372" s="53"/>
-      <c r="F372" s="54"/>
+      <c r="C372" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D372" s="72" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E372" s="73"/>
+      <c r="F372" s="74"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="1"/>
-      <c r="K372" s="1"/>
-      <c r="L372" s="1"/>
+      <c r="J372" s="72"/>
+      <c r="K372" s="73"/>
+      <c r="L372" s="74"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -20323,18 +21691,26 @@
       <c r="AD372" s="1"/>
     </row>
     <row r="373" spans="1:30">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
-      <c r="D373" s="52"/>
-      <c r="E373" s="53"/>
-      <c r="F373" s="54"/>
+      <c r="A373" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D373" s="72" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E373" s="73"/>
+      <c r="F373" s="74"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1"/>
+      <c r="J373" s="72"/>
+      <c r="K373" s="73"/>
+      <c r="L373" s="74"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -20355,18 +21731,26 @@
       <c r="AD373" s="1"/>
     </row>
     <row r="374" spans="1:30">
-      <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
-      <c r="D374" s="52"/>
-      <c r="E374" s="53"/>
-      <c r="F374" s="54"/>
+      <c r="A374" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D374" s="72" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E374" s="73"/>
+      <c r="F374" s="74"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
-      <c r="K374" s="1"/>
-      <c r="L374" s="1"/>
+      <c r="J374" s="72"/>
+      <c r="K374" s="73"/>
+      <c r="L374" s="74"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -20387,18 +21771,26 @@
       <c r="AD374" s="1"/>
     </row>
     <row r="375" spans="1:30">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
-      <c r="D375" s="52"/>
-      <c r="E375" s="53"/>
-      <c r="F375" s="54"/>
+      <c r="A375" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D375" s="72" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E375" s="73"/>
+      <c r="F375" s="74"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1"/>
+      <c r="J375" s="72"/>
+      <c r="K375" s="73"/>
+      <c r="L375" s="74"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -20419,18 +21811,26 @@
       <c r="AD375" s="1"/>
     </row>
     <row r="376" spans="1:30">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
-      <c r="C376" s="1"/>
-      <c r="D376" s="52"/>
-      <c r="E376" s="53"/>
-      <c r="F376" s="54"/>
+      <c r="A376" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D376" s="72" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E376" s="73"/>
+      <c r="F376" s="74"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
+      <c r="J376" s="72"/>
+      <c r="K376" s="73"/>
+      <c r="L376" s="74"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -20451,18 +21851,26 @@
       <c r="AD376" s="1"/>
     </row>
     <row r="377" spans="1:30">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
-      <c r="D377" s="52"/>
-      <c r="E377" s="53"/>
-      <c r="F377" s="54"/>
+      <c r="A377" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D377" s="72" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E377" s="73"/>
+      <c r="F377" s="74"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
+      <c r="J377" s="72"/>
+      <c r="K377" s="73"/>
+      <c r="L377" s="74"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -20483,18 +21891,26 @@
       <c r="AD377" s="1"/>
     </row>
     <row r="378" spans="1:30">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
-      <c r="D378" s="52"/>
-      <c r="E378" s="53"/>
-      <c r="F378" s="54"/>
+      <c r="A378" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D378" s="72" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E378" s="73"/>
+      <c r="F378" s="74"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
+      <c r="J378" s="72"/>
+      <c r="K378" s="73"/>
+      <c r="L378" s="74"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -20515,18 +21931,26 @@
       <c r="AD378" s="1"/>
     </row>
     <row r="379" spans="1:30">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
-      <c r="D379" s="52"/>
-      <c r="E379" s="53"/>
-      <c r="F379" s="54"/>
+      <c r="A379" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D379" s="72" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E379" s="73"/>
+      <c r="F379" s="74"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
+      <c r="J379" s="72"/>
+      <c r="K379" s="73"/>
+      <c r="L379" s="74"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -20547,18 +21971,24 @@
       <c r="AD379" s="1"/>
     </row>
     <row r="380" spans="1:30">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1" t="s">
+        <v>1614</v>
+      </c>
       <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
-      <c r="D380" s="52"/>
-      <c r="E380" s="53"/>
-      <c r="F380" s="54"/>
+      <c r="C380" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D380" s="72" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E380" s="73"/>
+      <c r="F380" s="74"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1"/>
+      <c r="J380" s="72"/>
+      <c r="K380" s="73"/>
+      <c r="L380" s="74"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -20579,18 +22009,26 @@
       <c r="AD380" s="1"/>
     </row>
     <row r="381" spans="1:30">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
-      <c r="D381" s="52"/>
-      <c r="E381" s="53"/>
-      <c r="F381" s="54"/>
+      <c r="A381" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D381" s="72" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E381" s="73"/>
+      <c r="F381" s="74"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
-      <c r="K381" s="1"/>
-      <c r="L381" s="1"/>
+      <c r="J381" s="72"/>
+      <c r="K381" s="73"/>
+      <c r="L381" s="74"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -20611,18 +22049,26 @@
       <c r="AD381" s="1"/>
     </row>
     <row r="382" spans="1:30">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
-      <c r="D382" s="52"/>
-      <c r="E382" s="53"/>
-      <c r="F382" s="54"/>
+      <c r="A382" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D382" s="72" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E382" s="73"/>
+      <c r="F382" s="74"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="1"/>
-      <c r="K382" s="1"/>
-      <c r="L382" s="1"/>
+      <c r="J382" s="72"/>
+      <c r="K382" s="73"/>
+      <c r="L382" s="74"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -20643,18 +22089,26 @@
       <c r="AD382" s="1"/>
     </row>
     <row r="383" spans="1:30">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
-      <c r="D383" s="52"/>
-      <c r="E383" s="53"/>
-      <c r="F383" s="54"/>
+      <c r="A383" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D383" s="72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E383" s="73"/>
+      <c r="F383" s="74"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="1"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="1"/>
+      <c r="J383" s="72"/>
+      <c r="K383" s="73"/>
+      <c r="L383" s="74"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -20675,18 +22129,20 @@
       <c r="AD383" s="1"/>
     </row>
     <row r="384" spans="1:30">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
-      <c r="D384" s="52"/>
-      <c r="E384" s="53"/>
-      <c r="F384" s="54"/>
+      <c r="A384" s="53">
+        <v>43016</v>
+      </c>
+      <c r="B384" s="54"/>
+      <c r="C384" s="54"/>
+      <c r="D384" s="54"/>
+      <c r="E384" s="54"/>
+      <c r="F384" s="55"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
+      <c r="J384" s="72"/>
+      <c r="K384" s="73"/>
+      <c r="L384" s="74"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -20707,18 +22163,26 @@
       <c r="AD384" s="1"/>
     </row>
     <row r="385" spans="1:30">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="52"/>
-      <c r="E385" s="53"/>
-      <c r="F385" s="54"/>
+      <c r="A385" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D385" s="72" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E385" s="73"/>
+      <c r="F385" s="74"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
+      <c r="J385" s="72"/>
+      <c r="K385" s="73"/>
+      <c r="L385" s="74"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -20739,18 +22203,26 @@
       <c r="AD385" s="1"/>
     </row>
     <row r="386" spans="1:30">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
-      <c r="D386" s="52"/>
-      <c r="E386" s="53"/>
-      <c r="F386" s="54"/>
+      <c r="A386" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D386" s="72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E386" s="73"/>
+      <c r="F386" s="74"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
+      <c r="J386" s="72"/>
+      <c r="K386" s="73"/>
+      <c r="L386" s="74"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -20771,18 +22243,26 @@
       <c r="AD386" s="1"/>
     </row>
     <row r="387" spans="1:30">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
-      <c r="D387" s="52"/>
-      <c r="E387" s="53"/>
-      <c r="F387" s="54"/>
+      <c r="A387" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D387" s="72" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E387" s="73"/>
+      <c r="F387" s="74"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
+      <c r="J387" s="72"/>
+      <c r="K387" s="73"/>
+      <c r="L387" s="74"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -20803,18 +22283,26 @@
       <c r="AD387" s="1"/>
     </row>
     <row r="388" spans="1:30">
-      <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
-      <c r="D388" s="52"/>
-      <c r="E388" s="53"/>
-      <c r="F388" s="54"/>
+      <c r="A388" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D388" s="72" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E388" s="73"/>
+      <c r="F388" s="74"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
+      <c r="J388" s="72"/>
+      <c r="K388" s="73"/>
+      <c r="L388" s="74"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -20835,18 +22323,26 @@
       <c r="AD388" s="1"/>
     </row>
     <row r="389" spans="1:30">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-      <c r="D389" s="52"/>
-      <c r="E389" s="53"/>
-      <c r="F389" s="54"/>
+      <c r="A389" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D389" s="72" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E389" s="73"/>
+      <c r="F389" s="74"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
+      <c r="J389" s="72"/>
+      <c r="K389" s="73"/>
+      <c r="L389" s="74"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -20867,18 +22363,26 @@
       <c r="AD389" s="1"/>
     </row>
     <row r="390" spans="1:30">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-      <c r="D390" s="52"/>
-      <c r="E390" s="53"/>
-      <c r="F390" s="54"/>
+      <c r="A390" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D390" s="72" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E390" s="73"/>
+      <c r="F390" s="74"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
-      <c r="K390" s="1"/>
-      <c r="L390" s="1"/>
+      <c r="J390" s="72"/>
+      <c r="K390" s="73"/>
+      <c r="L390" s="74"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -20899,18 +22403,24 @@
       <c r="AD390" s="1"/>
     </row>
     <row r="391" spans="1:30">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1" t="s">
+        <v>1652</v>
+      </c>
       <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="52"/>
-      <c r="E391" s="53"/>
-      <c r="F391" s="54"/>
+      <c r="C391" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D391" s="72" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E391" s="73"/>
+      <c r="F391" s="74"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
+      <c r="J391" s="72"/>
+      <c r="K391" s="73"/>
+      <c r="L391" s="74"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -20931,18 +22441,24 @@
       <c r="AD391" s="1"/>
     </row>
     <row r="392" spans="1:30">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1" t="s">
+        <v>1655</v>
+      </c>
       <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-      <c r="D392" s="52"/>
-      <c r="E392" s="53"/>
-      <c r="F392" s="54"/>
+      <c r="C392" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D392" s="72" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E392" s="73"/>
+      <c r="F392" s="74"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
+      <c r="J392" s="72"/>
+      <c r="K392" s="73"/>
+      <c r="L392" s="74"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -20963,18 +22479,24 @@
       <c r="AD392" s="1"/>
     </row>
     <row r="393" spans="1:30">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1" t="s">
+        <v>1659</v>
+      </c>
       <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="52"/>
-      <c r="E393" s="53"/>
-      <c r="F393" s="54"/>
+      <c r="C393" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D393" s="72" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E393" s="73"/>
+      <c r="F393" s="74"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
+      <c r="J393" s="72"/>
+      <c r="K393" s="73"/>
+      <c r="L393" s="74"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -20995,18 +22517,26 @@
       <c r="AD393" s="1"/>
     </row>
     <row r="394" spans="1:30">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="52"/>
-      <c r="E394" s="53"/>
-      <c r="F394" s="54"/>
+      <c r="A394" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D394" s="72" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E394" s="73"/>
+      <c r="F394" s="74"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1"/>
+      <c r="J394" s="72"/>
+      <c r="K394" s="73"/>
+      <c r="L394" s="74"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -21027,18 +22557,26 @@
       <c r="AD394" s="1"/>
     </row>
     <row r="395" spans="1:30">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-      <c r="D395" s="52"/>
-      <c r="E395" s="53"/>
-      <c r="F395" s="54"/>
+      <c r="A395" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D395" s="72" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E395" s="73"/>
+      <c r="F395" s="74"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1"/>
+      <c r="J395" s="72"/>
+      <c r="K395" s="73"/>
+      <c r="L395" s="74"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -21059,18 +22597,26 @@
       <c r="AD395" s="1"/>
     </row>
     <row r="396" spans="1:30">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-      <c r="D396" s="52"/>
-      <c r="E396" s="53"/>
-      <c r="F396" s="54"/>
+      <c r="A396" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D396" s="72" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E396" s="73"/>
+      <c r="F396" s="74"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
-      <c r="K396" s="1"/>
-      <c r="L396" s="1"/>
+      <c r="J396" s="72"/>
+      <c r="K396" s="73"/>
+      <c r="L396" s="74"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -21091,18 +22637,26 @@
       <c r="AD396" s="1"/>
     </row>
     <row r="397" spans="1:30">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-      <c r="D397" s="52"/>
-      <c r="E397" s="53"/>
-      <c r="F397" s="54"/>
+      <c r="A397" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D397" s="72" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E397" s="73"/>
+      <c r="F397" s="74"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1"/>
+      <c r="J397" s="72"/>
+      <c r="K397" s="73"/>
+      <c r="L397" s="74"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -21123,18 +22677,24 @@
       <c r="AD397" s="1"/>
     </row>
     <row r="398" spans="1:30">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1" t="s">
+        <v>1677</v>
+      </c>
       <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-      <c r="D398" s="52"/>
-      <c r="E398" s="53"/>
-      <c r="F398" s="54"/>
+      <c r="C398" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D398" s="72" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E398" s="73"/>
+      <c r="F398" s="74"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1"/>
+      <c r="J398" s="72"/>
+      <c r="K398" s="73"/>
+      <c r="L398" s="74"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -21155,18 +22715,24 @@
       <c r="AD398" s="1"/>
     </row>
     <row r="399" spans="1:30">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
+      <c r="A399" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1681</v>
+      </c>
       <c r="C399" s="1"/>
-      <c r="D399" s="52"/>
-      <c r="E399" s="53"/>
-      <c r="F399" s="54"/>
+      <c r="D399" s="72" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E399" s="73"/>
+      <c r="F399" s="74"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
+      <c r="J399" s="72"/>
+      <c r="K399" s="73"/>
+      <c r="L399" s="74"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -21187,18 +22753,26 @@
       <c r="AD399" s="1"/>
     </row>
     <row r="400" spans="1:30">
-      <c r="A400" s="1"/>
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-      <c r="D400" s="52"/>
-      <c r="E400" s="53"/>
-      <c r="F400" s="54"/>
+      <c r="A400" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D400" s="72" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E400" s="73"/>
+      <c r="F400" s="74"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
+      <c r="J400" s="72"/>
+      <c r="K400" s="73"/>
+      <c r="L400" s="74"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -21219,18 +22793,26 @@
       <c r="AD400" s="1"/>
     </row>
     <row r="401" spans="1:30">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="52"/>
-      <c r="E401" s="53"/>
-      <c r="F401" s="54"/>
+      <c r="A401" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D401" s="72" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E401" s="73"/>
+      <c r="F401" s="74"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
+      <c r="J401" s="72"/>
+      <c r="K401" s="73"/>
+      <c r="L401" s="74"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -21251,18 +22833,26 @@
       <c r="AD401" s="1"/>
     </row>
     <row r="402" spans="1:30">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-      <c r="D402" s="52"/>
-      <c r="E402" s="53"/>
-      <c r="F402" s="54"/>
+      <c r="A402" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D402" s="72" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E402" s="73"/>
+      <c r="F402" s="74"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
+      <c r="J402" s="72"/>
+      <c r="K402" s="73"/>
+      <c r="L402" s="74"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -21283,18 +22873,26 @@
       <c r="AD402" s="1"/>
     </row>
     <row r="403" spans="1:30">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="52"/>
-      <c r="E403" s="53"/>
-      <c r="F403" s="54"/>
+      <c r="A403" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D403" s="72" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E403" s="73"/>
+      <c r="F403" s="74"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
+      <c r="J403" s="72"/>
+      <c r="K403" s="73"/>
+      <c r="L403" s="74"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -21315,18 +22913,26 @@
       <c r="AD403" s="1"/>
     </row>
     <row r="404" spans="1:30">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="52"/>
-      <c r="E404" s="53"/>
-      <c r="F404" s="54"/>
+      <c r="A404" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D404" s="72" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E404" s="73"/>
+      <c r="F404" s="74"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
+      <c r="J404" s="72"/>
+      <c r="K404" s="73"/>
+      <c r="L404" s="74"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -21347,18 +22953,26 @@
       <c r="AD404" s="1"/>
     </row>
     <row r="405" spans="1:30">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="52"/>
-      <c r="E405" s="53"/>
-      <c r="F405" s="54"/>
+      <c r="A405" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D405" s="72" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E405" s="73"/>
+      <c r="F405" s="74"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
+      <c r="J405" s="72"/>
+      <c r="K405" s="73"/>
+      <c r="L405" s="74"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -21379,18 +22993,26 @@
       <c r="AD405" s="1"/>
     </row>
     <row r="406" spans="1:30">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="52"/>
-      <c r="E406" s="53"/>
-      <c r="F406" s="54"/>
+      <c r="A406" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D406" s="72" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E406" s="73"/>
+      <c r="F406" s="74"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
+      <c r="J406" s="72"/>
+      <c r="K406" s="73"/>
+      <c r="L406" s="74"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -21411,18 +23033,26 @@
       <c r="AD406" s="1"/>
     </row>
     <row r="407" spans="1:30">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="52"/>
-      <c r="E407" s="53"/>
-      <c r="F407" s="54"/>
+      <c r="A407" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D407" s="72" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E407" s="73"/>
+      <c r="F407" s="74"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
+      <c r="J407" s="72"/>
+      <c r="K407" s="73"/>
+      <c r="L407" s="74"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -21443,18 +23073,26 @@
       <c r="AD407" s="1"/>
     </row>
     <row r="408" spans="1:30">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-      <c r="D408" s="52"/>
-      <c r="E408" s="53"/>
-      <c r="F408" s="54"/>
+      <c r="A408" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D408" s="72" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E408" s="73"/>
+      <c r="F408" s="74"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
+      <c r="J408" s="72"/>
+      <c r="K408" s="73"/>
+      <c r="L408" s="74"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -21475,18 +23113,26 @@
       <c r="AD408" s="1"/>
     </row>
     <row r="409" spans="1:30">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="52"/>
-      <c r="E409" s="53"/>
-      <c r="F409" s="54"/>
+      <c r="A409" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D409" s="72" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E409" s="73"/>
+      <c r="F409" s="74"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
+      <c r="J409" s="72"/>
+      <c r="K409" s="73"/>
+      <c r="L409" s="74"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -21507,7 +23153,310 @@
       <c r="AD409" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="327">
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="J408:L408"/>
+    <mergeCell ref="J409:L409"/>
+    <mergeCell ref="J398:L398"/>
+    <mergeCell ref="J399:L399"/>
+    <mergeCell ref="J400:L400"/>
+    <mergeCell ref="J401:L401"/>
+    <mergeCell ref="J402:L402"/>
+    <mergeCell ref="J403:L403"/>
+    <mergeCell ref="J404:L404"/>
+    <mergeCell ref="J405:L405"/>
+    <mergeCell ref="J406:L406"/>
+    <mergeCell ref="J389:L389"/>
+    <mergeCell ref="J390:L390"/>
+    <mergeCell ref="J391:L391"/>
+    <mergeCell ref="J392:L392"/>
+    <mergeCell ref="J393:L393"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="J395:L395"/>
+    <mergeCell ref="J396:L396"/>
+    <mergeCell ref="J397:L397"/>
+    <mergeCell ref="J380:L380"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="J382:L382"/>
+    <mergeCell ref="J383:L383"/>
+    <mergeCell ref="J384:L384"/>
+    <mergeCell ref="J385:L385"/>
+    <mergeCell ref="J386:L386"/>
+    <mergeCell ref="J387:L387"/>
+    <mergeCell ref="J388:L388"/>
+    <mergeCell ref="J371:L371"/>
+    <mergeCell ref="J372:L372"/>
+    <mergeCell ref="J373:L373"/>
+    <mergeCell ref="J374:L374"/>
+    <mergeCell ref="J375:L375"/>
+    <mergeCell ref="J376:L376"/>
+    <mergeCell ref="J377:L377"/>
+    <mergeCell ref="J378:L378"/>
+    <mergeCell ref="J379:L379"/>
+    <mergeCell ref="J362:L362"/>
+    <mergeCell ref="J363:L363"/>
+    <mergeCell ref="J364:L364"/>
+    <mergeCell ref="J365:L365"/>
+    <mergeCell ref="J366:L366"/>
+    <mergeCell ref="J367:L367"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="J369:L369"/>
+    <mergeCell ref="J370:L370"/>
+    <mergeCell ref="J353:L353"/>
+    <mergeCell ref="J354:L354"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="J356:L356"/>
+    <mergeCell ref="J357:L357"/>
+    <mergeCell ref="J358:L358"/>
+    <mergeCell ref="J359:L359"/>
+    <mergeCell ref="J360:L360"/>
+    <mergeCell ref="J361:L361"/>
+    <mergeCell ref="J344:L344"/>
+    <mergeCell ref="J345:L345"/>
+    <mergeCell ref="J346:L346"/>
+    <mergeCell ref="J347:L347"/>
+    <mergeCell ref="J348:L348"/>
+    <mergeCell ref="J349:L349"/>
+    <mergeCell ref="J350:L350"/>
+    <mergeCell ref="J351:L351"/>
+    <mergeCell ref="J352:L352"/>
+    <mergeCell ref="J335:L335"/>
+    <mergeCell ref="J336:L336"/>
+    <mergeCell ref="J337:L337"/>
+    <mergeCell ref="J338:L338"/>
+    <mergeCell ref="J339:L339"/>
+    <mergeCell ref="J340:L340"/>
+    <mergeCell ref="J341:L341"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="J343:L343"/>
+    <mergeCell ref="J326:L326"/>
+    <mergeCell ref="J327:L327"/>
+    <mergeCell ref="J328:L328"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="J330:L330"/>
+    <mergeCell ref="J331:L331"/>
+    <mergeCell ref="J332:L332"/>
+    <mergeCell ref="J333:L333"/>
+    <mergeCell ref="J334:L334"/>
+    <mergeCell ref="J317:L317"/>
+    <mergeCell ref="J318:L318"/>
+    <mergeCell ref="J319:L319"/>
+    <mergeCell ref="J320:L320"/>
+    <mergeCell ref="J321:L321"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="J323:L323"/>
+    <mergeCell ref="J324:L324"/>
+    <mergeCell ref="J325:L325"/>
+    <mergeCell ref="J308:L308"/>
+    <mergeCell ref="J309:L309"/>
+    <mergeCell ref="J310:L310"/>
+    <mergeCell ref="J311:L311"/>
+    <mergeCell ref="J312:L312"/>
+    <mergeCell ref="J313:L313"/>
+    <mergeCell ref="J314:L314"/>
+    <mergeCell ref="J315:L315"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="J299:L299"/>
+    <mergeCell ref="J300:L300"/>
+    <mergeCell ref="J301:L301"/>
+    <mergeCell ref="J302:L302"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="J304:L304"/>
+    <mergeCell ref="J305:L305"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="J307:L307"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="J292:L292"/>
+    <mergeCell ref="J293:L293"/>
+    <mergeCell ref="J294:L294"/>
+    <mergeCell ref="J295:L295"/>
+    <mergeCell ref="J296:L296"/>
+    <mergeCell ref="J297:L297"/>
+    <mergeCell ref="J298:L298"/>
+    <mergeCell ref="J281:L281"/>
+    <mergeCell ref="J282:L282"/>
+    <mergeCell ref="J283:L283"/>
+    <mergeCell ref="J284:L284"/>
+    <mergeCell ref="J285:L285"/>
+    <mergeCell ref="J286:L286"/>
+    <mergeCell ref="J287:L287"/>
+    <mergeCell ref="J288:L288"/>
+    <mergeCell ref="J289:L289"/>
+    <mergeCell ref="J272:L272"/>
+    <mergeCell ref="J273:L273"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="J275:L275"/>
+    <mergeCell ref="J276:L276"/>
+    <mergeCell ref="J277:L277"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="J280:L280"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="J264:L264"/>
+    <mergeCell ref="J265:L265"/>
+    <mergeCell ref="J266:L266"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="J268:L268"/>
+    <mergeCell ref="J269:L269"/>
+    <mergeCell ref="J270:L270"/>
+    <mergeCell ref="J271:L271"/>
+    <mergeCell ref="J254:L254"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="J256:L256"/>
+    <mergeCell ref="J257:L257"/>
+    <mergeCell ref="J258:L258"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="J260:L260"/>
+    <mergeCell ref="J261:L261"/>
+    <mergeCell ref="J262:L262"/>
+    <mergeCell ref="J245:L245"/>
+    <mergeCell ref="J246:L246"/>
+    <mergeCell ref="J247:L247"/>
+    <mergeCell ref="J248:L248"/>
+    <mergeCell ref="J249:L249"/>
+    <mergeCell ref="J250:L250"/>
+    <mergeCell ref="J251:L251"/>
+    <mergeCell ref="J252:L252"/>
+    <mergeCell ref="J253:L253"/>
+    <mergeCell ref="J236:L236"/>
+    <mergeCell ref="J237:L237"/>
+    <mergeCell ref="J238:L238"/>
+    <mergeCell ref="J239:L239"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="J241:L241"/>
+    <mergeCell ref="J242:L242"/>
+    <mergeCell ref="J243:L243"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="J227:L227"/>
+    <mergeCell ref="J228:L228"/>
+    <mergeCell ref="J229:L229"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="J231:L231"/>
+    <mergeCell ref="J232:L232"/>
+    <mergeCell ref="J233:L233"/>
+    <mergeCell ref="J234:L234"/>
+    <mergeCell ref="J235:L235"/>
+    <mergeCell ref="J218:L218"/>
+    <mergeCell ref="J219:L219"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="J221:L221"/>
+    <mergeCell ref="J222:L222"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="J224:L224"/>
+    <mergeCell ref="J225:L225"/>
+    <mergeCell ref="J226:L226"/>
+    <mergeCell ref="G209:L209"/>
+    <mergeCell ref="J210:L210"/>
+    <mergeCell ref="J211:L211"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="J213:L213"/>
+    <mergeCell ref="J214:L214"/>
+    <mergeCell ref="J215:L215"/>
+    <mergeCell ref="J216:L216"/>
+    <mergeCell ref="J217:L217"/>
+    <mergeCell ref="D408:F408"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="D405:F405"/>
+    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="D407:F407"/>
+    <mergeCell ref="D398:F398"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D396:F396"/>
+    <mergeCell ref="D397:F397"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="D386:F386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="D373:F373"/>
+    <mergeCell ref="D374:F374"/>
+    <mergeCell ref="D375:F375"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="D363:F363"/>
+    <mergeCell ref="D364:F364"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="D316:F316"/>
+    <mergeCell ref="D317:F317"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="D312:F312"/>
     <mergeCell ref="A241:F241"/>
     <mergeCell ref="D307:F307"/>
     <mergeCell ref="D303:F303"/>
@@ -21532,108 +23481,6 @@
     <mergeCell ref="Y208:AD208"/>
     <mergeCell ref="A300:F300"/>
     <mergeCell ref="A266:F266"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D349:F349"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="D363:F363"/>
-    <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D360:F360"/>
-    <mergeCell ref="D361:F361"/>
-    <mergeCell ref="D362:F362"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="D374:F374"/>
-    <mergeCell ref="D375:F375"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D370:F370"/>
-    <mergeCell ref="D371:F371"/>
-    <mergeCell ref="D372:F372"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="D384:F384"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="D393:F393"/>
-    <mergeCell ref="D394:F394"/>
-    <mergeCell ref="D395:F395"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="D405:F405"/>
-    <mergeCell ref="D406:F406"/>
-    <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D402:F402"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1915">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6600,7 +6600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6611,7 +6611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6632,7 +6632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6642,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6653,7 +6653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6663,7 +6663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6674,7 +6674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6705,7 +6705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6716,7 +6716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6726,7 +6726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6737,7 +6737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6747,7 +6747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6758,7 +6758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6768,7 +6768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6793,7 +6793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6804,7 +6804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6814,7 +6814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6825,7 +6825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6835,7 +6835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6846,7 +6846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6870,7 +6870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6881,7 +6881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6891,7 +6891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -7993,16 +7993,2366 @@
   <si>
     <t>フランス革命</t>
   </si>
+  <si>
+    <t>ひとりぐらし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】【英】framework ;框架</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企業間協力のフレームワークをつくる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名词】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 【英】model;模型；样品。</t>
+    </r>
+  </si>
+  <si>
+    <t>モデルハウス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せっけい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他动词・サ变/三类】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 设计，规划</t>
+    </r>
+  </si>
+  <si>
+    <t>庭を設計する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーディング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 【英】coding;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンピューターで、一定のプログラム言語を用いて、プログラムを書くこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>けんげん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利。;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんこう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更，更改</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所を変更する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 (英)bug 虫</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制御</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいぎょ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驾驭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；支配【他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驾驭</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制御できない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【英】view ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>野</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビューポイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【英】controller ;控制器</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームコントローラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おうか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】按下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンやキーボードを押すこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机，机会</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>際</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出発の際 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がいぶ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名词】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 外部，外边，外面</t>
+    </r>
+  </si>
+  <si>
+    <t>外部に亀裂が生じる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 握在手中；掌握，充分理解</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>把握</t>
+    <rPh sb="0" eb="2">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はあく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彼女が緊張する時は、いつもペンを把握する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記述</t>
+    <rPh sb="0" eb="2">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きじゅつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他动词・サ变/三类】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 描述。;记述</t>
+    </r>
+  </si>
+  <si>
+    <t>記述言語</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容易</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名词】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 容易，简单</t>
+    </r>
+  </si>
+  <si>
+    <t>容易な仕事</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残念</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ざんねん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【形容动词/ナ形容词】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 遗憾，可惜，对不起，抱歉。;懊悔，悔恨，懊恼</t>
+    </r>
+  </si>
+  <si>
+    <t>若い時によく勉強しなかったのが残念だ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どんどん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【副</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺畅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>貌</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どんどん売れる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうぞう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构。;构造</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造が簡単である</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <rPh sb="0" eb="2">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しゅうごう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名】【自他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 集合</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全員集合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠組み</t>
+    <rPh sb="0" eb="2">
+      <t>ワクグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>わくぐみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名】 框子的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构，框架</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 計画の枠組み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>訳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>訳</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，翻，翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現代語訳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいはつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。;开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创办</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しい分野を開発</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>比較</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひかく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 比，比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成績を比較する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しよう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 做法，方法，手段</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加工仕様を教えてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製造者</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいぞうしゃ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厂家，制造厂商</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>漏れ</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もれ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】漏。泄露</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>漏れのないように願います</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産を高める</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうすう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かしょ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】（特定的）地方，部分【接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/接尾】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。个</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頭に3箇所もけがをした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>推奨</t>
+    <rPh sb="0" eb="2">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すいしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 推荐。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいそう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阶层</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社会のあらゆる階層の人々</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検討</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>けんとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，探</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，研究</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>委員会で、予算案を検討する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ていぎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国家の定義をくだす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リレーショナル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机用于】（relational）关系型</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関連</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かんれん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">なんらの関連もない </t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8010,13 +10360,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -8024,7 +10374,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8091,7 +10441,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -8116,6 +10466,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -8456,7 +10814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8520,6 +10878,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8577,25 +10948,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8875,77 +11234,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E206" workbookViewId="0">
-      <selection activeCell="J226" sqref="J226:L226"/>
+    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
+      <selection activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
-    <col min="27" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.25" customWidth="1"/>
+    <col min="26" max="26" width="17.875" customWidth="1"/>
+    <col min="27" max="29" width="11.625" customWidth="1"/>
+    <col min="30" max="30" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:18" ht="18" thickBot="1">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -10584,7 +12943,7 @@
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -13652,7 +16011,7 @@
       <c r="Q148" s="48"/>
       <c r="R148" s="48"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -14472,7 +16831,7 @@
       <c r="Q174" s="48"/>
       <c r="R174" s="48"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -14504,7 +16863,7 @@
       <c r="Q175" s="48"/>
       <c r="R175" s="48"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -14678,7 +17037,7 @@
       <c r="Q181" s="48"/>
       <c r="R181" s="48"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -14704,7 +17063,7 @@
       <c r="Q182" s="48"/>
       <c r="R182" s="48"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -14808,7 +17167,7 @@
       <c r="Q186" s="48"/>
       <c r="R186" s="48"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -15166,7 +17525,7 @@
       <c r="Q203" s="48"/>
       <c r="R203" s="48"/>
     </row>
-    <row r="204" spans="1:30" ht="15.75" thickBot="1">
+    <row r="204" spans="1:30" ht="14.25" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -15186,99 +17545,99 @@
       <c r="Q204" s="48"/>
       <c r="R204" s="48"/>
     </row>
-    <row r="207" spans="1:30" ht="18.75">
-      <c r="A207" s="67" t="s">
+    <row r="207" spans="1:30" ht="17.25">
+      <c r="A207" s="72" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="68"/>
-      <c r="C207" s="68"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="68"/>
-      <c r="F207" s="68"/>
-      <c r="G207" s="68"/>
-      <c r="H207" s="68"/>
-      <c r="I207" s="68"/>
-      <c r="J207" s="68"/>
-      <c r="K207" s="68"/>
-      <c r="L207" s="68"/>
-      <c r="M207" s="68"/>
-      <c r="N207" s="68"/>
-      <c r="O207" s="68"/>
-      <c r="P207" s="68"/>
-      <c r="Q207" s="68"/>
-      <c r="R207" s="68"/>
-      <c r="S207" s="68"/>
-      <c r="T207" s="68"/>
-      <c r="U207" s="68"/>
-      <c r="V207" s="68"/>
-      <c r="W207" s="68"/>
-      <c r="X207" s="68"/>
-      <c r="Y207" s="68"/>
-      <c r="Z207" s="68"/>
-      <c r="AA207" s="68"/>
-      <c r="AB207" s="68"/>
-      <c r="AC207" s="68"/>
-      <c r="AD207" s="68"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="73"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="73"/>
+      <c r="G207" s="73"/>
+      <c r="H207" s="73"/>
+      <c r="I207" s="73"/>
+      <c r="J207" s="73"/>
+      <c r="K207" s="73"/>
+      <c r="L207" s="73"/>
+      <c r="M207" s="73"/>
+      <c r="N207" s="73"/>
+      <c r="O207" s="73"/>
+      <c r="P207" s="73"/>
+      <c r="Q207" s="73"/>
+      <c r="R207" s="73"/>
+      <c r="S207" s="73"/>
+      <c r="T207" s="73"/>
+      <c r="U207" s="73"/>
+      <c r="V207" s="73"/>
+      <c r="W207" s="73"/>
+      <c r="X207" s="73"/>
+      <c r="Y207" s="73"/>
+      <c r="Z207" s="73"/>
+      <c r="AA207" s="73"/>
+      <c r="AB207" s="73"/>
+      <c r="AC207" s="73"/>
+      <c r="AD207" s="73"/>
     </row>
     <row r="208" spans="1:30">
-      <c r="A208" s="64" t="s">
+      <c r="A208" s="69" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="65"/>
-      <c r="C208" s="65"/>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="64" t="s">
+      <c r="B208" s="70"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70"/>
+      <c r="F208" s="71"/>
+      <c r="G208" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
-      <c r="L208" s="66"/>
-      <c r="M208" s="64" t="s">
+      <c r="H208" s="70"/>
+      <c r="I208" s="70"/>
+      <c r="J208" s="70"/>
+      <c r="K208" s="70"/>
+      <c r="L208" s="71"/>
+      <c r="M208" s="69" t="s">
         <v>1078</v>
       </c>
-      <c r="N208" s="65"/>
-      <c r="O208" s="65"/>
-      <c r="P208" s="65"/>
-      <c r="Q208" s="65"/>
-      <c r="R208" s="66"/>
-      <c r="S208" s="64" t="s">
+      <c r="N208" s="70"/>
+      <c r="O208" s="70"/>
+      <c r="P208" s="70"/>
+      <c r="Q208" s="70"/>
+      <c r="R208" s="71"/>
+      <c r="S208" s="69" t="s">
         <v>1079</v>
       </c>
-      <c r="T208" s="65"/>
-      <c r="U208" s="65"/>
-      <c r="V208" s="65"/>
-      <c r="W208" s="65"/>
-      <c r="X208" s="66"/>
-      <c r="Y208" s="75" t="s">
+      <c r="T208" s="70"/>
+      <c r="U208" s="70"/>
+      <c r="V208" s="70"/>
+      <c r="W208" s="70"/>
+      <c r="X208" s="71"/>
+      <c r="Y208" s="77" t="s">
         <v>1080</v>
       </c>
-      <c r="Z208" s="75"/>
-      <c r="AA208" s="75"/>
-      <c r="AB208" s="75"/>
-      <c r="AC208" s="75"/>
-      <c r="AD208" s="75"/>
+      <c r="Z208" s="77"/>
+      <c r="AA208" s="77"/>
+      <c r="AB208" s="77"/>
+      <c r="AC208" s="77"/>
+      <c r="AD208" s="77"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="53">
+      <c r="A209" s="58">
         <v>43010</v>
       </c>
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="53">
+      <c r="B209" s="59"/>
+      <c r="C209" s="59"/>
+      <c r="D209" s="59"/>
+      <c r="E209" s="59"/>
+      <c r="F209" s="60"/>
+      <c r="G209" s="58">
         <v>43017</v>
       </c>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="54"/>
-      <c r="L209" s="55"/>
+      <c r="H209" s="59"/>
+      <c r="I209" s="59"/>
+      <c r="J209" s="59"/>
+      <c r="K209" s="59"/>
+      <c r="L209" s="60"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -15308,9 +17667,9 @@
       <c r="C210" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D210" s="69"/>
-      <c r="E210" s="70"/>
-      <c r="F210" s="71"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="75"/>
+      <c r="F210" s="76"/>
       <c r="G210" s="1" t="s">
         <v>1722</v>
       </c>
@@ -15320,11 +17679,11 @@
       <c r="I210" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="J210" s="72" t="s">
+      <c r="J210" s="55" t="s">
         <v>1725</v>
       </c>
-      <c r="K210" s="73"/>
-      <c r="L210" s="74"/>
+      <c r="K210" s="56"/>
+      <c r="L210" s="57"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -15354,9 +17713,9 @@
       <c r="C211" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D211" s="72"/>
-      <c r="E211" s="73"/>
-      <c r="F211" s="74"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="57"/>
       <c r="G211" s="1" t="s">
         <v>1726</v>
       </c>
@@ -15366,11 +17725,11 @@
       <c r="I211" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="J211" s="72" t="s">
+      <c r="J211" s="55" t="s">
         <v>1729</v>
       </c>
-      <c r="K211" s="73"/>
-      <c r="L211" s="74"/>
+      <c r="K211" s="56"/>
+      <c r="L211" s="57"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -15400,9 +17759,9 @@
       <c r="C212" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D212" s="72"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="74"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="57"/>
       <c r="G212" s="1" t="s">
         <v>1730</v>
       </c>
@@ -15412,11 +17771,11 @@
       <c r="I212" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J212" s="72" t="s">
+      <c r="J212" s="55" t="s">
         <v>1733</v>
       </c>
-      <c r="K212" s="73"/>
-      <c r="L212" s="74"/>
+      <c r="K212" s="56"/>
+      <c r="L212" s="57"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -15458,11 +17817,11 @@
       <c r="I213" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="J213" s="72" t="s">
+      <c r="J213" s="55" t="s">
         <v>1737</v>
       </c>
-      <c r="K213" s="73"/>
-      <c r="L213" s="74"/>
+      <c r="K213" s="56"/>
+      <c r="L213" s="57"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -15504,11 +17863,11 @@
       <c r="I214" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="J214" s="72" t="s">
+      <c r="J214" s="55" t="s">
         <v>1741</v>
       </c>
-      <c r="K214" s="73"/>
-      <c r="L214" s="74"/>
+      <c r="K214" s="56"/>
+      <c r="L214" s="57"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -15550,11 +17909,11 @@
       <c r="I215" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="J215" s="72" t="s">
+      <c r="J215" s="55" t="s">
         <v>1744</v>
       </c>
-      <c r="K215" s="73"/>
-      <c r="L215" s="74"/>
+      <c r="K215" s="56"/>
+      <c r="L215" s="57"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -15593,14 +17952,14 @@
       <c r="H216" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="I216" s="76" t="s">
+      <c r="I216" s="53" t="s">
         <v>1747</v>
       </c>
-      <c r="J216" s="72" t="s">
+      <c r="J216" s="55" t="s">
         <v>1748</v>
       </c>
-      <c r="K216" s="73"/>
-      <c r="L216" s="74"/>
+      <c r="K216" s="56"/>
+      <c r="L216" s="57"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -15642,11 +18001,11 @@
       <c r="I217" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="J217" s="72" t="s">
+      <c r="J217" s="55" t="s">
         <v>1752</v>
       </c>
-      <c r="K217" s="73"/>
-      <c r="L217" s="74"/>
+      <c r="K217" s="56"/>
+      <c r="L217" s="57"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -15688,11 +18047,11 @@
       <c r="I218" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="J218" s="72" t="s">
+      <c r="J218" s="55" t="s">
         <v>1755</v>
       </c>
-      <c r="K218" s="73"/>
-      <c r="L218" s="74"/>
+      <c r="K218" s="56"/>
+      <c r="L218" s="57"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -15732,11 +18091,11 @@
       <c r="I219" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="J219" s="72" t="s">
+      <c r="J219" s="55" t="s">
         <v>1759</v>
       </c>
-      <c r="K219" s="73"/>
-      <c r="L219" s="74"/>
+      <c r="K219" s="56"/>
+      <c r="L219" s="57"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -15778,11 +18137,11 @@
       <c r="I220" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="J220" s="72" t="s">
+      <c r="J220" s="55" t="s">
         <v>1763</v>
       </c>
-      <c r="K220" s="73"/>
-      <c r="L220" s="74"/>
+      <c r="K220" s="56"/>
+      <c r="L220" s="57"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -15824,9 +18183,9 @@
       <c r="I221" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="J221" s="72"/>
-      <c r="K221" s="73"/>
-      <c r="L221" s="74"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="56"/>
+      <c r="L221" s="57"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -15863,16 +18222,16 @@
         <v>1767</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="J222" s="72" t="s">
+      <c r="J222" s="55" t="s">
         <v>1769</v>
       </c>
-      <c r="K222" s="73"/>
-      <c r="L222" s="74"/>
+      <c r="K222" s="56"/>
+      <c r="L222" s="57"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -15914,11 +18273,11 @@
       <c r="I223" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="J223" s="72" t="s">
+      <c r="J223" s="55" t="s">
         <v>1773</v>
       </c>
-      <c r="K223" s="73"/>
-      <c r="L223" s="74"/>
+      <c r="K223" s="56"/>
+      <c r="L223" s="57"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -15957,14 +18316,14 @@
       <c r="H224" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="I224" s="77" t="s">
+      <c r="I224" s="54" t="s">
         <v>1776</v>
       </c>
-      <c r="J224" s="72" t="s">
+      <c r="J224" s="55" t="s">
         <v>1777</v>
       </c>
-      <c r="K224" s="73"/>
-      <c r="L224" s="74"/>
+      <c r="K224" s="56"/>
+      <c r="L224" s="57"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -16004,11 +18363,11 @@
       <c r="I225" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J225" s="72" t="s">
+      <c r="J225" s="55" t="s">
         <v>1780</v>
       </c>
-      <c r="K225" s="73"/>
-      <c r="L225" s="74"/>
+      <c r="K225" s="56"/>
+      <c r="L225" s="57"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -16048,11 +18407,11 @@
       <c r="I226" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="J226" s="72" t="s">
+      <c r="J226" s="55" t="s">
         <v>1783</v>
       </c>
-      <c r="K226" s="73"/>
-      <c r="L226" s="74"/>
+      <c r="K226" s="56"/>
+      <c r="L226" s="57"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -16085,12 +18444,14 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="72"/>
-      <c r="K227" s="73"/>
-      <c r="L227" s="74"/>
+      <c r="G227" s="58">
+        <v>43018</v>
+      </c>
+      <c r="H227" s="59"/>
+      <c r="I227" s="59"/>
+      <c r="J227" s="59"/>
+      <c r="K227" s="59"/>
+      <c r="L227" s="60"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -16123,12 +18484,18 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="G228" s="1" t="s">
+        <v>1785</v>
+      </c>
       <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="72"/>
-      <c r="K228" s="73"/>
-      <c r="L228" s="74"/>
+      <c r="I228" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J228" s="55" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K228" s="56"/>
+      <c r="L228" s="57"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -16148,7 +18515,7 @@
       <c r="AC228" s="1"/>
       <c r="AD228" s="1"/>
     </row>
-    <row r="229" spans="1:30">
+    <row r="229" spans="1:30" ht="16.5">
       <c r="A229" s="1" t="s">
         <v>1132</v>
       </c>
@@ -16161,12 +18528,18 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+      <c r="G229" s="1" t="s">
+        <v>1788</v>
+      </c>
       <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="72"/>
-      <c r="K229" s="73"/>
-      <c r="L229" s="74"/>
+      <c r="I229" s="52" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J229" s="55" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K229" s="56"/>
+      <c r="L229" s="57"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -16186,7 +18559,7 @@
       <c r="AC229" s="1"/>
       <c r="AD229" s="1"/>
     </row>
-    <row r="230" spans="1:30">
+    <row r="230" spans="1:30" ht="16.5">
       <c r="A230" s="1" t="s">
         <v>1134</v>
       </c>
@@ -16199,12 +18572,20 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="72"/>
-      <c r="K230" s="73"/>
-      <c r="L230" s="74"/>
+      <c r="G230" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I230" s="52" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J230" s="55" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K230" s="56"/>
+      <c r="L230" s="57"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -16237,12 +18618,18 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
+      <c r="G231" s="1" t="s">
+        <v>1795</v>
+      </c>
       <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="72"/>
-      <c r="K231" s="73"/>
-      <c r="L231" s="74"/>
+      <c r="I231" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J231" s="55" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K231" s="56"/>
+      <c r="L231" s="57"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -16275,12 +18662,18 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="72"/>
-      <c r="K232" s="73"/>
-      <c r="L232" s="74"/>
+      <c r="G232" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J232" s="55"/>
+      <c r="K232" s="56"/>
+      <c r="L232" s="57"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -16311,12 +18704,20 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="72"/>
-      <c r="K233" s="73"/>
-      <c r="L233" s="74"/>
+      <c r="G233" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J233" s="55" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K233" s="56"/>
+      <c r="L233" s="57"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -16349,12 +18750,16 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+      <c r="G234" s="1" t="s">
+        <v>1805</v>
+      </c>
       <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="72"/>
-      <c r="K234" s="73"/>
-      <c r="L234" s="74"/>
+      <c r="I234" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J234" s="55"/>
+      <c r="K234" s="56"/>
+      <c r="L234" s="57"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -16387,12 +18792,20 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="72"/>
-      <c r="K235" s="73"/>
-      <c r="L235" s="74"/>
+      <c r="G235" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J235" s="55" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K235" s="56"/>
+      <c r="L235" s="57"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -16425,12 +18838,18 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
+      <c r="G236" s="1" t="s">
+        <v>1811</v>
+      </c>
       <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="72"/>
-      <c r="K236" s="73"/>
-      <c r="L236" s="74"/>
+      <c r="I236" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J236" s="55" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K236" s="56"/>
+      <c r="L236" s="57"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -16463,12 +18882,18 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
+      <c r="G237" s="1" t="s">
+        <v>1814</v>
+      </c>
       <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="72"/>
-      <c r="K237" s="73"/>
-      <c r="L237" s="74"/>
+      <c r="I237" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J237" s="55" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K237" s="56"/>
+      <c r="L237" s="57"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -16501,12 +18926,20 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="72"/>
-      <c r="K238" s="73"/>
-      <c r="L238" s="74"/>
+      <c r="G238" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I238" s="54" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J238" s="55" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K238" s="56"/>
+      <c r="L238" s="57"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -16539,12 +18972,20 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="72"/>
-      <c r="K239" s="73"/>
-      <c r="L239" s="74"/>
+      <c r="G239" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J239" s="55" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K239" s="56"/>
+      <c r="L239" s="57"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -16564,7 +19005,7 @@
       <c r="AC239" s="1"/>
       <c r="AD239" s="1"/>
     </row>
-    <row r="240" spans="1:30">
+    <row r="240" spans="1:30" ht="16.5">
       <c r="A240" s="1" t="s">
         <v>1163</v>
       </c>
@@ -16577,12 +19018,20 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="72"/>
-      <c r="K240" s="73"/>
-      <c r="L240" s="74"/>
+      <c r="G240" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I240" s="52" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J240" s="55" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K240" s="56"/>
+      <c r="L240" s="57"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -16603,20 +19052,28 @@
       <c r="AD240" s="1"/>
     </row>
     <row r="241" spans="1:30">
-      <c r="A241" s="53">
+      <c r="A241" s="58">
         <v>43011</v>
       </c>
-      <c r="B241" s="54"/>
-      <c r="C241" s="54"/>
-      <c r="D241" s="54"/>
-      <c r="E241" s="54"/>
-      <c r="F241" s="55"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="72"/>
-      <c r="K241" s="73"/>
-      <c r="L241" s="74"/>
+      <c r="B241" s="59"/>
+      <c r="C241" s="59"/>
+      <c r="D241" s="59"/>
+      <c r="E241" s="59"/>
+      <c r="F241" s="60"/>
+      <c r="G241" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J241" s="55" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K241" s="56"/>
+      <c r="L241" s="57"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -16636,7 +19093,7 @@
       <c r="AC241" s="1"/>
       <c r="AD241" s="1"/>
     </row>
-    <row r="242" spans="1:30">
+    <row r="242" spans="1:30" ht="16.5">
       <c r="A242" s="1" t="s">
         <v>1170</v>
       </c>
@@ -16649,12 +19106,20 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="72"/>
-      <c r="K242" s="73"/>
-      <c r="L242" s="74"/>
+      <c r="G242" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I242" s="52" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J242" s="55" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K242" s="56"/>
+      <c r="L242" s="57"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -16674,7 +19139,7 @@
       <c r="AC242" s="1"/>
       <c r="AD242" s="1"/>
     </row>
-    <row r="243" spans="1:30">
+    <row r="243" spans="1:30" ht="16.5">
       <c r="A243" s="1" t="s">
         <v>1174</v>
       </c>
@@ -16687,12 +19152,20 @@
       <c r="D243" s="33"/>
       <c r="E243" s="33"/>
       <c r="F243" s="33"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="72"/>
-      <c r="K243" s="73"/>
-      <c r="L243" s="74"/>
+      <c r="G243" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I243" s="78" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J243" s="55" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K243" s="56"/>
+      <c r="L243" s="57"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -16712,7 +19185,7 @@
       <c r="AC243" s="1"/>
       <c r="AD243" s="1"/>
     </row>
-    <row r="244" spans="1:30">
+    <row r="244" spans="1:30" ht="16.5">
       <c r="A244" s="1" t="s">
         <v>1176</v>
       </c>
@@ -16725,12 +19198,20 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="72"/>
-      <c r="K244" s="73"/>
-      <c r="L244" s="74"/>
+      <c r="G244" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I244" s="52" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J244" s="55" t="s">
+        <v>1844</v>
+      </c>
+      <c r="K244" s="56"/>
+      <c r="L244" s="57"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -16763,12 +19244,18 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
+      <c r="G245" s="1" t="s">
+        <v>1845</v>
+      </c>
       <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="72"/>
-      <c r="K245" s="73"/>
-      <c r="L245" s="74"/>
+      <c r="I245" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J245" s="55" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K245" s="56"/>
+      <c r="L245" s="57"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -16801,12 +19288,20 @@
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
       <c r="F246" s="33"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="72"/>
-      <c r="K246" s="73"/>
-      <c r="L246" s="74"/>
+      <c r="G246" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J246" s="55" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K246" s="56"/>
+      <c r="L246" s="57"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -16839,12 +19334,20 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="72"/>
-      <c r="K247" s="73"/>
-      <c r="L247" s="74"/>
+      <c r="G247" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I247" s="54" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J247" s="55" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K247" s="56"/>
+      <c r="L247" s="57"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -16877,12 +19380,20 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="72"/>
-      <c r="K248" s="73"/>
-      <c r="L248" s="74"/>
+      <c r="G248" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I248" s="54" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J248" s="55" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K248" s="56"/>
+      <c r="L248" s="57"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -16915,12 +19426,20 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="72"/>
-      <c r="K249" s="73"/>
-      <c r="L249" s="74"/>
+      <c r="G249" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J249" s="55" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K249" s="56"/>
+      <c r="L249" s="57"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -16951,12 +19470,20 @@
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
       <c r="F250" s="33"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="72"/>
-      <c r="K250" s="73"/>
-      <c r="L250" s="74"/>
+      <c r="G250" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J250" s="55" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K250" s="56"/>
+      <c r="L250" s="57"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -16989,12 +19516,20 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="72"/>
-      <c r="K251" s="73"/>
-      <c r="L251" s="74"/>
+      <c r="G251" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J251" s="55" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K251" s="56"/>
+      <c r="L251" s="57"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -17027,12 +19562,20 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="72"/>
-      <c r="K252" s="73"/>
-      <c r="L252" s="74"/>
+      <c r="G252" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J252" s="55" t="s">
+        <v>1875</v>
+      </c>
+      <c r="K252" s="56"/>
+      <c r="L252" s="57"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -17063,12 +19606,18 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="72"/>
-      <c r="K253" s="73"/>
-      <c r="L253" s="74"/>
+      <c r="G253" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J253" s="55"/>
+      <c r="K253" s="56"/>
+      <c r="L253" s="57"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -17099,12 +19648,20 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="72"/>
-      <c r="K254" s="73"/>
-      <c r="L254" s="74"/>
+      <c r="G254" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J254" s="55" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K254" s="56"/>
+      <c r="L254" s="57"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -17135,12 +19692,20 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="72"/>
-      <c r="K255" s="73"/>
-      <c r="L255" s="74"/>
+      <c r="G255" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J255" s="55" t="s">
+        <v>1886</v>
+      </c>
+      <c r="K255" s="56"/>
+      <c r="L255" s="57"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -17173,12 +19738,18 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="72"/>
-      <c r="K256" s="73"/>
-      <c r="L256" s="74"/>
+      <c r="G256" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J256" s="55"/>
+      <c r="K256" s="56"/>
+      <c r="L256" s="57"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -17211,12 +19782,20 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
-      <c r="J257" s="72"/>
-      <c r="K257" s="73"/>
-      <c r="L257" s="74"/>
+      <c r="G257" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J257" s="55" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K257" s="56"/>
+      <c r="L257" s="57"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -17249,12 +19828,18 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
-      <c r="J258" s="72"/>
-      <c r="K258" s="73"/>
-      <c r="L258" s="74"/>
+      <c r="G258" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J258" s="55"/>
+      <c r="K258" s="56"/>
+      <c r="L258" s="57"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -17287,12 +19872,20 @@
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
-      <c r="J259" s="72"/>
-      <c r="K259" s="73"/>
-      <c r="L259" s="74"/>
+      <c r="G259" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I259" s="53" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J259" s="55" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K259" s="56"/>
+      <c r="L259" s="57"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -17325,12 +19918,20 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
-      <c r="J260" s="72"/>
-      <c r="K260" s="73"/>
-      <c r="L260" s="74"/>
+      <c r="G260" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J260" s="55" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K260" s="56"/>
+      <c r="L260" s="57"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -17363,12 +19964,20 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
-      <c r="J261" s="72"/>
-      <c r="K261" s="73"/>
-      <c r="L261" s="74"/>
+      <c r="G261" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J261" s="55" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K261" s="56"/>
+      <c r="L261" s="57"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -17401,12 +20010,16 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>1909</v>
+      </c>
       <c r="H262" s="1"/>
-      <c r="I262" s="1"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="73"/>
-      <c r="L262" s="74"/>
+      <c r="I262" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J262" s="55"/>
+      <c r="K262" s="56"/>
+      <c r="L262" s="57"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -17439,12 +20052,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
-      <c r="J263" s="72"/>
-      <c r="K263" s="73"/>
-      <c r="L263" s="74"/>
+      <c r="G263" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J263" s="55" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K263" s="56"/>
+      <c r="L263" s="57"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -17478,9 +20099,9 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="72"/>
-      <c r="K264" s="73"/>
-      <c r="L264" s="74"/>
+      <c r="J264" s="55"/>
+      <c r="K264" s="56"/>
+      <c r="L264" s="57"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -17514,9 +20135,9 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="72"/>
-      <c r="K265" s="73"/>
-      <c r="L265" s="74"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="56"/>
+      <c r="L265" s="57"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -17537,20 +20158,20 @@
       <c r="AD265" s="1"/>
     </row>
     <row r="266" spans="1:30">
-      <c r="A266" s="53">
+      <c r="A266" s="58">
         <v>43012</v>
       </c>
-      <c r="B266" s="54"/>
-      <c r="C266" s="54"/>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
-      <c r="F266" s="55"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="59"/>
+      <c r="D266" s="59"/>
+      <c r="E266" s="59"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="72"/>
-      <c r="K266" s="73"/>
-      <c r="L266" s="74"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="56"/>
+      <c r="L266" s="57"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -17586,9 +20207,9 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="72"/>
-      <c r="K267" s="73"/>
-      <c r="L267" s="74"/>
+      <c r="J267" s="55"/>
+      <c r="K267" s="56"/>
+      <c r="L267" s="57"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -17624,9 +20245,9 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="72"/>
-      <c r="K268" s="73"/>
-      <c r="L268" s="74"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="56"/>
+      <c r="L268" s="57"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -17662,9 +20283,9 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="72"/>
-      <c r="K269" s="73"/>
-      <c r="L269" s="74"/>
+      <c r="J269" s="55"/>
+      <c r="K269" s="56"/>
+      <c r="L269" s="57"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -17700,9 +20321,9 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="72"/>
-      <c r="K270" s="73"/>
-      <c r="L270" s="74"/>
+      <c r="J270" s="55"/>
+      <c r="K270" s="56"/>
+      <c r="L270" s="57"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -17738,9 +20359,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="72"/>
-      <c r="K271" s="73"/>
-      <c r="L271" s="74"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="56"/>
+      <c r="L271" s="57"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -17776,9 +20397,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="72"/>
-      <c r="K272" s="73"/>
-      <c r="L272" s="74"/>
+      <c r="J272" s="55"/>
+      <c r="K272" s="56"/>
+      <c r="L272" s="57"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -17814,9 +20435,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="72"/>
-      <c r="K273" s="73"/>
-      <c r="L273" s="74"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="56"/>
+      <c r="L273" s="57"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -17852,9 +20473,9 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="72"/>
-      <c r="K274" s="73"/>
-      <c r="L274" s="74"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="56"/>
+      <c r="L274" s="57"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -17890,9 +20511,9 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="72"/>
-      <c r="K275" s="73"/>
-      <c r="L275" s="74"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="56"/>
+      <c r="L275" s="57"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -17928,9 +20549,9 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="72"/>
-      <c r="K276" s="73"/>
-      <c r="L276" s="74"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="56"/>
+      <c r="L276" s="57"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -17966,9 +20587,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="72"/>
-      <c r="K277" s="73"/>
-      <c r="L277" s="74"/>
+      <c r="J277" s="55"/>
+      <c r="K277" s="56"/>
+      <c r="L277" s="57"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -18004,9 +20625,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="72"/>
-      <c r="K278" s="73"/>
-      <c r="L278" s="74"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="56"/>
+      <c r="L278" s="57"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -18042,9 +20663,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="72"/>
-      <c r="K279" s="73"/>
-      <c r="L279" s="74"/>
+      <c r="J279" s="55"/>
+      <c r="K279" s="56"/>
+      <c r="L279" s="57"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -18080,9 +20701,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="72"/>
-      <c r="K280" s="73"/>
-      <c r="L280" s="74"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="56"/>
+      <c r="L280" s="57"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -18118,9 +20739,9 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="72"/>
-      <c r="K281" s="73"/>
-      <c r="L281" s="74"/>
+      <c r="J281" s="55"/>
+      <c r="K281" s="56"/>
+      <c r="L281" s="57"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -18154,9 +20775,9 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="72"/>
-      <c r="K282" s="73"/>
-      <c r="L282" s="74"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="56"/>
+      <c r="L282" s="57"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -18190,9 +20811,9 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="72"/>
-      <c r="K283" s="73"/>
-      <c r="L283" s="74"/>
+      <c r="J283" s="55"/>
+      <c r="K283" s="56"/>
+      <c r="L283" s="57"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -18228,9 +20849,9 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="72"/>
-      <c r="K284" s="73"/>
-      <c r="L284" s="74"/>
+      <c r="J284" s="55"/>
+      <c r="K284" s="56"/>
+      <c r="L284" s="57"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -18266,9 +20887,9 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="72"/>
-      <c r="K285" s="73"/>
-      <c r="L285" s="74"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="56"/>
+      <c r="L285" s="57"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -18304,9 +20925,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="72"/>
-      <c r="K286" s="73"/>
-      <c r="L286" s="74"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="56"/>
+      <c r="L286" s="57"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -18342,9 +20963,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="72"/>
-      <c r="K287" s="73"/>
-      <c r="L287" s="74"/>
+      <c r="J287" s="55"/>
+      <c r="K287" s="56"/>
+      <c r="L287" s="57"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -18380,9 +21001,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="72"/>
-      <c r="K288" s="73"/>
-      <c r="L288" s="74"/>
+      <c r="J288" s="55"/>
+      <c r="K288" s="56"/>
+      <c r="L288" s="57"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -18418,9 +21039,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="72"/>
-      <c r="K289" s="73"/>
-      <c r="L289" s="74"/>
+      <c r="J289" s="55"/>
+      <c r="K289" s="56"/>
+      <c r="L289" s="57"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -18456,9 +21077,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="72"/>
-      <c r="K290" s="73"/>
-      <c r="L290" s="74"/>
+      <c r="J290" s="55"/>
+      <c r="K290" s="56"/>
+      <c r="L290" s="57"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -18494,9 +21115,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="72"/>
-      <c r="K291" s="73"/>
-      <c r="L291" s="74"/>
+      <c r="J291" s="55"/>
+      <c r="K291" s="56"/>
+      <c r="L291" s="57"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -18532,9 +21153,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="72"/>
-      <c r="K292" s="73"/>
-      <c r="L292" s="74"/>
+      <c r="J292" s="55"/>
+      <c r="K292" s="56"/>
+      <c r="L292" s="57"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -18570,9 +21191,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="72"/>
-      <c r="K293" s="73"/>
-      <c r="L293" s="74"/>
+      <c r="J293" s="55"/>
+      <c r="K293" s="56"/>
+      <c r="L293" s="57"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -18606,9 +21227,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="72"/>
-      <c r="K294" s="73"/>
-      <c r="L294" s="74"/>
+      <c r="J294" s="55"/>
+      <c r="K294" s="56"/>
+      <c r="L294" s="57"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -18642,9 +21263,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="72"/>
-      <c r="K295" s="73"/>
-      <c r="L295" s="74"/>
+      <c r="J295" s="55"/>
+      <c r="K295" s="56"/>
+      <c r="L295" s="57"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -18680,9 +21301,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="72"/>
-      <c r="K296" s="73"/>
-      <c r="L296" s="74"/>
+      <c r="J296" s="55"/>
+      <c r="K296" s="56"/>
+      <c r="L296" s="57"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -18718,9 +21339,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="72"/>
-      <c r="K297" s="73"/>
-      <c r="L297" s="74"/>
+      <c r="J297" s="55"/>
+      <c r="K297" s="56"/>
+      <c r="L297" s="57"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -18756,9 +21377,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="72"/>
-      <c r="K298" s="73"/>
-      <c r="L298" s="74"/>
+      <c r="J298" s="55"/>
+      <c r="K298" s="56"/>
+      <c r="L298" s="57"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -18792,9 +21413,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="72"/>
-      <c r="K299" s="73"/>
-      <c r="L299" s="74"/>
+      <c r="J299" s="55"/>
+      <c r="K299" s="56"/>
+      <c r="L299" s="57"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -18815,20 +21436,20 @@
       <c r="AD299" s="1"/>
     </row>
     <row r="300" spans="1:30">
-      <c r="A300" s="53">
+      <c r="A300" s="58">
         <v>43013</v>
       </c>
-      <c r="B300" s="54"/>
-      <c r="C300" s="54"/>
-      <c r="D300" s="54"/>
-      <c r="E300" s="54"/>
-      <c r="F300" s="55"/>
+      <c r="B300" s="59"/>
+      <c r="C300" s="59"/>
+      <c r="D300" s="59"/>
+      <c r="E300" s="59"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="72"/>
-      <c r="K300" s="73"/>
-      <c r="L300" s="74"/>
+      <c r="J300" s="55"/>
+      <c r="K300" s="56"/>
+      <c r="L300" s="57"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -18858,17 +21479,17 @@
       <c r="C301" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D301" s="57" t="s">
+      <c r="D301" s="62" t="s">
         <v>1447</v>
       </c>
-      <c r="E301" s="58"/>
-      <c r="F301" s="59"/>
+      <c r="E301" s="63"/>
+      <c r="F301" s="64"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="72"/>
-      <c r="K301" s="73"/>
-      <c r="L301" s="74"/>
+      <c r="J301" s="55"/>
+      <c r="K301" s="56"/>
+      <c r="L301" s="57"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -18898,17 +21519,17 @@
       <c r="C302" s="50" t="s">
         <v>1449</v>
       </c>
-      <c r="D302" s="57" t="s">
+      <c r="D302" s="62" t="s">
         <v>1450</v>
       </c>
-      <c r="E302" s="58"/>
-      <c r="F302" s="59"/>
+      <c r="E302" s="63"/>
+      <c r="F302" s="64"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="72"/>
-      <c r="K302" s="73"/>
-      <c r="L302" s="74"/>
+      <c r="J302" s="55"/>
+      <c r="K302" s="56"/>
+      <c r="L302" s="57"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -18938,17 +21559,17 @@
       <c r="C303" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D303" s="57" t="s">
+      <c r="D303" s="62" t="s">
         <v>1452</v>
       </c>
-      <c r="E303" s="58"/>
-      <c r="F303" s="59"/>
+      <c r="E303" s="63"/>
+      <c r="F303" s="64"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="72"/>
-      <c r="K303" s="73"/>
-      <c r="L303" s="74"/>
+      <c r="J303" s="55"/>
+      <c r="K303" s="56"/>
+      <c r="L303" s="57"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -18978,17 +21599,17 @@
       <c r="C304" s="33" t="s">
         <v>1453</v>
       </c>
-      <c r="D304" s="57" t="s">
+      <c r="D304" s="62" t="s">
         <v>1454</v>
       </c>
-      <c r="E304" s="58"/>
-      <c r="F304" s="59"/>
+      <c r="E304" s="63"/>
+      <c r="F304" s="64"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="72"/>
-      <c r="K304" s="73"/>
-      <c r="L304" s="74"/>
+      <c r="J304" s="55"/>
+      <c r="K304" s="56"/>
+      <c r="L304" s="57"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -19018,17 +21639,17 @@
       <c r="C305" s="49" t="s">
         <v>1455</v>
       </c>
-      <c r="D305" s="57" t="s">
+      <c r="D305" s="62" t="s">
         <v>1456</v>
       </c>
-      <c r="E305" s="58"/>
-      <c r="F305" s="59"/>
+      <c r="E305" s="63"/>
+      <c r="F305" s="64"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="72"/>
-      <c r="K305" s="73"/>
-      <c r="L305" s="74"/>
+      <c r="J305" s="55"/>
+      <c r="K305" s="56"/>
+      <c r="L305" s="57"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -19058,17 +21679,17 @@
       <c r="C306" s="49" t="s">
         <v>1457</v>
       </c>
-      <c r="D306" s="57" t="s">
+      <c r="D306" s="62" t="s">
         <v>1458</v>
       </c>
-      <c r="E306" s="58"/>
-      <c r="F306" s="59"/>
+      <c r="E306" s="63"/>
+      <c r="F306" s="64"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="72"/>
-      <c r="K306" s="73"/>
-      <c r="L306" s="74"/>
+      <c r="J306" s="55"/>
+      <c r="K306" s="56"/>
+      <c r="L306" s="57"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -19098,17 +21719,17 @@
       <c r="C307" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D307" s="56" t="s">
+      <c r="D307" s="61" t="s">
         <v>1337</v>
       </c>
-      <c r="E307" s="56"/>
-      <c r="F307" s="56"/>
+      <c r="E307" s="61"/>
+      <c r="F307" s="61"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="72"/>
-      <c r="K307" s="73"/>
-      <c r="L307" s="74"/>
+      <c r="J307" s="55"/>
+      <c r="K307" s="56"/>
+      <c r="L307" s="57"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -19138,17 +21759,17 @@
       <c r="C308" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D308" s="72" t="s">
+      <c r="D308" s="55" t="s">
         <v>1342</v>
       </c>
-      <c r="E308" s="73"/>
-      <c r="F308" s="74"/>
+      <c r="E308" s="56"/>
+      <c r="F308" s="57"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="72"/>
-      <c r="K308" s="73"/>
-      <c r="L308" s="74"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="56"/>
+      <c r="L308" s="57"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -19178,17 +21799,17 @@
       <c r="C309" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D309" s="72" t="s">
+      <c r="D309" s="55" t="s">
         <v>1346</v>
       </c>
-      <c r="E309" s="73"/>
-      <c r="F309" s="74"/>
+      <c r="E309" s="56"/>
+      <c r="F309" s="57"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="72"/>
-      <c r="K309" s="73"/>
-      <c r="L309" s="74"/>
+      <c r="J309" s="55"/>
+      <c r="K309" s="56"/>
+      <c r="L309" s="57"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -19208,7 +21829,7 @@
       <c r="AC309" s="1"/>
       <c r="AD309" s="1"/>
     </row>
-    <row r="310" spans="1:30">
+    <row r="310" spans="1:30" ht="14.25">
       <c r="A310" s="1" t="s">
         <v>1347</v>
       </c>
@@ -19218,17 +21839,17 @@
       <c r="C310" s="51" t="s">
         <v>1349</v>
       </c>
-      <c r="D310" s="72" t="s">
+      <c r="D310" s="55" t="s">
         <v>1350</v>
       </c>
-      <c r="E310" s="73"/>
-      <c r="F310" s="74"/>
+      <c r="E310" s="56"/>
+      <c r="F310" s="57"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="72"/>
-      <c r="K310" s="73"/>
-      <c r="L310" s="74"/>
+      <c r="J310" s="55"/>
+      <c r="K310" s="56"/>
+      <c r="L310" s="57"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -19248,7 +21869,7 @@
       <c r="AC310" s="1"/>
       <c r="AD310" s="1"/>
     </row>
-    <row r="311" spans="1:30">
+    <row r="311" spans="1:30" ht="14.25">
       <c r="A311" s="1" t="s">
         <v>1351</v>
       </c>
@@ -19258,17 +21879,17 @@
       <c r="C311" s="51" t="s">
         <v>1353</v>
       </c>
-      <c r="D311" s="72" t="s">
+      <c r="D311" s="55" t="s">
         <v>1354</v>
       </c>
-      <c r="E311" s="73"/>
-      <c r="F311" s="74"/>
+      <c r="E311" s="56"/>
+      <c r="F311" s="57"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="72"/>
-      <c r="K311" s="73"/>
-      <c r="L311" s="74"/>
+      <c r="J311" s="55"/>
+      <c r="K311" s="56"/>
+      <c r="L311" s="57"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -19298,17 +21919,17 @@
       <c r="C312" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D312" s="72" t="s">
+      <c r="D312" s="55" t="s">
         <v>1357</v>
       </c>
-      <c r="E312" s="73"/>
-      <c r="F312" s="74"/>
+      <c r="E312" s="56"/>
+      <c r="F312" s="57"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="72"/>
-      <c r="K312" s="73"/>
-      <c r="L312" s="74"/>
+      <c r="J312" s="55"/>
+      <c r="K312" s="56"/>
+      <c r="L312" s="57"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -19328,7 +21949,7 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="1:30">
+    <row r="313" spans="1:30" ht="14.25">
       <c r="A313" s="1" t="s">
         <v>1358</v>
       </c>
@@ -19338,17 +21959,17 @@
       <c r="C313" s="51" t="s">
         <v>1361</v>
       </c>
-      <c r="D313" s="72" t="s">
+      <c r="D313" s="55" t="s">
         <v>1360</v>
       </c>
-      <c r="E313" s="73"/>
-      <c r="F313" s="74"/>
+      <c r="E313" s="56"/>
+      <c r="F313" s="57"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="72"/>
-      <c r="K313" s="73"/>
-      <c r="L313" s="74"/>
+      <c r="J313" s="55"/>
+      <c r="K313" s="56"/>
+      <c r="L313" s="57"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -19378,17 +21999,17 @@
       <c r="C314" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D314" s="72" t="s">
+      <c r="D314" s="55" t="s">
         <v>1364</v>
       </c>
-      <c r="E314" s="73"/>
-      <c r="F314" s="74"/>
+      <c r="E314" s="56"/>
+      <c r="F314" s="57"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="72"/>
-      <c r="K314" s="73"/>
-      <c r="L314" s="74"/>
+      <c r="J314" s="55"/>
+      <c r="K314" s="56"/>
+      <c r="L314" s="57"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -19418,17 +22039,17 @@
       <c r="C315" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D315" s="72" t="s">
+      <c r="D315" s="55" t="s">
         <v>1368</v>
       </c>
-      <c r="E315" s="73"/>
-      <c r="F315" s="74"/>
+      <c r="E315" s="56"/>
+      <c r="F315" s="57"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="72"/>
-      <c r="K315" s="73"/>
-      <c r="L315" s="74"/>
+      <c r="J315" s="55"/>
+      <c r="K315" s="56"/>
+      <c r="L315" s="57"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -19456,17 +22077,17 @@
       <c r="C316" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D316" s="72" t="s">
+      <c r="D316" s="55" t="s">
         <v>1371</v>
       </c>
-      <c r="E316" s="73"/>
-      <c r="F316" s="74"/>
+      <c r="E316" s="56"/>
+      <c r="F316" s="57"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="72"/>
-      <c r="K316" s="73"/>
-      <c r="L316" s="74"/>
+      <c r="J316" s="55"/>
+      <c r="K316" s="56"/>
+      <c r="L316" s="57"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -19494,17 +22115,17 @@
       <c r="C317" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D317" s="72" t="s">
+      <c r="D317" s="55" t="s">
         <v>1374</v>
       </c>
-      <c r="E317" s="73"/>
-      <c r="F317" s="74"/>
+      <c r="E317" s="56"/>
+      <c r="F317" s="57"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="72"/>
-      <c r="K317" s="73"/>
-      <c r="L317" s="74"/>
+      <c r="J317" s="55"/>
+      <c r="K317" s="56"/>
+      <c r="L317" s="57"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -19524,7 +22145,7 @@
       <c r="AC317" s="1"/>
       <c r="AD317" s="1"/>
     </row>
-    <row r="318" spans="1:30">
+    <row r="318" spans="1:30" ht="14.25">
       <c r="A318" s="1" t="s">
         <v>1375</v>
       </c>
@@ -19534,17 +22155,17 @@
       <c r="C318" s="51" t="s">
         <v>1376</v>
       </c>
-      <c r="D318" s="72" t="s">
+      <c r="D318" s="55" t="s">
         <v>1377</v>
       </c>
-      <c r="E318" s="73"/>
-      <c r="F318" s="74"/>
+      <c r="E318" s="56"/>
+      <c r="F318" s="57"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="72"/>
-      <c r="K318" s="73"/>
-      <c r="L318" s="74"/>
+      <c r="J318" s="55"/>
+      <c r="K318" s="56"/>
+      <c r="L318" s="57"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -19574,17 +22195,17 @@
       <c r="C319" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D319" s="72" t="s">
+      <c r="D319" s="55" t="s">
         <v>1381</v>
       </c>
-      <c r="E319" s="73"/>
-      <c r="F319" s="74"/>
+      <c r="E319" s="56"/>
+      <c r="F319" s="57"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="72"/>
-      <c r="K319" s="73"/>
-      <c r="L319" s="74"/>
+      <c r="J319" s="55"/>
+      <c r="K319" s="56"/>
+      <c r="L319" s="57"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -19614,17 +22235,17 @@
       <c r="C320" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D320" s="72" t="s">
+      <c r="D320" s="55" t="s">
         <v>1385</v>
       </c>
-      <c r="E320" s="73"/>
-      <c r="F320" s="74"/>
+      <c r="E320" s="56"/>
+      <c r="F320" s="57"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="72"/>
-      <c r="K320" s="73"/>
-      <c r="L320" s="74"/>
+      <c r="J320" s="55"/>
+      <c r="K320" s="56"/>
+      <c r="L320" s="57"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -19654,17 +22275,17 @@
       <c r="C321" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D321" s="72" t="s">
+      <c r="D321" s="55" t="s">
         <v>1389</v>
       </c>
-      <c r="E321" s="73"/>
-      <c r="F321" s="74"/>
+      <c r="E321" s="56"/>
+      <c r="F321" s="57"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="72"/>
-      <c r="K321" s="73"/>
-      <c r="L321" s="74"/>
+      <c r="J321" s="55"/>
+      <c r="K321" s="56"/>
+      <c r="L321" s="57"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -19694,17 +22315,17 @@
       <c r="C322" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="D322" s="72" t="s">
+      <c r="D322" s="55" t="s">
         <v>1393</v>
       </c>
-      <c r="E322" s="73"/>
-      <c r="F322" s="74"/>
+      <c r="E322" s="56"/>
+      <c r="F322" s="57"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="72"/>
-      <c r="K322" s="73"/>
-      <c r="L322" s="74"/>
+      <c r="J322" s="55"/>
+      <c r="K322" s="56"/>
+      <c r="L322" s="57"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -19734,17 +22355,17 @@
       <c r="C323" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D323" s="72" t="s">
+      <c r="D323" s="55" t="s">
         <v>1397</v>
       </c>
-      <c r="E323" s="73"/>
-      <c r="F323" s="74"/>
+      <c r="E323" s="56"/>
+      <c r="F323" s="57"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="72"/>
-      <c r="K323" s="73"/>
-      <c r="L323" s="74"/>
+      <c r="J323" s="55"/>
+      <c r="K323" s="56"/>
+      <c r="L323" s="57"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -19764,7 +22385,7 @@
       <c r="AC323" s="1"/>
       <c r="AD323" s="1"/>
     </row>
-    <row r="324" spans="1:30">
+    <row r="324" spans="1:30" ht="14.25">
       <c r="A324" s="1" t="s">
         <v>1398</v>
       </c>
@@ -19772,17 +22393,17 @@
       <c r="C324" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="D324" s="72" t="s">
+      <c r="D324" s="55" t="s">
         <v>1399</v>
       </c>
-      <c r="E324" s="73"/>
-      <c r="F324" s="74"/>
+      <c r="E324" s="56"/>
+      <c r="F324" s="57"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="72"/>
-      <c r="K324" s="73"/>
-      <c r="L324" s="74"/>
+      <c r="J324" s="55"/>
+      <c r="K324" s="56"/>
+      <c r="L324" s="57"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -19802,7 +22423,7 @@
       <c r="AC324" s="1"/>
       <c r="AD324" s="1"/>
     </row>
-    <row r="325" spans="1:30">
+    <row r="325" spans="1:30" ht="14.25">
       <c r="A325" s="1" t="s">
         <v>1401</v>
       </c>
@@ -19810,17 +22431,17 @@
       <c r="C325" s="51" t="s">
         <v>1402</v>
       </c>
-      <c r="D325" s="72" t="s">
+      <c r="D325" s="55" t="s">
         <v>1403</v>
       </c>
-      <c r="E325" s="73"/>
-      <c r="F325" s="74"/>
+      <c r="E325" s="56"/>
+      <c r="F325" s="57"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="72"/>
-      <c r="K325" s="73"/>
-      <c r="L325" s="74"/>
+      <c r="J325" s="55"/>
+      <c r="K325" s="56"/>
+      <c r="L325" s="57"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -19848,17 +22469,17 @@
       <c r="C326" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D326" s="72" t="s">
+      <c r="D326" s="55" t="s">
         <v>1406</v>
       </c>
-      <c r="E326" s="73"/>
-      <c r="F326" s="74"/>
+      <c r="E326" s="56"/>
+      <c r="F326" s="57"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="72"/>
-      <c r="K326" s="73"/>
-      <c r="L326" s="74"/>
+      <c r="J326" s="55"/>
+      <c r="K326" s="56"/>
+      <c r="L326" s="57"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -19879,20 +22500,20 @@
       <c r="AD326" s="1"/>
     </row>
     <row r="327" spans="1:30">
-      <c r="A327" s="53">
+      <c r="A327" s="58">
         <v>43014</v>
       </c>
-      <c r="B327" s="54"/>
-      <c r="C327" s="54"/>
-      <c r="D327" s="54"/>
-      <c r="E327" s="54"/>
-      <c r="F327" s="55"/>
+      <c r="B327" s="59"/>
+      <c r="C327" s="59"/>
+      <c r="D327" s="59"/>
+      <c r="E327" s="59"/>
+      <c r="F327" s="60"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="72"/>
-      <c r="K327" s="73"/>
-      <c r="L327" s="74"/>
+      <c r="J327" s="55"/>
+      <c r="K327" s="56"/>
+      <c r="L327" s="57"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -19922,17 +22543,17 @@
       <c r="C328" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D328" s="72" t="s">
+      <c r="D328" s="55" t="s">
         <v>1410</v>
       </c>
-      <c r="E328" s="73"/>
-      <c r="F328" s="74"/>
+      <c r="E328" s="56"/>
+      <c r="F328" s="57"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="72"/>
-      <c r="K328" s="73"/>
-      <c r="L328" s="74"/>
+      <c r="J328" s="55"/>
+      <c r="K328" s="56"/>
+      <c r="L328" s="57"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -19962,17 +22583,17 @@
       <c r="C329" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="D329" s="72" t="s">
+      <c r="D329" s="55" t="s">
         <v>1414</v>
       </c>
-      <c r="E329" s="73"/>
-      <c r="F329" s="74"/>
+      <c r="E329" s="56"/>
+      <c r="F329" s="57"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="72"/>
-      <c r="K329" s="73"/>
-      <c r="L329" s="74"/>
+      <c r="J329" s="55"/>
+      <c r="K329" s="56"/>
+      <c r="L329" s="57"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -20002,17 +22623,17 @@
       <c r="C330" s="19" t="s">
         <v>1417</v>
       </c>
-      <c r="D330" s="72" t="s">
+      <c r="D330" s="55" t="s">
         <v>1418</v>
       </c>
-      <c r="E330" s="73"/>
-      <c r="F330" s="74"/>
+      <c r="E330" s="56"/>
+      <c r="F330" s="57"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="72"/>
-      <c r="K330" s="73"/>
-      <c r="L330" s="74"/>
+      <c r="J330" s="55"/>
+      <c r="K330" s="56"/>
+      <c r="L330" s="57"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -20042,17 +22663,17 @@
       <c r="C331" s="19" t="s">
         <v>1421</v>
       </c>
-      <c r="D331" s="72" t="s">
+      <c r="D331" s="55" t="s">
         <v>1422</v>
       </c>
-      <c r="E331" s="73"/>
-      <c r="F331" s="74"/>
+      <c r="E331" s="56"/>
+      <c r="F331" s="57"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="72"/>
-      <c r="K331" s="73"/>
-      <c r="L331" s="74"/>
+      <c r="J331" s="55"/>
+      <c r="K331" s="56"/>
+      <c r="L331" s="57"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -20082,17 +22703,17 @@
       <c r="C332" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="D332" s="72" t="s">
+      <c r="D332" s="55" t="s">
         <v>1426</v>
       </c>
-      <c r="E332" s="73"/>
-      <c r="F332" s="74"/>
+      <c r="E332" s="56"/>
+      <c r="F332" s="57"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="73"/>
-      <c r="L332" s="74"/>
+      <c r="J332" s="55"/>
+      <c r="K332" s="56"/>
+      <c r="L332" s="57"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -20122,17 +22743,17 @@
       <c r="C333" s="52" t="s">
         <v>1429</v>
       </c>
-      <c r="D333" s="72" t="s">
+      <c r="D333" s="55" t="s">
         <v>1430</v>
       </c>
-      <c r="E333" s="73"/>
-      <c r="F333" s="74"/>
+      <c r="E333" s="56"/>
+      <c r="F333" s="57"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="72"/>
-      <c r="K333" s="73"/>
-      <c r="L333" s="74"/>
+      <c r="J333" s="55"/>
+      <c r="K333" s="56"/>
+      <c r="L333" s="57"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -20162,17 +22783,17 @@
       <c r="C334" s="52" t="s">
         <v>1433</v>
       </c>
-      <c r="D334" s="72" t="s">
+      <c r="D334" s="55" t="s">
         <v>1434</v>
       </c>
-      <c r="E334" s="73"/>
-      <c r="F334" s="74"/>
+      <c r="E334" s="56"/>
+      <c r="F334" s="57"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="72"/>
-      <c r="K334" s="73"/>
-      <c r="L334" s="74"/>
+      <c r="J334" s="55"/>
+      <c r="K334" s="56"/>
+      <c r="L334" s="57"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -20202,17 +22823,17 @@
       <c r="C335" s="20" t="s">
         <v>1437</v>
       </c>
-      <c r="D335" s="72" t="s">
+      <c r="D335" s="55" t="s">
         <v>1438</v>
       </c>
-      <c r="E335" s="73"/>
-      <c r="F335" s="74"/>
+      <c r="E335" s="56"/>
+      <c r="F335" s="57"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="72"/>
-      <c r="K335" s="73"/>
-      <c r="L335" s="74"/>
+      <c r="J335" s="55"/>
+      <c r="K335" s="56"/>
+      <c r="L335" s="57"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -20242,17 +22863,17 @@
       <c r="C336" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D336" s="72" t="s">
+      <c r="D336" s="55" t="s">
         <v>1442</v>
       </c>
-      <c r="E336" s="73"/>
-      <c r="F336" s="74"/>
+      <c r="E336" s="56"/>
+      <c r="F336" s="57"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="72"/>
-      <c r="K336" s="73"/>
-      <c r="L336" s="74"/>
+      <c r="J336" s="55"/>
+      <c r="K336" s="56"/>
+      <c r="L336" s="57"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -20282,17 +22903,17 @@
       <c r="C337" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D337" s="72" t="s">
+      <c r="D337" s="55" t="s">
         <v>1446</v>
       </c>
-      <c r="E337" s="73"/>
-      <c r="F337" s="74"/>
+      <c r="E337" s="56"/>
+      <c r="F337" s="57"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="72"/>
-      <c r="K337" s="73"/>
-      <c r="L337" s="74"/>
+      <c r="J337" s="55"/>
+      <c r="K337" s="56"/>
+      <c r="L337" s="57"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -20322,17 +22943,17 @@
       <c r="C338" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="D338" s="72" t="s">
+      <c r="D338" s="55" t="s">
         <v>1462</v>
       </c>
-      <c r="E338" s="73"/>
-      <c r="F338" s="74"/>
+      <c r="E338" s="56"/>
+      <c r="F338" s="57"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="72"/>
-      <c r="K338" s="73"/>
-      <c r="L338" s="74"/>
+      <c r="J338" s="55"/>
+      <c r="K338" s="56"/>
+      <c r="L338" s="57"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -20362,15 +22983,15 @@
       <c r="C339" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D339" s="72"/>
-      <c r="E339" s="73"/>
-      <c r="F339" s="74"/>
+      <c r="D339" s="55"/>
+      <c r="E339" s="56"/>
+      <c r="F339" s="57"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="72"/>
-      <c r="K339" s="73"/>
-      <c r="L339" s="74"/>
+      <c r="J339" s="55"/>
+      <c r="K339" s="56"/>
+      <c r="L339" s="57"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -20400,17 +23021,17 @@
       <c r="C340" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D340" s="72" t="s">
+      <c r="D340" s="55" t="s">
         <v>1469</v>
       </c>
-      <c r="E340" s="73"/>
-      <c r="F340" s="74"/>
+      <c r="E340" s="56"/>
+      <c r="F340" s="57"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="72"/>
-      <c r="K340" s="73"/>
-      <c r="L340" s="74"/>
+      <c r="J340" s="55"/>
+      <c r="K340" s="56"/>
+      <c r="L340" s="57"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -20440,17 +23061,17 @@
       <c r="C341" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="D341" s="72" t="s">
+      <c r="D341" s="55" t="s">
         <v>1473</v>
       </c>
-      <c r="E341" s="73"/>
-      <c r="F341" s="74"/>
+      <c r="E341" s="56"/>
+      <c r="F341" s="57"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="72"/>
-      <c r="K341" s="73"/>
-      <c r="L341" s="74"/>
+      <c r="J341" s="55"/>
+      <c r="K341" s="56"/>
+      <c r="L341" s="57"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -20480,17 +23101,17 @@
       <c r="C342" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="D342" s="72" t="s">
+      <c r="D342" s="55" t="s">
         <v>1477</v>
       </c>
-      <c r="E342" s="73"/>
-      <c r="F342" s="74"/>
+      <c r="E342" s="56"/>
+      <c r="F342" s="57"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="72"/>
-      <c r="K342" s="73"/>
-      <c r="L342" s="74"/>
+      <c r="J342" s="55"/>
+      <c r="K342" s="56"/>
+      <c r="L342" s="57"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -20520,17 +23141,17 @@
       <c r="C343" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D343" s="72" t="s">
+      <c r="D343" s="55" t="s">
         <v>1481</v>
       </c>
-      <c r="E343" s="73"/>
-      <c r="F343" s="74"/>
+      <c r="E343" s="56"/>
+      <c r="F343" s="57"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="72"/>
-      <c r="K343" s="73"/>
-      <c r="L343" s="74"/>
+      <c r="J343" s="55"/>
+      <c r="K343" s="56"/>
+      <c r="L343" s="57"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -20560,17 +23181,17 @@
       <c r="C344" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D344" s="72" t="s">
+      <c r="D344" s="55" t="s">
         <v>1485</v>
       </c>
-      <c r="E344" s="73"/>
-      <c r="F344" s="74"/>
+      <c r="E344" s="56"/>
+      <c r="F344" s="57"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="72"/>
-      <c r="K344" s="73"/>
-      <c r="L344" s="74"/>
+      <c r="J344" s="55"/>
+      <c r="K344" s="56"/>
+      <c r="L344" s="57"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -20600,17 +23221,17 @@
       <c r="C345" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="D345" s="72" t="s">
+      <c r="D345" s="55" t="s">
         <v>1489</v>
       </c>
-      <c r="E345" s="73"/>
-      <c r="F345" s="74"/>
+      <c r="E345" s="56"/>
+      <c r="F345" s="57"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="72"/>
-      <c r="K345" s="73"/>
-      <c r="L345" s="74"/>
+      <c r="J345" s="55"/>
+      <c r="K345" s="56"/>
+      <c r="L345" s="57"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -20638,17 +23259,17 @@
       <c r="C346" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="D346" s="72" t="s">
+      <c r="D346" s="55" t="s">
         <v>1492</v>
       </c>
-      <c r="E346" s="73"/>
-      <c r="F346" s="74"/>
+      <c r="E346" s="56"/>
+      <c r="F346" s="57"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="72"/>
-      <c r="K346" s="73"/>
-      <c r="L346" s="74"/>
+      <c r="J346" s="55"/>
+      <c r="K346" s="56"/>
+      <c r="L346" s="57"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -20676,17 +23297,17 @@
       <c r="C347" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D347" s="72" t="s">
+      <c r="D347" s="55" t="s">
         <v>1495</v>
       </c>
-      <c r="E347" s="73"/>
-      <c r="F347" s="74"/>
+      <c r="E347" s="56"/>
+      <c r="F347" s="57"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="72"/>
-      <c r="K347" s="73"/>
-      <c r="L347" s="74"/>
+      <c r="J347" s="55"/>
+      <c r="K347" s="56"/>
+      <c r="L347" s="57"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -20714,17 +23335,17 @@
       <c r="C348" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="D348" s="72" t="s">
+      <c r="D348" s="55" t="s">
         <v>1498</v>
       </c>
-      <c r="E348" s="73"/>
-      <c r="F348" s="74"/>
+      <c r="E348" s="56"/>
+      <c r="F348" s="57"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="72"/>
-      <c r="K348" s="73"/>
-      <c r="L348" s="74"/>
+      <c r="J348" s="55"/>
+      <c r="K348" s="56"/>
+      <c r="L348" s="57"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -20745,20 +23366,20 @@
       <c r="AD348" s="1"/>
     </row>
     <row r="349" spans="1:30">
-      <c r="A349" s="53">
+      <c r="A349" s="58">
         <v>43015</v>
       </c>
-      <c r="B349" s="54"/>
-      <c r="C349" s="54"/>
-      <c r="D349" s="54"/>
-      <c r="E349" s="54"/>
-      <c r="F349" s="55"/>
+      <c r="B349" s="59"/>
+      <c r="C349" s="59"/>
+      <c r="D349" s="59"/>
+      <c r="E349" s="59"/>
+      <c r="F349" s="60"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="72"/>
-      <c r="K349" s="73"/>
-      <c r="L349" s="74"/>
+      <c r="J349" s="55"/>
+      <c r="K349" s="56"/>
+      <c r="L349" s="57"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -20786,17 +23407,17 @@
       <c r="C350" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D350" s="72" t="s">
+      <c r="D350" s="55" t="s">
         <v>1501</v>
       </c>
-      <c r="E350" s="73"/>
-      <c r="F350" s="74"/>
+      <c r="E350" s="56"/>
+      <c r="F350" s="57"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="72"/>
-      <c r="K350" s="73"/>
-      <c r="L350" s="74"/>
+      <c r="J350" s="55"/>
+      <c r="K350" s="56"/>
+      <c r="L350" s="57"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -20826,17 +23447,17 @@
       <c r="C351" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="D351" s="72" t="s">
+      <c r="D351" s="55" t="s">
         <v>1505</v>
       </c>
-      <c r="E351" s="73"/>
-      <c r="F351" s="74"/>
+      <c r="E351" s="56"/>
+      <c r="F351" s="57"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="72"/>
-      <c r="K351" s="73"/>
-      <c r="L351" s="74"/>
+      <c r="J351" s="55"/>
+      <c r="K351" s="56"/>
+      <c r="L351" s="57"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -20863,20 +23484,20 @@
       <c r="B352" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="C352" s="76" t="s">
+      <c r="C352" s="53" t="s">
         <v>1508</v>
       </c>
-      <c r="D352" s="72" t="s">
+      <c r="D352" s="55" t="s">
         <v>1509</v>
       </c>
-      <c r="E352" s="73"/>
-      <c r="F352" s="74"/>
+      <c r="E352" s="56"/>
+      <c r="F352" s="57"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="72"/>
-      <c r="K352" s="73"/>
-      <c r="L352" s="74"/>
+      <c r="J352" s="55"/>
+      <c r="K352" s="56"/>
+      <c r="L352" s="57"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -20903,20 +23524,20 @@
       <c r="B353" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="C353" s="76" t="s">
+      <c r="C353" s="53" t="s">
         <v>1512</v>
       </c>
-      <c r="D353" s="72" t="s">
+      <c r="D353" s="55" t="s">
         <v>1513</v>
       </c>
-      <c r="E353" s="73"/>
-      <c r="F353" s="74"/>
+      <c r="E353" s="56"/>
+      <c r="F353" s="57"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="72"/>
-      <c r="K353" s="73"/>
-      <c r="L353" s="74"/>
+      <c r="J353" s="55"/>
+      <c r="K353" s="56"/>
+      <c r="L353" s="57"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -20946,17 +23567,17 @@
       <c r="C354" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D354" s="72" t="s">
+      <c r="D354" s="55" t="s">
         <v>1517</v>
       </c>
-      <c r="E354" s="73"/>
-      <c r="F354" s="74"/>
+      <c r="E354" s="56"/>
+      <c r="F354" s="57"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="72"/>
-      <c r="K354" s="73"/>
-      <c r="L354" s="74"/>
+      <c r="J354" s="55"/>
+      <c r="K354" s="56"/>
+      <c r="L354" s="57"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -20986,15 +23607,15 @@
       <c r="C355" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D355" s="72"/>
-      <c r="E355" s="73"/>
-      <c r="F355" s="74"/>
+      <c r="D355" s="55"/>
+      <c r="E355" s="56"/>
+      <c r="F355" s="57"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="72"/>
-      <c r="K355" s="73"/>
-      <c r="L355" s="74"/>
+      <c r="J355" s="55"/>
+      <c r="K355" s="56"/>
+      <c r="L355" s="57"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -21024,17 +23645,17 @@
       <c r="C356" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D356" s="72" t="s">
+      <c r="D356" s="55" t="s">
         <v>1524</v>
       </c>
-      <c r="E356" s="73"/>
-      <c r="F356" s="74"/>
+      <c r="E356" s="56"/>
+      <c r="F356" s="57"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="72"/>
-      <c r="K356" s="73"/>
-      <c r="L356" s="74"/>
+      <c r="J356" s="55"/>
+      <c r="K356" s="56"/>
+      <c r="L356" s="57"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -21064,17 +23685,17 @@
       <c r="C357" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D357" s="72" t="s">
+      <c r="D357" s="55" t="s">
         <v>1528</v>
       </c>
-      <c r="E357" s="73"/>
-      <c r="F357" s="74"/>
+      <c r="E357" s="56"/>
+      <c r="F357" s="57"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="72"/>
-      <c r="K357" s="73"/>
-      <c r="L357" s="74"/>
+      <c r="J357" s="55"/>
+      <c r="K357" s="56"/>
+      <c r="L357" s="57"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -21104,17 +23725,17 @@
       <c r="C358" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D358" s="72" t="s">
+      <c r="D358" s="55" t="s">
         <v>1532</v>
       </c>
-      <c r="E358" s="73"/>
-      <c r="F358" s="74"/>
+      <c r="E358" s="56"/>
+      <c r="F358" s="57"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="72"/>
-      <c r="K358" s="73"/>
-      <c r="L358" s="74"/>
+      <c r="J358" s="55"/>
+      <c r="K358" s="56"/>
+      <c r="L358" s="57"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -21144,17 +23765,17 @@
       <c r="C359" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D359" s="72" t="s">
+      <c r="D359" s="55" t="s">
         <v>1536</v>
       </c>
-      <c r="E359" s="73"/>
-      <c r="F359" s="74"/>
+      <c r="E359" s="56"/>
+      <c r="F359" s="57"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="72"/>
-      <c r="K359" s="73"/>
-      <c r="L359" s="74"/>
+      <c r="J359" s="55"/>
+      <c r="K359" s="56"/>
+      <c r="L359" s="57"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -21184,17 +23805,17 @@
       <c r="C360" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D360" s="72" t="s">
+      <c r="D360" s="55" t="s">
         <v>1540</v>
       </c>
-      <c r="E360" s="73"/>
-      <c r="F360" s="74"/>
+      <c r="E360" s="56"/>
+      <c r="F360" s="57"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="72"/>
-      <c r="K360" s="73"/>
-      <c r="L360" s="74"/>
+      <c r="J360" s="55"/>
+      <c r="K360" s="56"/>
+      <c r="L360" s="57"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -21221,20 +23842,20 @@
       <c r="B361" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="C361" s="76" t="s">
+      <c r="C361" s="53" t="s">
         <v>1543</v>
       </c>
-      <c r="D361" s="72" t="s">
+      <c r="D361" s="55" t="s">
         <v>1544</v>
       </c>
-      <c r="E361" s="73"/>
-      <c r="F361" s="74"/>
+      <c r="E361" s="56"/>
+      <c r="F361" s="57"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="72"/>
-      <c r="K361" s="73"/>
-      <c r="L361" s="74"/>
+      <c r="J361" s="55"/>
+      <c r="K361" s="56"/>
+      <c r="L361" s="57"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -21264,17 +23885,17 @@
       <c r="C362" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D362" s="72" t="s">
+      <c r="D362" s="55" t="s">
         <v>1548</v>
       </c>
-      <c r="E362" s="73"/>
-      <c r="F362" s="74"/>
+      <c r="E362" s="56"/>
+      <c r="F362" s="57"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="72"/>
-      <c r="K362" s="73"/>
-      <c r="L362" s="74"/>
+      <c r="J362" s="55"/>
+      <c r="K362" s="56"/>
+      <c r="L362" s="57"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -21294,7 +23915,7 @@
       <c r="AC362" s="1"/>
       <c r="AD362" s="1"/>
     </row>
-    <row r="363" spans="1:30">
+    <row r="363" spans="1:30" ht="14.25">
       <c r="A363" s="1" t="s">
         <v>1549</v>
       </c>
@@ -21304,15 +23925,15 @@
       <c r="C363" s="51" t="s">
         <v>1551</v>
       </c>
-      <c r="D363" s="72"/>
-      <c r="E363" s="73"/>
-      <c r="F363" s="74"/>
+      <c r="D363" s="55"/>
+      <c r="E363" s="56"/>
+      <c r="F363" s="57"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="72"/>
-      <c r="K363" s="73"/>
-      <c r="L363" s="74"/>
+      <c r="J363" s="55"/>
+      <c r="K363" s="56"/>
+      <c r="L363" s="57"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -21339,20 +23960,20 @@
       <c r="B364" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="C364" s="76" t="s">
+      <c r="C364" s="53" t="s">
         <v>1554</v>
       </c>
-      <c r="D364" s="72" t="s">
+      <c r="D364" s="55" t="s">
         <v>1555</v>
       </c>
-      <c r="E364" s="73"/>
-      <c r="F364" s="74"/>
+      <c r="E364" s="56"/>
+      <c r="F364" s="57"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="72"/>
-      <c r="K364" s="73"/>
-      <c r="L364" s="74"/>
+      <c r="J364" s="55"/>
+      <c r="K364" s="56"/>
+      <c r="L364" s="57"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -21382,17 +24003,17 @@
       <c r="C365" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D365" s="72" t="s">
+      <c r="D365" s="55" t="s">
         <v>1559</v>
       </c>
-      <c r="E365" s="73"/>
-      <c r="F365" s="74"/>
+      <c r="E365" s="56"/>
+      <c r="F365" s="57"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="72"/>
-      <c r="K365" s="73"/>
-      <c r="L365" s="74"/>
+      <c r="J365" s="55"/>
+      <c r="K365" s="56"/>
+      <c r="L365" s="57"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -21422,17 +24043,17 @@
       <c r="C366" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D366" s="72" t="s">
+      <c r="D366" s="55" t="s">
         <v>1563</v>
       </c>
-      <c r="E366" s="73"/>
-      <c r="F366" s="74"/>
+      <c r="E366" s="56"/>
+      <c r="F366" s="57"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="72"/>
-      <c r="K366" s="73"/>
-      <c r="L366" s="74"/>
+      <c r="J366" s="55"/>
+      <c r="K366" s="56"/>
+      <c r="L366" s="57"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -21462,17 +24083,17 @@
       <c r="C367" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D367" s="72" t="s">
+      <c r="D367" s="55" t="s">
         <v>1566</v>
       </c>
-      <c r="E367" s="73"/>
-      <c r="F367" s="74"/>
+      <c r="E367" s="56"/>
+      <c r="F367" s="57"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="72"/>
-      <c r="K367" s="73"/>
-      <c r="L367" s="74"/>
+      <c r="J367" s="55"/>
+      <c r="K367" s="56"/>
+      <c r="L367" s="57"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -21502,17 +24123,17 @@
       <c r="C368" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D368" s="72" t="s">
+      <c r="D368" s="55" t="s">
         <v>1570</v>
       </c>
-      <c r="E368" s="73"/>
-      <c r="F368" s="74"/>
+      <c r="E368" s="56"/>
+      <c r="F368" s="57"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="72"/>
-      <c r="K368" s="73"/>
-      <c r="L368" s="74"/>
+      <c r="J368" s="55"/>
+      <c r="K368" s="56"/>
+      <c r="L368" s="57"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -21542,17 +24163,17 @@
       <c r="C369" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D369" s="72" t="s">
+      <c r="D369" s="55" t="s">
         <v>1574</v>
       </c>
-      <c r="E369" s="73"/>
-      <c r="F369" s="74"/>
+      <c r="E369" s="56"/>
+      <c r="F369" s="57"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="72"/>
-      <c r="K369" s="73"/>
-      <c r="L369" s="74"/>
+      <c r="J369" s="55"/>
+      <c r="K369" s="56"/>
+      <c r="L369" s="57"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -21582,17 +24203,17 @@
       <c r="C370" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D370" s="72" t="s">
+      <c r="D370" s="55" t="s">
         <v>1578</v>
       </c>
-      <c r="E370" s="73"/>
-      <c r="F370" s="74"/>
+      <c r="E370" s="56"/>
+      <c r="F370" s="57"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="72"/>
-      <c r="K370" s="73"/>
-      <c r="L370" s="74"/>
+      <c r="J370" s="55"/>
+      <c r="K370" s="56"/>
+      <c r="L370" s="57"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -21622,17 +24243,17 @@
       <c r="C371" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D371" s="72" t="s">
+      <c r="D371" s="55" t="s">
         <v>1582</v>
       </c>
-      <c r="E371" s="73"/>
-      <c r="F371" s="74"/>
+      <c r="E371" s="56"/>
+      <c r="F371" s="57"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="72"/>
-      <c r="K371" s="73"/>
-      <c r="L371" s="74"/>
+      <c r="J371" s="55"/>
+      <c r="K371" s="56"/>
+      <c r="L371" s="57"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -21660,17 +24281,17 @@
       <c r="C372" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D372" s="72" t="s">
+      <c r="D372" s="55" t="s">
         <v>1585</v>
       </c>
-      <c r="E372" s="73"/>
-      <c r="F372" s="74"/>
+      <c r="E372" s="56"/>
+      <c r="F372" s="57"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="72"/>
-      <c r="K372" s="73"/>
-      <c r="L372" s="74"/>
+      <c r="J372" s="55"/>
+      <c r="K372" s="56"/>
+      <c r="L372" s="57"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -21700,17 +24321,17 @@
       <c r="C373" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="D373" s="72" t="s">
+      <c r="D373" s="55" t="s">
         <v>1589</v>
       </c>
-      <c r="E373" s="73"/>
-      <c r="F373" s="74"/>
+      <c r="E373" s="56"/>
+      <c r="F373" s="57"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="72"/>
-      <c r="K373" s="73"/>
-      <c r="L373" s="74"/>
+      <c r="J373" s="55"/>
+      <c r="K373" s="56"/>
+      <c r="L373" s="57"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -21740,17 +24361,17 @@
       <c r="C374" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D374" s="72" t="s">
+      <c r="D374" s="55" t="s">
         <v>1593</v>
       </c>
-      <c r="E374" s="73"/>
-      <c r="F374" s="74"/>
+      <c r="E374" s="56"/>
+      <c r="F374" s="57"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="72"/>
-      <c r="K374" s="73"/>
-      <c r="L374" s="74"/>
+      <c r="J374" s="55"/>
+      <c r="K374" s="56"/>
+      <c r="L374" s="57"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -21780,17 +24401,17 @@
       <c r="C375" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="D375" s="72" t="s">
+      <c r="D375" s="55" t="s">
         <v>1597</v>
       </c>
-      <c r="E375" s="73"/>
-      <c r="F375" s="74"/>
+      <c r="E375" s="56"/>
+      <c r="F375" s="57"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="72"/>
-      <c r="K375" s="73"/>
-      <c r="L375" s="74"/>
+      <c r="J375" s="55"/>
+      <c r="K375" s="56"/>
+      <c r="L375" s="57"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -21820,17 +24441,17 @@
       <c r="C376" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D376" s="72" t="s">
+      <c r="D376" s="55" t="s">
         <v>1601</v>
       </c>
-      <c r="E376" s="73"/>
-      <c r="F376" s="74"/>
+      <c r="E376" s="56"/>
+      <c r="F376" s="57"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="72"/>
-      <c r="K376" s="73"/>
-      <c r="L376" s="74"/>
+      <c r="J376" s="55"/>
+      <c r="K376" s="56"/>
+      <c r="L376" s="57"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -21860,17 +24481,17 @@
       <c r="C377" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="D377" s="72" t="s">
+      <c r="D377" s="55" t="s">
         <v>1605</v>
       </c>
-      <c r="E377" s="73"/>
-      <c r="F377" s="74"/>
+      <c r="E377" s="56"/>
+      <c r="F377" s="57"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="72"/>
-      <c r="K377" s="73"/>
-      <c r="L377" s="74"/>
+      <c r="J377" s="55"/>
+      <c r="K377" s="56"/>
+      <c r="L377" s="57"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -21900,17 +24521,17 @@
       <c r="C378" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D378" s="72" t="s">
+      <c r="D378" s="55" t="s">
         <v>1609</v>
       </c>
-      <c r="E378" s="73"/>
-      <c r="F378" s="74"/>
+      <c r="E378" s="56"/>
+      <c r="F378" s="57"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="72"/>
-      <c r="K378" s="73"/>
-      <c r="L378" s="74"/>
+      <c r="J378" s="55"/>
+      <c r="K378" s="56"/>
+      <c r="L378" s="57"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -21940,17 +24561,17 @@
       <c r="C379" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D379" s="72" t="s">
+      <c r="D379" s="55" t="s">
         <v>1613</v>
       </c>
-      <c r="E379" s="73"/>
-      <c r="F379" s="74"/>
+      <c r="E379" s="56"/>
+      <c r="F379" s="57"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="72"/>
-      <c r="K379" s="73"/>
-      <c r="L379" s="74"/>
+      <c r="J379" s="55"/>
+      <c r="K379" s="56"/>
+      <c r="L379" s="57"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -21978,17 +24599,17 @@
       <c r="C380" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D380" s="72" t="s">
+      <c r="D380" s="55" t="s">
         <v>1616</v>
       </c>
-      <c r="E380" s="73"/>
-      <c r="F380" s="74"/>
+      <c r="E380" s="56"/>
+      <c r="F380" s="57"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="72"/>
-      <c r="K380" s="73"/>
-      <c r="L380" s="74"/>
+      <c r="J380" s="55"/>
+      <c r="K380" s="56"/>
+      <c r="L380" s="57"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -22018,17 +24639,17 @@
       <c r="C381" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="D381" s="72" t="s">
+      <c r="D381" s="55" t="s">
         <v>1620</v>
       </c>
-      <c r="E381" s="73"/>
-      <c r="F381" s="74"/>
+      <c r="E381" s="56"/>
+      <c r="F381" s="57"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="72"/>
-      <c r="K381" s="73"/>
-      <c r="L381" s="74"/>
+      <c r="J381" s="55"/>
+      <c r="K381" s="56"/>
+      <c r="L381" s="57"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -22058,17 +24679,17 @@
       <c r="C382" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D382" s="72" t="s">
+      <c r="D382" s="55" t="s">
         <v>1624</v>
       </c>
-      <c r="E382" s="73"/>
-      <c r="F382" s="74"/>
+      <c r="E382" s="56"/>
+      <c r="F382" s="57"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="72"/>
-      <c r="K382" s="73"/>
-      <c r="L382" s="74"/>
+      <c r="J382" s="55"/>
+      <c r="K382" s="56"/>
+      <c r="L382" s="57"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -22098,17 +24719,17 @@
       <c r="C383" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D383" s="72" t="s">
+      <c r="D383" s="55" t="s">
         <v>1628</v>
       </c>
-      <c r="E383" s="73"/>
-      <c r="F383" s="74"/>
+      <c r="E383" s="56"/>
+      <c r="F383" s="57"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="72"/>
-      <c r="K383" s="73"/>
-      <c r="L383" s="74"/>
+      <c r="J383" s="55"/>
+      <c r="K383" s="56"/>
+      <c r="L383" s="57"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -22129,20 +24750,20 @@
       <c r="AD383" s="1"/>
     </row>
     <row r="384" spans="1:30">
-      <c r="A384" s="53">
+      <c r="A384" s="58">
         <v>43016</v>
       </c>
-      <c r="B384" s="54"/>
-      <c r="C384" s="54"/>
-      <c r="D384" s="54"/>
-      <c r="E384" s="54"/>
-      <c r="F384" s="55"/>
+      <c r="B384" s="59"/>
+      <c r="C384" s="59"/>
+      <c r="D384" s="59"/>
+      <c r="E384" s="59"/>
+      <c r="F384" s="60"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="72"/>
-      <c r="K384" s="73"/>
-      <c r="L384" s="74"/>
+      <c r="J384" s="55"/>
+      <c r="K384" s="56"/>
+      <c r="L384" s="57"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -22172,17 +24793,17 @@
       <c r="C385" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="D385" s="72" t="s">
+      <c r="D385" s="55" t="s">
         <v>1632</v>
       </c>
-      <c r="E385" s="73"/>
-      <c r="F385" s="74"/>
+      <c r="E385" s="56"/>
+      <c r="F385" s="57"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="72"/>
-      <c r="K385" s="73"/>
-      <c r="L385" s="74"/>
+      <c r="J385" s="55"/>
+      <c r="K385" s="56"/>
+      <c r="L385" s="57"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -22212,17 +24833,17 @@
       <c r="C386" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="D386" s="72" t="s">
+      <c r="D386" s="55" t="s">
         <v>1635</v>
       </c>
-      <c r="E386" s="73"/>
-      <c r="F386" s="74"/>
+      <c r="E386" s="56"/>
+      <c r="F386" s="57"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="72"/>
-      <c r="K386" s="73"/>
-      <c r="L386" s="74"/>
+      <c r="J386" s="55"/>
+      <c r="K386" s="56"/>
+      <c r="L386" s="57"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -22252,17 +24873,17 @@
       <c r="C387" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="D387" s="72" t="s">
+      <c r="D387" s="55" t="s">
         <v>1639</v>
       </c>
-      <c r="E387" s="73"/>
-      <c r="F387" s="74"/>
+      <c r="E387" s="56"/>
+      <c r="F387" s="57"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="72"/>
-      <c r="K387" s="73"/>
-      <c r="L387" s="74"/>
+      <c r="J387" s="55"/>
+      <c r="K387" s="56"/>
+      <c r="L387" s="57"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -22292,17 +24913,17 @@
       <c r="C388" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="D388" s="72" t="s">
+      <c r="D388" s="55" t="s">
         <v>1643</v>
       </c>
-      <c r="E388" s="73"/>
-      <c r="F388" s="74"/>
+      <c r="E388" s="56"/>
+      <c r="F388" s="57"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="72"/>
-      <c r="K388" s="73"/>
-      <c r="L388" s="74"/>
+      <c r="J388" s="55"/>
+      <c r="K388" s="56"/>
+      <c r="L388" s="57"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -22332,17 +24953,17 @@
       <c r="C389" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="D389" s="72" t="s">
+      <c r="D389" s="55" t="s">
         <v>1647</v>
       </c>
-      <c r="E389" s="73"/>
-      <c r="F389" s="74"/>
+      <c r="E389" s="56"/>
+      <c r="F389" s="57"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="72"/>
-      <c r="K389" s="73"/>
-      <c r="L389" s="74"/>
+      <c r="J389" s="55"/>
+      <c r="K389" s="56"/>
+      <c r="L389" s="57"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -22372,17 +24993,17 @@
       <c r="C390" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D390" s="72" t="s">
+      <c r="D390" s="55" t="s">
         <v>1651</v>
       </c>
-      <c r="E390" s="73"/>
-      <c r="F390" s="74"/>
+      <c r="E390" s="56"/>
+      <c r="F390" s="57"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="72"/>
-      <c r="K390" s="73"/>
-      <c r="L390" s="74"/>
+      <c r="J390" s="55"/>
+      <c r="K390" s="56"/>
+      <c r="L390" s="57"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -22410,17 +25031,17 @@
       <c r="C391" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D391" s="72" t="s">
+      <c r="D391" s="55" t="s">
         <v>1654</v>
       </c>
-      <c r="E391" s="73"/>
-      <c r="F391" s="74"/>
+      <c r="E391" s="56"/>
+      <c r="F391" s="57"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="72"/>
-      <c r="K391" s="73"/>
-      <c r="L391" s="74"/>
+      <c r="J391" s="55"/>
+      <c r="K391" s="56"/>
+      <c r="L391" s="57"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -22448,17 +25069,17 @@
       <c r="C392" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="D392" s="72" t="s">
+      <c r="D392" s="55" t="s">
         <v>1657</v>
       </c>
-      <c r="E392" s="73"/>
-      <c r="F392" s="74"/>
+      <c r="E392" s="56"/>
+      <c r="F392" s="57"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="72"/>
-      <c r="K392" s="73"/>
-      <c r="L392" s="74"/>
+      <c r="J392" s="55"/>
+      <c r="K392" s="56"/>
+      <c r="L392" s="57"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -22486,17 +25107,17 @@
       <c r="C393" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D393" s="72" t="s">
+      <c r="D393" s="55" t="s">
         <v>1660</v>
       </c>
-      <c r="E393" s="73"/>
-      <c r="F393" s="74"/>
+      <c r="E393" s="56"/>
+      <c r="F393" s="57"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="72"/>
-      <c r="K393" s="73"/>
-      <c r="L393" s="74"/>
+      <c r="J393" s="55"/>
+      <c r="K393" s="56"/>
+      <c r="L393" s="57"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -22526,17 +25147,17 @@
       <c r="C394" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="D394" s="72" t="s">
+      <c r="D394" s="55" t="s">
         <v>1664</v>
       </c>
-      <c r="E394" s="73"/>
-      <c r="F394" s="74"/>
+      <c r="E394" s="56"/>
+      <c r="F394" s="57"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="72"/>
-      <c r="K394" s="73"/>
-      <c r="L394" s="74"/>
+      <c r="J394" s="55"/>
+      <c r="K394" s="56"/>
+      <c r="L394" s="57"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -22566,17 +25187,17 @@
       <c r="C395" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="D395" s="72" t="s">
+      <c r="D395" s="55" t="s">
         <v>1668</v>
       </c>
-      <c r="E395" s="73"/>
-      <c r="F395" s="74"/>
+      <c r="E395" s="56"/>
+      <c r="F395" s="57"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="72"/>
-      <c r="K395" s="73"/>
-      <c r="L395" s="74"/>
+      <c r="J395" s="55"/>
+      <c r="K395" s="56"/>
+      <c r="L395" s="57"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -22606,17 +25227,17 @@
       <c r="C396" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="D396" s="72" t="s">
+      <c r="D396" s="55" t="s">
         <v>1672</v>
       </c>
-      <c r="E396" s="73"/>
-      <c r="F396" s="74"/>
+      <c r="E396" s="56"/>
+      <c r="F396" s="57"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="72"/>
-      <c r="K396" s="73"/>
-      <c r="L396" s="74"/>
+      <c r="J396" s="55"/>
+      <c r="K396" s="56"/>
+      <c r="L396" s="57"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -22646,17 +25267,17 @@
       <c r="C397" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D397" s="72" t="s">
+      <c r="D397" s="55" t="s">
         <v>1676</v>
       </c>
-      <c r="E397" s="73"/>
-      <c r="F397" s="74"/>
+      <c r="E397" s="56"/>
+      <c r="F397" s="57"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="72"/>
-      <c r="K397" s="73"/>
-      <c r="L397" s="74"/>
+      <c r="J397" s="55"/>
+      <c r="K397" s="56"/>
+      <c r="L397" s="57"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -22684,17 +25305,17 @@
       <c r="C398" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="D398" s="72" t="s">
+      <c r="D398" s="55" t="s">
         <v>1679</v>
       </c>
-      <c r="E398" s="73"/>
-      <c r="F398" s="74"/>
+      <c r="E398" s="56"/>
+      <c r="F398" s="57"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="72"/>
-      <c r="K398" s="73"/>
-      <c r="L398" s="74"/>
+      <c r="J398" s="55"/>
+      <c r="K398" s="56"/>
+      <c r="L398" s="57"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -22722,17 +25343,17 @@
         <v>1681</v>
       </c>
       <c r="C399" s="1"/>
-      <c r="D399" s="72" t="s">
+      <c r="D399" s="55" t="s">
         <v>1679</v>
       </c>
-      <c r="E399" s="73"/>
-      <c r="F399" s="74"/>
+      <c r="E399" s="56"/>
+      <c r="F399" s="57"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="72"/>
-      <c r="K399" s="73"/>
-      <c r="L399" s="74"/>
+      <c r="J399" s="55"/>
+      <c r="K399" s="56"/>
+      <c r="L399" s="57"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -22762,17 +25383,17 @@
       <c r="C400" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D400" s="72" t="s">
+      <c r="D400" s="55" t="s">
         <v>1685</v>
       </c>
-      <c r="E400" s="73"/>
-      <c r="F400" s="74"/>
+      <c r="E400" s="56"/>
+      <c r="F400" s="57"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="72"/>
-      <c r="K400" s="73"/>
-      <c r="L400" s="74"/>
+      <c r="J400" s="55"/>
+      <c r="K400" s="56"/>
+      <c r="L400" s="57"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -22802,17 +25423,17 @@
       <c r="C401" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D401" s="72" t="s">
+      <c r="D401" s="55" t="s">
         <v>1689</v>
       </c>
-      <c r="E401" s="73"/>
-      <c r="F401" s="74"/>
+      <c r="E401" s="56"/>
+      <c r="F401" s="57"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="72"/>
-      <c r="K401" s="73"/>
-      <c r="L401" s="74"/>
+      <c r="J401" s="55"/>
+      <c r="K401" s="56"/>
+      <c r="L401" s="57"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -22842,17 +25463,17 @@
       <c r="C402" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="D402" s="72" t="s">
+      <c r="D402" s="55" t="s">
         <v>1693</v>
       </c>
-      <c r="E402" s="73"/>
-      <c r="F402" s="74"/>
+      <c r="E402" s="56"/>
+      <c r="F402" s="57"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="72"/>
-      <c r="K402" s="73"/>
-      <c r="L402" s="74"/>
+      <c r="J402" s="55"/>
+      <c r="K402" s="56"/>
+      <c r="L402" s="57"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -22882,17 +25503,17 @@
       <c r="C403" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="D403" s="72" t="s">
+      <c r="D403" s="55" t="s">
         <v>1697</v>
       </c>
-      <c r="E403" s="73"/>
-      <c r="F403" s="74"/>
+      <c r="E403" s="56"/>
+      <c r="F403" s="57"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="72"/>
-      <c r="K403" s="73"/>
-      <c r="L403" s="74"/>
+      <c r="J403" s="55"/>
+      <c r="K403" s="56"/>
+      <c r="L403" s="57"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -22922,17 +25543,17 @@
       <c r="C404" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D404" s="72" t="s">
+      <c r="D404" s="55" t="s">
         <v>1701</v>
       </c>
-      <c r="E404" s="73"/>
-      <c r="F404" s="74"/>
+      <c r="E404" s="56"/>
+      <c r="F404" s="57"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="72"/>
-      <c r="K404" s="73"/>
-      <c r="L404" s="74"/>
+      <c r="J404" s="55"/>
+      <c r="K404" s="56"/>
+      <c r="L404" s="57"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -22962,17 +25583,17 @@
       <c r="C405" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D405" s="72" t="s">
+      <c r="D405" s="55" t="s">
         <v>1705</v>
       </c>
-      <c r="E405" s="73"/>
-      <c r="F405" s="74"/>
+      <c r="E405" s="56"/>
+      <c r="F405" s="57"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="72"/>
-      <c r="K405" s="73"/>
-      <c r="L405" s="74"/>
+      <c r="J405" s="55"/>
+      <c r="K405" s="56"/>
+      <c r="L405" s="57"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -23002,17 +25623,17 @@
       <c r="C406" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="D406" s="72" t="s">
+      <c r="D406" s="55" t="s">
         <v>1709</v>
       </c>
-      <c r="E406" s="73"/>
-      <c r="F406" s="74"/>
+      <c r="E406" s="56"/>
+      <c r="F406" s="57"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="72"/>
-      <c r="K406" s="73"/>
-      <c r="L406" s="74"/>
+      <c r="J406" s="55"/>
+      <c r="K406" s="56"/>
+      <c r="L406" s="57"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -23042,17 +25663,17 @@
       <c r="C407" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="D407" s="72" t="s">
+      <c r="D407" s="55" t="s">
         <v>1713</v>
       </c>
-      <c r="E407" s="73"/>
-      <c r="F407" s="74"/>
+      <c r="E407" s="56"/>
+      <c r="F407" s="57"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="72"/>
-      <c r="K407" s="73"/>
-      <c r="L407" s="74"/>
+      <c r="J407" s="55"/>
+      <c r="K407" s="56"/>
+      <c r="L407" s="57"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -23082,17 +25703,17 @@
       <c r="C408" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D408" s="72" t="s">
+      <c r="D408" s="55" t="s">
         <v>1717</v>
       </c>
-      <c r="E408" s="73"/>
-      <c r="F408" s="74"/>
+      <c r="E408" s="56"/>
+      <c r="F408" s="57"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="72"/>
-      <c r="K408" s="73"/>
-      <c r="L408" s="74"/>
+      <c r="J408" s="55"/>
+      <c r="K408" s="56"/>
+      <c r="L408" s="57"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -23122,17 +25743,17 @@
       <c r="C409" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="D409" s="72" t="s">
+      <c r="D409" s="55" t="s">
         <v>1721</v>
       </c>
-      <c r="E409" s="73"/>
-      <c r="F409" s="74"/>
+      <c r="E409" s="56"/>
+      <c r="F409" s="57"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="72"/>
-      <c r="K409" s="73"/>
-      <c r="L409" s="74"/>
+      <c r="J409" s="55"/>
+      <c r="K409" s="56"/>
+      <c r="L409" s="57"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -23154,309 +25775,6 @@
     </row>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="J407:L407"/>
-    <mergeCell ref="J408:L408"/>
-    <mergeCell ref="J409:L409"/>
-    <mergeCell ref="J398:L398"/>
-    <mergeCell ref="J399:L399"/>
-    <mergeCell ref="J400:L400"/>
-    <mergeCell ref="J401:L401"/>
-    <mergeCell ref="J402:L402"/>
-    <mergeCell ref="J403:L403"/>
-    <mergeCell ref="J404:L404"/>
-    <mergeCell ref="J405:L405"/>
-    <mergeCell ref="J406:L406"/>
-    <mergeCell ref="J389:L389"/>
-    <mergeCell ref="J390:L390"/>
-    <mergeCell ref="J391:L391"/>
-    <mergeCell ref="J392:L392"/>
-    <mergeCell ref="J393:L393"/>
-    <mergeCell ref="J394:L394"/>
-    <mergeCell ref="J395:L395"/>
-    <mergeCell ref="J396:L396"/>
-    <mergeCell ref="J397:L397"/>
-    <mergeCell ref="J380:L380"/>
-    <mergeCell ref="J381:L381"/>
-    <mergeCell ref="J382:L382"/>
-    <mergeCell ref="J383:L383"/>
-    <mergeCell ref="J384:L384"/>
-    <mergeCell ref="J385:L385"/>
-    <mergeCell ref="J386:L386"/>
-    <mergeCell ref="J387:L387"/>
-    <mergeCell ref="J388:L388"/>
-    <mergeCell ref="J371:L371"/>
-    <mergeCell ref="J372:L372"/>
-    <mergeCell ref="J373:L373"/>
-    <mergeCell ref="J374:L374"/>
-    <mergeCell ref="J375:L375"/>
-    <mergeCell ref="J376:L376"/>
-    <mergeCell ref="J377:L377"/>
-    <mergeCell ref="J378:L378"/>
-    <mergeCell ref="J379:L379"/>
-    <mergeCell ref="J362:L362"/>
-    <mergeCell ref="J363:L363"/>
-    <mergeCell ref="J364:L364"/>
-    <mergeCell ref="J365:L365"/>
-    <mergeCell ref="J366:L366"/>
-    <mergeCell ref="J367:L367"/>
-    <mergeCell ref="J368:L368"/>
-    <mergeCell ref="J369:L369"/>
-    <mergeCell ref="J370:L370"/>
-    <mergeCell ref="J353:L353"/>
-    <mergeCell ref="J354:L354"/>
-    <mergeCell ref="J355:L355"/>
-    <mergeCell ref="J356:L356"/>
-    <mergeCell ref="J357:L357"/>
-    <mergeCell ref="J358:L358"/>
-    <mergeCell ref="J359:L359"/>
-    <mergeCell ref="J360:L360"/>
-    <mergeCell ref="J361:L361"/>
-    <mergeCell ref="J344:L344"/>
-    <mergeCell ref="J345:L345"/>
-    <mergeCell ref="J346:L346"/>
-    <mergeCell ref="J347:L347"/>
-    <mergeCell ref="J348:L348"/>
-    <mergeCell ref="J349:L349"/>
-    <mergeCell ref="J350:L350"/>
-    <mergeCell ref="J351:L351"/>
-    <mergeCell ref="J352:L352"/>
-    <mergeCell ref="J335:L335"/>
-    <mergeCell ref="J336:L336"/>
-    <mergeCell ref="J337:L337"/>
-    <mergeCell ref="J338:L338"/>
-    <mergeCell ref="J339:L339"/>
-    <mergeCell ref="J340:L340"/>
-    <mergeCell ref="J341:L341"/>
-    <mergeCell ref="J342:L342"/>
-    <mergeCell ref="J343:L343"/>
-    <mergeCell ref="J326:L326"/>
-    <mergeCell ref="J327:L327"/>
-    <mergeCell ref="J328:L328"/>
-    <mergeCell ref="J329:L329"/>
-    <mergeCell ref="J330:L330"/>
-    <mergeCell ref="J331:L331"/>
-    <mergeCell ref="J332:L332"/>
-    <mergeCell ref="J333:L333"/>
-    <mergeCell ref="J334:L334"/>
-    <mergeCell ref="J317:L317"/>
-    <mergeCell ref="J318:L318"/>
-    <mergeCell ref="J319:L319"/>
-    <mergeCell ref="J320:L320"/>
-    <mergeCell ref="J321:L321"/>
-    <mergeCell ref="J322:L322"/>
-    <mergeCell ref="J323:L323"/>
-    <mergeCell ref="J324:L324"/>
-    <mergeCell ref="J325:L325"/>
-    <mergeCell ref="J308:L308"/>
-    <mergeCell ref="J309:L309"/>
-    <mergeCell ref="J310:L310"/>
-    <mergeCell ref="J311:L311"/>
-    <mergeCell ref="J312:L312"/>
-    <mergeCell ref="J313:L313"/>
-    <mergeCell ref="J314:L314"/>
-    <mergeCell ref="J315:L315"/>
-    <mergeCell ref="J316:L316"/>
-    <mergeCell ref="J299:L299"/>
-    <mergeCell ref="J300:L300"/>
-    <mergeCell ref="J301:L301"/>
-    <mergeCell ref="J302:L302"/>
-    <mergeCell ref="J303:L303"/>
-    <mergeCell ref="J304:L304"/>
-    <mergeCell ref="J305:L305"/>
-    <mergeCell ref="J306:L306"/>
-    <mergeCell ref="J307:L307"/>
-    <mergeCell ref="J290:L290"/>
-    <mergeCell ref="J291:L291"/>
-    <mergeCell ref="J292:L292"/>
-    <mergeCell ref="J293:L293"/>
-    <mergeCell ref="J294:L294"/>
-    <mergeCell ref="J295:L295"/>
-    <mergeCell ref="J296:L296"/>
-    <mergeCell ref="J297:L297"/>
-    <mergeCell ref="J298:L298"/>
-    <mergeCell ref="J281:L281"/>
-    <mergeCell ref="J282:L282"/>
-    <mergeCell ref="J283:L283"/>
-    <mergeCell ref="J284:L284"/>
-    <mergeCell ref="J285:L285"/>
-    <mergeCell ref="J286:L286"/>
-    <mergeCell ref="J287:L287"/>
-    <mergeCell ref="J288:L288"/>
-    <mergeCell ref="J289:L289"/>
-    <mergeCell ref="J272:L272"/>
-    <mergeCell ref="J273:L273"/>
-    <mergeCell ref="J274:L274"/>
-    <mergeCell ref="J275:L275"/>
-    <mergeCell ref="J276:L276"/>
-    <mergeCell ref="J277:L277"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="J280:L280"/>
-    <mergeCell ref="J263:L263"/>
-    <mergeCell ref="J264:L264"/>
-    <mergeCell ref="J265:L265"/>
-    <mergeCell ref="J266:L266"/>
-    <mergeCell ref="J267:L267"/>
-    <mergeCell ref="J268:L268"/>
-    <mergeCell ref="J269:L269"/>
-    <mergeCell ref="J270:L270"/>
-    <mergeCell ref="J271:L271"/>
-    <mergeCell ref="J254:L254"/>
-    <mergeCell ref="J255:L255"/>
-    <mergeCell ref="J256:L256"/>
-    <mergeCell ref="J257:L257"/>
-    <mergeCell ref="J258:L258"/>
-    <mergeCell ref="J259:L259"/>
-    <mergeCell ref="J260:L260"/>
-    <mergeCell ref="J261:L261"/>
-    <mergeCell ref="J262:L262"/>
-    <mergeCell ref="J245:L245"/>
-    <mergeCell ref="J246:L246"/>
-    <mergeCell ref="J247:L247"/>
-    <mergeCell ref="J248:L248"/>
-    <mergeCell ref="J249:L249"/>
-    <mergeCell ref="J250:L250"/>
-    <mergeCell ref="J251:L251"/>
-    <mergeCell ref="J252:L252"/>
-    <mergeCell ref="J253:L253"/>
-    <mergeCell ref="J236:L236"/>
-    <mergeCell ref="J237:L237"/>
-    <mergeCell ref="J238:L238"/>
-    <mergeCell ref="J239:L239"/>
-    <mergeCell ref="J240:L240"/>
-    <mergeCell ref="J241:L241"/>
-    <mergeCell ref="J242:L242"/>
-    <mergeCell ref="J243:L243"/>
-    <mergeCell ref="J244:L244"/>
-    <mergeCell ref="J227:L227"/>
-    <mergeCell ref="J228:L228"/>
-    <mergeCell ref="J229:L229"/>
-    <mergeCell ref="J230:L230"/>
-    <mergeCell ref="J231:L231"/>
-    <mergeCell ref="J232:L232"/>
-    <mergeCell ref="J233:L233"/>
-    <mergeCell ref="J234:L234"/>
-    <mergeCell ref="J235:L235"/>
-    <mergeCell ref="J218:L218"/>
-    <mergeCell ref="J219:L219"/>
-    <mergeCell ref="J220:L220"/>
-    <mergeCell ref="J221:L221"/>
-    <mergeCell ref="J222:L222"/>
-    <mergeCell ref="J223:L223"/>
-    <mergeCell ref="J224:L224"/>
-    <mergeCell ref="J225:L225"/>
-    <mergeCell ref="J226:L226"/>
-    <mergeCell ref="G209:L209"/>
-    <mergeCell ref="J210:L210"/>
-    <mergeCell ref="J211:L211"/>
-    <mergeCell ref="J212:L212"/>
-    <mergeCell ref="J213:L213"/>
-    <mergeCell ref="J214:L214"/>
-    <mergeCell ref="J215:L215"/>
-    <mergeCell ref="J216:L216"/>
-    <mergeCell ref="J217:L217"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="D405:F405"/>
-    <mergeCell ref="D406:F406"/>
-    <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="D393:F393"/>
-    <mergeCell ref="D394:F394"/>
-    <mergeCell ref="D395:F395"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="D374:F374"/>
-    <mergeCell ref="D375:F375"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D370:F370"/>
-    <mergeCell ref="D371:F371"/>
-    <mergeCell ref="D372:F372"/>
-    <mergeCell ref="D363:F363"/>
-    <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D360:F360"/>
-    <mergeCell ref="D361:F361"/>
-    <mergeCell ref="D362:F362"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="D312:F312"/>
     <mergeCell ref="A241:F241"/>
     <mergeCell ref="D307:F307"/>
     <mergeCell ref="D303:F303"/>
@@ -23481,6 +25799,309 @@
     <mergeCell ref="Y208:AD208"/>
     <mergeCell ref="A300:F300"/>
     <mergeCell ref="A266:F266"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="D316:F316"/>
+    <mergeCell ref="D317:F317"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="D363:F363"/>
+    <mergeCell ref="D364:F364"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
+    <mergeCell ref="D373:F373"/>
+    <mergeCell ref="D374:F374"/>
+    <mergeCell ref="D375:F375"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="D386:F386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D396:F396"/>
+    <mergeCell ref="D397:F397"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D408:F408"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="D405:F405"/>
+    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="D407:F407"/>
+    <mergeCell ref="D398:F398"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="G209:L209"/>
+    <mergeCell ref="J210:L210"/>
+    <mergeCell ref="J211:L211"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="J213:L213"/>
+    <mergeCell ref="J214:L214"/>
+    <mergeCell ref="J215:L215"/>
+    <mergeCell ref="J216:L216"/>
+    <mergeCell ref="J217:L217"/>
+    <mergeCell ref="J218:L218"/>
+    <mergeCell ref="J219:L219"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="J221:L221"/>
+    <mergeCell ref="J222:L222"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="J224:L224"/>
+    <mergeCell ref="J225:L225"/>
+    <mergeCell ref="J226:L226"/>
+    <mergeCell ref="J228:L228"/>
+    <mergeCell ref="J229:L229"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="J231:L231"/>
+    <mergeCell ref="J232:L232"/>
+    <mergeCell ref="J233:L233"/>
+    <mergeCell ref="J234:L234"/>
+    <mergeCell ref="J235:L235"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="J236:L236"/>
+    <mergeCell ref="J237:L237"/>
+    <mergeCell ref="J238:L238"/>
+    <mergeCell ref="J239:L239"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="J241:L241"/>
+    <mergeCell ref="J242:L242"/>
+    <mergeCell ref="J243:L243"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="J245:L245"/>
+    <mergeCell ref="J246:L246"/>
+    <mergeCell ref="J247:L247"/>
+    <mergeCell ref="J248:L248"/>
+    <mergeCell ref="J249:L249"/>
+    <mergeCell ref="J250:L250"/>
+    <mergeCell ref="J251:L251"/>
+    <mergeCell ref="J252:L252"/>
+    <mergeCell ref="J253:L253"/>
+    <mergeCell ref="J254:L254"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="J256:L256"/>
+    <mergeCell ref="J257:L257"/>
+    <mergeCell ref="J258:L258"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="J260:L260"/>
+    <mergeCell ref="J261:L261"/>
+    <mergeCell ref="J262:L262"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="J264:L264"/>
+    <mergeCell ref="J265:L265"/>
+    <mergeCell ref="J266:L266"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="J268:L268"/>
+    <mergeCell ref="J269:L269"/>
+    <mergeCell ref="J270:L270"/>
+    <mergeCell ref="J271:L271"/>
+    <mergeCell ref="J272:L272"/>
+    <mergeCell ref="J273:L273"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="J275:L275"/>
+    <mergeCell ref="J276:L276"/>
+    <mergeCell ref="J277:L277"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="J280:L280"/>
+    <mergeCell ref="J281:L281"/>
+    <mergeCell ref="J282:L282"/>
+    <mergeCell ref="J283:L283"/>
+    <mergeCell ref="J284:L284"/>
+    <mergeCell ref="J285:L285"/>
+    <mergeCell ref="J286:L286"/>
+    <mergeCell ref="J287:L287"/>
+    <mergeCell ref="J288:L288"/>
+    <mergeCell ref="J289:L289"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="J292:L292"/>
+    <mergeCell ref="J293:L293"/>
+    <mergeCell ref="J294:L294"/>
+    <mergeCell ref="J295:L295"/>
+    <mergeCell ref="J296:L296"/>
+    <mergeCell ref="J297:L297"/>
+    <mergeCell ref="J298:L298"/>
+    <mergeCell ref="J299:L299"/>
+    <mergeCell ref="J300:L300"/>
+    <mergeCell ref="J301:L301"/>
+    <mergeCell ref="J302:L302"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="J304:L304"/>
+    <mergeCell ref="J305:L305"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="J307:L307"/>
+    <mergeCell ref="J308:L308"/>
+    <mergeCell ref="J309:L309"/>
+    <mergeCell ref="J310:L310"/>
+    <mergeCell ref="J311:L311"/>
+    <mergeCell ref="J312:L312"/>
+    <mergeCell ref="J313:L313"/>
+    <mergeCell ref="J314:L314"/>
+    <mergeCell ref="J315:L315"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="J317:L317"/>
+    <mergeCell ref="J318:L318"/>
+    <mergeCell ref="J319:L319"/>
+    <mergeCell ref="J320:L320"/>
+    <mergeCell ref="J321:L321"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="J323:L323"/>
+    <mergeCell ref="J324:L324"/>
+    <mergeCell ref="J325:L325"/>
+    <mergeCell ref="J326:L326"/>
+    <mergeCell ref="J327:L327"/>
+    <mergeCell ref="J328:L328"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="J330:L330"/>
+    <mergeCell ref="J331:L331"/>
+    <mergeCell ref="J332:L332"/>
+    <mergeCell ref="J333:L333"/>
+    <mergeCell ref="J334:L334"/>
+    <mergeCell ref="J335:L335"/>
+    <mergeCell ref="J336:L336"/>
+    <mergeCell ref="J337:L337"/>
+    <mergeCell ref="J338:L338"/>
+    <mergeCell ref="J339:L339"/>
+    <mergeCell ref="J340:L340"/>
+    <mergeCell ref="J341:L341"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="J343:L343"/>
+    <mergeCell ref="J344:L344"/>
+    <mergeCell ref="J345:L345"/>
+    <mergeCell ref="J346:L346"/>
+    <mergeCell ref="J347:L347"/>
+    <mergeCell ref="J348:L348"/>
+    <mergeCell ref="J349:L349"/>
+    <mergeCell ref="J350:L350"/>
+    <mergeCell ref="J351:L351"/>
+    <mergeCell ref="J352:L352"/>
+    <mergeCell ref="J353:L353"/>
+    <mergeCell ref="J354:L354"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="J356:L356"/>
+    <mergeCell ref="J357:L357"/>
+    <mergeCell ref="J358:L358"/>
+    <mergeCell ref="J359:L359"/>
+    <mergeCell ref="J360:L360"/>
+    <mergeCell ref="J361:L361"/>
+    <mergeCell ref="J362:L362"/>
+    <mergeCell ref="J363:L363"/>
+    <mergeCell ref="J364:L364"/>
+    <mergeCell ref="J365:L365"/>
+    <mergeCell ref="J366:L366"/>
+    <mergeCell ref="J367:L367"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="J369:L369"/>
+    <mergeCell ref="J370:L370"/>
+    <mergeCell ref="J371:L371"/>
+    <mergeCell ref="J372:L372"/>
+    <mergeCell ref="J373:L373"/>
+    <mergeCell ref="J374:L374"/>
+    <mergeCell ref="J375:L375"/>
+    <mergeCell ref="J376:L376"/>
+    <mergeCell ref="J377:L377"/>
+    <mergeCell ref="J378:L378"/>
+    <mergeCell ref="J379:L379"/>
+    <mergeCell ref="J380:L380"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="J382:L382"/>
+    <mergeCell ref="J383:L383"/>
+    <mergeCell ref="J384:L384"/>
+    <mergeCell ref="J385:L385"/>
+    <mergeCell ref="J386:L386"/>
+    <mergeCell ref="J387:L387"/>
+    <mergeCell ref="J388:L388"/>
+    <mergeCell ref="J389:L389"/>
+    <mergeCell ref="J390:L390"/>
+    <mergeCell ref="J391:L391"/>
+    <mergeCell ref="J392:L392"/>
+    <mergeCell ref="J393:L393"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="J395:L395"/>
+    <mergeCell ref="J396:L396"/>
+    <mergeCell ref="J397:L397"/>
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="J408:L408"/>
+    <mergeCell ref="J409:L409"/>
+    <mergeCell ref="J398:L398"/>
+    <mergeCell ref="J399:L399"/>
+    <mergeCell ref="J400:L400"/>
+    <mergeCell ref="J401:L401"/>
+    <mergeCell ref="J402:L402"/>
+    <mergeCell ref="J403:L403"/>
+    <mergeCell ref="J404:L404"/>
+    <mergeCell ref="J405:L405"/>
+    <mergeCell ref="J406:L406"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1942">
   <si>
     <t>第３週</t>
   </si>
@@ -10343,12 +10343,913 @@
     <t xml:space="preserve">なんらの関連もない </t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>随時</t>
+    <rPh sb="0" eb="2">
+      <t>ズイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ずいじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【副</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 随</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。;不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>随時入学を許す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>準備</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じゅんび</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；筹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験の準備をする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運営</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うんえい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>办</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，管理</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学校を運営する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適当</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てきとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ナ形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 适当，适宜</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散歩は老人に適当な運動だ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無視</t>
+    <rPh sb="0" eb="2">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 【他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 ;无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，忽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通信号を無視する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤枠</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あかわく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>框，把要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明（或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>框圈起来</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解凍</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】【他サ】 ;解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，化开；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>术语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压缩</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷凍食品を解凍する</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10474,6 +11375,14 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -10882,15 +11791,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10948,10 +11849,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11234,8 +12143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11262,49 +12171,49 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:18" ht="18" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -17546,98 +18455,98 @@
       <c r="R204" s="48"/>
     </row>
     <row r="207" spans="1:30" ht="17.25">
-      <c r="A207" s="72" t="s">
+      <c r="A207" s="70" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="73"/>
-      <c r="C207" s="73"/>
-      <c r="D207" s="73"/>
-      <c r="E207" s="73"/>
-      <c r="F207" s="73"/>
-      <c r="G207" s="73"/>
-      <c r="H207" s="73"/>
-      <c r="I207" s="73"/>
-      <c r="J207" s="73"/>
-      <c r="K207" s="73"/>
-      <c r="L207" s="73"/>
-      <c r="M207" s="73"/>
-      <c r="N207" s="73"/>
-      <c r="O207" s="73"/>
-      <c r="P207" s="73"/>
-      <c r="Q207" s="73"/>
-      <c r="R207" s="73"/>
-      <c r="S207" s="73"/>
-      <c r="T207" s="73"/>
-      <c r="U207" s="73"/>
-      <c r="V207" s="73"/>
-      <c r="W207" s="73"/>
-      <c r="X207" s="73"/>
-      <c r="Y207" s="73"/>
-      <c r="Z207" s="73"/>
-      <c r="AA207" s="73"/>
-      <c r="AB207" s="73"/>
-      <c r="AC207" s="73"/>
-      <c r="AD207" s="73"/>
+      <c r="B207" s="71"/>
+      <c r="C207" s="71"/>
+      <c r="D207" s="71"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+      <c r="I207" s="71"/>
+      <c r="J207" s="71"/>
+      <c r="K207" s="71"/>
+      <c r="L207" s="71"/>
+      <c r="M207" s="71"/>
+      <c r="N207" s="71"/>
+      <c r="O207" s="71"/>
+      <c r="P207" s="71"/>
+      <c r="Q207" s="71"/>
+      <c r="R207" s="71"/>
+      <c r="S207" s="71"/>
+      <c r="T207" s="71"/>
+      <c r="U207" s="71"/>
+      <c r="V207" s="71"/>
+      <c r="W207" s="71"/>
+      <c r="X207" s="71"/>
+      <c r="Y207" s="71"/>
+      <c r="Z207" s="71"/>
+      <c r="AA207" s="71"/>
+      <c r="AB207" s="71"/>
+      <c r="AC207" s="71"/>
+      <c r="AD207" s="71"/>
     </row>
     <row r="208" spans="1:30">
-      <c r="A208" s="69" t="s">
+      <c r="A208" s="67" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="70"/>
-      <c r="C208" s="70"/>
-      <c r="D208" s="70"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="71"/>
-      <c r="G208" s="69" t="s">
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="69"/>
+      <c r="G208" s="67" t="s">
         <v>1077</v>
       </c>
-      <c r="H208" s="70"/>
-      <c r="I208" s="70"/>
-      <c r="J208" s="70"/>
-      <c r="K208" s="70"/>
-      <c r="L208" s="71"/>
-      <c r="M208" s="69" t="s">
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="68"/>
+      <c r="K208" s="68"/>
+      <c r="L208" s="69"/>
+      <c r="M208" s="67" t="s">
         <v>1078</v>
       </c>
-      <c r="N208" s="70"/>
-      <c r="O208" s="70"/>
-      <c r="P208" s="70"/>
-      <c r="Q208" s="70"/>
-      <c r="R208" s="71"/>
-      <c r="S208" s="69" t="s">
+      <c r="N208" s="68"/>
+      <c r="O208" s="68"/>
+      <c r="P208" s="68"/>
+      <c r="Q208" s="68"/>
+      <c r="R208" s="69"/>
+      <c r="S208" s="67" t="s">
         <v>1079</v>
       </c>
-      <c r="T208" s="70"/>
-      <c r="U208" s="70"/>
-      <c r="V208" s="70"/>
-      <c r="W208" s="70"/>
-      <c r="X208" s="71"/>
-      <c r="Y208" s="77" t="s">
+      <c r="T208" s="68"/>
+      <c r="U208" s="68"/>
+      <c r="V208" s="68"/>
+      <c r="W208" s="68"/>
+      <c r="X208" s="69"/>
+      <c r="Y208" s="78" t="s">
         <v>1080</v>
       </c>
-      <c r="Z208" s="77"/>
-      <c r="AA208" s="77"/>
-      <c r="AB208" s="77"/>
-      <c r="AC208" s="77"/>
-      <c r="AD208" s="77"/>
+      <c r="Z208" s="78"/>
+      <c r="AA208" s="78"/>
+      <c r="AB208" s="78"/>
+      <c r="AC208" s="78"/>
+      <c r="AD208" s="78"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="58">
+      <c r="A209" s="56">
         <v>43010</v>
       </c>
-      <c r="B209" s="59"/>
-      <c r="C209" s="59"/>
-      <c r="D209" s="59"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="58">
+      <c r="B209" s="57"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="58"/>
+      <c r="G209" s="56">
         <v>43017</v>
       </c>
-      <c r="H209" s="59"/>
-      <c r="I209" s="59"/>
-      <c r="J209" s="59"/>
-      <c r="K209" s="59"/>
-      <c r="L209" s="60"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
+      <c r="K209" s="57"/>
+      <c r="L209" s="58"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -17667,9 +18576,9 @@
       <c r="C210" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D210" s="74"/>
-      <c r="E210" s="75"/>
-      <c r="F210" s="76"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="74"/>
       <c r="G210" s="1" t="s">
         <v>1722</v>
       </c>
@@ -17679,11 +18588,11 @@
       <c r="I210" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="J210" s="55" t="s">
+      <c r="J210" s="75" t="s">
         <v>1725</v>
       </c>
-      <c r="K210" s="56"/>
-      <c r="L210" s="57"/>
+      <c r="K210" s="76"/>
+      <c r="L210" s="77"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -17713,9 +18622,9 @@
       <c r="C211" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D211" s="55"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="57"/>
+      <c r="D211" s="75"/>
+      <c r="E211" s="76"/>
+      <c r="F211" s="77"/>
       <c r="G211" s="1" t="s">
         <v>1726</v>
       </c>
@@ -17725,11 +18634,11 @@
       <c r="I211" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="J211" s="55" t="s">
+      <c r="J211" s="75" t="s">
         <v>1729</v>
       </c>
-      <c r="K211" s="56"/>
-      <c r="L211" s="57"/>
+      <c r="K211" s="76"/>
+      <c r="L211" s="77"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -17759,9 +18668,9 @@
       <c r="C212" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D212" s="55"/>
-      <c r="E212" s="56"/>
-      <c r="F212" s="57"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="76"/>
+      <c r="F212" s="77"/>
       <c r="G212" s="1" t="s">
         <v>1730</v>
       </c>
@@ -17771,11 +18680,11 @@
       <c r="I212" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J212" s="55" t="s">
+      <c r="J212" s="75" t="s">
         <v>1733</v>
       </c>
-      <c r="K212" s="56"/>
-      <c r="L212" s="57"/>
+      <c r="K212" s="76"/>
+      <c r="L212" s="77"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -17817,11 +18726,11 @@
       <c r="I213" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="J213" s="55" t="s">
+      <c r="J213" s="75" t="s">
         <v>1737</v>
       </c>
-      <c r="K213" s="56"/>
-      <c r="L213" s="57"/>
+      <c r="K213" s="76"/>
+      <c r="L213" s="77"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -17863,11 +18772,11 @@
       <c r="I214" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="J214" s="55" t="s">
+      <c r="J214" s="75" t="s">
         <v>1741</v>
       </c>
-      <c r="K214" s="56"/>
-      <c r="L214" s="57"/>
+      <c r="K214" s="76"/>
+      <c r="L214" s="77"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -17909,11 +18818,11 @@
       <c r="I215" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="J215" s="55" t="s">
+      <c r="J215" s="75" t="s">
         <v>1744</v>
       </c>
-      <c r="K215" s="56"/>
-      <c r="L215" s="57"/>
+      <c r="K215" s="76"/>
+      <c r="L215" s="77"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -17955,11 +18864,11 @@
       <c r="I216" s="53" t="s">
         <v>1747</v>
       </c>
-      <c r="J216" s="55" t="s">
+      <c r="J216" s="75" t="s">
         <v>1748</v>
       </c>
-      <c r="K216" s="56"/>
-      <c r="L216" s="57"/>
+      <c r="K216" s="76"/>
+      <c r="L216" s="77"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -18001,11 +18910,11 @@
       <c r="I217" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="J217" s="55" t="s">
+      <c r="J217" s="75" t="s">
         <v>1752</v>
       </c>
-      <c r="K217" s="56"/>
-      <c r="L217" s="57"/>
+      <c r="K217" s="76"/>
+      <c r="L217" s="77"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -18047,11 +18956,11 @@
       <c r="I218" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="J218" s="55" t="s">
+      <c r="J218" s="75" t="s">
         <v>1755</v>
       </c>
-      <c r="K218" s="56"/>
-      <c r="L218" s="57"/>
+      <c r="K218" s="76"/>
+      <c r="L218" s="77"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -18091,11 +19000,11 @@
       <c r="I219" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="J219" s="55" t="s">
+      <c r="J219" s="75" t="s">
         <v>1759</v>
       </c>
-      <c r="K219" s="56"/>
-      <c r="L219" s="57"/>
+      <c r="K219" s="76"/>
+      <c r="L219" s="77"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -18137,11 +19046,11 @@
       <c r="I220" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="J220" s="55" t="s">
+      <c r="J220" s="75" t="s">
         <v>1763</v>
       </c>
-      <c r="K220" s="56"/>
-      <c r="L220" s="57"/>
+      <c r="K220" s="76"/>
+      <c r="L220" s="77"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -18183,9 +19092,9 @@
       <c r="I221" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="J221" s="55"/>
-      <c r="K221" s="56"/>
-      <c r="L221" s="57"/>
+      <c r="J221" s="75"/>
+      <c r="K221" s="76"/>
+      <c r="L221" s="77"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -18227,11 +19136,11 @@
       <c r="I222" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="J222" s="55" t="s">
+      <c r="J222" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="K222" s="56"/>
-      <c r="L222" s="57"/>
+      <c r="K222" s="76"/>
+      <c r="L222" s="77"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -18273,11 +19182,11 @@
       <c r="I223" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="J223" s="55" t="s">
+      <c r="J223" s="75" t="s">
         <v>1773</v>
       </c>
-      <c r="K223" s="56"/>
-      <c r="L223" s="57"/>
+      <c r="K223" s="76"/>
+      <c r="L223" s="77"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -18319,11 +19228,11 @@
       <c r="I224" s="54" t="s">
         <v>1776</v>
       </c>
-      <c r="J224" s="55" t="s">
+      <c r="J224" s="75" t="s">
         <v>1777</v>
       </c>
-      <c r="K224" s="56"/>
-      <c r="L224" s="57"/>
+      <c r="K224" s="76"/>
+      <c r="L224" s="77"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -18363,11 +19272,11 @@
       <c r="I225" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J225" s="55" t="s">
+      <c r="J225" s="75" t="s">
         <v>1780</v>
       </c>
-      <c r="K225" s="56"/>
-      <c r="L225" s="57"/>
+      <c r="K225" s="76"/>
+      <c r="L225" s="77"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -18407,11 +19316,11 @@
       <c r="I226" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="J226" s="55" t="s">
+      <c r="J226" s="75" t="s">
         <v>1783</v>
       </c>
-      <c r="K226" s="56"/>
-      <c r="L226" s="57"/>
+      <c r="K226" s="76"/>
+      <c r="L226" s="77"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -18444,14 +19353,14 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="58">
+      <c r="G227" s="56">
         <v>43018</v>
       </c>
-      <c r="H227" s="59"/>
-      <c r="I227" s="59"/>
-      <c r="J227" s="59"/>
-      <c r="K227" s="59"/>
-      <c r="L227" s="60"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="57"/>
+      <c r="J227" s="57"/>
+      <c r="K227" s="57"/>
+      <c r="L227" s="58"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -18491,11 +19400,11 @@
       <c r="I228" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="J228" s="55" t="s">
+      <c r="J228" s="75" t="s">
         <v>1787</v>
       </c>
-      <c r="K228" s="56"/>
-      <c r="L228" s="57"/>
+      <c r="K228" s="76"/>
+      <c r="L228" s="77"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -18535,11 +19444,11 @@
       <c r="I229" s="52" t="s">
         <v>1789</v>
       </c>
-      <c r="J229" s="55" t="s">
+      <c r="J229" s="75" t="s">
         <v>1790</v>
       </c>
-      <c r="K229" s="56"/>
-      <c r="L229" s="57"/>
+      <c r="K229" s="76"/>
+      <c r="L229" s="77"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -18581,11 +19490,11 @@
       <c r="I230" s="52" t="s">
         <v>1793</v>
       </c>
-      <c r="J230" s="55" t="s">
+      <c r="J230" s="75" t="s">
         <v>1794</v>
       </c>
-      <c r="K230" s="56"/>
-      <c r="L230" s="57"/>
+      <c r="K230" s="76"/>
+      <c r="L230" s="77"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -18625,11 +19534,11 @@
       <c r="I231" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="J231" s="55" t="s">
+      <c r="J231" s="75" t="s">
         <v>1797</v>
       </c>
-      <c r="K231" s="56"/>
-      <c r="L231" s="57"/>
+      <c r="K231" s="76"/>
+      <c r="L231" s="77"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -18671,9 +19580,9 @@
       <c r="I232" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="J232" s="55"/>
-      <c r="K232" s="56"/>
-      <c r="L232" s="57"/>
+      <c r="J232" s="75"/>
+      <c r="K232" s="76"/>
+      <c r="L232" s="77"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -18713,11 +19622,11 @@
       <c r="I233" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="J233" s="55" t="s">
+      <c r="J233" s="75" t="s">
         <v>1804</v>
       </c>
-      <c r="K233" s="56"/>
-      <c r="L233" s="57"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="77"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -18757,9 +19666,9 @@
       <c r="I234" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="J234" s="55"/>
-      <c r="K234" s="56"/>
-      <c r="L234" s="57"/>
+      <c r="J234" s="75"/>
+      <c r="K234" s="76"/>
+      <c r="L234" s="77"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -18801,11 +19710,11 @@
       <c r="I235" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="J235" s="55" t="s">
+      <c r="J235" s="75" t="s">
         <v>1810</v>
       </c>
-      <c r="K235" s="56"/>
-      <c r="L235" s="57"/>
+      <c r="K235" s="76"/>
+      <c r="L235" s="77"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -18845,11 +19754,11 @@
       <c r="I236" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="J236" s="55" t="s">
+      <c r="J236" s="75" t="s">
         <v>1813</v>
       </c>
-      <c r="K236" s="56"/>
-      <c r="L236" s="57"/>
+      <c r="K236" s="76"/>
+      <c r="L236" s="77"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -18889,11 +19798,11 @@
       <c r="I237" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="J237" s="55" t="s">
+      <c r="J237" s="75" t="s">
         <v>1816</v>
       </c>
-      <c r="K237" s="56"/>
-      <c r="L237" s="57"/>
+      <c r="K237" s="76"/>
+      <c r="L237" s="77"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -18935,11 +19844,11 @@
       <c r="I238" s="54" t="s">
         <v>1819</v>
       </c>
-      <c r="J238" s="55" t="s">
+      <c r="J238" s="75" t="s">
         <v>1820</v>
       </c>
-      <c r="K238" s="56"/>
-      <c r="L238" s="57"/>
+      <c r="K238" s="76"/>
+      <c r="L238" s="77"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -18981,11 +19890,11 @@
       <c r="I239" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="J239" s="55" t="s">
+      <c r="J239" s="75" t="s">
         <v>1824</v>
       </c>
-      <c r="K239" s="56"/>
-      <c r="L239" s="57"/>
+      <c r="K239" s="76"/>
+      <c r="L239" s="77"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -19027,11 +19936,11 @@
       <c r="I240" s="52" t="s">
         <v>1827</v>
       </c>
-      <c r="J240" s="55" t="s">
+      <c r="J240" s="75" t="s">
         <v>1828</v>
       </c>
-      <c r="K240" s="56"/>
-      <c r="L240" s="57"/>
+      <c r="K240" s="76"/>
+      <c r="L240" s="77"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -19052,14 +19961,14 @@
       <c r="AD240" s="1"/>
     </row>
     <row r="241" spans="1:30">
-      <c r="A241" s="58">
+      <c r="A241" s="56">
         <v>43011</v>
       </c>
-      <c r="B241" s="59"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="59"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="60"/>
+      <c r="B241" s="57"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="57"/>
+      <c r="F241" s="58"/>
       <c r="G241" s="1" t="s">
         <v>1830</v>
       </c>
@@ -19069,11 +19978,11 @@
       <c r="I241" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="J241" s="55" t="s">
+      <c r="J241" s="75" t="s">
         <v>1832</v>
       </c>
-      <c r="K241" s="56"/>
-      <c r="L241" s="57"/>
+      <c r="K241" s="76"/>
+      <c r="L241" s="77"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -19115,11 +20024,11 @@
       <c r="I242" s="52" t="s">
         <v>1835</v>
       </c>
-      <c r="J242" s="55" t="s">
+      <c r="J242" s="75" t="s">
         <v>1836</v>
       </c>
-      <c r="K242" s="56"/>
-      <c r="L242" s="57"/>
+      <c r="K242" s="76"/>
+      <c r="L242" s="77"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -19158,14 +20067,14 @@
       <c r="H243" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="I243" s="78" t="s">
+      <c r="I243" s="55" t="s">
         <v>1839</v>
       </c>
-      <c r="J243" s="55" t="s">
+      <c r="J243" s="75" t="s">
         <v>1840</v>
       </c>
-      <c r="K243" s="56"/>
-      <c r="L243" s="57"/>
+      <c r="K243" s="76"/>
+      <c r="L243" s="77"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -19207,11 +20116,11 @@
       <c r="I244" s="52" t="s">
         <v>1843</v>
       </c>
-      <c r="J244" s="55" t="s">
+      <c r="J244" s="75" t="s">
         <v>1844</v>
       </c>
-      <c r="K244" s="56"/>
-      <c r="L244" s="57"/>
+      <c r="K244" s="76"/>
+      <c r="L244" s="77"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -19251,11 +20160,11 @@
       <c r="I245" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="J245" s="55" t="s">
+      <c r="J245" s="75" t="s">
         <v>1847</v>
       </c>
-      <c r="K245" s="56"/>
-      <c r="L245" s="57"/>
+      <c r="K245" s="76"/>
+      <c r="L245" s="77"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -19297,11 +20206,11 @@
       <c r="I246" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="J246" s="55" t="s">
+      <c r="J246" s="75" t="s">
         <v>1851</v>
       </c>
-      <c r="K246" s="56"/>
-      <c r="L246" s="57"/>
+      <c r="K246" s="76"/>
+      <c r="L246" s="77"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -19343,11 +20252,11 @@
       <c r="I247" s="54" t="s">
         <v>1854</v>
       </c>
-      <c r="J247" s="55" t="s">
+      <c r="J247" s="75" t="s">
         <v>1855</v>
       </c>
-      <c r="K247" s="56"/>
-      <c r="L247" s="57"/>
+      <c r="K247" s="76"/>
+      <c r="L247" s="77"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -19389,11 +20298,11 @@
       <c r="I248" s="54" t="s">
         <v>1858</v>
       </c>
-      <c r="J248" s="55" t="s">
+      <c r="J248" s="75" t="s">
         <v>1859</v>
       </c>
-      <c r="K248" s="56"/>
-      <c r="L248" s="57"/>
+      <c r="K248" s="76"/>
+      <c r="L248" s="77"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -19435,11 +20344,11 @@
       <c r="I249" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="J249" s="55" t="s">
+      <c r="J249" s="75" t="s">
         <v>1863</v>
       </c>
-      <c r="K249" s="56"/>
-      <c r="L249" s="57"/>
+      <c r="K249" s="76"/>
+      <c r="L249" s="77"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -19479,11 +20388,11 @@
       <c r="I250" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="J250" s="55" t="s">
+      <c r="J250" s="75" t="s">
         <v>1867</v>
       </c>
-      <c r="K250" s="56"/>
-      <c r="L250" s="57"/>
+      <c r="K250" s="76"/>
+      <c r="L250" s="77"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -19525,11 +20434,11 @@
       <c r="I251" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="J251" s="55" t="s">
+      <c r="J251" s="75" t="s">
         <v>1871</v>
       </c>
-      <c r="K251" s="56"/>
-      <c r="L251" s="57"/>
+      <c r="K251" s="76"/>
+      <c r="L251" s="77"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -19571,11 +20480,11 @@
       <c r="I252" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="J252" s="55" t="s">
+      <c r="J252" s="75" t="s">
         <v>1875</v>
       </c>
-      <c r="K252" s="56"/>
-      <c r="L252" s="57"/>
+      <c r="K252" s="76"/>
+      <c r="L252" s="77"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -19615,9 +20524,9 @@
       <c r="I253" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="J253" s="55"/>
-      <c r="K253" s="56"/>
-      <c r="L253" s="57"/>
+      <c r="J253" s="75"/>
+      <c r="K253" s="76"/>
+      <c r="L253" s="77"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -19657,11 +20566,11 @@
       <c r="I254" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="J254" s="55" t="s">
+      <c r="J254" s="75" t="s">
         <v>1882</v>
       </c>
-      <c r="K254" s="56"/>
-      <c r="L254" s="57"/>
+      <c r="K254" s="76"/>
+      <c r="L254" s="77"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -19701,11 +20610,11 @@
       <c r="I255" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="J255" s="55" t="s">
+      <c r="J255" s="75" t="s">
         <v>1886</v>
       </c>
-      <c r="K255" s="56"/>
-      <c r="L255" s="57"/>
+      <c r="K255" s="76"/>
+      <c r="L255" s="77"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -19747,9 +20656,9 @@
       <c r="I256" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="J256" s="55"/>
-      <c r="K256" s="56"/>
-      <c r="L256" s="57"/>
+      <c r="J256" s="75"/>
+      <c r="K256" s="76"/>
+      <c r="L256" s="77"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -19791,11 +20700,11 @@
       <c r="I257" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="J257" s="55" t="s">
+      <c r="J257" s="75" t="s">
         <v>1893</v>
       </c>
-      <c r="K257" s="56"/>
-      <c r="L257" s="57"/>
+      <c r="K257" s="76"/>
+      <c r="L257" s="77"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -19837,9 +20746,9 @@
       <c r="I258" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="J258" s="55"/>
-      <c r="K258" s="56"/>
-      <c r="L258" s="57"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="76"/>
+      <c r="L258" s="77"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -19881,11 +20790,11 @@
       <c r="I259" s="53" t="s">
         <v>1899</v>
       </c>
-      <c r="J259" s="55" t="s">
+      <c r="J259" s="75" t="s">
         <v>1900</v>
       </c>
-      <c r="K259" s="56"/>
-      <c r="L259" s="57"/>
+      <c r="K259" s="76"/>
+      <c r="L259" s="77"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -19927,11 +20836,11 @@
       <c r="I260" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="J260" s="55" t="s">
+      <c r="J260" s="75" t="s">
         <v>1904</v>
       </c>
-      <c r="K260" s="56"/>
-      <c r="L260" s="57"/>
+      <c r="K260" s="76"/>
+      <c r="L260" s="77"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -19973,11 +20882,11 @@
       <c r="I261" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="J261" s="55" t="s">
+      <c r="J261" s="75" t="s">
         <v>1908</v>
       </c>
-      <c r="K261" s="56"/>
-      <c r="L261" s="57"/>
+      <c r="K261" s="76"/>
+      <c r="L261" s="77"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -20017,9 +20926,9 @@
       <c r="I262" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="J262" s="55"/>
-      <c r="K262" s="56"/>
-      <c r="L262" s="57"/>
+      <c r="J262" s="75"/>
+      <c r="K262" s="76"/>
+      <c r="L262" s="77"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -20061,11 +20970,11 @@
       <c r="I263" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="J263" s="55" t="s">
+      <c r="J263" s="75" t="s">
         <v>1914</v>
       </c>
-      <c r="K263" s="56"/>
-      <c r="L263" s="57"/>
+      <c r="K263" s="76"/>
+      <c r="L263" s="77"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -20096,12 +21005,14 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="55"/>
-      <c r="K264" s="56"/>
-      <c r="L264" s="57"/>
+      <c r="G264" s="56">
+        <v>43019</v>
+      </c>
+      <c r="H264" s="57"/>
+      <c r="I264" s="57"/>
+      <c r="J264" s="57"/>
+      <c r="K264" s="57"/>
+      <c r="L264" s="58"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -20132,12 +21043,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
-      <c r="J265" s="55"/>
-      <c r="K265" s="56"/>
-      <c r="L265" s="57"/>
+      <c r="G265" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J265" s="75" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K265" s="76"/>
+      <c r="L265" s="77"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -20158,20 +21077,28 @@
       <c r="AD265" s="1"/>
     </row>
     <row r="266" spans="1:30">
-      <c r="A266" s="58">
+      <c r="A266" s="56">
         <v>43012</v>
       </c>
-      <c r="B266" s="59"/>
-      <c r="C266" s="59"/>
-      <c r="D266" s="59"/>
-      <c r="E266" s="59"/>
-      <c r="F266" s="60"/>
-      <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-      <c r="I266" s="1"/>
-      <c r="J266" s="55"/>
-      <c r="K266" s="56"/>
-      <c r="L266" s="57"/>
+      <c r="B266" s="57"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="58"/>
+      <c r="G266" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J266" s="75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K266" s="76"/>
+      <c r="L266" s="77"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -20204,12 +21131,20 @@
       <c r="D267" s="33"/>
       <c r="E267" s="33"/>
       <c r="F267" s="33"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="55"/>
-      <c r="K267" s="56"/>
-      <c r="L267" s="57"/>
+      <c r="G267" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J267" s="75" t="s">
+        <v>1926</v>
+      </c>
+      <c r="K267" s="76"/>
+      <c r="L267" s="77"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -20242,12 +21177,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="55"/>
-      <c r="K268" s="56"/>
-      <c r="L268" s="57"/>
+      <c r="G268" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J268" s="75" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K268" s="76"/>
+      <c r="L268" s="77"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -20280,12 +21223,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="55"/>
-      <c r="K269" s="56"/>
-      <c r="L269" s="57"/>
+      <c r="G269" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J269" s="75" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K269" s="76"/>
+      <c r="L269" s="77"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -20318,12 +21269,18 @@
       <c r="D270" s="49"/>
       <c r="E270" s="49"/>
       <c r="F270" s="49"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="55"/>
-      <c r="K270" s="56"/>
-      <c r="L270" s="57"/>
+      <c r="G270" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I270" s="33" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J270" s="75"/>
+      <c r="K270" s="76"/>
+      <c r="L270" s="77"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -20356,12 +21313,20 @@
       <c r="D271" s="50"/>
       <c r="E271" s="50"/>
       <c r="F271" s="50"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="55"/>
-      <c r="K271" s="56"/>
-      <c r="L271" s="57"/>
+      <c r="G271" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J271" s="75" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K271" s="76"/>
+      <c r="L271" s="77"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -20397,9 +21362,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="55"/>
-      <c r="K272" s="56"/>
-      <c r="L272" s="57"/>
+      <c r="J272" s="75"/>
+      <c r="K272" s="76"/>
+      <c r="L272" s="77"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -20435,9 +21400,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="55"/>
-      <c r="K273" s="56"/>
-      <c r="L273" s="57"/>
+      <c r="J273" s="75"/>
+      <c r="K273" s="76"/>
+      <c r="L273" s="77"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -20473,9 +21438,9 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="56"/>
-      <c r="L274" s="57"/>
+      <c r="J274" s="75"/>
+      <c r="K274" s="76"/>
+      <c r="L274" s="77"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -20511,9 +21476,9 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="55"/>
-      <c r="K275" s="56"/>
-      <c r="L275" s="57"/>
+      <c r="J275" s="75"/>
+      <c r="K275" s="76"/>
+      <c r="L275" s="77"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -20549,9 +21514,9 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="55"/>
-      <c r="K276" s="56"/>
-      <c r="L276" s="57"/>
+      <c r="J276" s="75"/>
+      <c r="K276" s="76"/>
+      <c r="L276" s="77"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -20587,9 +21552,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="55"/>
-      <c r="K277" s="56"/>
-      <c r="L277" s="57"/>
+      <c r="J277" s="75"/>
+      <c r="K277" s="76"/>
+      <c r="L277" s="77"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -20625,9 +21590,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="55"/>
-      <c r="K278" s="56"/>
-      <c r="L278" s="57"/>
+      <c r="J278" s="75"/>
+      <c r="K278" s="76"/>
+      <c r="L278" s="77"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -20663,9 +21628,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="55"/>
-      <c r="K279" s="56"/>
-      <c r="L279" s="57"/>
+      <c r="J279" s="75"/>
+      <c r="K279" s="76"/>
+      <c r="L279" s="77"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -20701,9 +21666,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="55"/>
-      <c r="K280" s="56"/>
-      <c r="L280" s="57"/>
+      <c r="J280" s="75"/>
+      <c r="K280" s="76"/>
+      <c r="L280" s="77"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -20739,9 +21704,9 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="55"/>
-      <c r="K281" s="56"/>
-      <c r="L281" s="57"/>
+      <c r="J281" s="75"/>
+      <c r="K281" s="76"/>
+      <c r="L281" s="77"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -20775,9 +21740,9 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="55"/>
-      <c r="K282" s="56"/>
-      <c r="L282" s="57"/>
+      <c r="J282" s="75"/>
+      <c r="K282" s="76"/>
+      <c r="L282" s="77"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -20811,9 +21776,9 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="55"/>
-      <c r="K283" s="56"/>
-      <c r="L283" s="57"/>
+      <c r="J283" s="75"/>
+      <c r="K283" s="76"/>
+      <c r="L283" s="77"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -20849,9 +21814,9 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="55"/>
-      <c r="K284" s="56"/>
-      <c r="L284" s="57"/>
+      <c r="J284" s="75"/>
+      <c r="K284" s="76"/>
+      <c r="L284" s="77"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -20887,9 +21852,9 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="55"/>
-      <c r="K285" s="56"/>
-      <c r="L285" s="57"/>
+      <c r="J285" s="75"/>
+      <c r="K285" s="76"/>
+      <c r="L285" s="77"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -20925,9 +21890,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="55"/>
-      <c r="K286" s="56"/>
-      <c r="L286" s="57"/>
+      <c r="J286" s="75"/>
+      <c r="K286" s="76"/>
+      <c r="L286" s="77"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -20963,9 +21928,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="55"/>
-      <c r="K287" s="56"/>
-      <c r="L287" s="57"/>
+      <c r="J287" s="75"/>
+      <c r="K287" s="76"/>
+      <c r="L287" s="77"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -21001,9 +21966,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="55"/>
-      <c r="K288" s="56"/>
-      <c r="L288" s="57"/>
+      <c r="J288" s="75"/>
+      <c r="K288" s="76"/>
+      <c r="L288" s="77"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -21039,9 +22004,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="55"/>
-      <c r="K289" s="56"/>
-      <c r="L289" s="57"/>
+      <c r="J289" s="75"/>
+      <c r="K289" s="76"/>
+      <c r="L289" s="77"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -21077,9 +22042,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="55"/>
-      <c r="K290" s="56"/>
-      <c r="L290" s="57"/>
+      <c r="J290" s="75"/>
+      <c r="K290" s="76"/>
+      <c r="L290" s="77"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -21115,9 +22080,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="55"/>
-      <c r="K291" s="56"/>
-      <c r="L291" s="57"/>
+      <c r="J291" s="75"/>
+      <c r="K291" s="76"/>
+      <c r="L291" s="77"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -21153,9 +22118,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="55"/>
-      <c r="K292" s="56"/>
-      <c r="L292" s="57"/>
+      <c r="J292" s="75"/>
+      <c r="K292" s="76"/>
+      <c r="L292" s="77"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -21191,9 +22156,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="55"/>
-      <c r="K293" s="56"/>
-      <c r="L293" s="57"/>
+      <c r="J293" s="75"/>
+      <c r="K293" s="76"/>
+      <c r="L293" s="77"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -21227,9 +22192,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="55"/>
-      <c r="K294" s="56"/>
-      <c r="L294" s="57"/>
+      <c r="J294" s="75"/>
+      <c r="K294" s="76"/>
+      <c r="L294" s="77"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -21263,9 +22228,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="55"/>
-      <c r="K295" s="56"/>
-      <c r="L295" s="57"/>
+      <c r="J295" s="75"/>
+      <c r="K295" s="76"/>
+      <c r="L295" s="77"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -21301,9 +22266,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="55"/>
-      <c r="K296" s="56"/>
-      <c r="L296" s="57"/>
+      <c r="J296" s="75"/>
+      <c r="K296" s="76"/>
+      <c r="L296" s="77"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -21339,9 +22304,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="55"/>
-      <c r="K297" s="56"/>
-      <c r="L297" s="57"/>
+      <c r="J297" s="75"/>
+      <c r="K297" s="76"/>
+      <c r="L297" s="77"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -21377,9 +22342,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="55"/>
-      <c r="K298" s="56"/>
-      <c r="L298" s="57"/>
+      <c r="J298" s="75"/>
+      <c r="K298" s="76"/>
+      <c r="L298" s="77"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -21413,9 +22378,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="55"/>
-      <c r="K299" s="56"/>
-      <c r="L299" s="57"/>
+      <c r="J299" s="75"/>
+      <c r="K299" s="76"/>
+      <c r="L299" s="77"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -21436,20 +22401,20 @@
       <c r="AD299" s="1"/>
     </row>
     <row r="300" spans="1:30">
-      <c r="A300" s="58">
+      <c r="A300" s="56">
         <v>43013</v>
       </c>
-      <c r="B300" s="59"/>
-      <c r="C300" s="59"/>
-      <c r="D300" s="59"/>
-      <c r="E300" s="59"/>
-      <c r="F300" s="60"/>
+      <c r="B300" s="57"/>
+      <c r="C300" s="57"/>
+      <c r="D300" s="57"/>
+      <c r="E300" s="57"/>
+      <c r="F300" s="58"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="55"/>
-      <c r="K300" s="56"/>
-      <c r="L300" s="57"/>
+      <c r="J300" s="75"/>
+      <c r="K300" s="76"/>
+      <c r="L300" s="77"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -21479,17 +22444,17 @@
       <c r="C301" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D301" s="62" t="s">
+      <c r="D301" s="60" t="s">
         <v>1447</v>
       </c>
-      <c r="E301" s="63"/>
-      <c r="F301" s="64"/>
+      <c r="E301" s="61"/>
+      <c r="F301" s="62"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="55"/>
-      <c r="K301" s="56"/>
-      <c r="L301" s="57"/>
+      <c r="J301" s="75"/>
+      <c r="K301" s="76"/>
+      <c r="L301" s="77"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -21519,17 +22484,17 @@
       <c r="C302" s="50" t="s">
         <v>1449</v>
       </c>
-      <c r="D302" s="62" t="s">
+      <c r="D302" s="60" t="s">
         <v>1450</v>
       </c>
-      <c r="E302" s="63"/>
-      <c r="F302" s="64"/>
+      <c r="E302" s="61"/>
+      <c r="F302" s="62"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="55"/>
-      <c r="K302" s="56"/>
-      <c r="L302" s="57"/>
+      <c r="J302" s="75"/>
+      <c r="K302" s="76"/>
+      <c r="L302" s="77"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -21559,17 +22524,17 @@
       <c r="C303" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D303" s="62" t="s">
+      <c r="D303" s="60" t="s">
         <v>1452</v>
       </c>
-      <c r="E303" s="63"/>
-      <c r="F303" s="64"/>
+      <c r="E303" s="61"/>
+      <c r="F303" s="62"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="55"/>
-      <c r="K303" s="56"/>
-      <c r="L303" s="57"/>
+      <c r="J303" s="75"/>
+      <c r="K303" s="76"/>
+      <c r="L303" s="77"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -21599,17 +22564,17 @@
       <c r="C304" s="33" t="s">
         <v>1453</v>
       </c>
-      <c r="D304" s="62" t="s">
+      <c r="D304" s="60" t="s">
         <v>1454</v>
       </c>
-      <c r="E304" s="63"/>
-      <c r="F304" s="64"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="62"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="55"/>
-      <c r="K304" s="56"/>
-      <c r="L304" s="57"/>
+      <c r="J304" s="75"/>
+      <c r="K304" s="76"/>
+      <c r="L304" s="77"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -21639,17 +22604,17 @@
       <c r="C305" s="49" t="s">
         <v>1455</v>
       </c>
-      <c r="D305" s="62" t="s">
+      <c r="D305" s="60" t="s">
         <v>1456</v>
       </c>
-      <c r="E305" s="63"/>
-      <c r="F305" s="64"/>
+      <c r="E305" s="61"/>
+      <c r="F305" s="62"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="55"/>
-      <c r="K305" s="56"/>
-      <c r="L305" s="57"/>
+      <c r="J305" s="75"/>
+      <c r="K305" s="76"/>
+      <c r="L305" s="77"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -21679,17 +22644,17 @@
       <c r="C306" s="49" t="s">
         <v>1457</v>
       </c>
-      <c r="D306" s="62" t="s">
+      <c r="D306" s="60" t="s">
         <v>1458</v>
       </c>
-      <c r="E306" s="63"/>
-      <c r="F306" s="64"/>
+      <c r="E306" s="61"/>
+      <c r="F306" s="62"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="55"/>
-      <c r="K306" s="56"/>
-      <c r="L306" s="57"/>
+      <c r="J306" s="75"/>
+      <c r="K306" s="76"/>
+      <c r="L306" s="77"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -21719,17 +22684,17 @@
       <c r="C307" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D307" s="61" t="s">
+      <c r="D307" s="59" t="s">
         <v>1337</v>
       </c>
-      <c r="E307" s="61"/>
-      <c r="F307" s="61"/>
+      <c r="E307" s="59"/>
+      <c r="F307" s="59"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="55"/>
-      <c r="K307" s="56"/>
-      <c r="L307" s="57"/>
+      <c r="J307" s="75"/>
+      <c r="K307" s="76"/>
+      <c r="L307" s="77"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -21759,17 +22724,17 @@
       <c r="C308" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D308" s="55" t="s">
+      <c r="D308" s="75" t="s">
         <v>1342</v>
       </c>
-      <c r="E308" s="56"/>
-      <c r="F308" s="57"/>
+      <c r="E308" s="76"/>
+      <c r="F308" s="77"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="55"/>
-      <c r="K308" s="56"/>
-      <c r="L308" s="57"/>
+      <c r="J308" s="75"/>
+      <c r="K308" s="76"/>
+      <c r="L308" s="77"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -21799,17 +22764,17 @@
       <c r="C309" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D309" s="55" t="s">
+      <c r="D309" s="75" t="s">
         <v>1346</v>
       </c>
-      <c r="E309" s="56"/>
-      <c r="F309" s="57"/>
+      <c r="E309" s="76"/>
+      <c r="F309" s="77"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="55"/>
-      <c r="K309" s="56"/>
-      <c r="L309" s="57"/>
+      <c r="J309" s="75"/>
+      <c r="K309" s="76"/>
+      <c r="L309" s="77"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -21839,17 +22804,17 @@
       <c r="C310" s="51" t="s">
         <v>1349</v>
       </c>
-      <c r="D310" s="55" t="s">
+      <c r="D310" s="75" t="s">
         <v>1350</v>
       </c>
-      <c r="E310" s="56"/>
-      <c r="F310" s="57"/>
+      <c r="E310" s="76"/>
+      <c r="F310" s="77"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="55"/>
-      <c r="K310" s="56"/>
-      <c r="L310" s="57"/>
+      <c r="J310" s="75"/>
+      <c r="K310" s="76"/>
+      <c r="L310" s="77"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -21879,17 +22844,17 @@
       <c r="C311" s="51" t="s">
         <v>1353</v>
       </c>
-      <c r="D311" s="55" t="s">
+      <c r="D311" s="75" t="s">
         <v>1354</v>
       </c>
-      <c r="E311" s="56"/>
-      <c r="F311" s="57"/>
+      <c r="E311" s="76"/>
+      <c r="F311" s="77"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="55"/>
-      <c r="K311" s="56"/>
-      <c r="L311" s="57"/>
+      <c r="J311" s="75"/>
+      <c r="K311" s="76"/>
+      <c r="L311" s="77"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -21919,17 +22884,17 @@
       <c r="C312" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D312" s="55" t="s">
+      <c r="D312" s="75" t="s">
         <v>1357</v>
       </c>
-      <c r="E312" s="56"/>
-      <c r="F312" s="57"/>
+      <c r="E312" s="76"/>
+      <c r="F312" s="77"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="55"/>
-      <c r="K312" s="56"/>
-      <c r="L312" s="57"/>
+      <c r="J312" s="75"/>
+      <c r="K312" s="76"/>
+      <c r="L312" s="77"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -21959,17 +22924,17 @@
       <c r="C313" s="51" t="s">
         <v>1361</v>
       </c>
-      <c r="D313" s="55" t="s">
+      <c r="D313" s="75" t="s">
         <v>1360</v>
       </c>
-      <c r="E313" s="56"/>
-      <c r="F313" s="57"/>
+      <c r="E313" s="76"/>
+      <c r="F313" s="77"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="55"/>
-      <c r="K313" s="56"/>
-      <c r="L313" s="57"/>
+      <c r="J313" s="75"/>
+      <c r="K313" s="76"/>
+      <c r="L313" s="77"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -21999,17 +22964,17 @@
       <c r="C314" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D314" s="55" t="s">
+      <c r="D314" s="75" t="s">
         <v>1364</v>
       </c>
-      <c r="E314" s="56"/>
-      <c r="F314" s="57"/>
+      <c r="E314" s="76"/>
+      <c r="F314" s="77"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="55"/>
-      <c r="K314" s="56"/>
-      <c r="L314" s="57"/>
+      <c r="J314" s="75"/>
+      <c r="K314" s="76"/>
+      <c r="L314" s="77"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -22039,17 +23004,17 @@
       <c r="C315" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D315" s="55" t="s">
+      <c r="D315" s="75" t="s">
         <v>1368</v>
       </c>
-      <c r="E315" s="56"/>
-      <c r="F315" s="57"/>
+      <c r="E315" s="76"/>
+      <c r="F315" s="77"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="55"/>
-      <c r="K315" s="56"/>
-      <c r="L315" s="57"/>
+      <c r="J315" s="75"/>
+      <c r="K315" s="76"/>
+      <c r="L315" s="77"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -22077,17 +23042,17 @@
       <c r="C316" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D316" s="55" t="s">
+      <c r="D316" s="75" t="s">
         <v>1371</v>
       </c>
-      <c r="E316" s="56"/>
-      <c r="F316" s="57"/>
+      <c r="E316" s="76"/>
+      <c r="F316" s="77"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="55"/>
-      <c r="K316" s="56"/>
-      <c r="L316" s="57"/>
+      <c r="J316" s="75"/>
+      <c r="K316" s="76"/>
+      <c r="L316" s="77"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -22115,17 +23080,17 @@
       <c r="C317" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D317" s="55" t="s">
+      <c r="D317" s="75" t="s">
         <v>1374</v>
       </c>
-      <c r="E317" s="56"/>
-      <c r="F317" s="57"/>
+      <c r="E317" s="76"/>
+      <c r="F317" s="77"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="55"/>
-      <c r="K317" s="56"/>
-      <c r="L317" s="57"/>
+      <c r="J317" s="75"/>
+      <c r="K317" s="76"/>
+      <c r="L317" s="77"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -22155,17 +23120,17 @@
       <c r="C318" s="51" t="s">
         <v>1376</v>
       </c>
-      <c r="D318" s="55" t="s">
+      <c r="D318" s="75" t="s">
         <v>1377</v>
       </c>
-      <c r="E318" s="56"/>
-      <c r="F318" s="57"/>
+      <c r="E318" s="76"/>
+      <c r="F318" s="77"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="55"/>
-      <c r="K318" s="56"/>
-      <c r="L318" s="57"/>
+      <c r="J318" s="75"/>
+      <c r="K318" s="76"/>
+      <c r="L318" s="77"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -22195,17 +23160,17 @@
       <c r="C319" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D319" s="55" t="s">
+      <c r="D319" s="75" t="s">
         <v>1381</v>
       </c>
-      <c r="E319" s="56"/>
-      <c r="F319" s="57"/>
+      <c r="E319" s="76"/>
+      <c r="F319" s="77"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="55"/>
-      <c r="K319" s="56"/>
-      <c r="L319" s="57"/>
+      <c r="J319" s="75"/>
+      <c r="K319" s="76"/>
+      <c r="L319" s="77"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -22235,17 +23200,17 @@
       <c r="C320" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D320" s="55" t="s">
+      <c r="D320" s="75" t="s">
         <v>1385</v>
       </c>
-      <c r="E320" s="56"/>
-      <c r="F320" s="57"/>
+      <c r="E320" s="76"/>
+      <c r="F320" s="77"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="55"/>
-      <c r="K320" s="56"/>
-      <c r="L320" s="57"/>
+      <c r="J320" s="75"/>
+      <c r="K320" s="76"/>
+      <c r="L320" s="77"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -22275,17 +23240,17 @@
       <c r="C321" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D321" s="55" t="s">
+      <c r="D321" s="75" t="s">
         <v>1389</v>
       </c>
-      <c r="E321" s="56"/>
-      <c r="F321" s="57"/>
+      <c r="E321" s="76"/>
+      <c r="F321" s="77"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="55"/>
-      <c r="K321" s="56"/>
-      <c r="L321" s="57"/>
+      <c r="J321" s="75"/>
+      <c r="K321" s="76"/>
+      <c r="L321" s="77"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -22315,17 +23280,17 @@
       <c r="C322" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="D322" s="55" t="s">
+      <c r="D322" s="75" t="s">
         <v>1393</v>
       </c>
-      <c r="E322" s="56"/>
-      <c r="F322" s="57"/>
+      <c r="E322" s="76"/>
+      <c r="F322" s="77"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="55"/>
-      <c r="K322" s="56"/>
-      <c r="L322" s="57"/>
+      <c r="J322" s="75"/>
+      <c r="K322" s="76"/>
+      <c r="L322" s="77"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -22355,17 +23320,17 @@
       <c r="C323" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D323" s="55" t="s">
+      <c r="D323" s="75" t="s">
         <v>1397</v>
       </c>
-      <c r="E323" s="56"/>
-      <c r="F323" s="57"/>
+      <c r="E323" s="76"/>
+      <c r="F323" s="77"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="55"/>
-      <c r="K323" s="56"/>
-      <c r="L323" s="57"/>
+      <c r="J323" s="75"/>
+      <c r="K323" s="76"/>
+      <c r="L323" s="77"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -22393,17 +23358,17 @@
       <c r="C324" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="D324" s="55" t="s">
+      <c r="D324" s="75" t="s">
         <v>1399</v>
       </c>
-      <c r="E324" s="56"/>
-      <c r="F324" s="57"/>
+      <c r="E324" s="76"/>
+      <c r="F324" s="77"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="55"/>
-      <c r="K324" s="56"/>
-      <c r="L324" s="57"/>
+      <c r="J324" s="75"/>
+      <c r="K324" s="76"/>
+      <c r="L324" s="77"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -22431,17 +23396,17 @@
       <c r="C325" s="51" t="s">
         <v>1402</v>
       </c>
-      <c r="D325" s="55" t="s">
+      <c r="D325" s="75" t="s">
         <v>1403</v>
       </c>
-      <c r="E325" s="56"/>
-      <c r="F325" s="57"/>
+      <c r="E325" s="76"/>
+      <c r="F325" s="77"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="55"/>
-      <c r="K325" s="56"/>
-      <c r="L325" s="57"/>
+      <c r="J325" s="75"/>
+      <c r="K325" s="76"/>
+      <c r="L325" s="77"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -22469,17 +23434,17 @@
       <c r="C326" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D326" s="55" t="s">
+      <c r="D326" s="75" t="s">
         <v>1406</v>
       </c>
-      <c r="E326" s="56"/>
-      <c r="F326" s="57"/>
+      <c r="E326" s="76"/>
+      <c r="F326" s="77"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="55"/>
-      <c r="K326" s="56"/>
-      <c r="L326" s="57"/>
+      <c r="J326" s="75"/>
+      <c r="K326" s="76"/>
+      <c r="L326" s="77"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -22500,20 +23465,20 @@
       <c r="AD326" s="1"/>
     </row>
     <row r="327" spans="1:30">
-      <c r="A327" s="58">
+      <c r="A327" s="56">
         <v>43014</v>
       </c>
-      <c r="B327" s="59"/>
-      <c r="C327" s="59"/>
-      <c r="D327" s="59"/>
-      <c r="E327" s="59"/>
-      <c r="F327" s="60"/>
+      <c r="B327" s="57"/>
+      <c r="C327" s="57"/>
+      <c r="D327" s="57"/>
+      <c r="E327" s="57"/>
+      <c r="F327" s="58"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="55"/>
-      <c r="K327" s="56"/>
-      <c r="L327" s="57"/>
+      <c r="J327" s="75"/>
+      <c r="K327" s="76"/>
+      <c r="L327" s="77"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -22543,17 +23508,17 @@
       <c r="C328" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D328" s="55" t="s">
+      <c r="D328" s="75" t="s">
         <v>1410</v>
       </c>
-      <c r="E328" s="56"/>
-      <c r="F328" s="57"/>
+      <c r="E328" s="76"/>
+      <c r="F328" s="77"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="55"/>
-      <c r="K328" s="56"/>
-      <c r="L328" s="57"/>
+      <c r="J328" s="75"/>
+      <c r="K328" s="76"/>
+      <c r="L328" s="77"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -22583,17 +23548,17 @@
       <c r="C329" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="D329" s="55" t="s">
+      <c r="D329" s="75" t="s">
         <v>1414</v>
       </c>
-      <c r="E329" s="56"/>
-      <c r="F329" s="57"/>
+      <c r="E329" s="76"/>
+      <c r="F329" s="77"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="55"/>
-      <c r="K329" s="56"/>
-      <c r="L329" s="57"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="76"/>
+      <c r="L329" s="77"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -22623,17 +23588,17 @@
       <c r="C330" s="19" t="s">
         <v>1417</v>
       </c>
-      <c r="D330" s="55" t="s">
+      <c r="D330" s="75" t="s">
         <v>1418</v>
       </c>
-      <c r="E330" s="56"/>
-      <c r="F330" s="57"/>
+      <c r="E330" s="76"/>
+      <c r="F330" s="77"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="55"/>
-      <c r="K330" s="56"/>
-      <c r="L330" s="57"/>
+      <c r="J330" s="75"/>
+      <c r="K330" s="76"/>
+      <c r="L330" s="77"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -22663,17 +23628,17 @@
       <c r="C331" s="19" t="s">
         <v>1421</v>
       </c>
-      <c r="D331" s="55" t="s">
+      <c r="D331" s="75" t="s">
         <v>1422</v>
       </c>
-      <c r="E331" s="56"/>
-      <c r="F331" s="57"/>
+      <c r="E331" s="76"/>
+      <c r="F331" s="77"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="55"/>
-      <c r="K331" s="56"/>
-      <c r="L331" s="57"/>
+      <c r="J331" s="75"/>
+      <c r="K331" s="76"/>
+      <c r="L331" s="77"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -22703,17 +23668,17 @@
       <c r="C332" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="D332" s="55" t="s">
+      <c r="D332" s="75" t="s">
         <v>1426</v>
       </c>
-      <c r="E332" s="56"/>
-      <c r="F332" s="57"/>
+      <c r="E332" s="76"/>
+      <c r="F332" s="77"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="55"/>
-      <c r="K332" s="56"/>
-      <c r="L332" s="57"/>
+      <c r="J332" s="75"/>
+      <c r="K332" s="76"/>
+      <c r="L332" s="77"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -22743,17 +23708,17 @@
       <c r="C333" s="52" t="s">
         <v>1429</v>
       </c>
-      <c r="D333" s="55" t="s">
+      <c r="D333" s="75" t="s">
         <v>1430</v>
       </c>
-      <c r="E333" s="56"/>
-      <c r="F333" s="57"/>
+      <c r="E333" s="76"/>
+      <c r="F333" s="77"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="55"/>
-      <c r="K333" s="56"/>
-      <c r="L333" s="57"/>
+      <c r="J333" s="75"/>
+      <c r="K333" s="76"/>
+      <c r="L333" s="77"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -22783,17 +23748,17 @@
       <c r="C334" s="52" t="s">
         <v>1433</v>
       </c>
-      <c r="D334" s="55" t="s">
+      <c r="D334" s="75" t="s">
         <v>1434</v>
       </c>
-      <c r="E334" s="56"/>
-      <c r="F334" s="57"/>
+      <c r="E334" s="76"/>
+      <c r="F334" s="77"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="55"/>
-      <c r="K334" s="56"/>
-      <c r="L334" s="57"/>
+      <c r="J334" s="75"/>
+      <c r="K334" s="76"/>
+      <c r="L334" s="77"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -22823,17 +23788,17 @@
       <c r="C335" s="20" t="s">
         <v>1437</v>
       </c>
-      <c r="D335" s="55" t="s">
+      <c r="D335" s="75" t="s">
         <v>1438</v>
       </c>
-      <c r="E335" s="56"/>
-      <c r="F335" s="57"/>
+      <c r="E335" s="76"/>
+      <c r="F335" s="77"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="55"/>
-      <c r="K335" s="56"/>
-      <c r="L335" s="57"/>
+      <c r="J335" s="75"/>
+      <c r="K335" s="76"/>
+      <c r="L335" s="77"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -22863,17 +23828,17 @@
       <c r="C336" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D336" s="55" t="s">
+      <c r="D336" s="75" t="s">
         <v>1442</v>
       </c>
-      <c r="E336" s="56"/>
-      <c r="F336" s="57"/>
+      <c r="E336" s="76"/>
+      <c r="F336" s="77"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="55"/>
-      <c r="K336" s="56"/>
-      <c r="L336" s="57"/>
+      <c r="J336" s="75"/>
+      <c r="K336" s="76"/>
+      <c r="L336" s="77"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -22903,17 +23868,17 @@
       <c r="C337" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D337" s="55" t="s">
+      <c r="D337" s="75" t="s">
         <v>1446</v>
       </c>
-      <c r="E337" s="56"/>
-      <c r="F337" s="57"/>
+      <c r="E337" s="76"/>
+      <c r="F337" s="77"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="55"/>
-      <c r="K337" s="56"/>
-      <c r="L337" s="57"/>
+      <c r="J337" s="75"/>
+      <c r="K337" s="76"/>
+      <c r="L337" s="77"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -22943,17 +23908,17 @@
       <c r="C338" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="D338" s="55" t="s">
+      <c r="D338" s="75" t="s">
         <v>1462</v>
       </c>
-      <c r="E338" s="56"/>
-      <c r="F338" s="57"/>
+      <c r="E338" s="76"/>
+      <c r="F338" s="77"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="55"/>
-      <c r="K338" s="56"/>
-      <c r="L338" s="57"/>
+      <c r="J338" s="75"/>
+      <c r="K338" s="76"/>
+      <c r="L338" s="77"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -22983,15 +23948,15 @@
       <c r="C339" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D339" s="55"/>
-      <c r="E339" s="56"/>
-      <c r="F339" s="57"/>
+      <c r="D339" s="75"/>
+      <c r="E339" s="76"/>
+      <c r="F339" s="77"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="55"/>
-      <c r="K339" s="56"/>
-      <c r="L339" s="57"/>
+      <c r="J339" s="75"/>
+      <c r="K339" s="76"/>
+      <c r="L339" s="77"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -23021,17 +23986,17 @@
       <c r="C340" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D340" s="55" t="s">
+      <c r="D340" s="75" t="s">
         <v>1469</v>
       </c>
-      <c r="E340" s="56"/>
-      <c r="F340" s="57"/>
+      <c r="E340" s="76"/>
+      <c r="F340" s="77"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="55"/>
-      <c r="K340" s="56"/>
-      <c r="L340" s="57"/>
+      <c r="J340" s="75"/>
+      <c r="K340" s="76"/>
+      <c r="L340" s="77"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -23061,17 +24026,17 @@
       <c r="C341" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="D341" s="55" t="s">
+      <c r="D341" s="75" t="s">
         <v>1473</v>
       </c>
-      <c r="E341" s="56"/>
-      <c r="F341" s="57"/>
+      <c r="E341" s="76"/>
+      <c r="F341" s="77"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="55"/>
-      <c r="K341" s="56"/>
-      <c r="L341" s="57"/>
+      <c r="J341" s="75"/>
+      <c r="K341" s="76"/>
+      <c r="L341" s="77"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -23101,17 +24066,17 @@
       <c r="C342" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="D342" s="55" t="s">
+      <c r="D342" s="75" t="s">
         <v>1477</v>
       </c>
-      <c r="E342" s="56"/>
-      <c r="F342" s="57"/>
+      <c r="E342" s="76"/>
+      <c r="F342" s="77"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="55"/>
-      <c r="K342" s="56"/>
-      <c r="L342" s="57"/>
+      <c r="J342" s="75"/>
+      <c r="K342" s="76"/>
+      <c r="L342" s="77"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -23141,17 +24106,17 @@
       <c r="C343" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D343" s="55" t="s">
+      <c r="D343" s="75" t="s">
         <v>1481</v>
       </c>
-      <c r="E343" s="56"/>
-      <c r="F343" s="57"/>
+      <c r="E343" s="76"/>
+      <c r="F343" s="77"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="55"/>
-      <c r="K343" s="56"/>
-      <c r="L343" s="57"/>
+      <c r="J343" s="75"/>
+      <c r="K343" s="76"/>
+      <c r="L343" s="77"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -23181,17 +24146,17 @@
       <c r="C344" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D344" s="55" t="s">
+      <c r="D344" s="75" t="s">
         <v>1485</v>
       </c>
-      <c r="E344" s="56"/>
-      <c r="F344" s="57"/>
+      <c r="E344" s="76"/>
+      <c r="F344" s="77"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="55"/>
-      <c r="K344" s="56"/>
-      <c r="L344" s="57"/>
+      <c r="J344" s="75"/>
+      <c r="K344" s="76"/>
+      <c r="L344" s="77"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -23221,17 +24186,17 @@
       <c r="C345" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="D345" s="55" t="s">
+      <c r="D345" s="75" t="s">
         <v>1489</v>
       </c>
-      <c r="E345" s="56"/>
-      <c r="F345" s="57"/>
+      <c r="E345" s="76"/>
+      <c r="F345" s="77"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="55"/>
-      <c r="K345" s="56"/>
-      <c r="L345" s="57"/>
+      <c r="J345" s="75"/>
+      <c r="K345" s="76"/>
+      <c r="L345" s="77"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -23259,17 +24224,17 @@
       <c r="C346" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="D346" s="55" t="s">
+      <c r="D346" s="75" t="s">
         <v>1492</v>
       </c>
-      <c r="E346" s="56"/>
-      <c r="F346" s="57"/>
+      <c r="E346" s="76"/>
+      <c r="F346" s="77"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="55"/>
-      <c r="K346" s="56"/>
-      <c r="L346" s="57"/>
+      <c r="J346" s="75"/>
+      <c r="K346" s="76"/>
+      <c r="L346" s="77"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -23297,17 +24262,17 @@
       <c r="C347" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D347" s="55" t="s">
+      <c r="D347" s="75" t="s">
         <v>1495</v>
       </c>
-      <c r="E347" s="56"/>
-      <c r="F347" s="57"/>
+      <c r="E347" s="76"/>
+      <c r="F347" s="77"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="55"/>
-      <c r="K347" s="56"/>
-      <c r="L347" s="57"/>
+      <c r="J347" s="75"/>
+      <c r="K347" s="76"/>
+      <c r="L347" s="77"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -23335,17 +24300,17 @@
       <c r="C348" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="D348" s="55" t="s">
+      <c r="D348" s="75" t="s">
         <v>1498</v>
       </c>
-      <c r="E348" s="56"/>
-      <c r="F348" s="57"/>
+      <c r="E348" s="76"/>
+      <c r="F348" s="77"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="55"/>
-      <c r="K348" s="56"/>
-      <c r="L348" s="57"/>
+      <c r="J348" s="75"/>
+      <c r="K348" s="76"/>
+      <c r="L348" s="77"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -23366,20 +24331,20 @@
       <c r="AD348" s="1"/>
     </row>
     <row r="349" spans="1:30">
-      <c r="A349" s="58">
+      <c r="A349" s="56">
         <v>43015</v>
       </c>
-      <c r="B349" s="59"/>
-      <c r="C349" s="59"/>
-      <c r="D349" s="59"/>
-      <c r="E349" s="59"/>
-      <c r="F349" s="60"/>
+      <c r="B349" s="57"/>
+      <c r="C349" s="57"/>
+      <c r="D349" s="57"/>
+      <c r="E349" s="57"/>
+      <c r="F349" s="58"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="55"/>
-      <c r="K349" s="56"/>
-      <c r="L349" s="57"/>
+      <c r="J349" s="75"/>
+      <c r="K349" s="76"/>
+      <c r="L349" s="77"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -23407,17 +24372,17 @@
       <c r="C350" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D350" s="55" t="s">
+      <c r="D350" s="75" t="s">
         <v>1501</v>
       </c>
-      <c r="E350" s="56"/>
-      <c r="F350" s="57"/>
+      <c r="E350" s="76"/>
+      <c r="F350" s="77"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="55"/>
-      <c r="K350" s="56"/>
-      <c r="L350" s="57"/>
+      <c r="J350" s="75"/>
+      <c r="K350" s="76"/>
+      <c r="L350" s="77"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -23447,17 +24412,17 @@
       <c r="C351" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="D351" s="55" t="s">
+      <c r="D351" s="75" t="s">
         <v>1505</v>
       </c>
-      <c r="E351" s="56"/>
-      <c r="F351" s="57"/>
+      <c r="E351" s="76"/>
+      <c r="F351" s="77"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="55"/>
-      <c r="K351" s="56"/>
-      <c r="L351" s="57"/>
+      <c r="J351" s="75"/>
+      <c r="K351" s="76"/>
+      <c r="L351" s="77"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -23487,17 +24452,17 @@
       <c r="C352" s="53" t="s">
         <v>1508</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="75" t="s">
         <v>1509</v>
       </c>
-      <c r="E352" s="56"/>
-      <c r="F352" s="57"/>
+      <c r="E352" s="76"/>
+      <c r="F352" s="77"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="55"/>
-      <c r="K352" s="56"/>
-      <c r="L352" s="57"/>
+      <c r="J352" s="75"/>
+      <c r="K352" s="76"/>
+      <c r="L352" s="77"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -23527,17 +24492,17 @@
       <c r="C353" s="53" t="s">
         <v>1512</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="75" t="s">
         <v>1513</v>
       </c>
-      <c r="E353" s="56"/>
-      <c r="F353" s="57"/>
+      <c r="E353" s="76"/>
+      <c r="F353" s="77"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="55"/>
-      <c r="K353" s="56"/>
-      <c r="L353" s="57"/>
+      <c r="J353" s="75"/>
+      <c r="K353" s="76"/>
+      <c r="L353" s="77"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -23567,17 +24532,17 @@
       <c r="C354" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D354" s="55" t="s">
+      <c r="D354" s="75" t="s">
         <v>1517</v>
       </c>
-      <c r="E354" s="56"/>
-      <c r="F354" s="57"/>
+      <c r="E354" s="76"/>
+      <c r="F354" s="77"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="55"/>
-      <c r="K354" s="56"/>
-      <c r="L354" s="57"/>
+      <c r="J354" s="75"/>
+      <c r="K354" s="76"/>
+      <c r="L354" s="77"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -23607,15 +24572,15 @@
       <c r="C355" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D355" s="55"/>
-      <c r="E355" s="56"/>
-      <c r="F355" s="57"/>
+      <c r="D355" s="75"/>
+      <c r="E355" s="76"/>
+      <c r="F355" s="77"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="55"/>
-      <c r="K355" s="56"/>
-      <c r="L355" s="57"/>
+      <c r="J355" s="75"/>
+      <c r="K355" s="76"/>
+      <c r="L355" s="77"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -23645,17 +24610,17 @@
       <c r="C356" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D356" s="55" t="s">
+      <c r="D356" s="75" t="s">
         <v>1524</v>
       </c>
-      <c r="E356" s="56"/>
-      <c r="F356" s="57"/>
+      <c r="E356" s="76"/>
+      <c r="F356" s="77"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="55"/>
-      <c r="K356" s="56"/>
-      <c r="L356" s="57"/>
+      <c r="J356" s="75"/>
+      <c r="K356" s="76"/>
+      <c r="L356" s="77"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -23685,17 +24650,17 @@
       <c r="C357" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D357" s="55" t="s">
+      <c r="D357" s="75" t="s">
         <v>1528</v>
       </c>
-      <c r="E357" s="56"/>
-      <c r="F357" s="57"/>
+      <c r="E357" s="76"/>
+      <c r="F357" s="77"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="55"/>
-      <c r="K357" s="56"/>
-      <c r="L357" s="57"/>
+      <c r="J357" s="75"/>
+      <c r="K357" s="76"/>
+      <c r="L357" s="77"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -23725,17 +24690,17 @@
       <c r="C358" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D358" s="55" t="s">
+      <c r="D358" s="75" t="s">
         <v>1532</v>
       </c>
-      <c r="E358" s="56"/>
-      <c r="F358" s="57"/>
+      <c r="E358" s="76"/>
+      <c r="F358" s="77"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="55"/>
-      <c r="K358" s="56"/>
-      <c r="L358" s="57"/>
+      <c r="J358" s="75"/>
+      <c r="K358" s="76"/>
+      <c r="L358" s="77"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -23765,17 +24730,17 @@
       <c r="C359" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D359" s="55" t="s">
+      <c r="D359" s="75" t="s">
         <v>1536</v>
       </c>
-      <c r="E359" s="56"/>
-      <c r="F359" s="57"/>
+      <c r="E359" s="76"/>
+      <c r="F359" s="77"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="55"/>
-      <c r="K359" s="56"/>
-      <c r="L359" s="57"/>
+      <c r="J359" s="75"/>
+      <c r="K359" s="76"/>
+      <c r="L359" s="77"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -23805,17 +24770,17 @@
       <c r="C360" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D360" s="55" t="s">
+      <c r="D360" s="75" t="s">
         <v>1540</v>
       </c>
-      <c r="E360" s="56"/>
-      <c r="F360" s="57"/>
+      <c r="E360" s="76"/>
+      <c r="F360" s="77"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="55"/>
-      <c r="K360" s="56"/>
-      <c r="L360" s="57"/>
+      <c r="J360" s="75"/>
+      <c r="K360" s="76"/>
+      <c r="L360" s="77"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -23845,17 +24810,17 @@
       <c r="C361" s="53" t="s">
         <v>1543</v>
       </c>
-      <c r="D361" s="55" t="s">
+      <c r="D361" s="75" t="s">
         <v>1544</v>
       </c>
-      <c r="E361" s="56"/>
-      <c r="F361" s="57"/>
+      <c r="E361" s="76"/>
+      <c r="F361" s="77"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="55"/>
-      <c r="K361" s="56"/>
-      <c r="L361" s="57"/>
+      <c r="J361" s="75"/>
+      <c r="K361" s="76"/>
+      <c r="L361" s="77"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -23885,17 +24850,17 @@
       <c r="C362" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D362" s="55" t="s">
+      <c r="D362" s="75" t="s">
         <v>1548</v>
       </c>
-      <c r="E362" s="56"/>
-      <c r="F362" s="57"/>
+      <c r="E362" s="76"/>
+      <c r="F362" s="77"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="55"/>
-      <c r="K362" s="56"/>
-      <c r="L362" s="57"/>
+      <c r="J362" s="75"/>
+      <c r="K362" s="76"/>
+      <c r="L362" s="77"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -23925,15 +24890,15 @@
       <c r="C363" s="51" t="s">
         <v>1551</v>
       </c>
-      <c r="D363" s="55"/>
-      <c r="E363" s="56"/>
-      <c r="F363" s="57"/>
+      <c r="D363" s="75"/>
+      <c r="E363" s="76"/>
+      <c r="F363" s="77"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="55"/>
-      <c r="K363" s="56"/>
-      <c r="L363" s="57"/>
+      <c r="J363" s="75"/>
+      <c r="K363" s="76"/>
+      <c r="L363" s="77"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -23963,17 +24928,17 @@
       <c r="C364" s="53" t="s">
         <v>1554</v>
       </c>
-      <c r="D364" s="55" t="s">
+      <c r="D364" s="75" t="s">
         <v>1555</v>
       </c>
-      <c r="E364" s="56"/>
-      <c r="F364" s="57"/>
+      <c r="E364" s="76"/>
+      <c r="F364" s="77"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="55"/>
-      <c r="K364" s="56"/>
-      <c r="L364" s="57"/>
+      <c r="J364" s="75"/>
+      <c r="K364" s="76"/>
+      <c r="L364" s="77"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -24003,17 +24968,17 @@
       <c r="C365" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D365" s="55" t="s">
+      <c r="D365" s="75" t="s">
         <v>1559</v>
       </c>
-      <c r="E365" s="56"/>
-      <c r="F365" s="57"/>
+      <c r="E365" s="76"/>
+      <c r="F365" s="77"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="55"/>
-      <c r="K365" s="56"/>
-      <c r="L365" s="57"/>
+      <c r="J365" s="75"/>
+      <c r="K365" s="76"/>
+      <c r="L365" s="77"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -24043,17 +25008,17 @@
       <c r="C366" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="75" t="s">
         <v>1563</v>
       </c>
-      <c r="E366" s="56"/>
-      <c r="F366" s="57"/>
+      <c r="E366" s="76"/>
+      <c r="F366" s="77"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="55"/>
-      <c r="K366" s="56"/>
-      <c r="L366" s="57"/>
+      <c r="J366" s="75"/>
+      <c r="K366" s="76"/>
+      <c r="L366" s="77"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -24083,17 +25048,17 @@
       <c r="C367" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D367" s="55" t="s">
+      <c r="D367" s="75" t="s">
         <v>1566</v>
       </c>
-      <c r="E367" s="56"/>
-      <c r="F367" s="57"/>
+      <c r="E367" s="76"/>
+      <c r="F367" s="77"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="55"/>
-      <c r="K367" s="56"/>
-      <c r="L367" s="57"/>
+      <c r="J367" s="75"/>
+      <c r="K367" s="76"/>
+      <c r="L367" s="77"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -24123,17 +25088,17 @@
       <c r="C368" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D368" s="55" t="s">
+      <c r="D368" s="75" t="s">
         <v>1570</v>
       </c>
-      <c r="E368" s="56"/>
-      <c r="F368" s="57"/>
+      <c r="E368" s="76"/>
+      <c r="F368" s="77"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="55"/>
-      <c r="K368" s="56"/>
-      <c r="L368" s="57"/>
+      <c r="J368" s="75"/>
+      <c r="K368" s="76"/>
+      <c r="L368" s="77"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -24163,17 +25128,17 @@
       <c r="C369" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D369" s="55" t="s">
+      <c r="D369" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="E369" s="56"/>
-      <c r="F369" s="57"/>
+      <c r="E369" s="76"/>
+      <c r="F369" s="77"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="55"/>
-      <c r="K369" s="56"/>
-      <c r="L369" s="57"/>
+      <c r="J369" s="75"/>
+      <c r="K369" s="76"/>
+      <c r="L369" s="77"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -24203,17 +25168,17 @@
       <c r="C370" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D370" s="55" t="s">
+      <c r="D370" s="75" t="s">
         <v>1578</v>
       </c>
-      <c r="E370" s="56"/>
-      <c r="F370" s="57"/>
+      <c r="E370" s="76"/>
+      <c r="F370" s="77"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="55"/>
-      <c r="K370" s="56"/>
-      <c r="L370" s="57"/>
+      <c r="J370" s="75"/>
+      <c r="K370" s="76"/>
+      <c r="L370" s="77"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -24243,17 +25208,17 @@
       <c r="C371" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D371" s="55" t="s">
+      <c r="D371" s="75" t="s">
         <v>1582</v>
       </c>
-      <c r="E371" s="56"/>
-      <c r="F371" s="57"/>
+      <c r="E371" s="76"/>
+      <c r="F371" s="77"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="55"/>
-      <c r="K371" s="56"/>
-      <c r="L371" s="57"/>
+      <c r="J371" s="75"/>
+      <c r="K371" s="76"/>
+      <c r="L371" s="77"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -24281,17 +25246,17 @@
       <c r="C372" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D372" s="55" t="s">
+      <c r="D372" s="75" t="s">
         <v>1585</v>
       </c>
-      <c r="E372" s="56"/>
-      <c r="F372" s="57"/>
+      <c r="E372" s="76"/>
+      <c r="F372" s="77"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="55"/>
-      <c r="K372" s="56"/>
-      <c r="L372" s="57"/>
+      <c r="J372" s="75"/>
+      <c r="K372" s="76"/>
+      <c r="L372" s="77"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -24321,17 +25286,17 @@
       <c r="C373" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="D373" s="55" t="s">
+      <c r="D373" s="75" t="s">
         <v>1589</v>
       </c>
-      <c r="E373" s="56"/>
-      <c r="F373" s="57"/>
+      <c r="E373" s="76"/>
+      <c r="F373" s="77"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="55"/>
-      <c r="K373" s="56"/>
-      <c r="L373" s="57"/>
+      <c r="J373" s="75"/>
+      <c r="K373" s="76"/>
+      <c r="L373" s="77"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -24361,17 +25326,17 @@
       <c r="C374" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D374" s="55" t="s">
+      <c r="D374" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="E374" s="56"/>
-      <c r="F374" s="57"/>
+      <c r="E374" s="76"/>
+      <c r="F374" s="77"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="55"/>
-      <c r="K374" s="56"/>
-      <c r="L374" s="57"/>
+      <c r="J374" s="75"/>
+      <c r="K374" s="76"/>
+      <c r="L374" s="77"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -24401,17 +25366,17 @@
       <c r="C375" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="D375" s="55" t="s">
+      <c r="D375" s="75" t="s">
         <v>1597</v>
       </c>
-      <c r="E375" s="56"/>
-      <c r="F375" s="57"/>
+      <c r="E375" s="76"/>
+      <c r="F375" s="77"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="55"/>
-      <c r="K375" s="56"/>
-      <c r="L375" s="57"/>
+      <c r="J375" s="75"/>
+      <c r="K375" s="76"/>
+      <c r="L375" s="77"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -24441,17 +25406,17 @@
       <c r="C376" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D376" s="55" t="s">
+      <c r="D376" s="75" t="s">
         <v>1601</v>
       </c>
-      <c r="E376" s="56"/>
-      <c r="F376" s="57"/>
+      <c r="E376" s="76"/>
+      <c r="F376" s="77"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="55"/>
-      <c r="K376" s="56"/>
-      <c r="L376" s="57"/>
+      <c r="J376" s="75"/>
+      <c r="K376" s="76"/>
+      <c r="L376" s="77"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -24481,17 +25446,17 @@
       <c r="C377" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="D377" s="55" t="s">
+      <c r="D377" s="75" t="s">
         <v>1605</v>
       </c>
-      <c r="E377" s="56"/>
-      <c r="F377" s="57"/>
+      <c r="E377" s="76"/>
+      <c r="F377" s="77"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="55"/>
-      <c r="K377" s="56"/>
-      <c r="L377" s="57"/>
+      <c r="J377" s="75"/>
+      <c r="K377" s="76"/>
+      <c r="L377" s="77"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -24521,17 +25486,17 @@
       <c r="C378" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D378" s="55" t="s">
+      <c r="D378" s="75" t="s">
         <v>1609</v>
       </c>
-      <c r="E378" s="56"/>
-      <c r="F378" s="57"/>
+      <c r="E378" s="76"/>
+      <c r="F378" s="77"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="55"/>
-      <c r="K378" s="56"/>
-      <c r="L378" s="57"/>
+      <c r="J378" s="75"/>
+      <c r="K378" s="76"/>
+      <c r="L378" s="77"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -24561,17 +25526,17 @@
       <c r="C379" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D379" s="55" t="s">
+      <c r="D379" s="75" t="s">
         <v>1613</v>
       </c>
-      <c r="E379" s="56"/>
-      <c r="F379" s="57"/>
+      <c r="E379" s="76"/>
+      <c r="F379" s="77"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="55"/>
-      <c r="K379" s="56"/>
-      <c r="L379" s="57"/>
+      <c r="J379" s="75"/>
+      <c r="K379" s="76"/>
+      <c r="L379" s="77"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -24599,17 +25564,17 @@
       <c r="C380" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D380" s="55" t="s">
+      <c r="D380" s="75" t="s">
         <v>1616</v>
       </c>
-      <c r="E380" s="56"/>
-      <c r="F380" s="57"/>
+      <c r="E380" s="76"/>
+      <c r="F380" s="77"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="55"/>
-      <c r="K380" s="56"/>
-      <c r="L380" s="57"/>
+      <c r="J380" s="75"/>
+      <c r="K380" s="76"/>
+      <c r="L380" s="77"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -24639,17 +25604,17 @@
       <c r="C381" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="D381" s="55" t="s">
+      <c r="D381" s="75" t="s">
         <v>1620</v>
       </c>
-      <c r="E381" s="56"/>
-      <c r="F381" s="57"/>
+      <c r="E381" s="76"/>
+      <c r="F381" s="77"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="55"/>
-      <c r="K381" s="56"/>
-      <c r="L381" s="57"/>
+      <c r="J381" s="75"/>
+      <c r="K381" s="76"/>
+      <c r="L381" s="77"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -24679,17 +25644,17 @@
       <c r="C382" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D382" s="55" t="s">
+      <c r="D382" s="75" t="s">
         <v>1624</v>
       </c>
-      <c r="E382" s="56"/>
-      <c r="F382" s="57"/>
+      <c r="E382" s="76"/>
+      <c r="F382" s="77"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="55"/>
-      <c r="K382" s="56"/>
-      <c r="L382" s="57"/>
+      <c r="J382" s="75"/>
+      <c r="K382" s="76"/>
+      <c r="L382" s="77"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -24719,17 +25684,17 @@
       <c r="C383" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D383" s="55" t="s">
+      <c r="D383" s="75" t="s">
         <v>1628</v>
       </c>
-      <c r="E383" s="56"/>
-      <c r="F383" s="57"/>
+      <c r="E383" s="76"/>
+      <c r="F383" s="77"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="55"/>
-      <c r="K383" s="56"/>
-      <c r="L383" s="57"/>
+      <c r="J383" s="75"/>
+      <c r="K383" s="76"/>
+      <c r="L383" s="77"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -24750,20 +25715,20 @@
       <c r="AD383" s="1"/>
     </row>
     <row r="384" spans="1:30">
-      <c r="A384" s="58">
+      <c r="A384" s="56">
         <v>43016</v>
       </c>
-      <c r="B384" s="59"/>
-      <c r="C384" s="59"/>
-      <c r="D384" s="59"/>
-      <c r="E384" s="59"/>
-      <c r="F384" s="60"/>
+      <c r="B384" s="57"/>
+      <c r="C384" s="57"/>
+      <c r="D384" s="57"/>
+      <c r="E384" s="57"/>
+      <c r="F384" s="58"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="55"/>
-      <c r="K384" s="56"/>
-      <c r="L384" s="57"/>
+      <c r="J384" s="75"/>
+      <c r="K384" s="76"/>
+      <c r="L384" s="77"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -24793,17 +25758,17 @@
       <c r="C385" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="D385" s="55" t="s">
+      <c r="D385" s="75" t="s">
         <v>1632</v>
       </c>
-      <c r="E385" s="56"/>
-      <c r="F385" s="57"/>
+      <c r="E385" s="76"/>
+      <c r="F385" s="77"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="55"/>
-      <c r="K385" s="56"/>
-      <c r="L385" s="57"/>
+      <c r="J385" s="75"/>
+      <c r="K385" s="76"/>
+      <c r="L385" s="77"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -24833,17 +25798,17 @@
       <c r="C386" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="D386" s="55" t="s">
+      <c r="D386" s="75" t="s">
         <v>1635</v>
       </c>
-      <c r="E386" s="56"/>
-      <c r="F386" s="57"/>
+      <c r="E386" s="76"/>
+      <c r="F386" s="77"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="55"/>
-      <c r="K386" s="56"/>
-      <c r="L386" s="57"/>
+      <c r="J386" s="75"/>
+      <c r="K386" s="76"/>
+      <c r="L386" s="77"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -24873,17 +25838,17 @@
       <c r="C387" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="D387" s="55" t="s">
+      <c r="D387" s="75" t="s">
         <v>1639</v>
       </c>
-      <c r="E387" s="56"/>
-      <c r="F387" s="57"/>
+      <c r="E387" s="76"/>
+      <c r="F387" s="77"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="55"/>
-      <c r="K387" s="56"/>
-      <c r="L387" s="57"/>
+      <c r="J387" s="75"/>
+      <c r="K387" s="76"/>
+      <c r="L387" s="77"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -24913,17 +25878,17 @@
       <c r="C388" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="D388" s="55" t="s">
+      <c r="D388" s="75" t="s">
         <v>1643</v>
       </c>
-      <c r="E388" s="56"/>
-      <c r="F388" s="57"/>
+      <c r="E388" s="76"/>
+      <c r="F388" s="77"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="55"/>
-      <c r="K388" s="56"/>
-      <c r="L388" s="57"/>
+      <c r="J388" s="75"/>
+      <c r="K388" s="76"/>
+      <c r="L388" s="77"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -24953,17 +25918,17 @@
       <c r="C389" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="D389" s="55" t="s">
+      <c r="D389" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="E389" s="56"/>
-      <c r="F389" s="57"/>
+      <c r="E389" s="76"/>
+      <c r="F389" s="77"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="55"/>
-      <c r="K389" s="56"/>
-      <c r="L389" s="57"/>
+      <c r="J389" s="75"/>
+      <c r="K389" s="76"/>
+      <c r="L389" s="77"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -24993,17 +25958,17 @@
       <c r="C390" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D390" s="55" t="s">
+      <c r="D390" s="75" t="s">
         <v>1651</v>
       </c>
-      <c r="E390" s="56"/>
-      <c r="F390" s="57"/>
+      <c r="E390" s="76"/>
+      <c r="F390" s="77"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="55"/>
-      <c r="K390" s="56"/>
-      <c r="L390" s="57"/>
+      <c r="J390" s="75"/>
+      <c r="K390" s="76"/>
+      <c r="L390" s="77"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -25031,17 +25996,17 @@
       <c r="C391" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D391" s="55" t="s">
+      <c r="D391" s="75" t="s">
         <v>1654</v>
       </c>
-      <c r="E391" s="56"/>
-      <c r="F391" s="57"/>
+      <c r="E391" s="76"/>
+      <c r="F391" s="77"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="55"/>
-      <c r="K391" s="56"/>
-      <c r="L391" s="57"/>
+      <c r="J391" s="75"/>
+      <c r="K391" s="76"/>
+      <c r="L391" s="77"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -25069,17 +26034,17 @@
       <c r="C392" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="D392" s="55" t="s">
+      <c r="D392" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="E392" s="56"/>
-      <c r="F392" s="57"/>
+      <c r="E392" s="76"/>
+      <c r="F392" s="77"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="55"/>
-      <c r="K392" s="56"/>
-      <c r="L392" s="57"/>
+      <c r="J392" s="75"/>
+      <c r="K392" s="76"/>
+      <c r="L392" s="77"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -25107,17 +26072,17 @@
       <c r="C393" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D393" s="55" t="s">
+      <c r="D393" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="E393" s="56"/>
-      <c r="F393" s="57"/>
+      <c r="E393" s="76"/>
+      <c r="F393" s="77"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="55"/>
-      <c r="K393" s="56"/>
-      <c r="L393" s="57"/>
+      <c r="J393" s="75"/>
+      <c r="K393" s="76"/>
+      <c r="L393" s="77"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -25147,17 +26112,17 @@
       <c r="C394" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="D394" s="55" t="s">
+      <c r="D394" s="75" t="s">
         <v>1664</v>
       </c>
-      <c r="E394" s="56"/>
-      <c r="F394" s="57"/>
+      <c r="E394" s="76"/>
+      <c r="F394" s="77"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="55"/>
-      <c r="K394" s="56"/>
-      <c r="L394" s="57"/>
+      <c r="J394" s="75"/>
+      <c r="K394" s="76"/>
+      <c r="L394" s="77"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -25187,17 +26152,17 @@
       <c r="C395" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="D395" s="55" t="s">
+      <c r="D395" s="75" t="s">
         <v>1668</v>
       </c>
-      <c r="E395" s="56"/>
-      <c r="F395" s="57"/>
+      <c r="E395" s="76"/>
+      <c r="F395" s="77"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="55"/>
-      <c r="K395" s="56"/>
-      <c r="L395" s="57"/>
+      <c r="J395" s="75"/>
+      <c r="K395" s="76"/>
+      <c r="L395" s="77"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -25227,17 +26192,17 @@
       <c r="C396" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="D396" s="55" t="s">
+      <c r="D396" s="75" t="s">
         <v>1672</v>
       </c>
-      <c r="E396" s="56"/>
-      <c r="F396" s="57"/>
+      <c r="E396" s="76"/>
+      <c r="F396" s="77"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="55"/>
-      <c r="K396" s="56"/>
-      <c r="L396" s="57"/>
+      <c r="J396" s="75"/>
+      <c r="K396" s="76"/>
+      <c r="L396" s="77"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -25267,17 +26232,17 @@
       <c r="C397" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D397" s="55" t="s">
+      <c r="D397" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="E397" s="56"/>
-      <c r="F397" s="57"/>
+      <c r="E397" s="76"/>
+      <c r="F397" s="77"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="55"/>
-      <c r="K397" s="56"/>
-      <c r="L397" s="57"/>
+      <c r="J397" s="75"/>
+      <c r="K397" s="76"/>
+      <c r="L397" s="77"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -25305,17 +26270,17 @@
       <c r="C398" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="D398" s="55" t="s">
+      <c r="D398" s="75" t="s">
         <v>1679</v>
       </c>
-      <c r="E398" s="56"/>
-      <c r="F398" s="57"/>
+      <c r="E398" s="76"/>
+      <c r="F398" s="77"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="55"/>
-      <c r="K398" s="56"/>
-      <c r="L398" s="57"/>
+      <c r="J398" s="75"/>
+      <c r="K398" s="76"/>
+      <c r="L398" s="77"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -25343,17 +26308,17 @@
         <v>1681</v>
       </c>
       <c r="C399" s="1"/>
-      <c r="D399" s="55" t="s">
+      <c r="D399" s="75" t="s">
         <v>1679</v>
       </c>
-      <c r="E399" s="56"/>
-      <c r="F399" s="57"/>
+      <c r="E399" s="76"/>
+      <c r="F399" s="77"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="55"/>
-      <c r="K399" s="56"/>
-      <c r="L399" s="57"/>
+      <c r="J399" s="75"/>
+      <c r="K399" s="76"/>
+      <c r="L399" s="77"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -25383,17 +26348,17 @@
       <c r="C400" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D400" s="55" t="s">
+      <c r="D400" s="75" t="s">
         <v>1685</v>
       </c>
-      <c r="E400" s="56"/>
-      <c r="F400" s="57"/>
+      <c r="E400" s="76"/>
+      <c r="F400" s="77"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="55"/>
-      <c r="K400" s="56"/>
-      <c r="L400" s="57"/>
+      <c r="J400" s="75"/>
+      <c r="K400" s="76"/>
+      <c r="L400" s="77"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -25423,17 +26388,17 @@
       <c r="C401" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D401" s="55" t="s">
+      <c r="D401" s="75" t="s">
         <v>1689</v>
       </c>
-      <c r="E401" s="56"/>
-      <c r="F401" s="57"/>
+      <c r="E401" s="76"/>
+      <c r="F401" s="77"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="55"/>
-      <c r="K401" s="56"/>
-      <c r="L401" s="57"/>
+      <c r="J401" s="75"/>
+      <c r="K401" s="76"/>
+      <c r="L401" s="77"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -25463,17 +26428,17 @@
       <c r="C402" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="D402" s="55" t="s">
+      <c r="D402" s="75" t="s">
         <v>1693</v>
       </c>
-      <c r="E402" s="56"/>
-      <c r="F402" s="57"/>
+      <c r="E402" s="76"/>
+      <c r="F402" s="77"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="55"/>
-      <c r="K402" s="56"/>
-      <c r="L402" s="57"/>
+      <c r="J402" s="75"/>
+      <c r="K402" s="76"/>
+      <c r="L402" s="77"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -25503,17 +26468,17 @@
       <c r="C403" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="D403" s="55" t="s">
+      <c r="D403" s="75" t="s">
         <v>1697</v>
       </c>
-      <c r="E403" s="56"/>
-      <c r="F403" s="57"/>
+      <c r="E403" s="76"/>
+      <c r="F403" s="77"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="55"/>
-      <c r="K403" s="56"/>
-      <c r="L403" s="57"/>
+      <c r="J403" s="75"/>
+      <c r="K403" s="76"/>
+      <c r="L403" s="77"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -25543,17 +26508,17 @@
       <c r="C404" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D404" s="55" t="s">
+      <c r="D404" s="75" t="s">
         <v>1701</v>
       </c>
-      <c r="E404" s="56"/>
-      <c r="F404" s="57"/>
+      <c r="E404" s="76"/>
+      <c r="F404" s="77"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="55"/>
-      <c r="K404" s="56"/>
-      <c r="L404" s="57"/>
+      <c r="J404" s="75"/>
+      <c r="K404" s="76"/>
+      <c r="L404" s="77"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -25583,17 +26548,17 @@
       <c r="C405" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D405" s="55" t="s">
+      <c r="D405" s="75" t="s">
         <v>1705</v>
       </c>
-      <c r="E405" s="56"/>
-      <c r="F405" s="57"/>
+      <c r="E405" s="76"/>
+      <c r="F405" s="77"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="55"/>
-      <c r="K405" s="56"/>
-      <c r="L405" s="57"/>
+      <c r="J405" s="75"/>
+      <c r="K405" s="76"/>
+      <c r="L405" s="77"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -25623,17 +26588,17 @@
       <c r="C406" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="D406" s="55" t="s">
+      <c r="D406" s="75" t="s">
         <v>1709</v>
       </c>
-      <c r="E406" s="56"/>
-      <c r="F406" s="57"/>
+      <c r="E406" s="76"/>
+      <c r="F406" s="77"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="55"/>
-      <c r="K406" s="56"/>
-      <c r="L406" s="57"/>
+      <c r="J406" s="75"/>
+      <c r="K406" s="76"/>
+      <c r="L406" s="77"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -25663,17 +26628,17 @@
       <c r="C407" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="D407" s="55" t="s">
+      <c r="D407" s="75" t="s">
         <v>1713</v>
       </c>
-      <c r="E407" s="56"/>
-      <c r="F407" s="57"/>
+      <c r="E407" s="76"/>
+      <c r="F407" s="77"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="55"/>
-      <c r="K407" s="56"/>
-      <c r="L407" s="57"/>
+      <c r="J407" s="75"/>
+      <c r="K407" s="76"/>
+      <c r="L407" s="77"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -25703,17 +26668,17 @@
       <c r="C408" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D408" s="55" t="s">
+      <c r="D408" s="75" t="s">
         <v>1717</v>
       </c>
-      <c r="E408" s="56"/>
-      <c r="F408" s="57"/>
+      <c r="E408" s="76"/>
+      <c r="F408" s="77"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="55"/>
-      <c r="K408" s="56"/>
-      <c r="L408" s="57"/>
+      <c r="J408" s="75"/>
+      <c r="K408" s="76"/>
+      <c r="L408" s="77"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -25743,17 +26708,17 @@
       <c r="C409" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="D409" s="55" t="s">
+      <c r="D409" s="75" t="s">
         <v>1721</v>
       </c>
-      <c r="E409" s="56"/>
-      <c r="F409" s="57"/>
+      <c r="E409" s="76"/>
+      <c r="F409" s="77"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="55"/>
-      <c r="K409" s="56"/>
-      <c r="L409" s="57"/>
+      <c r="J409" s="75"/>
+      <c r="K409" s="76"/>
+      <c r="L409" s="77"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -25775,6 +26740,309 @@
     </row>
   </sheetData>
   <mergeCells count="327">
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="J408:L408"/>
+    <mergeCell ref="J409:L409"/>
+    <mergeCell ref="J398:L398"/>
+    <mergeCell ref="J399:L399"/>
+    <mergeCell ref="J400:L400"/>
+    <mergeCell ref="J401:L401"/>
+    <mergeCell ref="J402:L402"/>
+    <mergeCell ref="J403:L403"/>
+    <mergeCell ref="J404:L404"/>
+    <mergeCell ref="J405:L405"/>
+    <mergeCell ref="J406:L406"/>
+    <mergeCell ref="J389:L389"/>
+    <mergeCell ref="J390:L390"/>
+    <mergeCell ref="J391:L391"/>
+    <mergeCell ref="J392:L392"/>
+    <mergeCell ref="J393:L393"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="J395:L395"/>
+    <mergeCell ref="J396:L396"/>
+    <mergeCell ref="J397:L397"/>
+    <mergeCell ref="J380:L380"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="J382:L382"/>
+    <mergeCell ref="J383:L383"/>
+    <mergeCell ref="J384:L384"/>
+    <mergeCell ref="J385:L385"/>
+    <mergeCell ref="J386:L386"/>
+    <mergeCell ref="J387:L387"/>
+    <mergeCell ref="J388:L388"/>
+    <mergeCell ref="J371:L371"/>
+    <mergeCell ref="J372:L372"/>
+    <mergeCell ref="J373:L373"/>
+    <mergeCell ref="J374:L374"/>
+    <mergeCell ref="J375:L375"/>
+    <mergeCell ref="J376:L376"/>
+    <mergeCell ref="J377:L377"/>
+    <mergeCell ref="J378:L378"/>
+    <mergeCell ref="J379:L379"/>
+    <mergeCell ref="J362:L362"/>
+    <mergeCell ref="J363:L363"/>
+    <mergeCell ref="J364:L364"/>
+    <mergeCell ref="J365:L365"/>
+    <mergeCell ref="J366:L366"/>
+    <mergeCell ref="J367:L367"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="J369:L369"/>
+    <mergeCell ref="J370:L370"/>
+    <mergeCell ref="J353:L353"/>
+    <mergeCell ref="J354:L354"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="J356:L356"/>
+    <mergeCell ref="J357:L357"/>
+    <mergeCell ref="J358:L358"/>
+    <mergeCell ref="J359:L359"/>
+    <mergeCell ref="J360:L360"/>
+    <mergeCell ref="J361:L361"/>
+    <mergeCell ref="J344:L344"/>
+    <mergeCell ref="J345:L345"/>
+    <mergeCell ref="J346:L346"/>
+    <mergeCell ref="J347:L347"/>
+    <mergeCell ref="J348:L348"/>
+    <mergeCell ref="J349:L349"/>
+    <mergeCell ref="J350:L350"/>
+    <mergeCell ref="J351:L351"/>
+    <mergeCell ref="J352:L352"/>
+    <mergeCell ref="J335:L335"/>
+    <mergeCell ref="J336:L336"/>
+    <mergeCell ref="J337:L337"/>
+    <mergeCell ref="J338:L338"/>
+    <mergeCell ref="J339:L339"/>
+    <mergeCell ref="J340:L340"/>
+    <mergeCell ref="J341:L341"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="J343:L343"/>
+    <mergeCell ref="J326:L326"/>
+    <mergeCell ref="J327:L327"/>
+    <mergeCell ref="J328:L328"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="J330:L330"/>
+    <mergeCell ref="J331:L331"/>
+    <mergeCell ref="J332:L332"/>
+    <mergeCell ref="J333:L333"/>
+    <mergeCell ref="J334:L334"/>
+    <mergeCell ref="J317:L317"/>
+    <mergeCell ref="J318:L318"/>
+    <mergeCell ref="J319:L319"/>
+    <mergeCell ref="J320:L320"/>
+    <mergeCell ref="J321:L321"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="J323:L323"/>
+    <mergeCell ref="J324:L324"/>
+    <mergeCell ref="J325:L325"/>
+    <mergeCell ref="J308:L308"/>
+    <mergeCell ref="J309:L309"/>
+    <mergeCell ref="J310:L310"/>
+    <mergeCell ref="J311:L311"/>
+    <mergeCell ref="J312:L312"/>
+    <mergeCell ref="J313:L313"/>
+    <mergeCell ref="J314:L314"/>
+    <mergeCell ref="J315:L315"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="J299:L299"/>
+    <mergeCell ref="J300:L300"/>
+    <mergeCell ref="J301:L301"/>
+    <mergeCell ref="J302:L302"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="J304:L304"/>
+    <mergeCell ref="J305:L305"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="J307:L307"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="J292:L292"/>
+    <mergeCell ref="J293:L293"/>
+    <mergeCell ref="J294:L294"/>
+    <mergeCell ref="J295:L295"/>
+    <mergeCell ref="J296:L296"/>
+    <mergeCell ref="J297:L297"/>
+    <mergeCell ref="J298:L298"/>
+    <mergeCell ref="J281:L281"/>
+    <mergeCell ref="J282:L282"/>
+    <mergeCell ref="J283:L283"/>
+    <mergeCell ref="J284:L284"/>
+    <mergeCell ref="J285:L285"/>
+    <mergeCell ref="J286:L286"/>
+    <mergeCell ref="J287:L287"/>
+    <mergeCell ref="J288:L288"/>
+    <mergeCell ref="J289:L289"/>
+    <mergeCell ref="J272:L272"/>
+    <mergeCell ref="J273:L273"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="J275:L275"/>
+    <mergeCell ref="J276:L276"/>
+    <mergeCell ref="J277:L277"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="J280:L280"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="J265:L265"/>
+    <mergeCell ref="J266:L266"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="J268:L268"/>
+    <mergeCell ref="J269:L269"/>
+    <mergeCell ref="J270:L270"/>
+    <mergeCell ref="J271:L271"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="J254:L254"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="J256:L256"/>
+    <mergeCell ref="J257:L257"/>
+    <mergeCell ref="J258:L258"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="J260:L260"/>
+    <mergeCell ref="J261:L261"/>
+    <mergeCell ref="J262:L262"/>
+    <mergeCell ref="J245:L245"/>
+    <mergeCell ref="J246:L246"/>
+    <mergeCell ref="J247:L247"/>
+    <mergeCell ref="J248:L248"/>
+    <mergeCell ref="J249:L249"/>
+    <mergeCell ref="J250:L250"/>
+    <mergeCell ref="J251:L251"/>
+    <mergeCell ref="J252:L252"/>
+    <mergeCell ref="J253:L253"/>
+    <mergeCell ref="J236:L236"/>
+    <mergeCell ref="J237:L237"/>
+    <mergeCell ref="J238:L238"/>
+    <mergeCell ref="J239:L239"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="J241:L241"/>
+    <mergeCell ref="J242:L242"/>
+    <mergeCell ref="J243:L243"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="J228:L228"/>
+    <mergeCell ref="J229:L229"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="J231:L231"/>
+    <mergeCell ref="J232:L232"/>
+    <mergeCell ref="J233:L233"/>
+    <mergeCell ref="J234:L234"/>
+    <mergeCell ref="J235:L235"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="J218:L218"/>
+    <mergeCell ref="J219:L219"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="J221:L221"/>
+    <mergeCell ref="J222:L222"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="J224:L224"/>
+    <mergeCell ref="J225:L225"/>
+    <mergeCell ref="J226:L226"/>
+    <mergeCell ref="G209:L209"/>
+    <mergeCell ref="J210:L210"/>
+    <mergeCell ref="J211:L211"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="J213:L213"/>
+    <mergeCell ref="J214:L214"/>
+    <mergeCell ref="J215:L215"/>
+    <mergeCell ref="J216:L216"/>
+    <mergeCell ref="J217:L217"/>
+    <mergeCell ref="D408:F408"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="D405:F405"/>
+    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="D407:F407"/>
+    <mergeCell ref="D398:F398"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D396:F396"/>
+    <mergeCell ref="D397:F397"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="D386:F386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="D373:F373"/>
+    <mergeCell ref="D374:F374"/>
+    <mergeCell ref="D375:F375"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="D363:F363"/>
+    <mergeCell ref="D364:F364"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="D316:F316"/>
+    <mergeCell ref="D317:F317"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="D312:F312"/>
     <mergeCell ref="A241:F241"/>
     <mergeCell ref="D307:F307"/>
     <mergeCell ref="D303:F303"/>
@@ -25799,309 +27067,6 @@
     <mergeCell ref="Y208:AD208"/>
     <mergeCell ref="A300:F300"/>
     <mergeCell ref="A266:F266"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="D363:F363"/>
-    <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D360:F360"/>
-    <mergeCell ref="D361:F361"/>
-    <mergeCell ref="D362:F362"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="D374:F374"/>
-    <mergeCell ref="D375:F375"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D370:F370"/>
-    <mergeCell ref="D371:F371"/>
-    <mergeCell ref="D372:F372"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="D393:F393"/>
-    <mergeCell ref="D394:F394"/>
-    <mergeCell ref="D395:F395"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="D405:F405"/>
-    <mergeCell ref="D406:F406"/>
-    <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="G209:L209"/>
-    <mergeCell ref="J210:L210"/>
-    <mergeCell ref="J211:L211"/>
-    <mergeCell ref="J212:L212"/>
-    <mergeCell ref="J213:L213"/>
-    <mergeCell ref="J214:L214"/>
-    <mergeCell ref="J215:L215"/>
-    <mergeCell ref="J216:L216"/>
-    <mergeCell ref="J217:L217"/>
-    <mergeCell ref="J218:L218"/>
-    <mergeCell ref="J219:L219"/>
-    <mergeCell ref="J220:L220"/>
-    <mergeCell ref="J221:L221"/>
-    <mergeCell ref="J222:L222"/>
-    <mergeCell ref="J223:L223"/>
-    <mergeCell ref="J224:L224"/>
-    <mergeCell ref="J225:L225"/>
-    <mergeCell ref="J226:L226"/>
-    <mergeCell ref="J228:L228"/>
-    <mergeCell ref="J229:L229"/>
-    <mergeCell ref="J230:L230"/>
-    <mergeCell ref="J231:L231"/>
-    <mergeCell ref="J232:L232"/>
-    <mergeCell ref="J233:L233"/>
-    <mergeCell ref="J234:L234"/>
-    <mergeCell ref="J235:L235"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="J236:L236"/>
-    <mergeCell ref="J237:L237"/>
-    <mergeCell ref="J238:L238"/>
-    <mergeCell ref="J239:L239"/>
-    <mergeCell ref="J240:L240"/>
-    <mergeCell ref="J241:L241"/>
-    <mergeCell ref="J242:L242"/>
-    <mergeCell ref="J243:L243"/>
-    <mergeCell ref="J244:L244"/>
-    <mergeCell ref="J245:L245"/>
-    <mergeCell ref="J246:L246"/>
-    <mergeCell ref="J247:L247"/>
-    <mergeCell ref="J248:L248"/>
-    <mergeCell ref="J249:L249"/>
-    <mergeCell ref="J250:L250"/>
-    <mergeCell ref="J251:L251"/>
-    <mergeCell ref="J252:L252"/>
-    <mergeCell ref="J253:L253"/>
-    <mergeCell ref="J254:L254"/>
-    <mergeCell ref="J255:L255"/>
-    <mergeCell ref="J256:L256"/>
-    <mergeCell ref="J257:L257"/>
-    <mergeCell ref="J258:L258"/>
-    <mergeCell ref="J259:L259"/>
-    <mergeCell ref="J260:L260"/>
-    <mergeCell ref="J261:L261"/>
-    <mergeCell ref="J262:L262"/>
-    <mergeCell ref="J263:L263"/>
-    <mergeCell ref="J264:L264"/>
-    <mergeCell ref="J265:L265"/>
-    <mergeCell ref="J266:L266"/>
-    <mergeCell ref="J267:L267"/>
-    <mergeCell ref="J268:L268"/>
-    <mergeCell ref="J269:L269"/>
-    <mergeCell ref="J270:L270"/>
-    <mergeCell ref="J271:L271"/>
-    <mergeCell ref="J272:L272"/>
-    <mergeCell ref="J273:L273"/>
-    <mergeCell ref="J274:L274"/>
-    <mergeCell ref="J275:L275"/>
-    <mergeCell ref="J276:L276"/>
-    <mergeCell ref="J277:L277"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="J280:L280"/>
-    <mergeCell ref="J281:L281"/>
-    <mergeCell ref="J282:L282"/>
-    <mergeCell ref="J283:L283"/>
-    <mergeCell ref="J284:L284"/>
-    <mergeCell ref="J285:L285"/>
-    <mergeCell ref="J286:L286"/>
-    <mergeCell ref="J287:L287"/>
-    <mergeCell ref="J288:L288"/>
-    <mergeCell ref="J289:L289"/>
-    <mergeCell ref="J290:L290"/>
-    <mergeCell ref="J291:L291"/>
-    <mergeCell ref="J292:L292"/>
-    <mergeCell ref="J293:L293"/>
-    <mergeCell ref="J294:L294"/>
-    <mergeCell ref="J295:L295"/>
-    <mergeCell ref="J296:L296"/>
-    <mergeCell ref="J297:L297"/>
-    <mergeCell ref="J298:L298"/>
-    <mergeCell ref="J299:L299"/>
-    <mergeCell ref="J300:L300"/>
-    <mergeCell ref="J301:L301"/>
-    <mergeCell ref="J302:L302"/>
-    <mergeCell ref="J303:L303"/>
-    <mergeCell ref="J304:L304"/>
-    <mergeCell ref="J305:L305"/>
-    <mergeCell ref="J306:L306"/>
-    <mergeCell ref="J307:L307"/>
-    <mergeCell ref="J308:L308"/>
-    <mergeCell ref="J309:L309"/>
-    <mergeCell ref="J310:L310"/>
-    <mergeCell ref="J311:L311"/>
-    <mergeCell ref="J312:L312"/>
-    <mergeCell ref="J313:L313"/>
-    <mergeCell ref="J314:L314"/>
-    <mergeCell ref="J315:L315"/>
-    <mergeCell ref="J316:L316"/>
-    <mergeCell ref="J317:L317"/>
-    <mergeCell ref="J318:L318"/>
-    <mergeCell ref="J319:L319"/>
-    <mergeCell ref="J320:L320"/>
-    <mergeCell ref="J321:L321"/>
-    <mergeCell ref="J322:L322"/>
-    <mergeCell ref="J323:L323"/>
-    <mergeCell ref="J324:L324"/>
-    <mergeCell ref="J325:L325"/>
-    <mergeCell ref="J326:L326"/>
-    <mergeCell ref="J327:L327"/>
-    <mergeCell ref="J328:L328"/>
-    <mergeCell ref="J329:L329"/>
-    <mergeCell ref="J330:L330"/>
-    <mergeCell ref="J331:L331"/>
-    <mergeCell ref="J332:L332"/>
-    <mergeCell ref="J333:L333"/>
-    <mergeCell ref="J334:L334"/>
-    <mergeCell ref="J335:L335"/>
-    <mergeCell ref="J336:L336"/>
-    <mergeCell ref="J337:L337"/>
-    <mergeCell ref="J338:L338"/>
-    <mergeCell ref="J339:L339"/>
-    <mergeCell ref="J340:L340"/>
-    <mergeCell ref="J341:L341"/>
-    <mergeCell ref="J342:L342"/>
-    <mergeCell ref="J343:L343"/>
-    <mergeCell ref="J344:L344"/>
-    <mergeCell ref="J345:L345"/>
-    <mergeCell ref="J346:L346"/>
-    <mergeCell ref="J347:L347"/>
-    <mergeCell ref="J348:L348"/>
-    <mergeCell ref="J349:L349"/>
-    <mergeCell ref="J350:L350"/>
-    <mergeCell ref="J351:L351"/>
-    <mergeCell ref="J352:L352"/>
-    <mergeCell ref="J353:L353"/>
-    <mergeCell ref="J354:L354"/>
-    <mergeCell ref="J355:L355"/>
-    <mergeCell ref="J356:L356"/>
-    <mergeCell ref="J357:L357"/>
-    <mergeCell ref="J358:L358"/>
-    <mergeCell ref="J359:L359"/>
-    <mergeCell ref="J360:L360"/>
-    <mergeCell ref="J361:L361"/>
-    <mergeCell ref="J362:L362"/>
-    <mergeCell ref="J363:L363"/>
-    <mergeCell ref="J364:L364"/>
-    <mergeCell ref="J365:L365"/>
-    <mergeCell ref="J366:L366"/>
-    <mergeCell ref="J367:L367"/>
-    <mergeCell ref="J368:L368"/>
-    <mergeCell ref="J369:L369"/>
-    <mergeCell ref="J370:L370"/>
-    <mergeCell ref="J371:L371"/>
-    <mergeCell ref="J372:L372"/>
-    <mergeCell ref="J373:L373"/>
-    <mergeCell ref="J374:L374"/>
-    <mergeCell ref="J375:L375"/>
-    <mergeCell ref="J376:L376"/>
-    <mergeCell ref="J377:L377"/>
-    <mergeCell ref="J378:L378"/>
-    <mergeCell ref="J379:L379"/>
-    <mergeCell ref="J380:L380"/>
-    <mergeCell ref="J381:L381"/>
-    <mergeCell ref="J382:L382"/>
-    <mergeCell ref="J383:L383"/>
-    <mergeCell ref="J384:L384"/>
-    <mergeCell ref="J385:L385"/>
-    <mergeCell ref="J386:L386"/>
-    <mergeCell ref="J387:L387"/>
-    <mergeCell ref="J388:L388"/>
-    <mergeCell ref="J389:L389"/>
-    <mergeCell ref="J390:L390"/>
-    <mergeCell ref="J391:L391"/>
-    <mergeCell ref="J392:L392"/>
-    <mergeCell ref="J393:L393"/>
-    <mergeCell ref="J394:L394"/>
-    <mergeCell ref="J395:L395"/>
-    <mergeCell ref="J396:L396"/>
-    <mergeCell ref="J397:L397"/>
-    <mergeCell ref="J407:L407"/>
-    <mergeCell ref="J408:L408"/>
-    <mergeCell ref="J409:L409"/>
-    <mergeCell ref="J398:L398"/>
-    <mergeCell ref="J399:L399"/>
-    <mergeCell ref="J400:L400"/>
-    <mergeCell ref="J401:L401"/>
-    <mergeCell ref="J402:L402"/>
-    <mergeCell ref="J403:L403"/>
-    <mergeCell ref="J404:L404"/>
-    <mergeCell ref="J405:L405"/>
-    <mergeCell ref="J406:L406"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="2026">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6600,7 +6600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6611,7 +6611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6632,7 +6632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6642,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6653,7 +6653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6663,7 +6663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6674,7 +6674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6705,7 +6705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6716,7 +6716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6726,7 +6726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6737,7 +6737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6747,7 +6747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6758,7 +6758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6768,7 +6768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6793,7 +6793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6804,7 +6804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6814,7 +6814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6825,7 +6825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6835,7 +6835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6846,7 +6846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6870,7 +6870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6881,7 +6881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6891,7 +6891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8008,7 +8008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8019,7 +8019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8096,7 +8096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8107,7 +8107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8117,7 +8117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8128,7 +8128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8138,7 +8138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8149,7 +8149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8159,7 +8159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8191,7 +8191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8202,7 +8202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8212,7 +8212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8223,7 +8223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8233,7 +8233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8244,7 +8244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8271,7 +8271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8282,7 +8282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8292,7 +8292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8303,7 +8303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8313,7 +8313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8324,7 +8324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8334,7 +8334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8345,7 +8345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8369,7 +8369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8380,7 +8380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8407,7 +8407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8418,7 +8418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8428,7 +8428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8439,7 +8439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8449,7 +8449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8460,7 +8460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8470,7 +8470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8481,7 +8481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8491,7 +8491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8502,7 +8502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8512,7 +8512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8537,7 +8537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8548,7 +8548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8591,7 +8591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8602,7 +8602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8612,7 +8612,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8623,7 +8623,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8633,7 +8633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8644,7 +8644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8654,7 +8654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8665,7 +8665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8675,7 +8675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8696,7 +8696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8707,7 +8707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8717,7 +8717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8728,7 +8728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8738,7 +8738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8749,7 +8749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8807,7 +8807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8818,7 +8818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8828,7 +8828,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8839,7 +8839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8849,7 +8849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8860,7 +8860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8985,7 +8985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8996,7 +8996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9006,7 +9006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9017,7 +9017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9027,7 +9027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9038,7 +9038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9048,7 +9048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9059,7 +9059,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9090,7 +9090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9101,7 +9101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9111,7 +9111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9122,7 +9122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9153,7 +9153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9164,7 +9164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9174,7 +9174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9185,7 +9185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9216,7 +9216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9227,7 +9227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9258,7 +9258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9269,7 +9269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9279,7 +9279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9290,7 +9290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9300,7 +9300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9332,7 +9332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9343,7 +9343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9353,7 +9353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9364,7 +9364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9374,7 +9374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9385,7 +9385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9395,7 +9395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9406,7 +9406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9416,7 +9416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9427,7 +9427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9437,7 +9437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9469,7 +9469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9480,7 +9480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9490,7 +9490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9501,7 +9501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9511,7 +9511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9522,7 +9522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9532,7 +9532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9564,7 +9564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9575,7 +9575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9606,7 +9606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9617,7 +9617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9644,7 +9644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9655,7 +9655,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9686,7 +9686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9697,7 +9697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9707,7 +9707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9739,7 +9739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9767,7 +9767,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9778,7 +9778,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9788,7 +9788,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9799,7 +9799,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9809,7 +9809,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9820,7 +9820,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9851,7 +9851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9862,7 +9862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9872,7 +9872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9883,7 +9883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9893,7 +9893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9904,7 +9904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9931,7 +9931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9942,7 +9942,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9952,7 +9952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9984,7 +9984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9995,7 +9995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10005,7 +10005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10016,7 +10016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10026,7 +10026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10037,7 +10037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10047,7 +10047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10058,7 +10058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10068,7 +10068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10079,7 +10079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10110,7 +10110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10121,7 +10121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10131,7 +10131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10142,7 +10142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10152,7 +10152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10163,7 +10163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10173,7 +10173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10198,7 +10198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10209,7 +10209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10236,7 +10236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10247,7 +10247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10257,7 +10257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10268,7 +10268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10278,7 +10278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10289,7 +10289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10299,7 +10299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10310,7 +10310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10320,7 +10320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10331,7 +10331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10362,7 +10362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10373,7 +10373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10383,7 +10383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10394,7 +10394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10404,7 +10404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10415,7 +10415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10425,7 +10425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10436,7 +10436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10467,7 +10467,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10478,7 +10478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10488,7 +10488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10499,7 +10499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10509,7 +10509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10520,7 +10520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10530,7 +10530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10541,7 +10541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10551,7 +10551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10562,7 +10562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10572,7 +10572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10604,7 +10604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10615,7 +10615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10625,7 +10625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10636,7 +10636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10646,7 +10646,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10657,7 +10657,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10667,7 +10667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10678,7 +10678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10688,7 +10688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10699,7 +10699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10730,7 +10730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10741,7 +10741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10751,7 +10751,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10762,7 +10762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10772,7 +10772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10783,7 +10783,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10793,7 +10793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10804,7 +10804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10814,7 +10814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10825,7 +10825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10856,7 +10856,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10867,7 +10867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10877,7 +10877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10888,7 +10888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10898,7 +10898,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10909,7 +10909,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10919,7 +10919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10930,7 +10930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10940,7 +10940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10951,7 +10951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10961,7 +10961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10993,7 +10993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11004,7 +11004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11014,7 +11014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11025,7 +11025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11035,7 +11035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -11046,7 +11046,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11057,7 +11057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11067,7 +11067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11078,7 +11078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11088,7 +11088,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11099,7 +11099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11126,7 +11126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11137,7 +11137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11147,7 +11147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11158,7 +11158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11168,7 +11168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11179,7 +11179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11189,7 +11189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11200,7 +11200,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11210,7 +11210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11221,7 +11221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11231,7 +11231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11243,17 +11243,269 @@
   <si>
     <t>冷凍食品を解凍する</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤い</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>あんぜん</t>
+  </si>
+  <si>
+    <t>妹</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>駅前</t>
+  </si>
+  <si>
+    <t>えきまえ</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>空気</t>
+  </si>
+  <si>
+    <t>くうき</t>
+  </si>
+  <si>
+    <t>けんか</t>
+  </si>
+  <si>
+    <t>捜す</t>
+  </si>
+  <si>
+    <t>さがす</t>
+  </si>
+  <si>
+    <t>視察団</t>
+  </si>
+  <si>
+    <t>しさつだん</t>
+  </si>
+  <si>
+    <t>柔道</t>
+  </si>
+  <si>
+    <t>じゅうどう</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>じんこう</t>
+  </si>
+  <si>
+    <t>そこで</t>
+  </si>
+  <si>
+    <t>訪ねる</t>
+  </si>
+  <si>
+    <t>たずねる</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>でぐち</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>初詣</t>
+  </si>
+  <si>
+    <t>はつもうで</t>
+  </si>
+  <si>
+    <t>ひな人形</t>
+  </si>
+  <si>
+    <t>ひなにんぎょう</t>
+  </si>
+  <si>
+    <t>不利</t>
+  </si>
+  <si>
+    <t>ふり</t>
+  </si>
+  <si>
+    <t>本棚</t>
+  </si>
+  <si>
+    <t>ほんだな</t>
+  </si>
+  <si>
+    <t>予約</t>
+  </si>
+  <si>
+    <t>よやく</t>
+  </si>
+  <si>
+    <t>別れ</t>
+  </si>
+  <si>
+    <t>わかれ</t>
+  </si>
+  <si>
+    <t>【形容词/イ形容词】 红。;红色，革命，左倾</t>
+  </si>
+  <si>
+    <t>赤い花がさいている</t>
+  </si>
+  <si>
+    <t>【名・形容动词/ナ形容词】 安全，保险，平安</t>
+  </si>
+  <si>
+    <t>ここにいれば安全です</t>
+  </si>
+  <si>
+    <t>【名词】 妹妹。</t>
+  </si>
+  <si>
+    <t>【名词】 站前，车站附近</t>
+  </si>
+  <si>
+    <t>駅前の商店街</t>
+  </si>
+  <si>
+    <t>【代词】 他，那个</t>
+  </si>
+  <si>
+    <t>彼の有名な事件</t>
+  </si>
+  <si>
+    <t>【名词】北</t>
+  </si>
+  <si>
+    <t>仙台は東京の北にある</t>
+  </si>
+  <si>
+    <t>【名词】 空气；气氛</t>
+  </si>
+  <si>
+    <t>空気がうまい</t>
+  </si>
+  <si>
+    <t>吵架。口角。打架</t>
+  </si>
+  <si>
+    <t>お二人、喧嘩しないでください</t>
+  </si>
+  <si>
+    <t>【他动词・五段/一类】寻找；探访；探索</t>
+  </si>
+  <si>
+    <t>どこをさがしてもない</t>
+  </si>
+  <si>
+    <t>【名词】 视察团</t>
+  </si>
+  <si>
+    <t>柔道，柔术</t>
+  </si>
+  <si>
+    <t>柔道の有段者</t>
+  </si>
+  <si>
+    <t>【名词】 人口；众人之口</t>
+  </si>
+  <si>
+    <t>人口が稠密である</t>
+  </si>
+  <si>
+    <t>【接续词】 于是；因此；所以。;那么；可是</t>
+  </si>
+  <si>
+    <t>そこで本論に入る</t>
+  </si>
+  <si>
+    <t>【他动词・一段/二类】 访问</t>
+  </si>
+  <si>
+    <t>先生の家を訪ねる</t>
+  </si>
+  <si>
+    <t>【名词】 出口。;出水栓</t>
+  </si>
+  <si>
+    <t>出口が分からない</t>
+  </si>
+  <si>
+    <t>【副词】 时常，时时， 有时</t>
+  </si>
+  <si>
+    <t>その時時の果物</t>
+  </si>
+  <si>
+    <t>【名词】 正月里到神社、寺院进行新年后的首次参拜</t>
+  </si>
+  <si>
+    <t>晴れ着で初詣でする</t>
+  </si>
+  <si>
+    <t>【名词】 （偶人节摆设的）偶人</t>
+  </si>
+  <si>
+    <t>プレゼントとして、娘にひな人形を買ってあげました</t>
+  </si>
+  <si>
+    <t>【名・形容动词/ナ形容词】 不利。</t>
+  </si>
+  <si>
+    <t>不利な地位に立つ</t>
+  </si>
+  <si>
+    <t>【名词】 书架</t>
+  </si>
+  <si>
+    <t>本棚から辞書を取り出す</t>
+  </si>
+  <si>
+    <t>【名・他动词・サ变/三类】 预约；预定</t>
+  </si>
+  <si>
+    <t>ホテルの予約をする</t>
+  </si>
+  <si>
+    <t>【名词 离别（別れ）；辞别</t>
+  </si>
+  <si>
+    <t>別れを惜しむ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -11261,13 +11513,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -11275,7 +11527,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11342,7 +11594,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -11379,7 +11631,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -11792,6 +12044,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11849,21 +12110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12143,77 +12395,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
+      <selection activeCell="I295" sqref="I295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="6" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
-    <col min="15" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.25" customWidth="1"/>
-    <col min="26" max="26" width="17.875" customWidth="1"/>
-    <col min="27" max="29" width="11.625" customWidth="1"/>
-    <col min="30" max="30" width="15.375" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:18" ht="18" thickBot="1">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:18" ht="19.5" thickBot="1">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -13852,7 +14104,7 @@
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -16920,7 +17172,7 @@
       <c r="Q148" s="48"/>
       <c r="R148" s="48"/>
     </row>
-    <row r="149" spans="1:18" ht="14.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -17740,7 +17992,7 @@
       <c r="Q174" s="48"/>
       <c r="R174" s="48"/>
     </row>
-    <row r="175" spans="1:18" ht="14.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -17772,7 +18024,7 @@
       <c r="Q175" s="48"/>
       <c r="R175" s="48"/>
     </row>
-    <row r="176" spans="1:18" ht="14.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -17946,7 +18198,7 @@
       <c r="Q181" s="48"/>
       <c r="R181" s="48"/>
     </row>
-    <row r="182" spans="1:18" ht="14.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -17972,7 +18224,7 @@
       <c r="Q182" s="48"/>
       <c r="R182" s="48"/>
     </row>
-    <row r="183" spans="1:18" ht="14.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -18076,7 +18328,7 @@
       <c r="Q186" s="48"/>
       <c r="R186" s="48"/>
     </row>
-    <row r="187" spans="1:18" ht="14.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -18434,7 +18686,7 @@
       <c r="Q203" s="48"/>
       <c r="R203" s="48"/>
     </row>
-    <row r="204" spans="1:30" ht="14.25" thickBot="1">
+    <row r="204" spans="1:30" ht="15.75" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -18454,73 +18706,73 @@
       <c r="Q204" s="48"/>
       <c r="R204" s="48"/>
     </row>
-    <row r="207" spans="1:30" ht="17.25">
-      <c r="A207" s="70" t="s">
+    <row r="207" spans="1:30" ht="18.75">
+      <c r="A207" s="73" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="71"/>
-      <c r="C207" s="71"/>
-      <c r="D207" s="71"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71"/>
-      <c r="I207" s="71"/>
-      <c r="J207" s="71"/>
-      <c r="K207" s="71"/>
-      <c r="L207" s="71"/>
-      <c r="M207" s="71"/>
-      <c r="N207" s="71"/>
-      <c r="O207" s="71"/>
-      <c r="P207" s="71"/>
-      <c r="Q207" s="71"/>
-      <c r="R207" s="71"/>
-      <c r="S207" s="71"/>
-      <c r="T207" s="71"/>
-      <c r="U207" s="71"/>
-      <c r="V207" s="71"/>
-      <c r="W207" s="71"/>
-      <c r="X207" s="71"/>
-      <c r="Y207" s="71"/>
-      <c r="Z207" s="71"/>
-      <c r="AA207" s="71"/>
-      <c r="AB207" s="71"/>
-      <c r="AC207" s="71"/>
-      <c r="AD207" s="71"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="74"/>
+      <c r="E207" s="74"/>
+      <c r="F207" s="74"/>
+      <c r="G207" s="74"/>
+      <c r="H207" s="74"/>
+      <c r="I207" s="74"/>
+      <c r="J207" s="74"/>
+      <c r="K207" s="74"/>
+      <c r="L207" s="74"/>
+      <c r="M207" s="74"/>
+      <c r="N207" s="74"/>
+      <c r="O207" s="74"/>
+      <c r="P207" s="74"/>
+      <c r="Q207" s="74"/>
+      <c r="R207" s="74"/>
+      <c r="S207" s="74"/>
+      <c r="T207" s="74"/>
+      <c r="U207" s="74"/>
+      <c r="V207" s="74"/>
+      <c r="W207" s="74"/>
+      <c r="X207" s="74"/>
+      <c r="Y207" s="74"/>
+      <c r="Z207" s="74"/>
+      <c r="AA207" s="74"/>
+      <c r="AB207" s="74"/>
+      <c r="AC207" s="74"/>
+      <c r="AD207" s="74"/>
     </row>
     <row r="208" spans="1:30">
-      <c r="A208" s="67" t="s">
+      <c r="A208" s="70" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="68"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="69"/>
-      <c r="G208" s="67" t="s">
+      <c r="B208" s="71"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="71"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="70" t="s">
         <v>1077</v>
       </c>
-      <c r="H208" s="68"/>
-      <c r="I208" s="68"/>
-      <c r="J208" s="68"/>
-      <c r="K208" s="68"/>
-      <c r="L208" s="69"/>
-      <c r="M208" s="67" t="s">
+      <c r="H208" s="71"/>
+      <c r="I208" s="71"/>
+      <c r="J208" s="71"/>
+      <c r="K208" s="71"/>
+      <c r="L208" s="72"/>
+      <c r="M208" s="70" t="s">
         <v>1078</v>
       </c>
-      <c r="N208" s="68"/>
-      <c r="O208" s="68"/>
-      <c r="P208" s="68"/>
-      <c r="Q208" s="68"/>
-      <c r="R208" s="69"/>
-      <c r="S208" s="67" t="s">
+      <c r="N208" s="71"/>
+      <c r="O208" s="71"/>
+      <c r="P208" s="71"/>
+      <c r="Q208" s="71"/>
+      <c r="R208" s="72"/>
+      <c r="S208" s="70" t="s">
         <v>1079</v>
       </c>
-      <c r="T208" s="68"/>
-      <c r="U208" s="68"/>
-      <c r="V208" s="68"/>
-      <c r="W208" s="68"/>
-      <c r="X208" s="69"/>
+      <c r="T208" s="71"/>
+      <c r="U208" s="71"/>
+      <c r="V208" s="71"/>
+      <c r="W208" s="71"/>
+      <c r="X208" s="72"/>
       <c r="Y208" s="78" t="s">
         <v>1080</v>
       </c>
@@ -18531,22 +18783,22 @@
       <c r="AD208" s="78"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="56">
+      <c r="A209" s="59">
         <v>43010</v>
       </c>
-      <c r="B209" s="57"/>
-      <c r="C209" s="57"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="58"/>
-      <c r="G209" s="56">
+      <c r="B209" s="60"/>
+      <c r="C209" s="60"/>
+      <c r="D209" s="60"/>
+      <c r="E209" s="60"/>
+      <c r="F209" s="61"/>
+      <c r="G209" s="59">
         <v>43017</v>
       </c>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
-      <c r="J209" s="57"/>
-      <c r="K209" s="57"/>
-      <c r="L209" s="58"/>
+      <c r="H209" s="60"/>
+      <c r="I209" s="60"/>
+      <c r="J209" s="60"/>
+      <c r="K209" s="60"/>
+      <c r="L209" s="61"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -18576,9 +18828,9 @@
       <c r="C210" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="74"/>
+      <c r="D210" s="75"/>
+      <c r="E210" s="76"/>
+      <c r="F210" s="77"/>
       <c r="G210" s="1" t="s">
         <v>1722</v>
       </c>
@@ -18588,11 +18840,11 @@
       <c r="I210" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="J210" s="75" t="s">
+      <c r="J210" s="56" t="s">
         <v>1725</v>
       </c>
-      <c r="K210" s="76"/>
-      <c r="L210" s="77"/>
+      <c r="K210" s="57"/>
+      <c r="L210" s="58"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -18622,9 +18874,9 @@
       <c r="C211" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D211" s="75"/>
-      <c r="E211" s="76"/>
-      <c r="F211" s="77"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="58"/>
       <c r="G211" s="1" t="s">
         <v>1726</v>
       </c>
@@ -18634,11 +18886,11 @@
       <c r="I211" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="J211" s="75" t="s">
+      <c r="J211" s="56" t="s">
         <v>1729</v>
       </c>
-      <c r="K211" s="76"/>
-      <c r="L211" s="77"/>
+      <c r="K211" s="57"/>
+      <c r="L211" s="58"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -18668,9 +18920,9 @@
       <c r="C212" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D212" s="75"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="77"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="58"/>
       <c r="G212" s="1" t="s">
         <v>1730</v>
       </c>
@@ -18680,11 +18932,11 @@
       <c r="I212" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J212" s="75" t="s">
+      <c r="J212" s="56" t="s">
         <v>1733</v>
       </c>
-      <c r="K212" s="76"/>
-      <c r="L212" s="77"/>
+      <c r="K212" s="57"/>
+      <c r="L212" s="58"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -18726,11 +18978,11 @@
       <c r="I213" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="J213" s="75" t="s">
+      <c r="J213" s="56" t="s">
         <v>1737</v>
       </c>
-      <c r="K213" s="76"/>
-      <c r="L213" s="77"/>
+      <c r="K213" s="57"/>
+      <c r="L213" s="58"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -18772,11 +19024,11 @@
       <c r="I214" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="J214" s="75" t="s">
+      <c r="J214" s="56" t="s">
         <v>1741</v>
       </c>
-      <c r="K214" s="76"/>
-      <c r="L214" s="77"/>
+      <c r="K214" s="57"/>
+      <c r="L214" s="58"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -18818,11 +19070,11 @@
       <c r="I215" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="J215" s="75" t="s">
+      <c r="J215" s="56" t="s">
         <v>1744</v>
       </c>
-      <c r="K215" s="76"/>
-      <c r="L215" s="77"/>
+      <c r="K215" s="57"/>
+      <c r="L215" s="58"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -18864,11 +19116,11 @@
       <c r="I216" s="53" t="s">
         <v>1747</v>
       </c>
-      <c r="J216" s="75" t="s">
+      <c r="J216" s="56" t="s">
         <v>1748</v>
       </c>
-      <c r="K216" s="76"/>
-      <c r="L216" s="77"/>
+      <c r="K216" s="57"/>
+      <c r="L216" s="58"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -18910,11 +19162,11 @@
       <c r="I217" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="J217" s="75" t="s">
+      <c r="J217" s="56" t="s">
         <v>1752</v>
       </c>
-      <c r="K217" s="76"/>
-      <c r="L217" s="77"/>
+      <c r="K217" s="57"/>
+      <c r="L217" s="58"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -18956,11 +19208,11 @@
       <c r="I218" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="J218" s="75" t="s">
+      <c r="J218" s="56" t="s">
         <v>1755</v>
       </c>
-      <c r="K218" s="76"/>
-      <c r="L218" s="77"/>
+      <c r="K218" s="57"/>
+      <c r="L218" s="58"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -19000,11 +19252,11 @@
       <c r="I219" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="J219" s="75" t="s">
+      <c r="J219" s="56" t="s">
         <v>1759</v>
       </c>
-      <c r="K219" s="76"/>
-      <c r="L219" s="77"/>
+      <c r="K219" s="57"/>
+      <c r="L219" s="58"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -19046,11 +19298,11 @@
       <c r="I220" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="J220" s="75" t="s">
+      <c r="J220" s="56" t="s">
         <v>1763</v>
       </c>
-      <c r="K220" s="76"/>
-      <c r="L220" s="77"/>
+      <c r="K220" s="57"/>
+      <c r="L220" s="58"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -19092,9 +19344,9 @@
       <c r="I221" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="J221" s="75"/>
-      <c r="K221" s="76"/>
-      <c r="L221" s="77"/>
+      <c r="J221" s="56"/>
+      <c r="K221" s="57"/>
+      <c r="L221" s="58"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -19136,11 +19388,11 @@
       <c r="I222" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="J222" s="75" t="s">
+      <c r="J222" s="56" t="s">
         <v>1769</v>
       </c>
-      <c r="K222" s="76"/>
-      <c r="L222" s="77"/>
+      <c r="K222" s="57"/>
+      <c r="L222" s="58"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -19182,11 +19434,11 @@
       <c r="I223" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="J223" s="75" t="s">
+      <c r="J223" s="56" t="s">
         <v>1773</v>
       </c>
-      <c r="K223" s="76"/>
-      <c r="L223" s="77"/>
+      <c r="K223" s="57"/>
+      <c r="L223" s="58"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -19228,11 +19480,11 @@
       <c r="I224" s="54" t="s">
         <v>1776</v>
       </c>
-      <c r="J224" s="75" t="s">
+      <c r="J224" s="56" t="s">
         <v>1777</v>
       </c>
-      <c r="K224" s="76"/>
-      <c r="L224" s="77"/>
+      <c r="K224" s="57"/>
+      <c r="L224" s="58"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -19272,11 +19524,11 @@
       <c r="I225" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J225" s="75" t="s">
+      <c r="J225" s="56" t="s">
         <v>1780</v>
       </c>
-      <c r="K225" s="76"/>
-      <c r="L225" s="77"/>
+      <c r="K225" s="57"/>
+      <c r="L225" s="58"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -19316,11 +19568,11 @@
       <c r="I226" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="J226" s="75" t="s">
+      <c r="J226" s="56" t="s">
         <v>1783</v>
       </c>
-      <c r="K226" s="76"/>
-      <c r="L226" s="77"/>
+      <c r="K226" s="57"/>
+      <c r="L226" s="58"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -19353,14 +19605,14 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="56">
+      <c r="G227" s="59">
         <v>43018</v>
       </c>
-      <c r="H227" s="57"/>
-      <c r="I227" s="57"/>
-      <c r="J227" s="57"/>
-      <c r="K227" s="57"/>
-      <c r="L227" s="58"/>
+      <c r="H227" s="60"/>
+      <c r="I227" s="60"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="60"/>
+      <c r="L227" s="61"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -19400,11 +19652,11 @@
       <c r="I228" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="J228" s="75" t="s">
+      <c r="J228" s="56" t="s">
         <v>1787</v>
       </c>
-      <c r="K228" s="76"/>
-      <c r="L228" s="77"/>
+      <c r="K228" s="57"/>
+      <c r="L228" s="58"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -19444,11 +19696,11 @@
       <c r="I229" s="52" t="s">
         <v>1789</v>
       </c>
-      <c r="J229" s="75" t="s">
+      <c r="J229" s="56" t="s">
         <v>1790</v>
       </c>
-      <c r="K229" s="76"/>
-      <c r="L229" s="77"/>
+      <c r="K229" s="57"/>
+      <c r="L229" s="58"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -19490,11 +19742,11 @@
       <c r="I230" s="52" t="s">
         <v>1793</v>
       </c>
-      <c r="J230" s="75" t="s">
+      <c r="J230" s="56" t="s">
         <v>1794</v>
       </c>
-      <c r="K230" s="76"/>
-      <c r="L230" s="77"/>
+      <c r="K230" s="57"/>
+      <c r="L230" s="58"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -19534,11 +19786,11 @@
       <c r="I231" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="J231" s="75" t="s">
+      <c r="J231" s="56" t="s">
         <v>1797</v>
       </c>
-      <c r="K231" s="76"/>
-      <c r="L231" s="77"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="58"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -19580,9 +19832,9 @@
       <c r="I232" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="J232" s="75"/>
-      <c r="K232" s="76"/>
-      <c r="L232" s="77"/>
+      <c r="J232" s="56"/>
+      <c r="K232" s="57"/>
+      <c r="L232" s="58"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -19622,11 +19874,11 @@
       <c r="I233" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="J233" s="75" t="s">
+      <c r="J233" s="56" t="s">
         <v>1804</v>
       </c>
-      <c r="K233" s="76"/>
-      <c r="L233" s="77"/>
+      <c r="K233" s="57"/>
+      <c r="L233" s="58"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -19666,9 +19918,9 @@
       <c r="I234" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="J234" s="75"/>
-      <c r="K234" s="76"/>
-      <c r="L234" s="77"/>
+      <c r="J234" s="56"/>
+      <c r="K234" s="57"/>
+      <c r="L234" s="58"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -19710,11 +19962,11 @@
       <c r="I235" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="J235" s="75" t="s">
+      <c r="J235" s="56" t="s">
         <v>1810</v>
       </c>
-      <c r="K235" s="76"/>
-      <c r="L235" s="77"/>
+      <c r="K235" s="57"/>
+      <c r="L235" s="58"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -19754,11 +20006,11 @@
       <c r="I236" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="J236" s="75" t="s">
+      <c r="J236" s="56" t="s">
         <v>1813</v>
       </c>
-      <c r="K236" s="76"/>
-      <c r="L236" s="77"/>
+      <c r="K236" s="57"/>
+      <c r="L236" s="58"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -19798,11 +20050,11 @@
       <c r="I237" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="J237" s="75" t="s">
+      <c r="J237" s="56" t="s">
         <v>1816</v>
       </c>
-      <c r="K237" s="76"/>
-      <c r="L237" s="77"/>
+      <c r="K237" s="57"/>
+      <c r="L237" s="58"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -19844,11 +20096,11 @@
       <c r="I238" s="54" t="s">
         <v>1819</v>
       </c>
-      <c r="J238" s="75" t="s">
+      <c r="J238" s="56" t="s">
         <v>1820</v>
       </c>
-      <c r="K238" s="76"/>
-      <c r="L238" s="77"/>
+      <c r="K238" s="57"/>
+      <c r="L238" s="58"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -19890,11 +20142,11 @@
       <c r="I239" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="J239" s="75" t="s">
+      <c r="J239" s="56" t="s">
         <v>1824</v>
       </c>
-      <c r="K239" s="76"/>
-      <c r="L239" s="77"/>
+      <c r="K239" s="57"/>
+      <c r="L239" s="58"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -19936,11 +20188,11 @@
       <c r="I240" s="52" t="s">
         <v>1827</v>
       </c>
-      <c r="J240" s="75" t="s">
+      <c r="J240" s="56" t="s">
         <v>1828</v>
       </c>
-      <c r="K240" s="76"/>
-      <c r="L240" s="77"/>
+      <c r="K240" s="57"/>
+      <c r="L240" s="58"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -19961,14 +20213,14 @@
       <c r="AD240" s="1"/>
     </row>
     <row r="241" spans="1:30">
-      <c r="A241" s="56">
+      <c r="A241" s="59">
         <v>43011</v>
       </c>
-      <c r="B241" s="57"/>
-      <c r="C241" s="57"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="58"/>
+      <c r="B241" s="60"/>
+      <c r="C241" s="60"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="61"/>
       <c r="G241" s="1" t="s">
         <v>1830</v>
       </c>
@@ -19978,11 +20230,11 @@
       <c r="I241" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="J241" s="75" t="s">
+      <c r="J241" s="56" t="s">
         <v>1832</v>
       </c>
-      <c r="K241" s="76"/>
-      <c r="L241" s="77"/>
+      <c r="K241" s="57"/>
+      <c r="L241" s="58"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -20024,11 +20276,11 @@
       <c r="I242" s="52" t="s">
         <v>1835</v>
       </c>
-      <c r="J242" s="75" t="s">
+      <c r="J242" s="56" t="s">
         <v>1836</v>
       </c>
-      <c r="K242" s="76"/>
-      <c r="L242" s="77"/>
+      <c r="K242" s="57"/>
+      <c r="L242" s="58"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -20070,11 +20322,11 @@
       <c r="I243" s="55" t="s">
         <v>1839</v>
       </c>
-      <c r="J243" s="75" t="s">
+      <c r="J243" s="56" t="s">
         <v>1840</v>
       </c>
-      <c r="K243" s="76"/>
-      <c r="L243" s="77"/>
+      <c r="K243" s="57"/>
+      <c r="L243" s="58"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -20116,11 +20368,11 @@
       <c r="I244" s="52" t="s">
         <v>1843</v>
       </c>
-      <c r="J244" s="75" t="s">
+      <c r="J244" s="56" t="s">
         <v>1844</v>
       </c>
-      <c r="K244" s="76"/>
-      <c r="L244" s="77"/>
+      <c r="K244" s="57"/>
+      <c r="L244" s="58"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -20160,11 +20412,11 @@
       <c r="I245" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="J245" s="75" t="s">
+      <c r="J245" s="56" t="s">
         <v>1847</v>
       </c>
-      <c r="K245" s="76"/>
-      <c r="L245" s="77"/>
+      <c r="K245" s="57"/>
+      <c r="L245" s="58"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -20206,11 +20458,11 @@
       <c r="I246" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="J246" s="75" t="s">
+      <c r="J246" s="56" t="s">
         <v>1851</v>
       </c>
-      <c r="K246" s="76"/>
-      <c r="L246" s="77"/>
+      <c r="K246" s="57"/>
+      <c r="L246" s="58"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -20252,11 +20504,11 @@
       <c r="I247" s="54" t="s">
         <v>1854</v>
       </c>
-      <c r="J247" s="75" t="s">
+      <c r="J247" s="56" t="s">
         <v>1855</v>
       </c>
-      <c r="K247" s="76"/>
-      <c r="L247" s="77"/>
+      <c r="K247" s="57"/>
+      <c r="L247" s="58"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -20298,11 +20550,11 @@
       <c r="I248" s="54" t="s">
         <v>1858</v>
       </c>
-      <c r="J248" s="75" t="s">
+      <c r="J248" s="56" t="s">
         <v>1859</v>
       </c>
-      <c r="K248" s="76"/>
-      <c r="L248" s="77"/>
+      <c r="K248" s="57"/>
+      <c r="L248" s="58"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -20344,11 +20596,11 @@
       <c r="I249" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="J249" s="75" t="s">
+      <c r="J249" s="56" t="s">
         <v>1863</v>
       </c>
-      <c r="K249" s="76"/>
-      <c r="L249" s="77"/>
+      <c r="K249" s="57"/>
+      <c r="L249" s="58"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -20388,11 +20640,11 @@
       <c r="I250" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="J250" s="75" t="s">
+      <c r="J250" s="56" t="s">
         <v>1867</v>
       </c>
-      <c r="K250" s="76"/>
-      <c r="L250" s="77"/>
+      <c r="K250" s="57"/>
+      <c r="L250" s="58"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -20434,11 +20686,11 @@
       <c r="I251" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="J251" s="75" t="s">
+      <c r="J251" s="56" t="s">
         <v>1871</v>
       </c>
-      <c r="K251" s="76"/>
-      <c r="L251" s="77"/>
+      <c r="K251" s="57"/>
+      <c r="L251" s="58"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -20480,11 +20732,11 @@
       <c r="I252" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="J252" s="75" t="s">
+      <c r="J252" s="56" t="s">
         <v>1875</v>
       </c>
-      <c r="K252" s="76"/>
-      <c r="L252" s="77"/>
+      <c r="K252" s="57"/>
+      <c r="L252" s="58"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -20524,9 +20776,9 @@
       <c r="I253" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="J253" s="75"/>
-      <c r="K253" s="76"/>
-      <c r="L253" s="77"/>
+      <c r="J253" s="56"/>
+      <c r="K253" s="57"/>
+      <c r="L253" s="58"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -20566,11 +20818,11 @@
       <c r="I254" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="J254" s="75" t="s">
+      <c r="J254" s="56" t="s">
         <v>1882</v>
       </c>
-      <c r="K254" s="76"/>
-      <c r="L254" s="77"/>
+      <c r="K254" s="57"/>
+      <c r="L254" s="58"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -20610,11 +20862,11 @@
       <c r="I255" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="J255" s="75" t="s">
+      <c r="J255" s="56" t="s">
         <v>1886</v>
       </c>
-      <c r="K255" s="76"/>
-      <c r="L255" s="77"/>
+      <c r="K255" s="57"/>
+      <c r="L255" s="58"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -20656,9 +20908,9 @@
       <c r="I256" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="J256" s="75"/>
-      <c r="K256" s="76"/>
-      <c r="L256" s="77"/>
+      <c r="J256" s="56"/>
+      <c r="K256" s="57"/>
+      <c r="L256" s="58"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -20700,11 +20952,11 @@
       <c r="I257" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="J257" s="75" t="s">
+      <c r="J257" s="56" t="s">
         <v>1893</v>
       </c>
-      <c r="K257" s="76"/>
-      <c r="L257" s="77"/>
+      <c r="K257" s="57"/>
+      <c r="L257" s="58"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -20746,9 +20998,9 @@
       <c r="I258" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="J258" s="75"/>
-      <c r="K258" s="76"/>
-      <c r="L258" s="77"/>
+      <c r="J258" s="56"/>
+      <c r="K258" s="57"/>
+      <c r="L258" s="58"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -20790,11 +21042,11 @@
       <c r="I259" s="53" t="s">
         <v>1899</v>
       </c>
-      <c r="J259" s="75" t="s">
+      <c r="J259" s="56" t="s">
         <v>1900</v>
       </c>
-      <c r="K259" s="76"/>
-      <c r="L259" s="77"/>
+      <c r="K259" s="57"/>
+      <c r="L259" s="58"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -20836,11 +21088,11 @@
       <c r="I260" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="J260" s="75" t="s">
+      <c r="J260" s="56" t="s">
         <v>1904</v>
       </c>
-      <c r="K260" s="76"/>
-      <c r="L260" s="77"/>
+      <c r="K260" s="57"/>
+      <c r="L260" s="58"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -20882,11 +21134,11 @@
       <c r="I261" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="J261" s="75" t="s">
+      <c r="J261" s="56" t="s">
         <v>1908</v>
       </c>
-      <c r="K261" s="76"/>
-      <c r="L261" s="77"/>
+      <c r="K261" s="57"/>
+      <c r="L261" s="58"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -20926,9 +21178,9 @@
       <c r="I262" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="J262" s="75"/>
-      <c r="K262" s="76"/>
-      <c r="L262" s="77"/>
+      <c r="J262" s="56"/>
+      <c r="K262" s="57"/>
+      <c r="L262" s="58"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -20970,11 +21222,11 @@
       <c r="I263" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="J263" s="75" t="s">
+      <c r="J263" s="56" t="s">
         <v>1914</v>
       </c>
-      <c r="K263" s="76"/>
-      <c r="L263" s="77"/>
+      <c r="K263" s="57"/>
+      <c r="L263" s="58"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -21005,14 +21257,14 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="56">
+      <c r="G264" s="59">
         <v>43019</v>
       </c>
-      <c r="H264" s="57"/>
-      <c r="I264" s="57"/>
-      <c r="J264" s="57"/>
-      <c r="K264" s="57"/>
-      <c r="L264" s="58"/>
+      <c r="H264" s="60"/>
+      <c r="I264" s="60"/>
+      <c r="J264" s="60"/>
+      <c r="K264" s="60"/>
+      <c r="L264" s="61"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -21052,11 +21304,11 @@
       <c r="I265" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="J265" s="75" t="s">
+      <c r="J265" s="56" t="s">
         <v>1918</v>
       </c>
-      <c r="K265" s="76"/>
-      <c r="L265" s="77"/>
+      <c r="K265" s="57"/>
+      <c r="L265" s="58"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -21077,14 +21329,14 @@
       <c r="AD265" s="1"/>
     </row>
     <row r="266" spans="1:30">
-      <c r="A266" s="56">
+      <c r="A266" s="59">
         <v>43012</v>
       </c>
-      <c r="B266" s="57"/>
-      <c r="C266" s="57"/>
-      <c r="D266" s="57"/>
-      <c r="E266" s="57"/>
-      <c r="F266" s="58"/>
+      <c r="B266" s="60"/>
+      <c r="C266" s="60"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="60"/>
+      <c r="F266" s="61"/>
       <c r="G266" s="1" t="s">
         <v>1919</v>
       </c>
@@ -21094,11 +21346,11 @@
       <c r="I266" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="J266" s="75" t="s">
+      <c r="J266" s="56" t="s">
         <v>1922</v>
       </c>
-      <c r="K266" s="76"/>
-      <c r="L266" s="77"/>
+      <c r="K266" s="57"/>
+      <c r="L266" s="58"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -21140,11 +21392,11 @@
       <c r="I267" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="J267" s="75" t="s">
+      <c r="J267" s="56" t="s">
         <v>1926</v>
       </c>
-      <c r="K267" s="76"/>
-      <c r="L267" s="77"/>
+      <c r="K267" s="57"/>
+      <c r="L267" s="58"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -21186,11 +21438,11 @@
       <c r="I268" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="J268" s="75" t="s">
+      <c r="J268" s="56" t="s">
         <v>1930</v>
       </c>
-      <c r="K268" s="76"/>
-      <c r="L268" s="77"/>
+      <c r="K268" s="57"/>
+      <c r="L268" s="58"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -21232,11 +21484,11 @@
       <c r="I269" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="J269" s="75" t="s">
+      <c r="J269" s="56" t="s">
         <v>1934</v>
       </c>
-      <c r="K269" s="76"/>
-      <c r="L269" s="77"/>
+      <c r="K269" s="57"/>
+      <c r="L269" s="58"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -21278,9 +21530,9 @@
       <c r="I270" s="33" t="s">
         <v>1937</v>
       </c>
-      <c r="J270" s="75"/>
-      <c r="K270" s="76"/>
-      <c r="L270" s="77"/>
+      <c r="J270" s="56"/>
+      <c r="K270" s="57"/>
+      <c r="L270" s="58"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -21322,11 +21574,11 @@
       <c r="I271" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="J271" s="75" t="s">
+      <c r="J271" s="56" t="s">
         <v>1941</v>
       </c>
-      <c r="K271" s="76"/>
-      <c r="L271" s="77"/>
+      <c r="K271" s="57"/>
+      <c r="L271" s="58"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -21359,12 +21611,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="75"/>
-      <c r="K272" s="76"/>
-      <c r="L272" s="77"/>
+      <c r="G272" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J272" s="56" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K272" s="57"/>
+      <c r="L272" s="58"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -21397,12 +21657,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="75"/>
-      <c r="K273" s="76"/>
-      <c r="L273" s="77"/>
+      <c r="G273" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J273" s="56" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K273" s="57"/>
+      <c r="L273" s="58"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -21435,12 +21703,18 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
-      <c r="J274" s="75"/>
-      <c r="K274" s="76"/>
-      <c r="L274" s="77"/>
+      <c r="G274" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J274" s="56"/>
+      <c r="K274" s="57"/>
+      <c r="L274" s="58"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -21473,12 +21747,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
-      <c r="I275" s="1"/>
-      <c r="J275" s="75"/>
-      <c r="K275" s="76"/>
-      <c r="L275" s="77"/>
+      <c r="G275" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J275" s="56" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K275" s="57"/>
+      <c r="L275" s="58"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -21511,12 +21793,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="1"/>
-      <c r="J276" s="75"/>
-      <c r="K276" s="76"/>
-      <c r="L276" s="77"/>
+      <c r="G276" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J276" s="56" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K276" s="57"/>
+      <c r="L276" s="58"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -21549,12 +21839,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
-      <c r="J277" s="75"/>
-      <c r="K277" s="76"/>
-      <c r="L277" s="77"/>
+      <c r="G277" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J277" s="56" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K277" s="57"/>
+      <c r="L277" s="58"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -21587,12 +21885,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="75"/>
-      <c r="K278" s="76"/>
-      <c r="L278" s="77"/>
+      <c r="G278" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J278" s="56" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K278" s="57"/>
+      <c r="L278" s="58"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -21625,12 +21931,18 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="G279" s="1" t="s">
+        <v>1956</v>
+      </c>
       <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
-      <c r="J279" s="75"/>
-      <c r="K279" s="76"/>
-      <c r="L279" s="77"/>
+      <c r="I279" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="J279" s="56" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K279" s="57"/>
+      <c r="L279" s="58"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -21663,12 +21975,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
-      <c r="J280" s="75"/>
-      <c r="K280" s="76"/>
-      <c r="L280" s="77"/>
+      <c r="G280" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J280" s="56" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K280" s="57"/>
+      <c r="L280" s="58"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -21701,12 +22021,18 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="75"/>
-      <c r="K281" s="76"/>
-      <c r="L281" s="77"/>
+      <c r="G281" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J281" s="56"/>
+      <c r="K281" s="57"/>
+      <c r="L281" s="58"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -21737,12 +22063,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
-      <c r="J282" s="75"/>
-      <c r="K282" s="76"/>
-      <c r="L282" s="77"/>
+      <c r="G282" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J282" s="56" t="s">
+        <v>2003</v>
+      </c>
+      <c r="K282" s="57"/>
+      <c r="L282" s="58"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -21773,12 +22107,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
-      <c r="J283" s="75"/>
-      <c r="K283" s="76"/>
-      <c r="L283" s="77"/>
+      <c r="G283" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J283" s="56" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K283" s="57"/>
+      <c r="L283" s="58"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -21811,12 +22153,18 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
+      <c r="G284" s="1" t="s">
+        <v>1965</v>
+      </c>
       <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="75"/>
-      <c r="K284" s="76"/>
-      <c r="L284" s="77"/>
+      <c r="I284" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J284" s="56" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K284" s="57"/>
+      <c r="L284" s="58"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -21849,12 +22197,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="75"/>
-      <c r="K285" s="76"/>
-      <c r="L285" s="77"/>
+      <c r="G285" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J285" s="56" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K285" s="57"/>
+      <c r="L285" s="58"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -21887,12 +22243,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-      <c r="J286" s="75"/>
-      <c r="K286" s="76"/>
-      <c r="L286" s="77"/>
+      <c r="G286" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J286" s="56" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K286" s="57"/>
+      <c r="L286" s="58"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -21925,12 +22289,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="1"/>
-      <c r="J287" s="75"/>
-      <c r="K287" s="76"/>
-      <c r="L287" s="77"/>
+      <c r="G287" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J287" s="56" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K287" s="57"/>
+      <c r="L287" s="58"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -21963,12 +22335,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
-      <c r="J288" s="75"/>
-      <c r="K288" s="76"/>
-      <c r="L288" s="77"/>
+      <c r="G288" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J288" s="56" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K288" s="57"/>
+      <c r="L288" s="58"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -22001,12 +22381,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-      <c r="I289" s="1"/>
-      <c r="J289" s="75"/>
-      <c r="K289" s="76"/>
-      <c r="L289" s="77"/>
+      <c r="G289" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J289" s="56" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K289" s="57"/>
+      <c r="L289" s="58"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -22039,12 +22427,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
-      <c r="J290" s="75"/>
-      <c r="K290" s="76"/>
-      <c r="L290" s="77"/>
+      <c r="G290" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J290" s="56" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K290" s="57"/>
+      <c r="L290" s="58"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -22077,12 +22473,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="75"/>
-      <c r="K291" s="76"/>
-      <c r="L291" s="77"/>
+      <c r="G291" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J291" s="56" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K291" s="57"/>
+      <c r="L291" s="58"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -22115,12 +22519,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
-      <c r="I292" s="1"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="76"/>
-      <c r="L292" s="77"/>
+      <c r="G292" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J292" s="56" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K292" s="57"/>
+      <c r="L292" s="58"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -22153,12 +22565,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="75"/>
-      <c r="K293" s="76"/>
-      <c r="L293" s="77"/>
+      <c r="G293" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="J293" s="56" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K293" s="57"/>
+      <c r="L293" s="58"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -22192,9 +22612,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="75"/>
-      <c r="K294" s="76"/>
-      <c r="L294" s="77"/>
+      <c r="J294" s="56"/>
+      <c r="K294" s="57"/>
+      <c r="L294" s="58"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -22228,9 +22648,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="76"/>
-      <c r="L295" s="77"/>
+      <c r="J295" s="56"/>
+      <c r="K295" s="57"/>
+      <c r="L295" s="58"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -22266,9 +22686,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="75"/>
-      <c r="K296" s="76"/>
-      <c r="L296" s="77"/>
+      <c r="J296" s="56"/>
+      <c r="K296" s="57"/>
+      <c r="L296" s="58"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -22304,9 +22724,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="75"/>
-      <c r="K297" s="76"/>
-      <c r="L297" s="77"/>
+      <c r="J297" s="56"/>
+      <c r="K297" s="57"/>
+      <c r="L297" s="58"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -22342,9 +22762,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="75"/>
-      <c r="K298" s="76"/>
-      <c r="L298" s="77"/>
+      <c r="J298" s="56"/>
+      <c r="K298" s="57"/>
+      <c r="L298" s="58"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -22378,9 +22798,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="75"/>
-      <c r="K299" s="76"/>
-      <c r="L299" s="77"/>
+      <c r="J299" s="56"/>
+      <c r="K299" s="57"/>
+      <c r="L299" s="58"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -22401,20 +22821,20 @@
       <c r="AD299" s="1"/>
     </row>
     <row r="300" spans="1:30">
-      <c r="A300" s="56">
+      <c r="A300" s="59">
         <v>43013</v>
       </c>
-      <c r="B300" s="57"/>
-      <c r="C300" s="57"/>
-      <c r="D300" s="57"/>
-      <c r="E300" s="57"/>
-      <c r="F300" s="58"/>
+      <c r="B300" s="60"/>
+      <c r="C300" s="60"/>
+      <c r="D300" s="60"/>
+      <c r="E300" s="60"/>
+      <c r="F300" s="61"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="76"/>
-      <c r="L300" s="77"/>
+      <c r="J300" s="56"/>
+      <c r="K300" s="57"/>
+      <c r="L300" s="58"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -22444,17 +22864,17 @@
       <c r="C301" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D301" s="60" t="s">
+      <c r="D301" s="63" t="s">
         <v>1447</v>
       </c>
-      <c r="E301" s="61"/>
-      <c r="F301" s="62"/>
+      <c r="E301" s="64"/>
+      <c r="F301" s="65"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="76"/>
-      <c r="L301" s="77"/>
+      <c r="J301" s="56"/>
+      <c r="K301" s="57"/>
+      <c r="L301" s="58"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -22484,17 +22904,17 @@
       <c r="C302" s="50" t="s">
         <v>1449</v>
       </c>
-      <c r="D302" s="60" t="s">
+      <c r="D302" s="63" t="s">
         <v>1450</v>
       </c>
-      <c r="E302" s="61"/>
-      <c r="F302" s="62"/>
+      <c r="E302" s="64"/>
+      <c r="F302" s="65"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="75"/>
-      <c r="K302" s="76"/>
-      <c r="L302" s="77"/>
+      <c r="J302" s="56"/>
+      <c r="K302" s="57"/>
+      <c r="L302" s="58"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -22524,17 +22944,17 @@
       <c r="C303" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D303" s="60" t="s">
+      <c r="D303" s="63" t="s">
         <v>1452</v>
       </c>
-      <c r="E303" s="61"/>
-      <c r="F303" s="62"/>
+      <c r="E303" s="64"/>
+      <c r="F303" s="65"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="75"/>
-      <c r="K303" s="76"/>
-      <c r="L303" s="77"/>
+      <c r="J303" s="56"/>
+      <c r="K303" s="57"/>
+      <c r="L303" s="58"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -22564,17 +22984,17 @@
       <c r="C304" s="33" t="s">
         <v>1453</v>
       </c>
-      <c r="D304" s="60" t="s">
+      <c r="D304" s="63" t="s">
         <v>1454</v>
       </c>
-      <c r="E304" s="61"/>
-      <c r="F304" s="62"/>
+      <c r="E304" s="64"/>
+      <c r="F304" s="65"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="75"/>
-      <c r="K304" s="76"/>
-      <c r="L304" s="77"/>
+      <c r="J304" s="56"/>
+      <c r="K304" s="57"/>
+      <c r="L304" s="58"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -22604,17 +23024,17 @@
       <c r="C305" s="49" t="s">
         <v>1455</v>
       </c>
-      <c r="D305" s="60" t="s">
+      <c r="D305" s="63" t="s">
         <v>1456</v>
       </c>
-      <c r="E305" s="61"/>
-      <c r="F305" s="62"/>
+      <c r="E305" s="64"/>
+      <c r="F305" s="65"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="75"/>
-      <c r="K305" s="76"/>
-      <c r="L305" s="77"/>
+      <c r="J305" s="56"/>
+      <c r="K305" s="57"/>
+      <c r="L305" s="58"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -22644,17 +23064,17 @@
       <c r="C306" s="49" t="s">
         <v>1457</v>
       </c>
-      <c r="D306" s="60" t="s">
+      <c r="D306" s="63" t="s">
         <v>1458</v>
       </c>
-      <c r="E306" s="61"/>
-      <c r="F306" s="62"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="65"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="75"/>
-      <c r="K306" s="76"/>
-      <c r="L306" s="77"/>
+      <c r="J306" s="56"/>
+      <c r="K306" s="57"/>
+      <c r="L306" s="58"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -22684,17 +23104,17 @@
       <c r="C307" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D307" s="59" t="s">
+      <c r="D307" s="62" t="s">
         <v>1337</v>
       </c>
-      <c r="E307" s="59"/>
-      <c r="F307" s="59"/>
+      <c r="E307" s="62"/>
+      <c r="F307" s="62"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="75"/>
-      <c r="K307" s="76"/>
-      <c r="L307" s="77"/>
+      <c r="J307" s="56"/>
+      <c r="K307" s="57"/>
+      <c r="L307" s="58"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -22724,17 +23144,17 @@
       <c r="C308" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D308" s="75" t="s">
+      <c r="D308" s="56" t="s">
         <v>1342</v>
       </c>
-      <c r="E308" s="76"/>
-      <c r="F308" s="77"/>
+      <c r="E308" s="57"/>
+      <c r="F308" s="58"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="75"/>
-      <c r="K308" s="76"/>
-      <c r="L308" s="77"/>
+      <c r="J308" s="56"/>
+      <c r="K308" s="57"/>
+      <c r="L308" s="58"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -22764,17 +23184,17 @@
       <c r="C309" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D309" s="75" t="s">
+      <c r="D309" s="56" t="s">
         <v>1346</v>
       </c>
-      <c r="E309" s="76"/>
-      <c r="F309" s="77"/>
+      <c r="E309" s="57"/>
+      <c r="F309" s="58"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="75"/>
-      <c r="K309" s="76"/>
-      <c r="L309" s="77"/>
+      <c r="J309" s="56"/>
+      <c r="K309" s="57"/>
+      <c r="L309" s="58"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -22794,7 +23214,7 @@
       <c r="AC309" s="1"/>
       <c r="AD309" s="1"/>
     </row>
-    <row r="310" spans="1:30" ht="14.25">
+    <row r="310" spans="1:30">
       <c r="A310" s="1" t="s">
         <v>1347</v>
       </c>
@@ -22804,17 +23224,17 @@
       <c r="C310" s="51" t="s">
         <v>1349</v>
       </c>
-      <c r="D310" s="75" t="s">
+      <c r="D310" s="56" t="s">
         <v>1350</v>
       </c>
-      <c r="E310" s="76"/>
-      <c r="F310" s="77"/>
+      <c r="E310" s="57"/>
+      <c r="F310" s="58"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="75"/>
-      <c r="K310" s="76"/>
-      <c r="L310" s="77"/>
+      <c r="J310" s="56"/>
+      <c r="K310" s="57"/>
+      <c r="L310" s="58"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -22834,7 +23254,7 @@
       <c r="AC310" s="1"/>
       <c r="AD310" s="1"/>
     </row>
-    <row r="311" spans="1:30" ht="14.25">
+    <row r="311" spans="1:30">
       <c r="A311" s="1" t="s">
         <v>1351</v>
       </c>
@@ -22844,17 +23264,17 @@
       <c r="C311" s="51" t="s">
         <v>1353</v>
       </c>
-      <c r="D311" s="75" t="s">
+      <c r="D311" s="56" t="s">
         <v>1354</v>
       </c>
-      <c r="E311" s="76"/>
-      <c r="F311" s="77"/>
+      <c r="E311" s="57"/>
+      <c r="F311" s="58"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="75"/>
-      <c r="K311" s="76"/>
-      <c r="L311" s="77"/>
+      <c r="J311" s="56"/>
+      <c r="K311" s="57"/>
+      <c r="L311" s="58"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -22884,17 +23304,17 @@
       <c r="C312" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D312" s="75" t="s">
+      <c r="D312" s="56" t="s">
         <v>1357</v>
       </c>
-      <c r="E312" s="76"/>
-      <c r="F312" s="77"/>
+      <c r="E312" s="57"/>
+      <c r="F312" s="58"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="75"/>
-      <c r="K312" s="76"/>
-      <c r="L312" s="77"/>
+      <c r="J312" s="56"/>
+      <c r="K312" s="57"/>
+      <c r="L312" s="58"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -22914,7 +23334,7 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="1:30" ht="14.25">
+    <row r="313" spans="1:30">
       <c r="A313" s="1" t="s">
         <v>1358</v>
       </c>
@@ -22924,17 +23344,17 @@
       <c r="C313" s="51" t="s">
         <v>1361</v>
       </c>
-      <c r="D313" s="75" t="s">
+      <c r="D313" s="56" t="s">
         <v>1360</v>
       </c>
-      <c r="E313" s="76"/>
-      <c r="F313" s="77"/>
+      <c r="E313" s="57"/>
+      <c r="F313" s="58"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="75"/>
-      <c r="K313" s="76"/>
-      <c r="L313" s="77"/>
+      <c r="J313" s="56"/>
+      <c r="K313" s="57"/>
+      <c r="L313" s="58"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -22964,17 +23384,17 @@
       <c r="C314" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D314" s="75" t="s">
+      <c r="D314" s="56" t="s">
         <v>1364</v>
       </c>
-      <c r="E314" s="76"/>
-      <c r="F314" s="77"/>
+      <c r="E314" s="57"/>
+      <c r="F314" s="58"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="75"/>
-      <c r="K314" s="76"/>
-      <c r="L314" s="77"/>
+      <c r="J314" s="56"/>
+      <c r="K314" s="57"/>
+      <c r="L314" s="58"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -23004,17 +23424,17 @@
       <c r="C315" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D315" s="75" t="s">
+      <c r="D315" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="E315" s="76"/>
-      <c r="F315" s="77"/>
+      <c r="E315" s="57"/>
+      <c r="F315" s="58"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="75"/>
-      <c r="K315" s="76"/>
-      <c r="L315" s="77"/>
+      <c r="J315" s="56"/>
+      <c r="K315" s="57"/>
+      <c r="L315" s="58"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -23042,17 +23462,17 @@
       <c r="C316" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D316" s="75" t="s">
+      <c r="D316" s="56" t="s">
         <v>1371</v>
       </c>
-      <c r="E316" s="76"/>
-      <c r="F316" s="77"/>
+      <c r="E316" s="57"/>
+      <c r="F316" s="58"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="75"/>
-      <c r="K316" s="76"/>
-      <c r="L316" s="77"/>
+      <c r="J316" s="56"/>
+      <c r="K316" s="57"/>
+      <c r="L316" s="58"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -23080,17 +23500,17 @@
       <c r="C317" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D317" s="75" t="s">
+      <c r="D317" s="56" t="s">
         <v>1374</v>
       </c>
-      <c r="E317" s="76"/>
-      <c r="F317" s="77"/>
+      <c r="E317" s="57"/>
+      <c r="F317" s="58"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="75"/>
-      <c r="K317" s="76"/>
-      <c r="L317" s="77"/>
+      <c r="J317" s="56"/>
+      <c r="K317" s="57"/>
+      <c r="L317" s="58"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -23110,7 +23530,7 @@
       <c r="AC317" s="1"/>
       <c r="AD317" s="1"/>
     </row>
-    <row r="318" spans="1:30" ht="14.25">
+    <row r="318" spans="1:30">
       <c r="A318" s="1" t="s">
         <v>1375</v>
       </c>
@@ -23120,17 +23540,17 @@
       <c r="C318" s="51" t="s">
         <v>1376</v>
       </c>
-      <c r="D318" s="75" t="s">
+      <c r="D318" s="56" t="s">
         <v>1377</v>
       </c>
-      <c r="E318" s="76"/>
-      <c r="F318" s="77"/>
+      <c r="E318" s="57"/>
+      <c r="F318" s="58"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="75"/>
-      <c r="K318" s="76"/>
-      <c r="L318" s="77"/>
+      <c r="J318" s="56"/>
+      <c r="K318" s="57"/>
+      <c r="L318" s="58"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -23160,17 +23580,17 @@
       <c r="C319" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D319" s="75" t="s">
+      <c r="D319" s="56" t="s">
         <v>1381</v>
       </c>
-      <c r="E319" s="76"/>
-      <c r="F319" s="77"/>
+      <c r="E319" s="57"/>
+      <c r="F319" s="58"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="75"/>
-      <c r="K319" s="76"/>
-      <c r="L319" s="77"/>
+      <c r="J319" s="56"/>
+      <c r="K319" s="57"/>
+      <c r="L319" s="58"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -23200,17 +23620,17 @@
       <c r="C320" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D320" s="75" t="s">
+      <c r="D320" s="56" t="s">
         <v>1385</v>
       </c>
-      <c r="E320" s="76"/>
-      <c r="F320" s="77"/>
+      <c r="E320" s="57"/>
+      <c r="F320" s="58"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="75"/>
-      <c r="K320" s="76"/>
-      <c r="L320" s="77"/>
+      <c r="J320" s="56"/>
+      <c r="K320" s="57"/>
+      <c r="L320" s="58"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -23240,17 +23660,17 @@
       <c r="C321" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D321" s="75" t="s">
+      <c r="D321" s="56" t="s">
         <v>1389</v>
       </c>
-      <c r="E321" s="76"/>
-      <c r="F321" s="77"/>
+      <c r="E321" s="57"/>
+      <c r="F321" s="58"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="75"/>
-      <c r="K321" s="76"/>
-      <c r="L321" s="77"/>
+      <c r="J321" s="56"/>
+      <c r="K321" s="57"/>
+      <c r="L321" s="58"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -23280,17 +23700,17 @@
       <c r="C322" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="D322" s="75" t="s">
+      <c r="D322" s="56" t="s">
         <v>1393</v>
       </c>
-      <c r="E322" s="76"/>
-      <c r="F322" s="77"/>
+      <c r="E322" s="57"/>
+      <c r="F322" s="58"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="75"/>
-      <c r="K322" s="76"/>
-      <c r="L322" s="77"/>
+      <c r="J322" s="56"/>
+      <c r="K322" s="57"/>
+      <c r="L322" s="58"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -23320,17 +23740,17 @@
       <c r="C323" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D323" s="75" t="s">
+      <c r="D323" s="56" t="s">
         <v>1397</v>
       </c>
-      <c r="E323" s="76"/>
-      <c r="F323" s="77"/>
+      <c r="E323" s="57"/>
+      <c r="F323" s="58"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="75"/>
-      <c r="K323" s="76"/>
-      <c r="L323" s="77"/>
+      <c r="J323" s="56"/>
+      <c r="K323" s="57"/>
+      <c r="L323" s="58"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -23350,7 +23770,7 @@
       <c r="AC323" s="1"/>
       <c r="AD323" s="1"/>
     </row>
-    <row r="324" spans="1:30" ht="14.25">
+    <row r="324" spans="1:30">
       <c r="A324" s="1" t="s">
         <v>1398</v>
       </c>
@@ -23358,17 +23778,17 @@
       <c r="C324" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="D324" s="75" t="s">
+      <c r="D324" s="56" t="s">
         <v>1399</v>
       </c>
-      <c r="E324" s="76"/>
-      <c r="F324" s="77"/>
+      <c r="E324" s="57"/>
+      <c r="F324" s="58"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="75"/>
-      <c r="K324" s="76"/>
-      <c r="L324" s="77"/>
+      <c r="J324" s="56"/>
+      <c r="K324" s="57"/>
+      <c r="L324" s="58"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -23388,7 +23808,7 @@
       <c r="AC324" s="1"/>
       <c r="AD324" s="1"/>
     </row>
-    <row r="325" spans="1:30" ht="14.25">
+    <row r="325" spans="1:30">
       <c r="A325" s="1" t="s">
         <v>1401</v>
       </c>
@@ -23396,17 +23816,17 @@
       <c r="C325" s="51" t="s">
         <v>1402</v>
       </c>
-      <c r="D325" s="75" t="s">
+      <c r="D325" s="56" t="s">
         <v>1403</v>
       </c>
-      <c r="E325" s="76"/>
-      <c r="F325" s="77"/>
+      <c r="E325" s="57"/>
+      <c r="F325" s="58"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="75"/>
-      <c r="K325" s="76"/>
-      <c r="L325" s="77"/>
+      <c r="J325" s="56"/>
+      <c r="K325" s="57"/>
+      <c r="L325" s="58"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -23434,17 +23854,17 @@
       <c r="C326" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D326" s="75" t="s">
+      <c r="D326" s="56" t="s">
         <v>1406</v>
       </c>
-      <c r="E326" s="76"/>
-      <c r="F326" s="77"/>
+      <c r="E326" s="57"/>
+      <c r="F326" s="58"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="75"/>
-      <c r="K326" s="76"/>
-      <c r="L326" s="77"/>
+      <c r="J326" s="56"/>
+      <c r="K326" s="57"/>
+      <c r="L326" s="58"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -23465,20 +23885,20 @@
       <c r="AD326" s="1"/>
     </row>
     <row r="327" spans="1:30">
-      <c r="A327" s="56">
+      <c r="A327" s="59">
         <v>43014</v>
       </c>
-      <c r="B327" s="57"/>
-      <c r="C327" s="57"/>
-      <c r="D327" s="57"/>
-      <c r="E327" s="57"/>
-      <c r="F327" s="58"/>
+      <c r="B327" s="60"/>
+      <c r="C327" s="60"/>
+      <c r="D327" s="60"/>
+      <c r="E327" s="60"/>
+      <c r="F327" s="61"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="75"/>
-      <c r="K327" s="76"/>
-      <c r="L327" s="77"/>
+      <c r="J327" s="56"/>
+      <c r="K327" s="57"/>
+      <c r="L327" s="58"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -23508,17 +23928,17 @@
       <c r="C328" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D328" s="75" t="s">
+      <c r="D328" s="56" t="s">
         <v>1410</v>
       </c>
-      <c r="E328" s="76"/>
-      <c r="F328" s="77"/>
+      <c r="E328" s="57"/>
+      <c r="F328" s="58"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="75"/>
-      <c r="K328" s="76"/>
-      <c r="L328" s="77"/>
+      <c r="J328" s="56"/>
+      <c r="K328" s="57"/>
+      <c r="L328" s="58"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -23548,17 +23968,17 @@
       <c r="C329" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="D329" s="75" t="s">
+      <c r="D329" s="56" t="s">
         <v>1414</v>
       </c>
-      <c r="E329" s="76"/>
-      <c r="F329" s="77"/>
+      <c r="E329" s="57"/>
+      <c r="F329" s="58"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="75"/>
-      <c r="K329" s="76"/>
-      <c r="L329" s="77"/>
+      <c r="J329" s="56"/>
+      <c r="K329" s="57"/>
+      <c r="L329" s="58"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -23588,17 +24008,17 @@
       <c r="C330" s="19" t="s">
         <v>1417</v>
       </c>
-      <c r="D330" s="75" t="s">
+      <c r="D330" s="56" t="s">
         <v>1418</v>
       </c>
-      <c r="E330" s="76"/>
-      <c r="F330" s="77"/>
+      <c r="E330" s="57"/>
+      <c r="F330" s="58"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="75"/>
-      <c r="K330" s="76"/>
-      <c r="L330" s="77"/>
+      <c r="J330" s="56"/>
+      <c r="K330" s="57"/>
+      <c r="L330" s="58"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -23628,17 +24048,17 @@
       <c r="C331" s="19" t="s">
         <v>1421</v>
       </c>
-      <c r="D331" s="75" t="s">
+      <c r="D331" s="56" t="s">
         <v>1422</v>
       </c>
-      <c r="E331" s="76"/>
-      <c r="F331" s="77"/>
+      <c r="E331" s="57"/>
+      <c r="F331" s="58"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="75"/>
-      <c r="K331" s="76"/>
-      <c r="L331" s="77"/>
+      <c r="J331" s="56"/>
+      <c r="K331" s="57"/>
+      <c r="L331" s="58"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -23668,17 +24088,17 @@
       <c r="C332" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="D332" s="75" t="s">
+      <c r="D332" s="56" t="s">
         <v>1426</v>
       </c>
-      <c r="E332" s="76"/>
-      <c r="F332" s="77"/>
+      <c r="E332" s="57"/>
+      <c r="F332" s="58"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="75"/>
-      <c r="K332" s="76"/>
-      <c r="L332" s="77"/>
+      <c r="J332" s="56"/>
+      <c r="K332" s="57"/>
+      <c r="L332" s="58"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -23708,17 +24128,17 @@
       <c r="C333" s="52" t="s">
         <v>1429</v>
       </c>
-      <c r="D333" s="75" t="s">
+      <c r="D333" s="56" t="s">
         <v>1430</v>
       </c>
-      <c r="E333" s="76"/>
-      <c r="F333" s="77"/>
+      <c r="E333" s="57"/>
+      <c r="F333" s="58"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="75"/>
-      <c r="K333" s="76"/>
-      <c r="L333" s="77"/>
+      <c r="J333" s="56"/>
+      <c r="K333" s="57"/>
+      <c r="L333" s="58"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -23748,17 +24168,17 @@
       <c r="C334" s="52" t="s">
         <v>1433</v>
       </c>
-      <c r="D334" s="75" t="s">
+      <c r="D334" s="56" t="s">
         <v>1434</v>
       </c>
-      <c r="E334" s="76"/>
-      <c r="F334" s="77"/>
+      <c r="E334" s="57"/>
+      <c r="F334" s="58"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="75"/>
-      <c r="K334" s="76"/>
-      <c r="L334" s="77"/>
+      <c r="J334" s="56"/>
+      <c r="K334" s="57"/>
+      <c r="L334" s="58"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -23788,17 +24208,17 @@
       <c r="C335" s="20" t="s">
         <v>1437</v>
       </c>
-      <c r="D335" s="75" t="s">
+      <c r="D335" s="56" t="s">
         <v>1438</v>
       </c>
-      <c r="E335" s="76"/>
-      <c r="F335" s="77"/>
+      <c r="E335" s="57"/>
+      <c r="F335" s="58"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="75"/>
-      <c r="K335" s="76"/>
-      <c r="L335" s="77"/>
+      <c r="J335" s="56"/>
+      <c r="K335" s="57"/>
+      <c r="L335" s="58"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -23828,17 +24248,17 @@
       <c r="C336" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D336" s="75" t="s">
+      <c r="D336" s="56" t="s">
         <v>1442</v>
       </c>
-      <c r="E336" s="76"/>
-      <c r="F336" s="77"/>
+      <c r="E336" s="57"/>
+      <c r="F336" s="58"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="75"/>
-      <c r="K336" s="76"/>
-      <c r="L336" s="77"/>
+      <c r="J336" s="56"/>
+      <c r="K336" s="57"/>
+      <c r="L336" s="58"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -23868,17 +24288,17 @@
       <c r="C337" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D337" s="75" t="s">
+      <c r="D337" s="56" t="s">
         <v>1446</v>
       </c>
-      <c r="E337" s="76"/>
-      <c r="F337" s="77"/>
+      <c r="E337" s="57"/>
+      <c r="F337" s="58"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="75"/>
-      <c r="K337" s="76"/>
-      <c r="L337" s="77"/>
+      <c r="J337" s="56"/>
+      <c r="K337" s="57"/>
+      <c r="L337" s="58"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -23908,17 +24328,17 @@
       <c r="C338" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="D338" s="75" t="s">
+      <c r="D338" s="56" t="s">
         <v>1462</v>
       </c>
-      <c r="E338" s="76"/>
-      <c r="F338" s="77"/>
+      <c r="E338" s="57"/>
+      <c r="F338" s="58"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="75"/>
-      <c r="K338" s="76"/>
-      <c r="L338" s="77"/>
+      <c r="J338" s="56"/>
+      <c r="K338" s="57"/>
+      <c r="L338" s="58"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -23948,15 +24368,15 @@
       <c r="C339" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D339" s="75"/>
-      <c r="E339" s="76"/>
-      <c r="F339" s="77"/>
+      <c r="D339" s="56"/>
+      <c r="E339" s="57"/>
+      <c r="F339" s="58"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="75"/>
-      <c r="K339" s="76"/>
-      <c r="L339" s="77"/>
+      <c r="J339" s="56"/>
+      <c r="K339" s="57"/>
+      <c r="L339" s="58"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -23986,17 +24406,17 @@
       <c r="C340" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D340" s="75" t="s">
+      <c r="D340" s="56" t="s">
         <v>1469</v>
       </c>
-      <c r="E340" s="76"/>
-      <c r="F340" s="77"/>
+      <c r="E340" s="57"/>
+      <c r="F340" s="58"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="75"/>
-      <c r="K340" s="76"/>
-      <c r="L340" s="77"/>
+      <c r="J340" s="56"/>
+      <c r="K340" s="57"/>
+      <c r="L340" s="58"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -24026,17 +24446,17 @@
       <c r="C341" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="D341" s="75" t="s">
+      <c r="D341" s="56" t="s">
         <v>1473</v>
       </c>
-      <c r="E341" s="76"/>
-      <c r="F341" s="77"/>
+      <c r="E341" s="57"/>
+      <c r="F341" s="58"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="75"/>
-      <c r="K341" s="76"/>
-      <c r="L341" s="77"/>
+      <c r="J341" s="56"/>
+      <c r="K341" s="57"/>
+      <c r="L341" s="58"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -24066,17 +24486,17 @@
       <c r="C342" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="D342" s="75" t="s">
+      <c r="D342" s="56" t="s">
         <v>1477</v>
       </c>
-      <c r="E342" s="76"/>
-      <c r="F342" s="77"/>
+      <c r="E342" s="57"/>
+      <c r="F342" s="58"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="75"/>
-      <c r="K342" s="76"/>
-      <c r="L342" s="77"/>
+      <c r="J342" s="56"/>
+      <c r="K342" s="57"/>
+      <c r="L342" s="58"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -24106,17 +24526,17 @@
       <c r="C343" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D343" s="75" t="s">
+      <c r="D343" s="56" t="s">
         <v>1481</v>
       </c>
-      <c r="E343" s="76"/>
-      <c r="F343" s="77"/>
+      <c r="E343" s="57"/>
+      <c r="F343" s="58"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="75"/>
-      <c r="K343" s="76"/>
-      <c r="L343" s="77"/>
+      <c r="J343" s="56"/>
+      <c r="K343" s="57"/>
+      <c r="L343" s="58"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -24146,17 +24566,17 @@
       <c r="C344" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D344" s="75" t="s">
+      <c r="D344" s="56" t="s">
         <v>1485</v>
       </c>
-      <c r="E344" s="76"/>
-      <c r="F344" s="77"/>
+      <c r="E344" s="57"/>
+      <c r="F344" s="58"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="75"/>
-      <c r="K344" s="76"/>
-      <c r="L344" s="77"/>
+      <c r="J344" s="56"/>
+      <c r="K344" s="57"/>
+      <c r="L344" s="58"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -24186,17 +24606,17 @@
       <c r="C345" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="D345" s="75" t="s">
+      <c r="D345" s="56" t="s">
         <v>1489</v>
       </c>
-      <c r="E345" s="76"/>
-      <c r="F345" s="77"/>
+      <c r="E345" s="57"/>
+      <c r="F345" s="58"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="75"/>
-      <c r="K345" s="76"/>
-      <c r="L345" s="77"/>
+      <c r="J345" s="56"/>
+      <c r="K345" s="57"/>
+      <c r="L345" s="58"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -24224,17 +24644,17 @@
       <c r="C346" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="D346" s="75" t="s">
+      <c r="D346" s="56" t="s">
         <v>1492</v>
       </c>
-      <c r="E346" s="76"/>
-      <c r="F346" s="77"/>
+      <c r="E346" s="57"/>
+      <c r="F346" s="58"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="75"/>
-      <c r="K346" s="76"/>
-      <c r="L346" s="77"/>
+      <c r="J346" s="56"/>
+      <c r="K346" s="57"/>
+      <c r="L346" s="58"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -24262,17 +24682,17 @@
       <c r="C347" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D347" s="75" t="s">
+      <c r="D347" s="56" t="s">
         <v>1495</v>
       </c>
-      <c r="E347" s="76"/>
-      <c r="F347" s="77"/>
+      <c r="E347" s="57"/>
+      <c r="F347" s="58"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="75"/>
-      <c r="K347" s="76"/>
-      <c r="L347" s="77"/>
+      <c r="J347" s="56"/>
+      <c r="K347" s="57"/>
+      <c r="L347" s="58"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -24300,17 +24720,17 @@
       <c r="C348" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="D348" s="75" t="s">
+      <c r="D348" s="56" t="s">
         <v>1498</v>
       </c>
-      <c r="E348" s="76"/>
-      <c r="F348" s="77"/>
+      <c r="E348" s="57"/>
+      <c r="F348" s="58"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="75"/>
-      <c r="K348" s="76"/>
-      <c r="L348" s="77"/>
+      <c r="J348" s="56"/>
+      <c r="K348" s="57"/>
+      <c r="L348" s="58"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -24331,20 +24751,20 @@
       <c r="AD348" s="1"/>
     </row>
     <row r="349" spans="1:30">
-      <c r="A349" s="56">
+      <c r="A349" s="59">
         <v>43015</v>
       </c>
-      <c r="B349" s="57"/>
-      <c r="C349" s="57"/>
-      <c r="D349" s="57"/>
-      <c r="E349" s="57"/>
-      <c r="F349" s="58"/>
+      <c r="B349" s="60"/>
+      <c r="C349" s="60"/>
+      <c r="D349" s="60"/>
+      <c r="E349" s="60"/>
+      <c r="F349" s="61"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="75"/>
-      <c r="K349" s="76"/>
-      <c r="L349" s="77"/>
+      <c r="J349" s="56"/>
+      <c r="K349" s="57"/>
+      <c r="L349" s="58"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -24372,17 +24792,17 @@
       <c r="C350" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D350" s="75" t="s">
+      <c r="D350" s="56" t="s">
         <v>1501</v>
       </c>
-      <c r="E350" s="76"/>
-      <c r="F350" s="77"/>
+      <c r="E350" s="57"/>
+      <c r="F350" s="58"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="75"/>
-      <c r="K350" s="76"/>
-      <c r="L350" s="77"/>
+      <c r="J350" s="56"/>
+      <c r="K350" s="57"/>
+      <c r="L350" s="58"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -24412,17 +24832,17 @@
       <c r="C351" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="D351" s="75" t="s">
+      <c r="D351" s="56" t="s">
         <v>1505</v>
       </c>
-      <c r="E351" s="76"/>
-      <c r="F351" s="77"/>
+      <c r="E351" s="57"/>
+      <c r="F351" s="58"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="75"/>
-      <c r="K351" s="76"/>
-      <c r="L351" s="77"/>
+      <c r="J351" s="56"/>
+      <c r="K351" s="57"/>
+      <c r="L351" s="58"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -24452,17 +24872,17 @@
       <c r="C352" s="53" t="s">
         <v>1508</v>
       </c>
-      <c r="D352" s="75" t="s">
+      <c r="D352" s="56" t="s">
         <v>1509</v>
       </c>
-      <c r="E352" s="76"/>
-      <c r="F352" s="77"/>
+      <c r="E352" s="57"/>
+      <c r="F352" s="58"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="75"/>
-      <c r="K352" s="76"/>
-      <c r="L352" s="77"/>
+      <c r="J352" s="56"/>
+      <c r="K352" s="57"/>
+      <c r="L352" s="58"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -24492,17 +24912,17 @@
       <c r="C353" s="53" t="s">
         <v>1512</v>
       </c>
-      <c r="D353" s="75" t="s">
+      <c r="D353" s="56" t="s">
         <v>1513</v>
       </c>
-      <c r="E353" s="76"/>
-      <c r="F353" s="77"/>
+      <c r="E353" s="57"/>
+      <c r="F353" s="58"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="75"/>
-      <c r="K353" s="76"/>
-      <c r="L353" s="77"/>
+      <c r="J353" s="56"/>
+      <c r="K353" s="57"/>
+      <c r="L353" s="58"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -24532,17 +24952,17 @@
       <c r="C354" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D354" s="75" t="s">
+      <c r="D354" s="56" t="s">
         <v>1517</v>
       </c>
-      <c r="E354" s="76"/>
-      <c r="F354" s="77"/>
+      <c r="E354" s="57"/>
+      <c r="F354" s="58"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="75"/>
-      <c r="K354" s="76"/>
-      <c r="L354" s="77"/>
+      <c r="J354" s="56"/>
+      <c r="K354" s="57"/>
+      <c r="L354" s="58"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -24572,15 +24992,15 @@
       <c r="C355" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D355" s="75"/>
-      <c r="E355" s="76"/>
-      <c r="F355" s="77"/>
+      <c r="D355" s="56"/>
+      <c r="E355" s="57"/>
+      <c r="F355" s="58"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="75"/>
-      <c r="K355" s="76"/>
-      <c r="L355" s="77"/>
+      <c r="J355" s="56"/>
+      <c r="K355" s="57"/>
+      <c r="L355" s="58"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -24610,17 +25030,17 @@
       <c r="C356" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D356" s="75" t="s">
+      <c r="D356" s="56" t="s">
         <v>1524</v>
       </c>
-      <c r="E356" s="76"/>
-      <c r="F356" s="77"/>
+      <c r="E356" s="57"/>
+      <c r="F356" s="58"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="75"/>
-      <c r="K356" s="76"/>
-      <c r="L356" s="77"/>
+      <c r="J356" s="56"/>
+      <c r="K356" s="57"/>
+      <c r="L356" s="58"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -24650,17 +25070,17 @@
       <c r="C357" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D357" s="75" t="s">
+      <c r="D357" s="56" t="s">
         <v>1528</v>
       </c>
-      <c r="E357" s="76"/>
-      <c r="F357" s="77"/>
+      <c r="E357" s="57"/>
+      <c r="F357" s="58"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="75"/>
-      <c r="K357" s="76"/>
-      <c r="L357" s="77"/>
+      <c r="J357" s="56"/>
+      <c r="K357" s="57"/>
+      <c r="L357" s="58"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -24690,17 +25110,17 @@
       <c r="C358" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D358" s="75" t="s">
+      <c r="D358" s="56" t="s">
         <v>1532</v>
       </c>
-      <c r="E358" s="76"/>
-      <c r="F358" s="77"/>
+      <c r="E358" s="57"/>
+      <c r="F358" s="58"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="75"/>
-      <c r="K358" s="76"/>
-      <c r="L358" s="77"/>
+      <c r="J358" s="56"/>
+      <c r="K358" s="57"/>
+      <c r="L358" s="58"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -24730,17 +25150,17 @@
       <c r="C359" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D359" s="75" t="s">
+      <c r="D359" s="56" t="s">
         <v>1536</v>
       </c>
-      <c r="E359" s="76"/>
-      <c r="F359" s="77"/>
+      <c r="E359" s="57"/>
+      <c r="F359" s="58"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="75"/>
-      <c r="K359" s="76"/>
-      <c r="L359" s="77"/>
+      <c r="J359" s="56"/>
+      <c r="K359" s="57"/>
+      <c r="L359" s="58"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -24770,17 +25190,17 @@
       <c r="C360" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D360" s="75" t="s">
+      <c r="D360" s="56" t="s">
         <v>1540</v>
       </c>
-      <c r="E360" s="76"/>
-      <c r="F360" s="77"/>
+      <c r="E360" s="57"/>
+      <c r="F360" s="58"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="75"/>
-      <c r="K360" s="76"/>
-      <c r="L360" s="77"/>
+      <c r="J360" s="56"/>
+      <c r="K360" s="57"/>
+      <c r="L360" s="58"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -24810,17 +25230,17 @@
       <c r="C361" s="53" t="s">
         <v>1543</v>
       </c>
-      <c r="D361" s="75" t="s">
+      <c r="D361" s="56" t="s">
         <v>1544</v>
       </c>
-      <c r="E361" s="76"/>
-      <c r="F361" s="77"/>
+      <c r="E361" s="57"/>
+      <c r="F361" s="58"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="75"/>
-      <c r="K361" s="76"/>
-      <c r="L361" s="77"/>
+      <c r="J361" s="56"/>
+      <c r="K361" s="57"/>
+      <c r="L361" s="58"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -24850,17 +25270,17 @@
       <c r="C362" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D362" s="75" t="s">
+      <c r="D362" s="56" t="s">
         <v>1548</v>
       </c>
-      <c r="E362" s="76"/>
-      <c r="F362" s="77"/>
+      <c r="E362" s="57"/>
+      <c r="F362" s="58"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="75"/>
-      <c r="K362" s="76"/>
-      <c r="L362" s="77"/>
+      <c r="J362" s="56"/>
+      <c r="K362" s="57"/>
+      <c r="L362" s="58"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -24880,7 +25300,7 @@
       <c r="AC362" s="1"/>
       <c r="AD362" s="1"/>
     </row>
-    <row r="363" spans="1:30" ht="14.25">
+    <row r="363" spans="1:30">
       <c r="A363" s="1" t="s">
         <v>1549</v>
       </c>
@@ -24890,15 +25310,15 @@
       <c r="C363" s="51" t="s">
         <v>1551</v>
       </c>
-      <c r="D363" s="75"/>
-      <c r="E363" s="76"/>
-      <c r="F363" s="77"/>
+      <c r="D363" s="56"/>
+      <c r="E363" s="57"/>
+      <c r="F363" s="58"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="75"/>
-      <c r="K363" s="76"/>
-      <c r="L363" s="77"/>
+      <c r="J363" s="56"/>
+      <c r="K363" s="57"/>
+      <c r="L363" s="58"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -24928,17 +25348,17 @@
       <c r="C364" s="53" t="s">
         <v>1554</v>
       </c>
-      <c r="D364" s="75" t="s">
+      <c r="D364" s="56" t="s">
         <v>1555</v>
       </c>
-      <c r="E364" s="76"/>
-      <c r="F364" s="77"/>
+      <c r="E364" s="57"/>
+      <c r="F364" s="58"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="75"/>
-      <c r="K364" s="76"/>
-      <c r="L364" s="77"/>
+      <c r="J364" s="56"/>
+      <c r="K364" s="57"/>
+      <c r="L364" s="58"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -24968,17 +25388,17 @@
       <c r="C365" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D365" s="75" t="s">
+      <c r="D365" s="56" t="s">
         <v>1559</v>
       </c>
-      <c r="E365" s="76"/>
-      <c r="F365" s="77"/>
+      <c r="E365" s="57"/>
+      <c r="F365" s="58"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="75"/>
-      <c r="K365" s="76"/>
-      <c r="L365" s="77"/>
+      <c r="J365" s="56"/>
+      <c r="K365" s="57"/>
+      <c r="L365" s="58"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -25008,17 +25428,17 @@
       <c r="C366" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D366" s="75" t="s">
+      <c r="D366" s="56" t="s">
         <v>1563</v>
       </c>
-      <c r="E366" s="76"/>
-      <c r="F366" s="77"/>
+      <c r="E366" s="57"/>
+      <c r="F366" s="58"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="75"/>
-      <c r="K366" s="76"/>
-      <c r="L366" s="77"/>
+      <c r="J366" s="56"/>
+      <c r="K366" s="57"/>
+      <c r="L366" s="58"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -25048,17 +25468,17 @@
       <c r="C367" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D367" s="75" t="s">
+      <c r="D367" s="56" t="s">
         <v>1566</v>
       </c>
-      <c r="E367" s="76"/>
-      <c r="F367" s="77"/>
+      <c r="E367" s="57"/>
+      <c r="F367" s="58"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="75"/>
-      <c r="K367" s="76"/>
-      <c r="L367" s="77"/>
+      <c r="J367" s="56"/>
+      <c r="K367" s="57"/>
+      <c r="L367" s="58"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -25088,17 +25508,17 @@
       <c r="C368" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D368" s="75" t="s">
+      <c r="D368" s="56" t="s">
         <v>1570</v>
       </c>
-      <c r="E368" s="76"/>
-      <c r="F368" s="77"/>
+      <c r="E368" s="57"/>
+      <c r="F368" s="58"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="75"/>
-      <c r="K368" s="76"/>
-      <c r="L368" s="77"/>
+      <c r="J368" s="56"/>
+      <c r="K368" s="57"/>
+      <c r="L368" s="58"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -25128,17 +25548,17 @@
       <c r="C369" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D369" s="75" t="s">
+      <c r="D369" s="56" t="s">
         <v>1574</v>
       </c>
-      <c r="E369" s="76"/>
-      <c r="F369" s="77"/>
+      <c r="E369" s="57"/>
+      <c r="F369" s="58"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="75"/>
-      <c r="K369" s="76"/>
-      <c r="L369" s="77"/>
+      <c r="J369" s="56"/>
+      <c r="K369" s="57"/>
+      <c r="L369" s="58"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -25168,17 +25588,17 @@
       <c r="C370" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D370" s="75" t="s">
+      <c r="D370" s="56" t="s">
         <v>1578</v>
       </c>
-      <c r="E370" s="76"/>
-      <c r="F370" s="77"/>
+      <c r="E370" s="57"/>
+      <c r="F370" s="58"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="75"/>
-      <c r="K370" s="76"/>
-      <c r="L370" s="77"/>
+      <c r="J370" s="56"/>
+      <c r="K370" s="57"/>
+      <c r="L370" s="58"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -25208,17 +25628,17 @@
       <c r="C371" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D371" s="75" t="s">
+      <c r="D371" s="56" t="s">
         <v>1582</v>
       </c>
-      <c r="E371" s="76"/>
-      <c r="F371" s="77"/>
+      <c r="E371" s="57"/>
+      <c r="F371" s="58"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="75"/>
-      <c r="K371" s="76"/>
-      <c r="L371" s="77"/>
+      <c r="J371" s="56"/>
+      <c r="K371" s="57"/>
+      <c r="L371" s="58"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -25246,17 +25666,17 @@
       <c r="C372" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D372" s="75" t="s">
+      <c r="D372" s="56" t="s">
         <v>1585</v>
       </c>
-      <c r="E372" s="76"/>
-      <c r="F372" s="77"/>
+      <c r="E372" s="57"/>
+      <c r="F372" s="58"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="75"/>
-      <c r="K372" s="76"/>
-      <c r="L372" s="77"/>
+      <c r="J372" s="56"/>
+      <c r="K372" s="57"/>
+      <c r="L372" s="58"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -25286,17 +25706,17 @@
       <c r="C373" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="D373" s="75" t="s">
+      <c r="D373" s="56" t="s">
         <v>1589</v>
       </c>
-      <c r="E373" s="76"/>
-      <c r="F373" s="77"/>
+      <c r="E373" s="57"/>
+      <c r="F373" s="58"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="75"/>
-      <c r="K373" s="76"/>
-      <c r="L373" s="77"/>
+      <c r="J373" s="56"/>
+      <c r="K373" s="57"/>
+      <c r="L373" s="58"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -25326,17 +25746,17 @@
       <c r="C374" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D374" s="75" t="s">
+      <c r="D374" s="56" t="s">
         <v>1593</v>
       </c>
-      <c r="E374" s="76"/>
-      <c r="F374" s="77"/>
+      <c r="E374" s="57"/>
+      <c r="F374" s="58"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="75"/>
-      <c r="K374" s="76"/>
-      <c r="L374" s="77"/>
+      <c r="J374" s="56"/>
+      <c r="K374" s="57"/>
+      <c r="L374" s="58"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -25366,17 +25786,17 @@
       <c r="C375" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="D375" s="75" t="s">
+      <c r="D375" s="56" t="s">
         <v>1597</v>
       </c>
-      <c r="E375" s="76"/>
-      <c r="F375" s="77"/>
+      <c r="E375" s="57"/>
+      <c r="F375" s="58"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="75"/>
-      <c r="K375" s="76"/>
-      <c r="L375" s="77"/>
+      <c r="J375" s="56"/>
+      <c r="K375" s="57"/>
+      <c r="L375" s="58"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -25406,17 +25826,17 @@
       <c r="C376" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D376" s="75" t="s">
+      <c r="D376" s="56" t="s">
         <v>1601</v>
       </c>
-      <c r="E376" s="76"/>
-      <c r="F376" s="77"/>
+      <c r="E376" s="57"/>
+      <c r="F376" s="58"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="75"/>
-      <c r="K376" s="76"/>
-      <c r="L376" s="77"/>
+      <c r="J376" s="56"/>
+      <c r="K376" s="57"/>
+      <c r="L376" s="58"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -25446,17 +25866,17 @@
       <c r="C377" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="D377" s="75" t="s">
+      <c r="D377" s="56" t="s">
         <v>1605</v>
       </c>
-      <c r="E377" s="76"/>
-      <c r="F377" s="77"/>
+      <c r="E377" s="57"/>
+      <c r="F377" s="58"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="75"/>
-      <c r="K377" s="76"/>
-      <c r="L377" s="77"/>
+      <c r="J377" s="56"/>
+      <c r="K377" s="57"/>
+      <c r="L377" s="58"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -25486,17 +25906,17 @@
       <c r="C378" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D378" s="75" t="s">
+      <c r="D378" s="56" t="s">
         <v>1609</v>
       </c>
-      <c r="E378" s="76"/>
-      <c r="F378" s="77"/>
+      <c r="E378" s="57"/>
+      <c r="F378" s="58"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="75"/>
-      <c r="K378" s="76"/>
-      <c r="L378" s="77"/>
+      <c r="J378" s="56"/>
+      <c r="K378" s="57"/>
+      <c r="L378" s="58"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -25526,17 +25946,17 @@
       <c r="C379" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D379" s="75" t="s">
+      <c r="D379" s="56" t="s">
         <v>1613</v>
       </c>
-      <c r="E379" s="76"/>
-      <c r="F379" s="77"/>
+      <c r="E379" s="57"/>
+      <c r="F379" s="58"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="75"/>
-      <c r="K379" s="76"/>
-      <c r="L379" s="77"/>
+      <c r="J379" s="56"/>
+      <c r="K379" s="57"/>
+      <c r="L379" s="58"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -25564,17 +25984,17 @@
       <c r="C380" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D380" s="75" t="s">
+      <c r="D380" s="56" t="s">
         <v>1616</v>
       </c>
-      <c r="E380" s="76"/>
-      <c r="F380" s="77"/>
+      <c r="E380" s="57"/>
+      <c r="F380" s="58"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="75"/>
-      <c r="K380" s="76"/>
-      <c r="L380" s="77"/>
+      <c r="J380" s="56"/>
+      <c r="K380" s="57"/>
+      <c r="L380" s="58"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -25604,17 +26024,17 @@
       <c r="C381" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="D381" s="75" t="s">
+      <c r="D381" s="56" t="s">
         <v>1620</v>
       </c>
-      <c r="E381" s="76"/>
-      <c r="F381" s="77"/>
+      <c r="E381" s="57"/>
+      <c r="F381" s="58"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="75"/>
-      <c r="K381" s="76"/>
-      <c r="L381" s="77"/>
+      <c r="J381" s="56"/>
+      <c r="K381" s="57"/>
+      <c r="L381" s="58"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -25644,17 +26064,17 @@
       <c r="C382" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D382" s="75" t="s">
+      <c r="D382" s="56" t="s">
         <v>1624</v>
       </c>
-      <c r="E382" s="76"/>
-      <c r="F382" s="77"/>
+      <c r="E382" s="57"/>
+      <c r="F382" s="58"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="75"/>
-      <c r="K382" s="76"/>
-      <c r="L382" s="77"/>
+      <c r="J382" s="56"/>
+      <c r="K382" s="57"/>
+      <c r="L382" s="58"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -25684,17 +26104,17 @@
       <c r="C383" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D383" s="75" t="s">
+      <c r="D383" s="56" t="s">
         <v>1628</v>
       </c>
-      <c r="E383" s="76"/>
-      <c r="F383" s="77"/>
+      <c r="E383" s="57"/>
+      <c r="F383" s="58"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="75"/>
-      <c r="K383" s="76"/>
-      <c r="L383" s="77"/>
+      <c r="J383" s="56"/>
+      <c r="K383" s="57"/>
+      <c r="L383" s="58"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -25715,20 +26135,20 @@
       <c r="AD383" s="1"/>
     </row>
     <row r="384" spans="1:30">
-      <c r="A384" s="56">
+      <c r="A384" s="59">
         <v>43016</v>
       </c>
-      <c r="B384" s="57"/>
-      <c r="C384" s="57"/>
-      <c r="D384" s="57"/>
-      <c r="E384" s="57"/>
-      <c r="F384" s="58"/>
+      <c r="B384" s="60"/>
+      <c r="C384" s="60"/>
+      <c r="D384" s="60"/>
+      <c r="E384" s="60"/>
+      <c r="F384" s="61"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="75"/>
-      <c r="K384" s="76"/>
-      <c r="L384" s="77"/>
+      <c r="J384" s="56"/>
+      <c r="K384" s="57"/>
+      <c r="L384" s="58"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -25758,17 +26178,17 @@
       <c r="C385" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="D385" s="75" t="s">
+      <c r="D385" s="56" t="s">
         <v>1632</v>
       </c>
-      <c r="E385" s="76"/>
-      <c r="F385" s="77"/>
+      <c r="E385" s="57"/>
+      <c r="F385" s="58"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="75"/>
-      <c r="K385" s="76"/>
-      <c r="L385" s="77"/>
+      <c r="J385" s="56"/>
+      <c r="K385" s="57"/>
+      <c r="L385" s="58"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -25798,17 +26218,17 @@
       <c r="C386" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="D386" s="75" t="s">
+      <c r="D386" s="56" t="s">
         <v>1635</v>
       </c>
-      <c r="E386" s="76"/>
-      <c r="F386" s="77"/>
+      <c r="E386" s="57"/>
+      <c r="F386" s="58"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="75"/>
-      <c r="K386" s="76"/>
-      <c r="L386" s="77"/>
+      <c r="J386" s="56"/>
+      <c r="K386" s="57"/>
+      <c r="L386" s="58"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -25838,17 +26258,17 @@
       <c r="C387" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="D387" s="75" t="s">
+      <c r="D387" s="56" t="s">
         <v>1639</v>
       </c>
-      <c r="E387" s="76"/>
-      <c r="F387" s="77"/>
+      <c r="E387" s="57"/>
+      <c r="F387" s="58"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="75"/>
-      <c r="K387" s="76"/>
-      <c r="L387" s="77"/>
+      <c r="J387" s="56"/>
+      <c r="K387" s="57"/>
+      <c r="L387" s="58"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -25878,17 +26298,17 @@
       <c r="C388" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="D388" s="75" t="s">
+      <c r="D388" s="56" t="s">
         <v>1643</v>
       </c>
-      <c r="E388" s="76"/>
-      <c r="F388" s="77"/>
+      <c r="E388" s="57"/>
+      <c r="F388" s="58"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="75"/>
-      <c r="K388" s="76"/>
-      <c r="L388" s="77"/>
+      <c r="J388" s="56"/>
+      <c r="K388" s="57"/>
+      <c r="L388" s="58"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -25918,17 +26338,17 @@
       <c r="C389" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="D389" s="75" t="s">
+      <c r="D389" s="56" t="s">
         <v>1647</v>
       </c>
-      <c r="E389" s="76"/>
-      <c r="F389" s="77"/>
+      <c r="E389" s="57"/>
+      <c r="F389" s="58"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="75"/>
-      <c r="K389" s="76"/>
-      <c r="L389" s="77"/>
+      <c r="J389" s="56"/>
+      <c r="K389" s="57"/>
+      <c r="L389" s="58"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -25958,17 +26378,17 @@
       <c r="C390" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D390" s="75" t="s">
+      <c r="D390" s="56" t="s">
         <v>1651</v>
       </c>
-      <c r="E390" s="76"/>
-      <c r="F390" s="77"/>
+      <c r="E390" s="57"/>
+      <c r="F390" s="58"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="75"/>
-      <c r="K390" s="76"/>
-      <c r="L390" s="77"/>
+      <c r="J390" s="56"/>
+      <c r="K390" s="57"/>
+      <c r="L390" s="58"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -25996,17 +26416,17 @@
       <c r="C391" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D391" s="75" t="s">
+      <c r="D391" s="56" t="s">
         <v>1654</v>
       </c>
-      <c r="E391" s="76"/>
-      <c r="F391" s="77"/>
+      <c r="E391" s="57"/>
+      <c r="F391" s="58"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="75"/>
-      <c r="K391" s="76"/>
-      <c r="L391" s="77"/>
+      <c r="J391" s="56"/>
+      <c r="K391" s="57"/>
+      <c r="L391" s="58"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -26034,17 +26454,17 @@
       <c r="C392" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="D392" s="75" t="s">
+      <c r="D392" s="56" t="s">
         <v>1657</v>
       </c>
-      <c r="E392" s="76"/>
-      <c r="F392" s="77"/>
+      <c r="E392" s="57"/>
+      <c r="F392" s="58"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="75"/>
-      <c r="K392" s="76"/>
-      <c r="L392" s="77"/>
+      <c r="J392" s="56"/>
+      <c r="K392" s="57"/>
+      <c r="L392" s="58"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -26072,17 +26492,17 @@
       <c r="C393" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D393" s="75" t="s">
+      <c r="D393" s="56" t="s">
         <v>1660</v>
       </c>
-      <c r="E393" s="76"/>
-      <c r="F393" s="77"/>
+      <c r="E393" s="57"/>
+      <c r="F393" s="58"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="75"/>
-      <c r="K393" s="76"/>
-      <c r="L393" s="77"/>
+      <c r="J393" s="56"/>
+      <c r="K393" s="57"/>
+      <c r="L393" s="58"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -26112,17 +26532,17 @@
       <c r="C394" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="D394" s="75" t="s">
+      <c r="D394" s="56" t="s">
         <v>1664</v>
       </c>
-      <c r="E394" s="76"/>
-      <c r="F394" s="77"/>
+      <c r="E394" s="57"/>
+      <c r="F394" s="58"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="75"/>
-      <c r="K394" s="76"/>
-      <c r="L394" s="77"/>
+      <c r="J394" s="56"/>
+      <c r="K394" s="57"/>
+      <c r="L394" s="58"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -26152,17 +26572,17 @@
       <c r="C395" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="D395" s="75" t="s">
+      <c r="D395" s="56" t="s">
         <v>1668</v>
       </c>
-      <c r="E395" s="76"/>
-      <c r="F395" s="77"/>
+      <c r="E395" s="57"/>
+      <c r="F395" s="58"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="75"/>
-      <c r="K395" s="76"/>
-      <c r="L395" s="77"/>
+      <c r="J395" s="56"/>
+      <c r="K395" s="57"/>
+      <c r="L395" s="58"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -26192,17 +26612,17 @@
       <c r="C396" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="D396" s="75" t="s">
+      <c r="D396" s="56" t="s">
         <v>1672</v>
       </c>
-      <c r="E396" s="76"/>
-      <c r="F396" s="77"/>
+      <c r="E396" s="57"/>
+      <c r="F396" s="58"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="75"/>
-      <c r="K396" s="76"/>
-      <c r="L396" s="77"/>
+      <c r="J396" s="56"/>
+      <c r="K396" s="57"/>
+      <c r="L396" s="58"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -26232,17 +26652,17 @@
       <c r="C397" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D397" s="75" t="s">
+      <c r="D397" s="56" t="s">
         <v>1676</v>
       </c>
-      <c r="E397" s="76"/>
-      <c r="F397" s="77"/>
+      <c r="E397" s="57"/>
+      <c r="F397" s="58"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="75"/>
-      <c r="K397" s="76"/>
-      <c r="L397" s="77"/>
+      <c r="J397" s="56"/>
+      <c r="K397" s="57"/>
+      <c r="L397" s="58"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -26270,17 +26690,17 @@
       <c r="C398" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="D398" s="75" t="s">
+      <c r="D398" s="56" t="s">
         <v>1679</v>
       </c>
-      <c r="E398" s="76"/>
-      <c r="F398" s="77"/>
+      <c r="E398" s="57"/>
+      <c r="F398" s="58"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="75"/>
-      <c r="K398" s="76"/>
-      <c r="L398" s="77"/>
+      <c r="J398" s="56"/>
+      <c r="K398" s="57"/>
+      <c r="L398" s="58"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -26308,17 +26728,17 @@
         <v>1681</v>
       </c>
       <c r="C399" s="1"/>
-      <c r="D399" s="75" t="s">
+      <c r="D399" s="56" t="s">
         <v>1679</v>
       </c>
-      <c r="E399" s="76"/>
-      <c r="F399" s="77"/>
+      <c r="E399" s="57"/>
+      <c r="F399" s="58"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="75"/>
-      <c r="K399" s="76"/>
-      <c r="L399" s="77"/>
+      <c r="J399" s="56"/>
+      <c r="K399" s="57"/>
+      <c r="L399" s="58"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -26348,17 +26768,17 @@
       <c r="C400" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D400" s="75" t="s">
+      <c r="D400" s="56" t="s">
         <v>1685</v>
       </c>
-      <c r="E400" s="76"/>
-      <c r="F400" s="77"/>
+      <c r="E400" s="57"/>
+      <c r="F400" s="58"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="75"/>
-      <c r="K400" s="76"/>
-      <c r="L400" s="77"/>
+      <c r="J400" s="56"/>
+      <c r="K400" s="57"/>
+      <c r="L400" s="58"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -26388,17 +26808,17 @@
       <c r="C401" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D401" s="75" t="s">
+      <c r="D401" s="56" t="s">
         <v>1689</v>
       </c>
-      <c r="E401" s="76"/>
-      <c r="F401" s="77"/>
+      <c r="E401" s="57"/>
+      <c r="F401" s="58"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="75"/>
-      <c r="K401" s="76"/>
-      <c r="L401" s="77"/>
+      <c r="J401" s="56"/>
+      <c r="K401" s="57"/>
+      <c r="L401" s="58"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -26428,17 +26848,17 @@
       <c r="C402" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="D402" s="75" t="s">
+      <c r="D402" s="56" t="s">
         <v>1693</v>
       </c>
-      <c r="E402" s="76"/>
-      <c r="F402" s="77"/>
+      <c r="E402" s="57"/>
+      <c r="F402" s="58"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="75"/>
-      <c r="K402" s="76"/>
-      <c r="L402" s="77"/>
+      <c r="J402" s="56"/>
+      <c r="K402" s="57"/>
+      <c r="L402" s="58"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -26468,17 +26888,17 @@
       <c r="C403" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="D403" s="75" t="s">
+      <c r="D403" s="56" t="s">
         <v>1697</v>
       </c>
-      <c r="E403" s="76"/>
-      <c r="F403" s="77"/>
+      <c r="E403" s="57"/>
+      <c r="F403" s="58"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="75"/>
-      <c r="K403" s="76"/>
-      <c r="L403" s="77"/>
+      <c r="J403" s="56"/>
+      <c r="K403" s="57"/>
+      <c r="L403" s="58"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -26508,17 +26928,17 @@
       <c r="C404" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D404" s="75" t="s">
+      <c r="D404" s="56" t="s">
         <v>1701</v>
       </c>
-      <c r="E404" s="76"/>
-      <c r="F404" s="77"/>
+      <c r="E404" s="57"/>
+      <c r="F404" s="58"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="75"/>
-      <c r="K404" s="76"/>
-      <c r="L404" s="77"/>
+      <c r="J404" s="56"/>
+      <c r="K404" s="57"/>
+      <c r="L404" s="58"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -26548,17 +26968,17 @@
       <c r="C405" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D405" s="75" t="s">
+      <c r="D405" s="56" t="s">
         <v>1705</v>
       </c>
-      <c r="E405" s="76"/>
-      <c r="F405" s="77"/>
+      <c r="E405" s="57"/>
+      <c r="F405" s="58"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="75"/>
-      <c r="K405" s="76"/>
-      <c r="L405" s="77"/>
+      <c r="J405" s="56"/>
+      <c r="K405" s="57"/>
+      <c r="L405" s="58"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -26588,17 +27008,17 @@
       <c r="C406" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="D406" s="75" t="s">
+      <c r="D406" s="56" t="s">
         <v>1709</v>
       </c>
-      <c r="E406" s="76"/>
-      <c r="F406" s="77"/>
+      <c r="E406" s="57"/>
+      <c r="F406" s="58"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="75"/>
-      <c r="K406" s="76"/>
-      <c r="L406" s="77"/>
+      <c r="J406" s="56"/>
+      <c r="K406" s="57"/>
+      <c r="L406" s="58"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -26628,17 +27048,17 @@
       <c r="C407" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="D407" s="75" t="s">
+      <c r="D407" s="56" t="s">
         <v>1713</v>
       </c>
-      <c r="E407" s="76"/>
-      <c r="F407" s="77"/>
+      <c r="E407" s="57"/>
+      <c r="F407" s="58"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="75"/>
-      <c r="K407" s="76"/>
-      <c r="L407" s="77"/>
+      <c r="J407" s="56"/>
+      <c r="K407" s="57"/>
+      <c r="L407" s="58"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -26668,17 +27088,17 @@
       <c r="C408" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D408" s="75" t="s">
+      <c r="D408" s="56" t="s">
         <v>1717</v>
       </c>
-      <c r="E408" s="76"/>
-      <c r="F408" s="77"/>
+      <c r="E408" s="57"/>
+      <c r="F408" s="58"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="75"/>
-      <c r="K408" s="76"/>
-      <c r="L408" s="77"/>
+      <c r="J408" s="56"/>
+      <c r="K408" s="57"/>
+      <c r="L408" s="58"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -26708,17 +27128,17 @@
       <c r="C409" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="D409" s="75" t="s">
+      <c r="D409" s="56" t="s">
         <v>1721</v>
       </c>
-      <c r="E409" s="76"/>
-      <c r="F409" s="77"/>
+      <c r="E409" s="57"/>
+      <c r="F409" s="58"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="75"/>
-      <c r="K409" s="76"/>
-      <c r="L409" s="77"/>
+      <c r="J409" s="56"/>
+      <c r="K409" s="57"/>
+      <c r="L409" s="58"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -26740,309 +27160,6 @@
     </row>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="J407:L407"/>
-    <mergeCell ref="J408:L408"/>
-    <mergeCell ref="J409:L409"/>
-    <mergeCell ref="J398:L398"/>
-    <mergeCell ref="J399:L399"/>
-    <mergeCell ref="J400:L400"/>
-    <mergeCell ref="J401:L401"/>
-    <mergeCell ref="J402:L402"/>
-    <mergeCell ref="J403:L403"/>
-    <mergeCell ref="J404:L404"/>
-    <mergeCell ref="J405:L405"/>
-    <mergeCell ref="J406:L406"/>
-    <mergeCell ref="J389:L389"/>
-    <mergeCell ref="J390:L390"/>
-    <mergeCell ref="J391:L391"/>
-    <mergeCell ref="J392:L392"/>
-    <mergeCell ref="J393:L393"/>
-    <mergeCell ref="J394:L394"/>
-    <mergeCell ref="J395:L395"/>
-    <mergeCell ref="J396:L396"/>
-    <mergeCell ref="J397:L397"/>
-    <mergeCell ref="J380:L380"/>
-    <mergeCell ref="J381:L381"/>
-    <mergeCell ref="J382:L382"/>
-    <mergeCell ref="J383:L383"/>
-    <mergeCell ref="J384:L384"/>
-    <mergeCell ref="J385:L385"/>
-    <mergeCell ref="J386:L386"/>
-    <mergeCell ref="J387:L387"/>
-    <mergeCell ref="J388:L388"/>
-    <mergeCell ref="J371:L371"/>
-    <mergeCell ref="J372:L372"/>
-    <mergeCell ref="J373:L373"/>
-    <mergeCell ref="J374:L374"/>
-    <mergeCell ref="J375:L375"/>
-    <mergeCell ref="J376:L376"/>
-    <mergeCell ref="J377:L377"/>
-    <mergeCell ref="J378:L378"/>
-    <mergeCell ref="J379:L379"/>
-    <mergeCell ref="J362:L362"/>
-    <mergeCell ref="J363:L363"/>
-    <mergeCell ref="J364:L364"/>
-    <mergeCell ref="J365:L365"/>
-    <mergeCell ref="J366:L366"/>
-    <mergeCell ref="J367:L367"/>
-    <mergeCell ref="J368:L368"/>
-    <mergeCell ref="J369:L369"/>
-    <mergeCell ref="J370:L370"/>
-    <mergeCell ref="J353:L353"/>
-    <mergeCell ref="J354:L354"/>
-    <mergeCell ref="J355:L355"/>
-    <mergeCell ref="J356:L356"/>
-    <mergeCell ref="J357:L357"/>
-    <mergeCell ref="J358:L358"/>
-    <mergeCell ref="J359:L359"/>
-    <mergeCell ref="J360:L360"/>
-    <mergeCell ref="J361:L361"/>
-    <mergeCell ref="J344:L344"/>
-    <mergeCell ref="J345:L345"/>
-    <mergeCell ref="J346:L346"/>
-    <mergeCell ref="J347:L347"/>
-    <mergeCell ref="J348:L348"/>
-    <mergeCell ref="J349:L349"/>
-    <mergeCell ref="J350:L350"/>
-    <mergeCell ref="J351:L351"/>
-    <mergeCell ref="J352:L352"/>
-    <mergeCell ref="J335:L335"/>
-    <mergeCell ref="J336:L336"/>
-    <mergeCell ref="J337:L337"/>
-    <mergeCell ref="J338:L338"/>
-    <mergeCell ref="J339:L339"/>
-    <mergeCell ref="J340:L340"/>
-    <mergeCell ref="J341:L341"/>
-    <mergeCell ref="J342:L342"/>
-    <mergeCell ref="J343:L343"/>
-    <mergeCell ref="J326:L326"/>
-    <mergeCell ref="J327:L327"/>
-    <mergeCell ref="J328:L328"/>
-    <mergeCell ref="J329:L329"/>
-    <mergeCell ref="J330:L330"/>
-    <mergeCell ref="J331:L331"/>
-    <mergeCell ref="J332:L332"/>
-    <mergeCell ref="J333:L333"/>
-    <mergeCell ref="J334:L334"/>
-    <mergeCell ref="J317:L317"/>
-    <mergeCell ref="J318:L318"/>
-    <mergeCell ref="J319:L319"/>
-    <mergeCell ref="J320:L320"/>
-    <mergeCell ref="J321:L321"/>
-    <mergeCell ref="J322:L322"/>
-    <mergeCell ref="J323:L323"/>
-    <mergeCell ref="J324:L324"/>
-    <mergeCell ref="J325:L325"/>
-    <mergeCell ref="J308:L308"/>
-    <mergeCell ref="J309:L309"/>
-    <mergeCell ref="J310:L310"/>
-    <mergeCell ref="J311:L311"/>
-    <mergeCell ref="J312:L312"/>
-    <mergeCell ref="J313:L313"/>
-    <mergeCell ref="J314:L314"/>
-    <mergeCell ref="J315:L315"/>
-    <mergeCell ref="J316:L316"/>
-    <mergeCell ref="J299:L299"/>
-    <mergeCell ref="J300:L300"/>
-    <mergeCell ref="J301:L301"/>
-    <mergeCell ref="J302:L302"/>
-    <mergeCell ref="J303:L303"/>
-    <mergeCell ref="J304:L304"/>
-    <mergeCell ref="J305:L305"/>
-    <mergeCell ref="J306:L306"/>
-    <mergeCell ref="J307:L307"/>
-    <mergeCell ref="J290:L290"/>
-    <mergeCell ref="J291:L291"/>
-    <mergeCell ref="J292:L292"/>
-    <mergeCell ref="J293:L293"/>
-    <mergeCell ref="J294:L294"/>
-    <mergeCell ref="J295:L295"/>
-    <mergeCell ref="J296:L296"/>
-    <mergeCell ref="J297:L297"/>
-    <mergeCell ref="J298:L298"/>
-    <mergeCell ref="J281:L281"/>
-    <mergeCell ref="J282:L282"/>
-    <mergeCell ref="J283:L283"/>
-    <mergeCell ref="J284:L284"/>
-    <mergeCell ref="J285:L285"/>
-    <mergeCell ref="J286:L286"/>
-    <mergeCell ref="J287:L287"/>
-    <mergeCell ref="J288:L288"/>
-    <mergeCell ref="J289:L289"/>
-    <mergeCell ref="J272:L272"/>
-    <mergeCell ref="J273:L273"/>
-    <mergeCell ref="J274:L274"/>
-    <mergeCell ref="J275:L275"/>
-    <mergeCell ref="J276:L276"/>
-    <mergeCell ref="J277:L277"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="J280:L280"/>
-    <mergeCell ref="J263:L263"/>
-    <mergeCell ref="J265:L265"/>
-    <mergeCell ref="J266:L266"/>
-    <mergeCell ref="J267:L267"/>
-    <mergeCell ref="J268:L268"/>
-    <mergeCell ref="J269:L269"/>
-    <mergeCell ref="J270:L270"/>
-    <mergeCell ref="J271:L271"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="J254:L254"/>
-    <mergeCell ref="J255:L255"/>
-    <mergeCell ref="J256:L256"/>
-    <mergeCell ref="J257:L257"/>
-    <mergeCell ref="J258:L258"/>
-    <mergeCell ref="J259:L259"/>
-    <mergeCell ref="J260:L260"/>
-    <mergeCell ref="J261:L261"/>
-    <mergeCell ref="J262:L262"/>
-    <mergeCell ref="J245:L245"/>
-    <mergeCell ref="J246:L246"/>
-    <mergeCell ref="J247:L247"/>
-    <mergeCell ref="J248:L248"/>
-    <mergeCell ref="J249:L249"/>
-    <mergeCell ref="J250:L250"/>
-    <mergeCell ref="J251:L251"/>
-    <mergeCell ref="J252:L252"/>
-    <mergeCell ref="J253:L253"/>
-    <mergeCell ref="J236:L236"/>
-    <mergeCell ref="J237:L237"/>
-    <mergeCell ref="J238:L238"/>
-    <mergeCell ref="J239:L239"/>
-    <mergeCell ref="J240:L240"/>
-    <mergeCell ref="J241:L241"/>
-    <mergeCell ref="J242:L242"/>
-    <mergeCell ref="J243:L243"/>
-    <mergeCell ref="J244:L244"/>
-    <mergeCell ref="J228:L228"/>
-    <mergeCell ref="J229:L229"/>
-    <mergeCell ref="J230:L230"/>
-    <mergeCell ref="J231:L231"/>
-    <mergeCell ref="J232:L232"/>
-    <mergeCell ref="J233:L233"/>
-    <mergeCell ref="J234:L234"/>
-    <mergeCell ref="J235:L235"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="J218:L218"/>
-    <mergeCell ref="J219:L219"/>
-    <mergeCell ref="J220:L220"/>
-    <mergeCell ref="J221:L221"/>
-    <mergeCell ref="J222:L222"/>
-    <mergeCell ref="J223:L223"/>
-    <mergeCell ref="J224:L224"/>
-    <mergeCell ref="J225:L225"/>
-    <mergeCell ref="J226:L226"/>
-    <mergeCell ref="G209:L209"/>
-    <mergeCell ref="J210:L210"/>
-    <mergeCell ref="J211:L211"/>
-    <mergeCell ref="J212:L212"/>
-    <mergeCell ref="J213:L213"/>
-    <mergeCell ref="J214:L214"/>
-    <mergeCell ref="J215:L215"/>
-    <mergeCell ref="J216:L216"/>
-    <mergeCell ref="J217:L217"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="D405:F405"/>
-    <mergeCell ref="D406:F406"/>
-    <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="D393:F393"/>
-    <mergeCell ref="D394:F394"/>
-    <mergeCell ref="D395:F395"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="D374:F374"/>
-    <mergeCell ref="D375:F375"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D370:F370"/>
-    <mergeCell ref="D371:F371"/>
-    <mergeCell ref="D372:F372"/>
-    <mergeCell ref="D363:F363"/>
-    <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D360:F360"/>
-    <mergeCell ref="D361:F361"/>
-    <mergeCell ref="D362:F362"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="D312:F312"/>
     <mergeCell ref="A241:F241"/>
     <mergeCell ref="D307:F307"/>
     <mergeCell ref="D303:F303"/>
@@ -27067,6 +27184,309 @@
     <mergeCell ref="Y208:AD208"/>
     <mergeCell ref="A300:F300"/>
     <mergeCell ref="A266:F266"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="D316:F316"/>
+    <mergeCell ref="D317:F317"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="D363:F363"/>
+    <mergeCell ref="D364:F364"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
+    <mergeCell ref="D373:F373"/>
+    <mergeCell ref="D374:F374"/>
+    <mergeCell ref="D375:F375"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="D386:F386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D396:F396"/>
+    <mergeCell ref="D397:F397"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D408:F408"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="D405:F405"/>
+    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="D407:F407"/>
+    <mergeCell ref="D398:F398"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="G209:L209"/>
+    <mergeCell ref="J210:L210"/>
+    <mergeCell ref="J211:L211"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="J213:L213"/>
+    <mergeCell ref="J214:L214"/>
+    <mergeCell ref="J215:L215"/>
+    <mergeCell ref="J216:L216"/>
+    <mergeCell ref="J217:L217"/>
+    <mergeCell ref="J218:L218"/>
+    <mergeCell ref="J219:L219"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="J221:L221"/>
+    <mergeCell ref="J222:L222"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="J224:L224"/>
+    <mergeCell ref="J225:L225"/>
+    <mergeCell ref="J226:L226"/>
+    <mergeCell ref="J228:L228"/>
+    <mergeCell ref="J229:L229"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="J231:L231"/>
+    <mergeCell ref="J232:L232"/>
+    <mergeCell ref="J233:L233"/>
+    <mergeCell ref="J234:L234"/>
+    <mergeCell ref="J235:L235"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="J236:L236"/>
+    <mergeCell ref="J237:L237"/>
+    <mergeCell ref="J238:L238"/>
+    <mergeCell ref="J239:L239"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="J241:L241"/>
+    <mergeCell ref="J242:L242"/>
+    <mergeCell ref="J243:L243"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="J245:L245"/>
+    <mergeCell ref="J246:L246"/>
+    <mergeCell ref="J247:L247"/>
+    <mergeCell ref="J248:L248"/>
+    <mergeCell ref="J249:L249"/>
+    <mergeCell ref="J250:L250"/>
+    <mergeCell ref="J251:L251"/>
+    <mergeCell ref="J252:L252"/>
+    <mergeCell ref="J253:L253"/>
+    <mergeCell ref="J254:L254"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="J256:L256"/>
+    <mergeCell ref="J257:L257"/>
+    <mergeCell ref="J258:L258"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="J260:L260"/>
+    <mergeCell ref="J261:L261"/>
+    <mergeCell ref="J262:L262"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="J265:L265"/>
+    <mergeCell ref="J266:L266"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="J268:L268"/>
+    <mergeCell ref="J269:L269"/>
+    <mergeCell ref="J270:L270"/>
+    <mergeCell ref="J271:L271"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="J272:L272"/>
+    <mergeCell ref="J273:L273"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="J275:L275"/>
+    <mergeCell ref="J276:L276"/>
+    <mergeCell ref="J277:L277"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="J280:L280"/>
+    <mergeCell ref="J281:L281"/>
+    <mergeCell ref="J282:L282"/>
+    <mergeCell ref="J283:L283"/>
+    <mergeCell ref="J284:L284"/>
+    <mergeCell ref="J285:L285"/>
+    <mergeCell ref="J286:L286"/>
+    <mergeCell ref="J287:L287"/>
+    <mergeCell ref="J288:L288"/>
+    <mergeCell ref="J289:L289"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="J292:L292"/>
+    <mergeCell ref="J293:L293"/>
+    <mergeCell ref="J294:L294"/>
+    <mergeCell ref="J295:L295"/>
+    <mergeCell ref="J296:L296"/>
+    <mergeCell ref="J297:L297"/>
+    <mergeCell ref="J298:L298"/>
+    <mergeCell ref="J299:L299"/>
+    <mergeCell ref="J300:L300"/>
+    <mergeCell ref="J301:L301"/>
+    <mergeCell ref="J302:L302"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="J304:L304"/>
+    <mergeCell ref="J305:L305"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="J307:L307"/>
+    <mergeCell ref="J308:L308"/>
+    <mergeCell ref="J309:L309"/>
+    <mergeCell ref="J310:L310"/>
+    <mergeCell ref="J311:L311"/>
+    <mergeCell ref="J312:L312"/>
+    <mergeCell ref="J313:L313"/>
+    <mergeCell ref="J314:L314"/>
+    <mergeCell ref="J315:L315"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="J317:L317"/>
+    <mergeCell ref="J318:L318"/>
+    <mergeCell ref="J319:L319"/>
+    <mergeCell ref="J320:L320"/>
+    <mergeCell ref="J321:L321"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="J323:L323"/>
+    <mergeCell ref="J324:L324"/>
+    <mergeCell ref="J325:L325"/>
+    <mergeCell ref="J326:L326"/>
+    <mergeCell ref="J327:L327"/>
+    <mergeCell ref="J328:L328"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="J330:L330"/>
+    <mergeCell ref="J331:L331"/>
+    <mergeCell ref="J332:L332"/>
+    <mergeCell ref="J333:L333"/>
+    <mergeCell ref="J334:L334"/>
+    <mergeCell ref="J335:L335"/>
+    <mergeCell ref="J336:L336"/>
+    <mergeCell ref="J337:L337"/>
+    <mergeCell ref="J338:L338"/>
+    <mergeCell ref="J339:L339"/>
+    <mergeCell ref="J340:L340"/>
+    <mergeCell ref="J341:L341"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="J343:L343"/>
+    <mergeCell ref="J344:L344"/>
+    <mergeCell ref="J345:L345"/>
+    <mergeCell ref="J346:L346"/>
+    <mergeCell ref="J347:L347"/>
+    <mergeCell ref="J348:L348"/>
+    <mergeCell ref="J349:L349"/>
+    <mergeCell ref="J350:L350"/>
+    <mergeCell ref="J351:L351"/>
+    <mergeCell ref="J352:L352"/>
+    <mergeCell ref="J353:L353"/>
+    <mergeCell ref="J354:L354"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="J356:L356"/>
+    <mergeCell ref="J357:L357"/>
+    <mergeCell ref="J358:L358"/>
+    <mergeCell ref="J359:L359"/>
+    <mergeCell ref="J360:L360"/>
+    <mergeCell ref="J361:L361"/>
+    <mergeCell ref="J362:L362"/>
+    <mergeCell ref="J363:L363"/>
+    <mergeCell ref="J364:L364"/>
+    <mergeCell ref="J365:L365"/>
+    <mergeCell ref="J366:L366"/>
+    <mergeCell ref="J367:L367"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="J369:L369"/>
+    <mergeCell ref="J370:L370"/>
+    <mergeCell ref="J371:L371"/>
+    <mergeCell ref="J372:L372"/>
+    <mergeCell ref="J373:L373"/>
+    <mergeCell ref="J374:L374"/>
+    <mergeCell ref="J375:L375"/>
+    <mergeCell ref="J376:L376"/>
+    <mergeCell ref="J377:L377"/>
+    <mergeCell ref="J378:L378"/>
+    <mergeCell ref="J379:L379"/>
+    <mergeCell ref="J380:L380"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="J382:L382"/>
+    <mergeCell ref="J383:L383"/>
+    <mergeCell ref="J384:L384"/>
+    <mergeCell ref="J385:L385"/>
+    <mergeCell ref="J386:L386"/>
+    <mergeCell ref="J387:L387"/>
+    <mergeCell ref="J388:L388"/>
+    <mergeCell ref="J389:L389"/>
+    <mergeCell ref="J390:L390"/>
+    <mergeCell ref="J391:L391"/>
+    <mergeCell ref="J392:L392"/>
+    <mergeCell ref="J393:L393"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="J395:L395"/>
+    <mergeCell ref="J396:L396"/>
+    <mergeCell ref="J397:L397"/>
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="J408:L408"/>
+    <mergeCell ref="J409:L409"/>
+    <mergeCell ref="J398:L398"/>
+    <mergeCell ref="J399:L399"/>
+    <mergeCell ref="J400:L400"/>
+    <mergeCell ref="J401:L401"/>
+    <mergeCell ref="J402:L402"/>
+    <mergeCell ref="J403:L403"/>
+    <mergeCell ref="J404:L404"/>
+    <mergeCell ref="J405:L405"/>
+    <mergeCell ref="J406:L406"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="2049">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6600,7 +6600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6611,7 +6611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6632,7 +6632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6642,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6653,7 +6653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6663,7 +6663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6674,7 +6674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6705,7 +6705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6716,7 +6716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6726,7 +6726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6737,7 +6737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6747,7 +6747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6758,7 +6758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6768,7 +6768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6793,7 +6793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6804,7 +6804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6814,7 +6814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6825,7 +6825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6835,7 +6835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6846,7 +6846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6870,7 +6870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6881,7 +6881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6891,7 +6891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8008,7 +8008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8019,7 +8019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8096,7 +8096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8107,7 +8107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8117,7 +8117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8128,7 +8128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8138,7 +8138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8149,7 +8149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8159,7 +8159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8191,7 +8191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8202,7 +8202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8212,7 +8212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8223,7 +8223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8233,7 +8233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8244,7 +8244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8271,7 +8271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8282,7 +8282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8292,7 +8292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8303,7 +8303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8313,7 +8313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8324,7 +8324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8334,7 +8334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8345,7 +8345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8369,7 +8369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8380,7 +8380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8407,7 +8407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8418,7 +8418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8428,7 +8428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8439,7 +8439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8449,7 +8449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8460,7 +8460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8470,7 +8470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8481,7 +8481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8491,7 +8491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8502,7 +8502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8512,7 +8512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8537,7 +8537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8548,7 +8548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8591,7 +8591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8602,7 +8602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8612,7 +8612,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8623,7 +8623,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8633,7 +8633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8644,7 +8644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8654,7 +8654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8665,7 +8665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8675,7 +8675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8696,7 +8696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8707,7 +8707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8717,7 +8717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8728,7 +8728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8738,7 +8738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8749,7 +8749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8807,7 +8807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8818,7 +8818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8828,7 +8828,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8839,7 +8839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8849,7 +8849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8860,7 +8860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8985,7 +8985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8996,7 +8996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9006,7 +9006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9017,7 +9017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9027,7 +9027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9038,7 +9038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9048,7 +9048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9059,7 +9059,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9090,7 +9090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9101,7 +9101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9111,7 +9111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9122,7 +9122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9153,7 +9153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9164,7 +9164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9174,7 +9174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9185,7 +9185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9216,7 +9216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9227,7 +9227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9258,7 +9258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9269,7 +9269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9279,7 +9279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9290,7 +9290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9300,7 +9300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9332,7 +9332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9343,7 +9343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9353,7 +9353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9364,7 +9364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9374,7 +9374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9385,7 +9385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9395,7 +9395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9406,7 +9406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9416,7 +9416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9427,7 +9427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9437,7 +9437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9469,7 +9469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9480,7 +9480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9490,7 +9490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9501,7 +9501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9511,7 +9511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9522,7 +9522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9532,7 +9532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9564,7 +9564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9575,7 +9575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9606,7 +9606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9617,7 +9617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9644,7 +9644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9655,7 +9655,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9686,7 +9686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9697,7 +9697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9707,7 +9707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9739,7 +9739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9767,7 +9767,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9778,7 +9778,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9788,7 +9788,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9799,7 +9799,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9809,7 +9809,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9820,7 +9820,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9851,7 +9851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9862,7 +9862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9872,7 +9872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9883,7 +9883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9893,7 +9893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9904,7 +9904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9931,7 +9931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9942,7 +9942,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9952,7 +9952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9984,7 +9984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9995,7 +9995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10005,7 +10005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10016,7 +10016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10026,7 +10026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10037,7 +10037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10047,7 +10047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10058,7 +10058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10068,7 +10068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10079,7 +10079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10110,7 +10110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10121,7 +10121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10131,7 +10131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10142,7 +10142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10152,7 +10152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10163,7 +10163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10173,7 +10173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10198,7 +10198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10209,7 +10209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10236,7 +10236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10247,7 +10247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10257,7 +10257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10268,7 +10268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10278,7 +10278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10289,7 +10289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10299,7 +10299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10310,7 +10310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10320,7 +10320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10331,7 +10331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10362,7 +10362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10373,7 +10373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10383,7 +10383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10394,7 +10394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10404,7 +10404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10415,7 +10415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10425,7 +10425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10436,7 +10436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10467,7 +10467,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10478,7 +10478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10488,7 +10488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10499,7 +10499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10509,7 +10509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10520,7 +10520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10530,7 +10530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10541,7 +10541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10551,7 +10551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10562,7 +10562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10572,7 +10572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10604,7 +10604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10615,7 +10615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10625,7 +10625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10636,7 +10636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10646,7 +10646,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10657,7 +10657,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10667,7 +10667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10678,7 +10678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10688,7 +10688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10699,7 +10699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10730,7 +10730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10741,7 +10741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10751,7 +10751,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10762,7 +10762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10772,7 +10772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10783,7 +10783,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10793,7 +10793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10804,7 +10804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10814,7 +10814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10825,7 +10825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10856,7 +10856,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10867,7 +10867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10877,7 +10877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10888,7 +10888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10898,7 +10898,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10909,7 +10909,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10919,7 +10919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10930,7 +10930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10940,7 +10940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10951,7 +10951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10961,7 +10961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -10993,7 +10993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11004,7 +11004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11014,7 +11014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11025,7 +11025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11035,7 +11035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -11046,7 +11046,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11057,7 +11057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11067,7 +11067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11078,7 +11078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11088,7 +11088,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11099,7 +11099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11126,7 +11126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11137,7 +11137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11147,7 +11147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11158,7 +11158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11168,7 +11168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11179,7 +11179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11189,7 +11189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11200,7 +11200,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11210,7 +11210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11221,7 +11221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -11231,7 +11231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -11495,17 +11495,442 @@
   </si>
   <si>
     <t>別れを惜しむ</t>
+  </si>
+  <si>
+    <t>向上</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こうじょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 向上，提高；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生徒の学力を向上させる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品質</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんしつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最上の品質</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>じっそう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安装，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このパソコンには通信ソフトが実装してある</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>募集</t>
+    <rPh sb="0" eb="2">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぼしゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】【他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>•三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 ;募集；征募；招募</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寄付を募集する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浪人生</t>
+    <rPh sb="0" eb="3">
+      <t>ロウニンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ろうにんせい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落榜生</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>互換</t>
+    <rPh sb="0" eb="2">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ごかん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名・他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，互相交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>互換性</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -11513,13 +11938,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -11527,7 +11952,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11594,7 +12019,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -11631,7 +12056,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -12115,7 +12540,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12395,34 +12820,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="J302" sqref="J302:L302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
-    <col min="27" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.25" customWidth="1"/>
+    <col min="26" max="26" width="17.875" customWidth="1"/>
+    <col min="27" max="29" width="11.625" customWidth="1"/>
+    <col min="30" max="30" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1"/>
-    <row r="2" spans="1:18" ht="19.5" thickBot="1">
+    <row r="2" spans="1:18" ht="18" thickBot="1">
       <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
@@ -14104,7 +14529,7 @@
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -17172,7 +17597,7 @@
       <c r="Q148" s="48"/>
       <c r="R148" s="48"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>414</v>
       </c>
@@ -17992,7 +18417,7 @@
       <c r="Q174" s="48"/>
       <c r="R174" s="48"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" ht="14.25">
       <c r="A175" s="11" t="s">
         <v>492</v>
       </c>
@@ -18024,7 +18449,7 @@
       <c r="Q175" s="48"/>
       <c r="R175" s="48"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" ht="14.25">
       <c r="A176" s="11" t="s">
         <v>495</v>
       </c>
@@ -18198,7 +18623,7 @@
       <c r="Q181" s="48"/>
       <c r="R181" s="48"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" ht="14.25">
       <c r="A182" s="4" t="s">
         <v>513</v>
       </c>
@@ -18224,7 +18649,7 @@
       <c r="Q182" s="48"/>
       <c r="R182" s="48"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" ht="14.25">
       <c r="A183" s="11" t="s">
         <v>516</v>
       </c>
@@ -18328,7 +18753,7 @@
       <c r="Q186" s="48"/>
       <c r="R186" s="48"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" ht="14.25">
       <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
@@ -18686,7 +19111,7 @@
       <c r="Q203" s="48"/>
       <c r="R203" s="48"/>
     </row>
-    <row r="204" spans="1:30" ht="15.75" thickBot="1">
+    <row r="204" spans="1:30" ht="14.25" thickBot="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="27"/>
@@ -18706,7 +19131,7 @@
       <c r="Q204" s="48"/>
       <c r="R204" s="48"/>
     </row>
-    <row r="207" spans="1:30" ht="18.75">
+    <row r="207" spans="1:30" ht="17.25">
       <c r="A207" s="73" t="s">
         <v>1075</v>
       </c>
@@ -22609,12 +23034,14 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="56"/>
-      <c r="K294" s="57"/>
-      <c r="L294" s="58"/>
+      <c r="G294" s="59">
+        <v>43020</v>
+      </c>
+      <c r="H294" s="60"/>
+      <c r="I294" s="60"/>
+      <c r="J294" s="60"/>
+      <c r="K294" s="60"/>
+      <c r="L294" s="61"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -22645,10 +23072,18 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
-      <c r="J295" s="56"/>
+      <c r="G295" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="J295" s="56" t="s">
+        <v>2029</v>
+      </c>
       <c r="K295" s="57"/>
       <c r="L295" s="58"/>
       <c r="M295" s="1"/>
@@ -22683,10 +23118,18 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="56"/>
+      <c r="G296" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J296" s="56" t="s">
+        <v>2033</v>
+      </c>
       <c r="K296" s="57"/>
       <c r="L296" s="58"/>
       <c r="M296" s="1"/>
@@ -22721,10 +23164,18 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="56"/>
+      <c r="G297" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J297" s="56" t="s">
+        <v>2037</v>
+      </c>
       <c r="K297" s="57"/>
       <c r="L297" s="58"/>
       <c r="M297" s="1"/>
@@ -22759,10 +23210,18 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="56"/>
+      <c r="G298" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J298" s="56" t="s">
+        <v>2041</v>
+      </c>
       <c r="K298" s="57"/>
       <c r="L298" s="58"/>
       <c r="M298" s="1"/>
@@ -22795,9 +23254,15 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
+      <c r="G299" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>2044</v>
+      </c>
       <c r="J299" s="56"/>
       <c r="K299" s="57"/>
       <c r="L299" s="58"/>
@@ -22829,10 +23294,18 @@
       <c r="D300" s="60"/>
       <c r="E300" s="60"/>
       <c r="F300" s="61"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="56"/>
+      <c r="G300" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J300" s="56" t="s">
+        <v>2048</v>
+      </c>
       <c r="K300" s="57"/>
       <c r="L300" s="58"/>
       <c r="M300" s="1"/>
@@ -23214,7 +23687,7 @@
       <c r="AC309" s="1"/>
       <c r="AD309" s="1"/>
     </row>
-    <row r="310" spans="1:30">
+    <row r="310" spans="1:30" ht="14.25">
       <c r="A310" s="1" t="s">
         <v>1347</v>
       </c>
@@ -23254,7 +23727,7 @@
       <c r="AC310" s="1"/>
       <c r="AD310" s="1"/>
     </row>
-    <row r="311" spans="1:30">
+    <row r="311" spans="1:30" ht="14.25">
       <c r="A311" s="1" t="s">
         <v>1351</v>
       </c>
@@ -23334,7 +23807,7 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="1:30">
+    <row r="313" spans="1:30" ht="14.25">
       <c r="A313" s="1" t="s">
         <v>1358</v>
       </c>
@@ -23530,7 +24003,7 @@
       <c r="AC317" s="1"/>
       <c r="AD317" s="1"/>
     </row>
-    <row r="318" spans="1:30">
+    <row r="318" spans="1:30" ht="14.25">
       <c r="A318" s="1" t="s">
         <v>1375</v>
       </c>
@@ -23770,7 +24243,7 @@
       <c r="AC323" s="1"/>
       <c r="AD323" s="1"/>
     </row>
-    <row r="324" spans="1:30">
+    <row r="324" spans="1:30" ht="14.25">
       <c r="A324" s="1" t="s">
         <v>1398</v>
       </c>
@@ -23808,7 +24281,7 @@
       <c r="AC324" s="1"/>
       <c r="AD324" s="1"/>
     </row>
-    <row r="325" spans="1:30">
+    <row r="325" spans="1:30" ht="14.25">
       <c r="A325" s="1" t="s">
         <v>1401</v>
       </c>
@@ -25300,7 +25773,7 @@
       <c r="AC362" s="1"/>
       <c r="AD362" s="1"/>
     </row>
-    <row r="363" spans="1:30">
+    <row r="363" spans="1:30" ht="14.25">
       <c r="A363" s="1" t="s">
         <v>1549</v>
       </c>
@@ -27371,11 +27844,11 @@
     <mergeCell ref="J291:L291"/>
     <mergeCell ref="J292:L292"/>
     <mergeCell ref="J293:L293"/>
-    <mergeCell ref="J294:L294"/>
     <mergeCell ref="J295:L295"/>
     <mergeCell ref="J296:L296"/>
     <mergeCell ref="J297:L297"/>
     <mergeCell ref="J298:L298"/>
+    <mergeCell ref="G294:L294"/>
     <mergeCell ref="J299:L299"/>
     <mergeCell ref="J300:L300"/>
     <mergeCell ref="J301:L301"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="2078">
   <si>
     <t>第３週</t>
   </si>
@@ -11919,6 +11919,597 @@
   </si>
   <si>
     <t>互換性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面白い</t>
+    <rPh sb="0" eb="2">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おもしろい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/イ形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 愉快的。;被吸引的，精彩的，有趣的</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きのうはとてもおもしろかった</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優しい</t>
+    <rPh sb="0" eb="1">
+      <t>ヤサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やさしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/イ形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>详</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，典雅的，温厚的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美的。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優しい物腰</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物腰</t>
+    <rPh sb="0" eb="2">
+      <t>モノゴシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ものごし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>止；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>度</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物腰がしとやかである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嬉しい</t>
+    <rPh sb="0" eb="1">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うれしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/イ形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，快活，喜悦，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>喜</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嬉しい日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>にんき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 人望，人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，声望，受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迎</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気がある</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果物</t>
+    <rPh sb="0" eb="2">
+      <t>クダモノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くだもの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 水果，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">果。 </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果物ナイフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナイフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナイフで突き刺す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】 【英】knife；小刀，餐刀</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器，server</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12400,7 +12991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12538,6 +13129,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12820,8 +13413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="J302" sqref="J302:L302"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23342,12 +23935,14 @@
       </c>
       <c r="E301" s="64"/>
       <c r="F301" s="65"/>
-      <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
-      <c r="J301" s="56"/>
-      <c r="K301" s="57"/>
-      <c r="L301" s="58"/>
+      <c r="G301" s="59">
+        <v>43021</v>
+      </c>
+      <c r="H301" s="60"/>
+      <c r="I301" s="60"/>
+      <c r="J301" s="60"/>
+      <c r="K301" s="60"/>
+      <c r="L301" s="61"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -23382,10 +23977,18 @@
       </c>
       <c r="E302" s="64"/>
       <c r="F302" s="65"/>
-      <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-      <c r="I302" s="1"/>
-      <c r="J302" s="56"/>
+      <c r="G302" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J302" s="56" t="s">
+        <v>2052</v>
+      </c>
       <c r="K302" s="57"/>
       <c r="L302" s="58"/>
       <c r="M302" s="1"/>
@@ -23422,10 +24025,18 @@
       </c>
       <c r="E303" s="64"/>
       <c r="F303" s="65"/>
-      <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
-      <c r="J303" s="56"/>
+      <c r="G303" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="J303" s="56" t="s">
+        <v>2056</v>
+      </c>
       <c r="K303" s="57"/>
       <c r="L303" s="58"/>
       <c r="M303" s="1"/>
@@ -23462,10 +24073,18 @@
       </c>
       <c r="E304" s="64"/>
       <c r="F304" s="65"/>
-      <c r="G304" s="1"/>
-      <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
-      <c r="J304" s="56"/>
+      <c r="G304" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J304" s="56" t="s">
+        <v>2060</v>
+      </c>
       <c r="K304" s="57"/>
       <c r="L304" s="58"/>
       <c r="M304" s="1"/>
@@ -23502,10 +24121,18 @@
       </c>
       <c r="E305" s="64"/>
       <c r="F305" s="65"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="56"/>
+      <c r="G305" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J305" s="56" t="s">
+        <v>2064</v>
+      </c>
       <c r="K305" s="57"/>
       <c r="L305" s="58"/>
       <c r="M305" s="1"/>
@@ -23542,10 +24169,18 @@
       </c>
       <c r="E306" s="64"/>
       <c r="F306" s="65"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="56"/>
+      <c r="G306" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="J306" s="56" t="s">
+        <v>2068</v>
+      </c>
       <c r="K306" s="57"/>
       <c r="L306" s="58"/>
       <c r="M306" s="1"/>
@@ -23582,10 +24217,18 @@
       </c>
       <c r="E307" s="62"/>
       <c r="F307" s="62"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="56"/>
+      <c r="G307" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J307" s="56" t="s">
+        <v>2072</v>
+      </c>
       <c r="K307" s="57"/>
       <c r="L307" s="58"/>
       <c r="M307" s="1"/>
@@ -23622,10 +24265,16 @@
       </c>
       <c r="E308" s="57"/>
       <c r="F308" s="58"/>
-      <c r="G308" s="1"/>
+      <c r="G308" s="1" t="s">
+        <v>2073</v>
+      </c>
       <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
-      <c r="J308" s="56"/>
+      <c r="I308" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="J308" s="56" t="s">
+        <v>2074</v>
+      </c>
       <c r="K308" s="57"/>
       <c r="L308" s="58"/>
       <c r="M308" s="1"/>
@@ -23662,9 +24311,13 @@
       </c>
       <c r="E309" s="57"/>
       <c r="F309" s="58"/>
-      <c r="G309" s="1"/>
+      <c r="G309" s="1" t="s">
+        <v>2076</v>
+      </c>
       <c r="H309" s="1"/>
-      <c r="I309" s="1"/>
+      <c r="I309" s="1" t="s">
+        <v>2077</v>
+      </c>
       <c r="J309" s="56"/>
       <c r="K309" s="57"/>
       <c r="L309" s="58"/>
@@ -24398,7 +25051,7 @@
       <c r="B328" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="49" t="s">
         <v>1409</v>
       </c>
       <c r="D328" s="56" t="s">
@@ -24438,7 +25091,7 @@
       <c r="B329" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="C329" s="50" t="s">
         <v>1413</v>
       </c>
       <c r="D329" s="56" t="s">
@@ -24478,7 +25131,7 @@
       <c r="B330" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="C330" s="19" t="s">
+      <c r="C330" s="50" t="s">
         <v>1417</v>
       </c>
       <c r="D330" s="56" t="s">
@@ -24518,7 +25171,7 @@
       <c r="B331" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="C331" s="19" t="s">
+      <c r="C331" s="50" t="s">
         <v>1421</v>
       </c>
       <c r="D331" s="56" t="s">
@@ -24558,7 +25211,7 @@
       <c r="B332" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="C332" s="20" t="s">
+      <c r="C332" s="79" t="s">
         <v>1425</v>
       </c>
       <c r="D332" s="56" t="s">
@@ -24598,7 +25251,7 @@
       <c r="B333" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C333" s="52" t="s">
+      <c r="C333" s="80" t="s">
         <v>1429</v>
       </c>
       <c r="D333" s="56" t="s">
@@ -24638,7 +25291,7 @@
       <c r="B334" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C334" s="52" t="s">
+      <c r="C334" s="80" t="s">
         <v>1433</v>
       </c>
       <c r="D334" s="56" t="s">
@@ -24678,7 +25331,7 @@
       <c r="B335" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="C335" s="20" t="s">
+      <c r="C335" s="79" t="s">
         <v>1437</v>
       </c>
       <c r="D335" s="56" t="s">
@@ -27851,13 +28504,13 @@
     <mergeCell ref="G294:L294"/>
     <mergeCell ref="J299:L299"/>
     <mergeCell ref="J300:L300"/>
-    <mergeCell ref="J301:L301"/>
     <mergeCell ref="J302:L302"/>
     <mergeCell ref="J303:L303"/>
     <mergeCell ref="J304:L304"/>
     <mergeCell ref="J305:L305"/>
     <mergeCell ref="J306:L306"/>
     <mergeCell ref="J307:L307"/>
+    <mergeCell ref="G301:L301"/>
     <mergeCell ref="J308:L308"/>
     <mergeCell ref="J309:L309"/>
     <mergeCell ref="J310:L310"/>

--- a/日本語単語.xlsx
+++ b/日本語単語.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="2379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="2468">
   <si>
     <t>第３週</t>
   </si>
@@ -502,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1810,7 +1810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1838,7 +1838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,7 +1859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1870,7 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,7 +1880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1905,7 +1905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1968,7 +1968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,7 +2023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2199,7 +2199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2209,7 +2209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2220,7 +2220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2290,7 +2290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2411,7 +2411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2432,7 +2432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2457,7 +2457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2468,7 +2468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2537,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2664,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2719,7 +2719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2765,7 +2765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2919,7 +2919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3067,7 +3067,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3078,7 +3078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3112,7 +3112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3154,7 +3154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3192,7 +3192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3203,7 +3203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3306,7 +3306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3416,7 +3416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3427,7 +3427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,7 +3982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3993,7 +3993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4014,7 +4014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5031,7 +5031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5140,7 +5140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5168,7 +5168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5196,7 +5196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5239,7 +5239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5434,7 +5434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5477,7 +5477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5494,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5578,7 +5578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6600,7 +6600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6611,7 +6611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6632,7 +6632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6642,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6653,7 +6653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6663,7 +6663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6674,7 +6674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6705,7 +6705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6716,7 +6716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6726,7 +6726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6737,7 +6737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6747,7 +6747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6758,7 +6758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6768,7 +6768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6793,7 +6793,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6804,7 +6804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6814,7 +6814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6825,7 +6825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6835,7 +6835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6846,7 +6846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6870,7 +6870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -6881,7 +6881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6891,7 +6891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8008,7 +8008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8019,7 +8019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8096,7 +8096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8107,7 +8107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8117,7 +8117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8128,7 +8128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8138,7 +8138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8149,7 +8149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8159,7 +8159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8191,7 +8191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8202,7 +8202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8212,7 +8212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8223,7 +8223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8233,7 +8233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8244,7 +8244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8271,7 +8271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8282,7 +8282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8292,7 +8292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8303,7 +8303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8313,7 +8313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8324,7 +8324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8334,7 +8334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8345,7 +8345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8369,7 +8369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8380,7 +8380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8407,7 +8407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8418,7 +8418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8428,7 +8428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8439,7 +8439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8449,7 +8449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8460,7 +8460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8470,7 +8470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8481,7 +8481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8491,7 +8491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8502,7 +8502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8512,7 +8512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8537,7 +8537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8548,7 +8548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8591,7 +8591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8602,7 +8602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8612,7 +8612,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8623,7 +8623,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8633,7 +8633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8644,7 +8644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8654,7 +8654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8665,7 +8665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8675,7 +8675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8696,7 +8696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8707,7 +8707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8717,7 +8717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8728,7 +8728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8738,7 +8738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8749,7 +8749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -8807,7 +8807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -8818,7 +8818,7 @@
       <rPr>
     